--- a/Sample_Project/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書(画面)_WA10101_認証.xlsx
+++ b/Sample_Project/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書(画面)_WA10101_認証.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5EF792-ABB5-4CA1-A10D-B44690E35575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7834CC1B-F5A2-4962-BB62-C4C882E471D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="724" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11935,8 +11935,89 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="31" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="17" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -12046,84 +12127,6 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="17" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -12135,9 +12138,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -12678,23 +12678,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>35718</xdr:colOff>
+      <xdr:colOff>575468</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1">
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86842EE6-4126-4337-BF1D-391BCCA64E8B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDA48392-20F5-4D23-8DED-914A72F8D850}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12702,8 +12702,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2743200" y="1838325"/>
-          <a:ext cx="10922793" cy="3209924"/>
+          <a:off x="3270250" y="1689100"/>
+          <a:ext cx="10900568" cy="3140074"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12731,13 +12731,18 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>@AssertTrue</a:t>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>クラス単体テストで確認が必要な観点なし。机上確認と取引単体テストで品質担保する。</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>によるバリデーションなど、クラス単体で確認が必要な処理なし</a:t>
-          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -12804,7 +12809,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
-            <a:t>ログアウト機能に適合する観点がないため、ログアウト機能は取引単体テストのみでテストを行う。</a:t>
+            <a:t>適合する観点がないため、取引単体テストのみでテストを行う。</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -13160,12 +13165,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="254" t="str">
+      <c r="I25" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v/>
       </c>
-      <c r="J25" s="254"/>
-      <c r="K25" s="254"/>
+      <c r="J25" s="255"/>
+      <c r="K25" s="255"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1">
       <c r="F26" s="5"/>
@@ -13725,51 +13730,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="261" t="s">
+      <c r="A1" s="288" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="262"/>
-      <c r="C1" s="262"/>
-      <c r="D1" s="263"/>
-      <c r="E1" s="264" t="s">
+      <c r="B1" s="289"/>
+      <c r="C1" s="289"/>
+      <c r="D1" s="290"/>
+      <c r="E1" s="291" t="s">
         <v>561</v>
       </c>
-      <c r="F1" s="265"/>
-      <c r="G1" s="265"/>
-      <c r="H1" s="265"/>
-      <c r="I1" s="265"/>
-      <c r="J1" s="265"/>
-      <c r="K1" s="265"/>
-      <c r="L1" s="265"/>
-      <c r="M1" s="265"/>
-      <c r="N1" s="266"/>
-      <c r="O1" s="270" t="s">
+      <c r="F1" s="292"/>
+      <c r="G1" s="292"/>
+      <c r="H1" s="292"/>
+      <c r="I1" s="292"/>
+      <c r="J1" s="292"/>
+      <c r="K1" s="292"/>
+      <c r="L1" s="292"/>
+      <c r="M1" s="292"/>
+      <c r="N1" s="293"/>
+      <c r="O1" s="297" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="271"/>
-      <c r="Q1" s="271"/>
-      <c r="R1" s="272"/>
-      <c r="S1" s="279" t="s">
+      <c r="P1" s="298"/>
+      <c r="Q1" s="298"/>
+      <c r="R1" s="299"/>
+      <c r="S1" s="306" t="s">
         <v>792</v>
       </c>
-      <c r="T1" s="280"/>
-      <c r="U1" s="280"/>
-      <c r="V1" s="280"/>
-      <c r="W1" s="280"/>
-      <c r="X1" s="280"/>
-      <c r="Y1" s="280"/>
-      <c r="Z1" s="281"/>
-      <c r="AA1" s="261" t="s">
+      <c r="T1" s="307"/>
+      <c r="U1" s="307"/>
+      <c r="V1" s="307"/>
+      <c r="W1" s="307"/>
+      <c r="X1" s="307"/>
+      <c r="Y1" s="307"/>
+      <c r="Z1" s="308"/>
+      <c r="AA1" s="288" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="263"/>
-      <c r="AC1" s="288"/>
-      <c r="AD1" s="289"/>
-      <c r="AE1" s="289"/>
-      <c r="AF1" s="290"/>
-      <c r="AG1" s="255"/>
-      <c r="AH1" s="256"/>
-      <c r="AI1" s="257"/>
+      <c r="AB1" s="290"/>
+      <c r="AC1" s="315"/>
+      <c r="AD1" s="316"/>
+      <c r="AE1" s="316"/>
+      <c r="AF1" s="317"/>
+      <c r="AG1" s="282"/>
+      <c r="AH1" s="283"/>
+      <c r="AI1" s="284"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -13777,53 +13782,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="261" t="s">
+      <c r="A2" s="288" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="262"/>
-      <c r="C2" s="262"/>
-      <c r="D2" s="263"/>
-      <c r="E2" s="264" t="s">
+      <c r="B2" s="289"/>
+      <c r="C2" s="289"/>
+      <c r="D2" s="290"/>
+      <c r="E2" s="291" t="s">
         <v>614</v>
       </c>
-      <c r="F2" s="265"/>
-      <c r="G2" s="265"/>
-      <c r="H2" s="265"/>
-      <c r="I2" s="265"/>
-      <c r="J2" s="265"/>
-      <c r="K2" s="265"/>
-      <c r="L2" s="265"/>
-      <c r="M2" s="265"/>
-      <c r="N2" s="266"/>
-      <c r="O2" s="273"/>
-      <c r="P2" s="274"/>
-      <c r="Q2" s="274"/>
-      <c r="R2" s="275"/>
-      <c r="S2" s="282"/>
-      <c r="T2" s="283"/>
-      <c r="U2" s="283"/>
-      <c r="V2" s="283"/>
-      <c r="W2" s="283"/>
-      <c r="X2" s="283"/>
-      <c r="Y2" s="283"/>
-      <c r="Z2" s="284"/>
-      <c r="AA2" s="261" t="s">
+      <c r="F2" s="292"/>
+      <c r="G2" s="292"/>
+      <c r="H2" s="292"/>
+      <c r="I2" s="292"/>
+      <c r="J2" s="292"/>
+      <c r="K2" s="292"/>
+      <c r="L2" s="292"/>
+      <c r="M2" s="292"/>
+      <c r="N2" s="293"/>
+      <c r="O2" s="300"/>
+      <c r="P2" s="301"/>
+      <c r="Q2" s="301"/>
+      <c r="R2" s="302"/>
+      <c r="S2" s="309"/>
+      <c r="T2" s="310"/>
+      <c r="U2" s="310"/>
+      <c r="V2" s="310"/>
+      <c r="W2" s="310"/>
+      <c r="X2" s="310"/>
+      <c r="Y2" s="310"/>
+      <c r="Z2" s="311"/>
+      <c r="AA2" s="288" t="s">
         <v>23</v>
       </c>
-      <c r="AB2" s="263"/>
-      <c r="AC2" s="267" t="str">
+      <c r="AB2" s="290"/>
+      <c r="AC2" s="294" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="268"/>
-      <c r="AE2" s="268"/>
-      <c r="AF2" s="269"/>
-      <c r="AG2" s="255" t="str">
+      <c r="AD2" s="295"/>
+      <c r="AE2" s="295"/>
+      <c r="AF2" s="296"/>
+      <c r="AG2" s="282" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="256"/>
-      <c r="AI2" s="257"/>
+      <c r="AH2" s="283"/>
+      <c r="AI2" s="284"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -13831,45 +13836,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="261" t="s">
+      <c r="A3" s="288" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="262"/>
-      <c r="C3" s="262"/>
-      <c r="D3" s="263"/>
-      <c r="E3" s="264" t="s">
+      <c r="B3" s="289"/>
+      <c r="C3" s="289"/>
+      <c r="D3" s="290"/>
+      <c r="E3" s="291" t="s">
         <v>615</v>
       </c>
-      <c r="F3" s="265"/>
-      <c r="G3" s="265"/>
-      <c r="H3" s="265"/>
-      <c r="I3" s="265"/>
-      <c r="J3" s="265"/>
-      <c r="K3" s="265"/>
-      <c r="L3" s="265"/>
-      <c r="M3" s="265"/>
-      <c r="N3" s="266"/>
-      <c r="O3" s="276"/>
-      <c r="P3" s="277"/>
-      <c r="Q3" s="277"/>
-      <c r="R3" s="278"/>
-      <c r="S3" s="285"/>
-      <c r="T3" s="286"/>
-      <c r="U3" s="286"/>
-      <c r="V3" s="286"/>
-      <c r="W3" s="286"/>
-      <c r="X3" s="286"/>
-      <c r="Y3" s="286"/>
-      <c r="Z3" s="287"/>
-      <c r="AA3" s="261"/>
-      <c r="AB3" s="263"/>
-      <c r="AC3" s="288"/>
-      <c r="AD3" s="289"/>
-      <c r="AE3" s="289"/>
-      <c r="AF3" s="290"/>
-      <c r="AG3" s="255"/>
-      <c r="AH3" s="256"/>
-      <c r="AI3" s="257"/>
+      <c r="F3" s="292"/>
+      <c r="G3" s="292"/>
+      <c r="H3" s="292"/>
+      <c r="I3" s="292"/>
+      <c r="J3" s="292"/>
+      <c r="K3" s="292"/>
+      <c r="L3" s="292"/>
+      <c r="M3" s="292"/>
+      <c r="N3" s="293"/>
+      <c r="O3" s="303"/>
+      <c r="P3" s="304"/>
+      <c r="Q3" s="304"/>
+      <c r="R3" s="305"/>
+      <c r="S3" s="312"/>
+      <c r="T3" s="313"/>
+      <c r="U3" s="313"/>
+      <c r="V3" s="313"/>
+      <c r="W3" s="313"/>
+      <c r="X3" s="313"/>
+      <c r="Y3" s="313"/>
+      <c r="Z3" s="314"/>
+      <c r="AA3" s="288"/>
+      <c r="AB3" s="290"/>
+      <c r="AC3" s="315"/>
+      <c r="AD3" s="316"/>
+      <c r="AE3" s="316"/>
+      <c r="AF3" s="317"/>
+      <c r="AG3" s="282"/>
+      <c r="AH3" s="283"/>
+      <c r="AI3" s="284"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -13906,1176 +13911,1020 @@
       <c r="A7" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="258" t="s">
+      <c r="B7" s="285" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="259"/>
-      <c r="D7" s="258" t="s">
+      <c r="C7" s="286"/>
+      <c r="D7" s="285" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="260"/>
-      <c r="F7" s="259"/>
-      <c r="G7" s="258" t="s">
+      <c r="E7" s="287"/>
+      <c r="F7" s="286"/>
+      <c r="G7" s="285" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="260"/>
-      <c r="I7" s="259"/>
-      <c r="J7" s="258" t="s">
+      <c r="H7" s="287"/>
+      <c r="I7" s="286"/>
+      <c r="J7" s="285" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="260"/>
-      <c r="L7" s="260"/>
-      <c r="M7" s="260"/>
-      <c r="N7" s="260"/>
-      <c r="O7" s="260"/>
-      <c r="P7" s="259"/>
-      <c r="Q7" s="258" t="s">
+      <c r="K7" s="287"/>
+      <c r="L7" s="287"/>
+      <c r="M7" s="287"/>
+      <c r="N7" s="287"/>
+      <c r="O7" s="287"/>
+      <c r="P7" s="286"/>
+      <c r="Q7" s="285" t="s">
         <v>30</v>
       </c>
-      <c r="R7" s="260"/>
-      <c r="S7" s="260"/>
-      <c r="T7" s="260"/>
-      <c r="U7" s="260"/>
-      <c r="V7" s="260"/>
-      <c r="W7" s="260"/>
-      <c r="X7" s="260"/>
-      <c r="Y7" s="260"/>
-      <c r="Z7" s="260"/>
-      <c r="AA7" s="260"/>
-      <c r="AB7" s="260"/>
-      <c r="AC7" s="260"/>
-      <c r="AD7" s="260"/>
-      <c r="AE7" s="259"/>
-      <c r="AF7" s="258" t="s">
+      <c r="R7" s="287"/>
+      <c r="S7" s="287"/>
+      <c r="T7" s="287"/>
+      <c r="U7" s="287"/>
+      <c r="V7" s="287"/>
+      <c r="W7" s="287"/>
+      <c r="X7" s="287"/>
+      <c r="Y7" s="287"/>
+      <c r="Z7" s="287"/>
+      <c r="AA7" s="287"/>
+      <c r="AB7" s="287"/>
+      <c r="AC7" s="287"/>
+      <c r="AD7" s="287"/>
+      <c r="AE7" s="286"/>
+      <c r="AF7" s="285" t="s">
         <v>31</v>
       </c>
-      <c r="AG7" s="260"/>
-      <c r="AH7" s="260"/>
-      <c r="AI7" s="259"/>
+      <c r="AG7" s="287"/>
+      <c r="AH7" s="287"/>
+      <c r="AI7" s="286"/>
     </row>
     <row r="8" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="20"/>
-      <c r="B8" s="303"/>
-      <c r="C8" s="304"/>
-      <c r="D8" s="305"/>
-      <c r="E8" s="306"/>
-      <c r="F8" s="307"/>
-      <c r="G8" s="308"/>
-      <c r="H8" s="309"/>
-      <c r="I8" s="304"/>
-      <c r="J8" s="310"/>
-      <c r="K8" s="311"/>
-      <c r="L8" s="311"/>
-      <c r="M8" s="311"/>
-      <c r="N8" s="311"/>
-      <c r="O8" s="311"/>
-      <c r="P8" s="312"/>
-      <c r="Q8" s="313"/>
-      <c r="R8" s="314"/>
-      <c r="S8" s="314"/>
-      <c r="T8" s="314"/>
-      <c r="U8" s="314"/>
-      <c r="V8" s="314"/>
-      <c r="W8" s="314"/>
-      <c r="X8" s="314"/>
-      <c r="Y8" s="314"/>
-      <c r="Z8" s="314"/>
-      <c r="AA8" s="314"/>
-      <c r="AB8" s="314"/>
-      <c r="AC8" s="314"/>
-      <c r="AD8" s="314"/>
-      <c r="AE8" s="315"/>
-      <c r="AF8" s="310"/>
-      <c r="AG8" s="311"/>
-      <c r="AH8" s="311"/>
-      <c r="AI8" s="312"/>
+      <c r="B8" s="269"/>
+      <c r="C8" s="270"/>
+      <c r="D8" s="271"/>
+      <c r="E8" s="272"/>
+      <c r="F8" s="273"/>
+      <c r="G8" s="274"/>
+      <c r="H8" s="275"/>
+      <c r="I8" s="270"/>
+      <c r="J8" s="276"/>
+      <c r="K8" s="277"/>
+      <c r="L8" s="277"/>
+      <c r="M8" s="277"/>
+      <c r="N8" s="277"/>
+      <c r="O8" s="277"/>
+      <c r="P8" s="278"/>
+      <c r="Q8" s="279"/>
+      <c r="R8" s="280"/>
+      <c r="S8" s="280"/>
+      <c r="T8" s="280"/>
+      <c r="U8" s="280"/>
+      <c r="V8" s="280"/>
+      <c r="W8" s="280"/>
+      <c r="X8" s="280"/>
+      <c r="Y8" s="280"/>
+      <c r="Z8" s="280"/>
+      <c r="AA8" s="280"/>
+      <c r="AB8" s="280"/>
+      <c r="AC8" s="280"/>
+      <c r="AD8" s="280"/>
+      <c r="AE8" s="281"/>
+      <c r="AF8" s="276"/>
+      <c r="AG8" s="277"/>
+      <c r="AH8" s="277"/>
+      <c r="AI8" s="278"/>
     </row>
     <row r="9" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="21"/>
-      <c r="B9" s="291"/>
-      <c r="C9" s="292"/>
-      <c r="D9" s="293"/>
-      <c r="E9" s="294"/>
-      <c r="F9" s="295"/>
-      <c r="G9" s="293"/>
-      <c r="H9" s="296"/>
-      <c r="I9" s="292"/>
-      <c r="J9" s="297"/>
-      <c r="K9" s="298"/>
-      <c r="L9" s="298"/>
-      <c r="M9" s="298"/>
-      <c r="N9" s="298"/>
-      <c r="O9" s="298"/>
-      <c r="P9" s="299"/>
-      <c r="Q9" s="300"/>
-      <c r="R9" s="301"/>
-      <c r="S9" s="301"/>
-      <c r="T9" s="301"/>
-      <c r="U9" s="301"/>
-      <c r="V9" s="301"/>
-      <c r="W9" s="301"/>
-      <c r="X9" s="301"/>
-      <c r="Y9" s="301"/>
-      <c r="Z9" s="301"/>
-      <c r="AA9" s="301"/>
-      <c r="AB9" s="301"/>
-      <c r="AC9" s="301"/>
-      <c r="AD9" s="301"/>
-      <c r="AE9" s="302"/>
-      <c r="AF9" s="297"/>
-      <c r="AG9" s="298"/>
-      <c r="AH9" s="298"/>
-      <c r="AI9" s="299"/>
+      <c r="B9" s="256"/>
+      <c r="C9" s="257"/>
+      <c r="D9" s="258"/>
+      <c r="E9" s="259"/>
+      <c r="F9" s="260"/>
+      <c r="G9" s="258"/>
+      <c r="H9" s="261"/>
+      <c r="I9" s="257"/>
+      <c r="J9" s="262"/>
+      <c r="K9" s="263"/>
+      <c r="L9" s="263"/>
+      <c r="M9" s="263"/>
+      <c r="N9" s="263"/>
+      <c r="O9" s="263"/>
+      <c r="P9" s="264"/>
+      <c r="Q9" s="265"/>
+      <c r="R9" s="266"/>
+      <c r="S9" s="266"/>
+      <c r="T9" s="266"/>
+      <c r="U9" s="266"/>
+      <c r="V9" s="266"/>
+      <c r="W9" s="266"/>
+      <c r="X9" s="266"/>
+      <c r="Y9" s="266"/>
+      <c r="Z9" s="266"/>
+      <c r="AA9" s="266"/>
+      <c r="AB9" s="266"/>
+      <c r="AC9" s="266"/>
+      <c r="AD9" s="266"/>
+      <c r="AE9" s="267"/>
+      <c r="AF9" s="262"/>
+      <c r="AG9" s="263"/>
+      <c r="AH9" s="263"/>
+      <c r="AI9" s="264"/>
     </row>
     <row r="10" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="21"/>
-      <c r="B10" s="291"/>
-      <c r="C10" s="292"/>
-      <c r="D10" s="293"/>
-      <c r="E10" s="294"/>
-      <c r="F10" s="295"/>
-      <c r="G10" s="291"/>
-      <c r="H10" s="296"/>
-      <c r="I10" s="292"/>
-      <c r="J10" s="297"/>
-      <c r="K10" s="298"/>
-      <c r="L10" s="298"/>
-      <c r="M10" s="298"/>
-      <c r="N10" s="298"/>
-      <c r="O10" s="298"/>
-      <c r="P10" s="299"/>
-      <c r="Q10" s="300"/>
-      <c r="R10" s="301"/>
-      <c r="S10" s="301"/>
-      <c r="T10" s="301"/>
-      <c r="U10" s="301"/>
-      <c r="V10" s="301"/>
-      <c r="W10" s="301"/>
-      <c r="X10" s="301"/>
-      <c r="Y10" s="301"/>
-      <c r="Z10" s="301"/>
-      <c r="AA10" s="301"/>
-      <c r="AB10" s="301"/>
-      <c r="AC10" s="301"/>
-      <c r="AD10" s="301"/>
-      <c r="AE10" s="302"/>
-      <c r="AF10" s="297"/>
-      <c r="AG10" s="298"/>
-      <c r="AH10" s="298"/>
-      <c r="AI10" s="299"/>
+      <c r="B10" s="256"/>
+      <c r="C10" s="257"/>
+      <c r="D10" s="258"/>
+      <c r="E10" s="259"/>
+      <c r="F10" s="260"/>
+      <c r="G10" s="256"/>
+      <c r="H10" s="261"/>
+      <c r="I10" s="257"/>
+      <c r="J10" s="262"/>
+      <c r="K10" s="263"/>
+      <c r="L10" s="263"/>
+      <c r="M10" s="263"/>
+      <c r="N10" s="263"/>
+      <c r="O10" s="263"/>
+      <c r="P10" s="264"/>
+      <c r="Q10" s="265"/>
+      <c r="R10" s="266"/>
+      <c r="S10" s="266"/>
+      <c r="T10" s="266"/>
+      <c r="U10" s="266"/>
+      <c r="V10" s="266"/>
+      <c r="W10" s="266"/>
+      <c r="X10" s="266"/>
+      <c r="Y10" s="266"/>
+      <c r="Z10" s="266"/>
+      <c r="AA10" s="266"/>
+      <c r="AB10" s="266"/>
+      <c r="AC10" s="266"/>
+      <c r="AD10" s="266"/>
+      <c r="AE10" s="267"/>
+      <c r="AF10" s="262"/>
+      <c r="AG10" s="263"/>
+      <c r="AH10" s="263"/>
+      <c r="AI10" s="264"/>
     </row>
     <row r="11" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="21"/>
-      <c r="B11" s="291"/>
-      <c r="C11" s="292"/>
-      <c r="D11" s="293"/>
-      <c r="E11" s="294"/>
-      <c r="F11" s="295"/>
-      <c r="G11" s="291"/>
-      <c r="H11" s="296"/>
-      <c r="I11" s="292"/>
-      <c r="J11" s="297"/>
-      <c r="K11" s="298"/>
-      <c r="L11" s="298"/>
-      <c r="M11" s="298"/>
-      <c r="N11" s="298"/>
-      <c r="O11" s="298"/>
-      <c r="P11" s="299"/>
-      <c r="Q11" s="300"/>
-      <c r="R11" s="301"/>
-      <c r="S11" s="301"/>
-      <c r="T11" s="301"/>
-      <c r="U11" s="301"/>
-      <c r="V11" s="301"/>
-      <c r="W11" s="301"/>
-      <c r="X11" s="301"/>
-      <c r="Y11" s="301"/>
-      <c r="Z11" s="301"/>
-      <c r="AA11" s="301"/>
-      <c r="AB11" s="301"/>
-      <c r="AC11" s="301"/>
-      <c r="AD11" s="301"/>
-      <c r="AE11" s="302"/>
-      <c r="AF11" s="297"/>
-      <c r="AG11" s="298"/>
-      <c r="AH11" s="298"/>
-      <c r="AI11" s="299"/>
+      <c r="B11" s="256"/>
+      <c r="C11" s="257"/>
+      <c r="D11" s="258"/>
+      <c r="E11" s="259"/>
+      <c r="F11" s="260"/>
+      <c r="G11" s="256"/>
+      <c r="H11" s="261"/>
+      <c r="I11" s="257"/>
+      <c r="J11" s="262"/>
+      <c r="K11" s="263"/>
+      <c r="L11" s="263"/>
+      <c r="M11" s="263"/>
+      <c r="N11" s="263"/>
+      <c r="O11" s="263"/>
+      <c r="P11" s="264"/>
+      <c r="Q11" s="265"/>
+      <c r="R11" s="266"/>
+      <c r="S11" s="266"/>
+      <c r="T11" s="266"/>
+      <c r="U11" s="266"/>
+      <c r="V11" s="266"/>
+      <c r="W11" s="266"/>
+      <c r="X11" s="266"/>
+      <c r="Y11" s="266"/>
+      <c r="Z11" s="266"/>
+      <c r="AA11" s="266"/>
+      <c r="AB11" s="266"/>
+      <c r="AC11" s="266"/>
+      <c r="AD11" s="266"/>
+      <c r="AE11" s="267"/>
+      <c r="AF11" s="262"/>
+      <c r="AG11" s="263"/>
+      <c r="AH11" s="263"/>
+      <c r="AI11" s="264"/>
     </row>
     <row r="12" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="21"/>
-      <c r="B12" s="291"/>
-      <c r="C12" s="292"/>
-      <c r="D12" s="293"/>
-      <c r="E12" s="294"/>
-      <c r="F12" s="295"/>
-      <c r="G12" s="291"/>
-      <c r="H12" s="296"/>
-      <c r="I12" s="292"/>
-      <c r="J12" s="297"/>
-      <c r="K12" s="298"/>
-      <c r="L12" s="298"/>
-      <c r="M12" s="298"/>
-      <c r="N12" s="298"/>
-      <c r="O12" s="298"/>
-      <c r="P12" s="299"/>
-      <c r="Q12" s="300"/>
-      <c r="R12" s="301"/>
-      <c r="S12" s="301"/>
-      <c r="T12" s="301"/>
-      <c r="U12" s="301"/>
-      <c r="V12" s="301"/>
-      <c r="W12" s="301"/>
-      <c r="X12" s="301"/>
-      <c r="Y12" s="301"/>
-      <c r="Z12" s="301"/>
-      <c r="AA12" s="301"/>
-      <c r="AB12" s="301"/>
-      <c r="AC12" s="301"/>
-      <c r="AD12" s="301"/>
-      <c r="AE12" s="302"/>
-      <c r="AF12" s="297"/>
-      <c r="AG12" s="298"/>
-      <c r="AH12" s="298"/>
-      <c r="AI12" s="299"/>
+      <c r="B12" s="256"/>
+      <c r="C12" s="257"/>
+      <c r="D12" s="258"/>
+      <c r="E12" s="259"/>
+      <c r="F12" s="260"/>
+      <c r="G12" s="256"/>
+      <c r="H12" s="261"/>
+      <c r="I12" s="257"/>
+      <c r="J12" s="262"/>
+      <c r="K12" s="263"/>
+      <c r="L12" s="263"/>
+      <c r="M12" s="263"/>
+      <c r="N12" s="263"/>
+      <c r="O12" s="263"/>
+      <c r="P12" s="264"/>
+      <c r="Q12" s="265"/>
+      <c r="R12" s="266"/>
+      <c r="S12" s="266"/>
+      <c r="T12" s="266"/>
+      <c r="U12" s="266"/>
+      <c r="V12" s="266"/>
+      <c r="W12" s="266"/>
+      <c r="X12" s="266"/>
+      <c r="Y12" s="266"/>
+      <c r="Z12" s="266"/>
+      <c r="AA12" s="266"/>
+      <c r="AB12" s="266"/>
+      <c r="AC12" s="266"/>
+      <c r="AD12" s="266"/>
+      <c r="AE12" s="267"/>
+      <c r="AF12" s="262"/>
+      <c r="AG12" s="263"/>
+      <c r="AH12" s="263"/>
+      <c r="AI12" s="264"/>
     </row>
     <row r="13" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="21"/>
-      <c r="B13" s="291"/>
-      <c r="C13" s="292"/>
-      <c r="D13" s="293"/>
-      <c r="E13" s="294"/>
-      <c r="F13" s="295"/>
-      <c r="G13" s="291"/>
-      <c r="H13" s="296"/>
-      <c r="I13" s="292"/>
-      <c r="J13" s="297"/>
-      <c r="K13" s="298"/>
-      <c r="L13" s="298"/>
-      <c r="M13" s="298"/>
-      <c r="N13" s="298"/>
-      <c r="O13" s="298"/>
-      <c r="P13" s="299"/>
-      <c r="Q13" s="300"/>
-      <c r="R13" s="301"/>
-      <c r="S13" s="301"/>
-      <c r="T13" s="301"/>
-      <c r="U13" s="301"/>
-      <c r="V13" s="301"/>
-      <c r="W13" s="301"/>
-      <c r="X13" s="301"/>
-      <c r="Y13" s="301"/>
-      <c r="Z13" s="301"/>
-      <c r="AA13" s="301"/>
-      <c r="AB13" s="301"/>
-      <c r="AC13" s="301"/>
-      <c r="AD13" s="301"/>
-      <c r="AE13" s="302"/>
-      <c r="AF13" s="297"/>
-      <c r="AG13" s="298"/>
-      <c r="AH13" s="298"/>
-      <c r="AI13" s="299"/>
+      <c r="B13" s="256"/>
+      <c r="C13" s="257"/>
+      <c r="D13" s="258"/>
+      <c r="E13" s="259"/>
+      <c r="F13" s="260"/>
+      <c r="G13" s="256"/>
+      <c r="H13" s="261"/>
+      <c r="I13" s="257"/>
+      <c r="J13" s="262"/>
+      <c r="K13" s="263"/>
+      <c r="L13" s="263"/>
+      <c r="M13" s="263"/>
+      <c r="N13" s="263"/>
+      <c r="O13" s="263"/>
+      <c r="P13" s="264"/>
+      <c r="Q13" s="265"/>
+      <c r="R13" s="266"/>
+      <c r="S13" s="266"/>
+      <c r="T13" s="266"/>
+      <c r="U13" s="266"/>
+      <c r="V13" s="266"/>
+      <c r="W13" s="266"/>
+      <c r="X13" s="266"/>
+      <c r="Y13" s="266"/>
+      <c r="Z13" s="266"/>
+      <c r="AA13" s="266"/>
+      <c r="AB13" s="266"/>
+      <c r="AC13" s="266"/>
+      <c r="AD13" s="266"/>
+      <c r="AE13" s="267"/>
+      <c r="AF13" s="262"/>
+      <c r="AG13" s="263"/>
+      <c r="AH13" s="263"/>
+      <c r="AI13" s="264"/>
     </row>
     <row r="14" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="21"/>
-      <c r="B14" s="291"/>
-      <c r="C14" s="292"/>
-      <c r="D14" s="293"/>
-      <c r="E14" s="294"/>
-      <c r="F14" s="295"/>
-      <c r="G14" s="291"/>
-      <c r="H14" s="296"/>
-      <c r="I14" s="292"/>
-      <c r="J14" s="297"/>
-      <c r="K14" s="298"/>
-      <c r="L14" s="298"/>
-      <c r="M14" s="298"/>
-      <c r="N14" s="298"/>
-      <c r="O14" s="298"/>
-      <c r="P14" s="299"/>
-      <c r="Q14" s="300"/>
-      <c r="R14" s="301"/>
-      <c r="S14" s="301"/>
-      <c r="T14" s="301"/>
-      <c r="U14" s="301"/>
-      <c r="V14" s="301"/>
-      <c r="W14" s="301"/>
-      <c r="X14" s="301"/>
-      <c r="Y14" s="301"/>
-      <c r="Z14" s="301"/>
-      <c r="AA14" s="301"/>
-      <c r="AB14" s="301"/>
-      <c r="AC14" s="301"/>
-      <c r="AD14" s="301"/>
-      <c r="AE14" s="302"/>
-      <c r="AF14" s="297"/>
-      <c r="AG14" s="298"/>
-      <c r="AH14" s="298"/>
-      <c r="AI14" s="299"/>
+      <c r="B14" s="256"/>
+      <c r="C14" s="257"/>
+      <c r="D14" s="258"/>
+      <c r="E14" s="259"/>
+      <c r="F14" s="260"/>
+      <c r="G14" s="256"/>
+      <c r="H14" s="261"/>
+      <c r="I14" s="257"/>
+      <c r="J14" s="262"/>
+      <c r="K14" s="263"/>
+      <c r="L14" s="263"/>
+      <c r="M14" s="263"/>
+      <c r="N14" s="263"/>
+      <c r="O14" s="263"/>
+      <c r="P14" s="264"/>
+      <c r="Q14" s="265"/>
+      <c r="R14" s="266"/>
+      <c r="S14" s="266"/>
+      <c r="T14" s="266"/>
+      <c r="U14" s="266"/>
+      <c r="V14" s="266"/>
+      <c r="W14" s="266"/>
+      <c r="X14" s="266"/>
+      <c r="Y14" s="266"/>
+      <c r="Z14" s="266"/>
+      <c r="AA14" s="266"/>
+      <c r="AB14" s="266"/>
+      <c r="AC14" s="266"/>
+      <c r="AD14" s="266"/>
+      <c r="AE14" s="267"/>
+      <c r="AF14" s="262"/>
+      <c r="AG14" s="263"/>
+      <c r="AH14" s="263"/>
+      <c r="AI14" s="264"/>
     </row>
     <row r="15" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="291"/>
-      <c r="C15" s="292"/>
-      <c r="D15" s="293"/>
-      <c r="E15" s="294"/>
-      <c r="F15" s="295"/>
-      <c r="G15" s="291"/>
-      <c r="H15" s="296"/>
-      <c r="I15" s="292"/>
-      <c r="J15" s="297"/>
-      <c r="K15" s="298"/>
-      <c r="L15" s="298"/>
-      <c r="M15" s="298"/>
-      <c r="N15" s="298"/>
-      <c r="O15" s="298"/>
-      <c r="P15" s="299"/>
-      <c r="Q15" s="300"/>
-      <c r="R15" s="301"/>
-      <c r="S15" s="301"/>
-      <c r="T15" s="301"/>
-      <c r="U15" s="301"/>
-      <c r="V15" s="301"/>
-      <c r="W15" s="301"/>
-      <c r="X15" s="301"/>
-      <c r="Y15" s="301"/>
-      <c r="Z15" s="301"/>
-      <c r="AA15" s="301"/>
-      <c r="AB15" s="301"/>
-      <c r="AC15" s="301"/>
-      <c r="AD15" s="301"/>
-      <c r="AE15" s="302"/>
-      <c r="AF15" s="297"/>
-      <c r="AG15" s="298"/>
-      <c r="AH15" s="298"/>
-      <c r="AI15" s="299"/>
+      <c r="B15" s="256"/>
+      <c r="C15" s="257"/>
+      <c r="D15" s="258"/>
+      <c r="E15" s="259"/>
+      <c r="F15" s="260"/>
+      <c r="G15" s="256"/>
+      <c r="H15" s="261"/>
+      <c r="I15" s="257"/>
+      <c r="J15" s="262"/>
+      <c r="K15" s="263"/>
+      <c r="L15" s="263"/>
+      <c r="M15" s="263"/>
+      <c r="N15" s="263"/>
+      <c r="O15" s="263"/>
+      <c r="P15" s="264"/>
+      <c r="Q15" s="265"/>
+      <c r="R15" s="266"/>
+      <c r="S15" s="266"/>
+      <c r="T15" s="266"/>
+      <c r="U15" s="266"/>
+      <c r="V15" s="266"/>
+      <c r="W15" s="266"/>
+      <c r="X15" s="266"/>
+      <c r="Y15" s="266"/>
+      <c r="Z15" s="266"/>
+      <c r="AA15" s="266"/>
+      <c r="AB15" s="266"/>
+      <c r="AC15" s="266"/>
+      <c r="AD15" s="266"/>
+      <c r="AE15" s="267"/>
+      <c r="AF15" s="262"/>
+      <c r="AG15" s="263"/>
+      <c r="AH15" s="263"/>
+      <c r="AI15" s="264"/>
     </row>
     <row r="16" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="21"/>
-      <c r="B16" s="291"/>
-      <c r="C16" s="292"/>
-      <c r="D16" s="293"/>
-      <c r="E16" s="294"/>
-      <c r="F16" s="295"/>
-      <c r="G16" s="291"/>
-      <c r="H16" s="296"/>
-      <c r="I16" s="292"/>
-      <c r="J16" s="297"/>
-      <c r="K16" s="298"/>
-      <c r="L16" s="298"/>
-      <c r="M16" s="298"/>
-      <c r="N16" s="298"/>
-      <c r="O16" s="298"/>
-      <c r="P16" s="299"/>
-      <c r="Q16" s="300"/>
-      <c r="R16" s="301"/>
-      <c r="S16" s="301"/>
-      <c r="T16" s="301"/>
-      <c r="U16" s="301"/>
-      <c r="V16" s="301"/>
-      <c r="W16" s="301"/>
-      <c r="X16" s="301"/>
-      <c r="Y16" s="301"/>
-      <c r="Z16" s="301"/>
-      <c r="AA16" s="301"/>
-      <c r="AB16" s="301"/>
-      <c r="AC16" s="301"/>
-      <c r="AD16" s="301"/>
-      <c r="AE16" s="302"/>
-      <c r="AF16" s="297"/>
-      <c r="AG16" s="298"/>
-      <c r="AH16" s="298"/>
-      <c r="AI16" s="299"/>
+      <c r="B16" s="256"/>
+      <c r="C16" s="257"/>
+      <c r="D16" s="258"/>
+      <c r="E16" s="259"/>
+      <c r="F16" s="260"/>
+      <c r="G16" s="256"/>
+      <c r="H16" s="261"/>
+      <c r="I16" s="257"/>
+      <c r="J16" s="262"/>
+      <c r="K16" s="263"/>
+      <c r="L16" s="263"/>
+      <c r="M16" s="263"/>
+      <c r="N16" s="263"/>
+      <c r="O16" s="263"/>
+      <c r="P16" s="264"/>
+      <c r="Q16" s="265"/>
+      <c r="R16" s="266"/>
+      <c r="S16" s="266"/>
+      <c r="T16" s="266"/>
+      <c r="U16" s="266"/>
+      <c r="V16" s="266"/>
+      <c r="W16" s="266"/>
+      <c r="X16" s="266"/>
+      <c r="Y16" s="266"/>
+      <c r="Z16" s="266"/>
+      <c r="AA16" s="266"/>
+      <c r="AB16" s="266"/>
+      <c r="AC16" s="266"/>
+      <c r="AD16" s="266"/>
+      <c r="AE16" s="267"/>
+      <c r="AF16" s="262"/>
+      <c r="AG16" s="263"/>
+      <c r="AH16" s="263"/>
+      <c r="AI16" s="264"/>
     </row>
     <row r="17" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="291"/>
-      <c r="C17" s="292"/>
-      <c r="D17" s="293"/>
-      <c r="E17" s="294"/>
-      <c r="F17" s="295"/>
-      <c r="G17" s="291"/>
-      <c r="H17" s="296"/>
-      <c r="I17" s="292"/>
-      <c r="J17" s="297"/>
-      <c r="K17" s="298"/>
-      <c r="L17" s="298"/>
-      <c r="M17" s="298"/>
-      <c r="N17" s="298"/>
-      <c r="O17" s="298"/>
-      <c r="P17" s="299"/>
-      <c r="Q17" s="300"/>
-      <c r="R17" s="301"/>
-      <c r="S17" s="301"/>
-      <c r="T17" s="301"/>
-      <c r="U17" s="301"/>
-      <c r="V17" s="301"/>
-      <c r="W17" s="301"/>
-      <c r="X17" s="301"/>
-      <c r="Y17" s="301"/>
-      <c r="Z17" s="301"/>
-      <c r="AA17" s="301"/>
-      <c r="AB17" s="301"/>
-      <c r="AC17" s="301"/>
-      <c r="AD17" s="301"/>
-      <c r="AE17" s="302"/>
-      <c r="AF17" s="297"/>
-      <c r="AG17" s="298"/>
-      <c r="AH17" s="298"/>
-      <c r="AI17" s="299"/>
+      <c r="B17" s="256"/>
+      <c r="C17" s="257"/>
+      <c r="D17" s="258"/>
+      <c r="E17" s="259"/>
+      <c r="F17" s="260"/>
+      <c r="G17" s="256"/>
+      <c r="H17" s="261"/>
+      <c r="I17" s="257"/>
+      <c r="J17" s="262"/>
+      <c r="K17" s="263"/>
+      <c r="L17" s="263"/>
+      <c r="M17" s="263"/>
+      <c r="N17" s="263"/>
+      <c r="O17" s="263"/>
+      <c r="P17" s="264"/>
+      <c r="Q17" s="265"/>
+      <c r="R17" s="266"/>
+      <c r="S17" s="266"/>
+      <c r="T17" s="266"/>
+      <c r="U17" s="266"/>
+      <c r="V17" s="266"/>
+      <c r="W17" s="266"/>
+      <c r="X17" s="266"/>
+      <c r="Y17" s="266"/>
+      <c r="Z17" s="266"/>
+      <c r="AA17" s="266"/>
+      <c r="AB17" s="266"/>
+      <c r="AC17" s="266"/>
+      <c r="AD17" s="266"/>
+      <c r="AE17" s="267"/>
+      <c r="AF17" s="262"/>
+      <c r="AG17" s="263"/>
+      <c r="AH17" s="263"/>
+      <c r="AI17" s="264"/>
     </row>
     <row r="18" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="21"/>
-      <c r="B18" s="291"/>
-      <c r="C18" s="292"/>
-      <c r="D18" s="293"/>
-      <c r="E18" s="294"/>
-      <c r="F18" s="295"/>
-      <c r="G18" s="291"/>
-      <c r="H18" s="296"/>
-      <c r="I18" s="292"/>
-      <c r="J18" s="297"/>
-      <c r="K18" s="298"/>
-      <c r="L18" s="298"/>
-      <c r="M18" s="298"/>
-      <c r="N18" s="298"/>
-      <c r="O18" s="298"/>
-      <c r="P18" s="299"/>
-      <c r="Q18" s="300"/>
-      <c r="R18" s="301"/>
-      <c r="S18" s="301"/>
-      <c r="T18" s="301"/>
-      <c r="U18" s="301"/>
-      <c r="V18" s="301"/>
-      <c r="W18" s="301"/>
-      <c r="X18" s="301"/>
-      <c r="Y18" s="301"/>
-      <c r="Z18" s="301"/>
-      <c r="AA18" s="301"/>
-      <c r="AB18" s="301"/>
-      <c r="AC18" s="301"/>
-      <c r="AD18" s="301"/>
-      <c r="AE18" s="302"/>
-      <c r="AF18" s="297"/>
-      <c r="AG18" s="298"/>
-      <c r="AH18" s="298"/>
-      <c r="AI18" s="299"/>
+      <c r="B18" s="256"/>
+      <c r="C18" s="257"/>
+      <c r="D18" s="258"/>
+      <c r="E18" s="259"/>
+      <c r="F18" s="260"/>
+      <c r="G18" s="256"/>
+      <c r="H18" s="261"/>
+      <c r="I18" s="257"/>
+      <c r="J18" s="262"/>
+      <c r="K18" s="263"/>
+      <c r="L18" s="263"/>
+      <c r="M18" s="263"/>
+      <c r="N18" s="263"/>
+      <c r="O18" s="263"/>
+      <c r="P18" s="264"/>
+      <c r="Q18" s="265"/>
+      <c r="R18" s="266"/>
+      <c r="S18" s="266"/>
+      <c r="T18" s="266"/>
+      <c r="U18" s="266"/>
+      <c r="V18" s="266"/>
+      <c r="W18" s="266"/>
+      <c r="X18" s="266"/>
+      <c r="Y18" s="266"/>
+      <c r="Z18" s="266"/>
+      <c r="AA18" s="266"/>
+      <c r="AB18" s="266"/>
+      <c r="AC18" s="266"/>
+      <c r="AD18" s="266"/>
+      <c r="AE18" s="267"/>
+      <c r="AF18" s="262"/>
+      <c r="AG18" s="263"/>
+      <c r="AH18" s="263"/>
+      <c r="AI18" s="264"/>
     </row>
     <row r="19" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="21"/>
-      <c r="B19" s="291"/>
-      <c r="C19" s="292"/>
-      <c r="D19" s="293"/>
-      <c r="E19" s="294"/>
-      <c r="F19" s="295"/>
-      <c r="G19" s="291"/>
-      <c r="H19" s="296"/>
-      <c r="I19" s="292"/>
-      <c r="J19" s="297"/>
-      <c r="K19" s="298"/>
-      <c r="L19" s="298"/>
-      <c r="M19" s="298"/>
-      <c r="N19" s="298"/>
-      <c r="O19" s="298"/>
-      <c r="P19" s="299"/>
-      <c r="Q19" s="300"/>
-      <c r="R19" s="301"/>
-      <c r="S19" s="301"/>
-      <c r="T19" s="301"/>
-      <c r="U19" s="301"/>
-      <c r="V19" s="301"/>
-      <c r="W19" s="301"/>
-      <c r="X19" s="301"/>
-      <c r="Y19" s="301"/>
-      <c r="Z19" s="301"/>
-      <c r="AA19" s="301"/>
-      <c r="AB19" s="301"/>
-      <c r="AC19" s="301"/>
-      <c r="AD19" s="301"/>
-      <c r="AE19" s="302"/>
-      <c r="AF19" s="297"/>
-      <c r="AG19" s="298"/>
-      <c r="AH19" s="298"/>
-      <c r="AI19" s="299"/>
+      <c r="B19" s="256"/>
+      <c r="C19" s="257"/>
+      <c r="D19" s="258"/>
+      <c r="E19" s="259"/>
+      <c r="F19" s="260"/>
+      <c r="G19" s="256"/>
+      <c r="H19" s="261"/>
+      <c r="I19" s="257"/>
+      <c r="J19" s="262"/>
+      <c r="K19" s="263"/>
+      <c r="L19" s="263"/>
+      <c r="M19" s="263"/>
+      <c r="N19" s="263"/>
+      <c r="O19" s="263"/>
+      <c r="P19" s="264"/>
+      <c r="Q19" s="265"/>
+      <c r="R19" s="266"/>
+      <c r="S19" s="266"/>
+      <c r="T19" s="266"/>
+      <c r="U19" s="266"/>
+      <c r="V19" s="266"/>
+      <c r="W19" s="266"/>
+      <c r="X19" s="266"/>
+      <c r="Y19" s="266"/>
+      <c r="Z19" s="266"/>
+      <c r="AA19" s="266"/>
+      <c r="AB19" s="266"/>
+      <c r="AC19" s="266"/>
+      <c r="AD19" s="266"/>
+      <c r="AE19" s="267"/>
+      <c r="AF19" s="262"/>
+      <c r="AG19" s="263"/>
+      <c r="AH19" s="263"/>
+      <c r="AI19" s="264"/>
     </row>
     <row r="20" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="21"/>
-      <c r="B20" s="291"/>
-      <c r="C20" s="292"/>
-      <c r="D20" s="293"/>
-      <c r="E20" s="294"/>
-      <c r="F20" s="295"/>
-      <c r="G20" s="291"/>
-      <c r="H20" s="296"/>
-      <c r="I20" s="292"/>
-      <c r="J20" s="297"/>
-      <c r="K20" s="298"/>
-      <c r="L20" s="298"/>
-      <c r="M20" s="298"/>
-      <c r="N20" s="298"/>
-      <c r="O20" s="298"/>
-      <c r="P20" s="299"/>
-      <c r="Q20" s="300"/>
-      <c r="R20" s="301"/>
-      <c r="S20" s="301"/>
-      <c r="T20" s="301"/>
-      <c r="U20" s="301"/>
-      <c r="V20" s="301"/>
-      <c r="W20" s="301"/>
-      <c r="X20" s="301"/>
-      <c r="Y20" s="301"/>
-      <c r="Z20" s="301"/>
-      <c r="AA20" s="301"/>
-      <c r="AB20" s="301"/>
-      <c r="AC20" s="301"/>
-      <c r="AD20" s="301"/>
-      <c r="AE20" s="302"/>
-      <c r="AF20" s="297"/>
-      <c r="AG20" s="298"/>
-      <c r="AH20" s="298"/>
-      <c r="AI20" s="299"/>
+      <c r="B20" s="256"/>
+      <c r="C20" s="257"/>
+      <c r="D20" s="258"/>
+      <c r="E20" s="259"/>
+      <c r="F20" s="260"/>
+      <c r="G20" s="256"/>
+      <c r="H20" s="261"/>
+      <c r="I20" s="257"/>
+      <c r="J20" s="262"/>
+      <c r="K20" s="263"/>
+      <c r="L20" s="263"/>
+      <c r="M20" s="263"/>
+      <c r="N20" s="263"/>
+      <c r="O20" s="263"/>
+      <c r="P20" s="264"/>
+      <c r="Q20" s="265"/>
+      <c r="R20" s="266"/>
+      <c r="S20" s="266"/>
+      <c r="T20" s="266"/>
+      <c r="U20" s="266"/>
+      <c r="V20" s="266"/>
+      <c r="W20" s="266"/>
+      <c r="X20" s="266"/>
+      <c r="Y20" s="266"/>
+      <c r="Z20" s="266"/>
+      <c r="AA20" s="266"/>
+      <c r="AB20" s="266"/>
+      <c r="AC20" s="266"/>
+      <c r="AD20" s="266"/>
+      <c r="AE20" s="267"/>
+      <c r="AF20" s="262"/>
+      <c r="AG20" s="263"/>
+      <c r="AH20" s="263"/>
+      <c r="AI20" s="264"/>
     </row>
     <row r="21" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="21"/>
-      <c r="B21" s="291"/>
-      <c r="C21" s="292"/>
-      <c r="D21" s="293"/>
-      <c r="E21" s="294"/>
-      <c r="F21" s="295"/>
-      <c r="G21" s="291"/>
-      <c r="H21" s="296"/>
-      <c r="I21" s="292"/>
-      <c r="J21" s="297"/>
-      <c r="K21" s="298"/>
-      <c r="L21" s="298"/>
-      <c r="M21" s="298"/>
-      <c r="N21" s="298"/>
-      <c r="O21" s="298"/>
-      <c r="P21" s="299"/>
-      <c r="Q21" s="300"/>
-      <c r="R21" s="301"/>
-      <c r="S21" s="301"/>
-      <c r="T21" s="301"/>
-      <c r="U21" s="301"/>
-      <c r="V21" s="301"/>
-      <c r="W21" s="301"/>
-      <c r="X21" s="301"/>
-      <c r="Y21" s="301"/>
-      <c r="Z21" s="301"/>
-      <c r="AA21" s="301"/>
-      <c r="AB21" s="301"/>
-      <c r="AC21" s="301"/>
-      <c r="AD21" s="301"/>
-      <c r="AE21" s="302"/>
-      <c r="AF21" s="297"/>
-      <c r="AG21" s="298"/>
-      <c r="AH21" s="298"/>
-      <c r="AI21" s="299"/>
+      <c r="B21" s="256"/>
+      <c r="C21" s="257"/>
+      <c r="D21" s="258"/>
+      <c r="E21" s="259"/>
+      <c r="F21" s="260"/>
+      <c r="G21" s="256"/>
+      <c r="H21" s="261"/>
+      <c r="I21" s="257"/>
+      <c r="J21" s="262"/>
+      <c r="K21" s="263"/>
+      <c r="L21" s="263"/>
+      <c r="M21" s="263"/>
+      <c r="N21" s="263"/>
+      <c r="O21" s="263"/>
+      <c r="P21" s="264"/>
+      <c r="Q21" s="265"/>
+      <c r="R21" s="266"/>
+      <c r="S21" s="266"/>
+      <c r="T21" s="266"/>
+      <c r="U21" s="266"/>
+      <c r="V21" s="266"/>
+      <c r="W21" s="266"/>
+      <c r="X21" s="266"/>
+      <c r="Y21" s="266"/>
+      <c r="Z21" s="266"/>
+      <c r="AA21" s="266"/>
+      <c r="AB21" s="266"/>
+      <c r="AC21" s="266"/>
+      <c r="AD21" s="266"/>
+      <c r="AE21" s="267"/>
+      <c r="AF21" s="262"/>
+      <c r="AG21" s="263"/>
+      <c r="AH21" s="263"/>
+      <c r="AI21" s="264"/>
     </row>
     <row r="22" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="21"/>
-      <c r="B22" s="291"/>
-      <c r="C22" s="292"/>
-      <c r="D22" s="293"/>
-      <c r="E22" s="294"/>
-      <c r="F22" s="295"/>
-      <c r="G22" s="291"/>
-      <c r="H22" s="296"/>
-      <c r="I22" s="292"/>
-      <c r="J22" s="297"/>
-      <c r="K22" s="298"/>
-      <c r="L22" s="298"/>
-      <c r="M22" s="298"/>
-      <c r="N22" s="298"/>
-      <c r="O22" s="298"/>
-      <c r="P22" s="299"/>
-      <c r="Q22" s="300"/>
-      <c r="R22" s="301"/>
-      <c r="S22" s="301"/>
-      <c r="T22" s="301"/>
-      <c r="U22" s="301"/>
-      <c r="V22" s="301"/>
-      <c r="W22" s="301"/>
-      <c r="X22" s="301"/>
-      <c r="Y22" s="301"/>
-      <c r="Z22" s="301"/>
-      <c r="AA22" s="301"/>
-      <c r="AB22" s="301"/>
-      <c r="AC22" s="301"/>
-      <c r="AD22" s="301"/>
-      <c r="AE22" s="302"/>
-      <c r="AF22" s="297"/>
-      <c r="AG22" s="298"/>
-      <c r="AH22" s="298"/>
-      <c r="AI22" s="299"/>
+      <c r="B22" s="256"/>
+      <c r="C22" s="257"/>
+      <c r="D22" s="258"/>
+      <c r="E22" s="259"/>
+      <c r="F22" s="260"/>
+      <c r="G22" s="256"/>
+      <c r="H22" s="261"/>
+      <c r="I22" s="257"/>
+      <c r="J22" s="262"/>
+      <c r="K22" s="263"/>
+      <c r="L22" s="263"/>
+      <c r="M22" s="263"/>
+      <c r="N22" s="263"/>
+      <c r="O22" s="263"/>
+      <c r="P22" s="264"/>
+      <c r="Q22" s="265"/>
+      <c r="R22" s="266"/>
+      <c r="S22" s="266"/>
+      <c r="T22" s="266"/>
+      <c r="U22" s="266"/>
+      <c r="V22" s="266"/>
+      <c r="W22" s="266"/>
+      <c r="X22" s="266"/>
+      <c r="Y22" s="266"/>
+      <c r="Z22" s="266"/>
+      <c r="AA22" s="266"/>
+      <c r="AB22" s="266"/>
+      <c r="AC22" s="266"/>
+      <c r="AD22" s="266"/>
+      <c r="AE22" s="267"/>
+      <c r="AF22" s="262"/>
+      <c r="AG22" s="263"/>
+      <c r="AH22" s="263"/>
+      <c r="AI22" s="264"/>
     </row>
     <row r="23" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="21"/>
-      <c r="B23" s="291"/>
-      <c r="C23" s="292"/>
-      <c r="D23" s="293"/>
-      <c r="E23" s="294"/>
-      <c r="F23" s="295"/>
-      <c r="G23" s="291"/>
-      <c r="H23" s="296"/>
-      <c r="I23" s="292"/>
-      <c r="J23" s="297"/>
-      <c r="K23" s="298"/>
-      <c r="L23" s="298"/>
-      <c r="M23" s="298"/>
-      <c r="N23" s="298"/>
-      <c r="O23" s="298"/>
-      <c r="P23" s="299"/>
-      <c r="Q23" s="300"/>
-      <c r="R23" s="301"/>
-      <c r="S23" s="301"/>
-      <c r="T23" s="301"/>
-      <c r="U23" s="301"/>
-      <c r="V23" s="301"/>
-      <c r="W23" s="301"/>
-      <c r="X23" s="301"/>
-      <c r="Y23" s="301"/>
-      <c r="Z23" s="301"/>
-      <c r="AA23" s="301"/>
-      <c r="AB23" s="301"/>
-      <c r="AC23" s="301"/>
-      <c r="AD23" s="301"/>
-      <c r="AE23" s="302"/>
-      <c r="AF23" s="297"/>
-      <c r="AG23" s="298"/>
-      <c r="AH23" s="298"/>
-      <c r="AI23" s="299"/>
+      <c r="B23" s="256"/>
+      <c r="C23" s="257"/>
+      <c r="D23" s="258"/>
+      <c r="E23" s="259"/>
+      <c r="F23" s="260"/>
+      <c r="G23" s="256"/>
+      <c r="H23" s="261"/>
+      <c r="I23" s="257"/>
+      <c r="J23" s="262"/>
+      <c r="K23" s="263"/>
+      <c r="L23" s="263"/>
+      <c r="M23" s="263"/>
+      <c r="N23" s="263"/>
+      <c r="O23" s="263"/>
+      <c r="P23" s="264"/>
+      <c r="Q23" s="265"/>
+      <c r="R23" s="266"/>
+      <c r="S23" s="266"/>
+      <c r="T23" s="266"/>
+      <c r="U23" s="266"/>
+      <c r="V23" s="266"/>
+      <c r="W23" s="266"/>
+      <c r="X23" s="266"/>
+      <c r="Y23" s="266"/>
+      <c r="Z23" s="266"/>
+      <c r="AA23" s="266"/>
+      <c r="AB23" s="266"/>
+      <c r="AC23" s="266"/>
+      <c r="AD23" s="266"/>
+      <c r="AE23" s="267"/>
+      <c r="AF23" s="262"/>
+      <c r="AG23" s="263"/>
+      <c r="AH23" s="263"/>
+      <c r="AI23" s="264"/>
     </row>
     <row r="24" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="21"/>
-      <c r="B24" s="291"/>
-      <c r="C24" s="292"/>
-      <c r="D24" s="293"/>
-      <c r="E24" s="294"/>
-      <c r="F24" s="295"/>
-      <c r="G24" s="291"/>
-      <c r="H24" s="296"/>
-      <c r="I24" s="292"/>
-      <c r="J24" s="297"/>
-      <c r="K24" s="298"/>
-      <c r="L24" s="298"/>
-      <c r="M24" s="298"/>
-      <c r="N24" s="298"/>
-      <c r="O24" s="298"/>
-      <c r="P24" s="299"/>
-      <c r="Q24" s="300"/>
-      <c r="R24" s="301"/>
-      <c r="S24" s="301"/>
-      <c r="T24" s="301"/>
-      <c r="U24" s="301"/>
-      <c r="V24" s="301"/>
-      <c r="W24" s="301"/>
-      <c r="X24" s="301"/>
-      <c r="Y24" s="301"/>
-      <c r="Z24" s="301"/>
-      <c r="AA24" s="301"/>
-      <c r="AB24" s="301"/>
-      <c r="AC24" s="301"/>
-      <c r="AD24" s="301"/>
-      <c r="AE24" s="302"/>
-      <c r="AF24" s="297"/>
-      <c r="AG24" s="298"/>
-      <c r="AH24" s="298"/>
-      <c r="AI24" s="299"/>
+      <c r="B24" s="256"/>
+      <c r="C24" s="257"/>
+      <c r="D24" s="258"/>
+      <c r="E24" s="259"/>
+      <c r="F24" s="260"/>
+      <c r="G24" s="256"/>
+      <c r="H24" s="261"/>
+      <c r="I24" s="257"/>
+      <c r="J24" s="262"/>
+      <c r="K24" s="263"/>
+      <c r="L24" s="263"/>
+      <c r="M24" s="263"/>
+      <c r="N24" s="263"/>
+      <c r="O24" s="263"/>
+      <c r="P24" s="264"/>
+      <c r="Q24" s="265"/>
+      <c r="R24" s="266"/>
+      <c r="S24" s="266"/>
+      <c r="T24" s="266"/>
+      <c r="U24" s="266"/>
+      <c r="V24" s="266"/>
+      <c r="W24" s="266"/>
+      <c r="X24" s="266"/>
+      <c r="Y24" s="266"/>
+      <c r="Z24" s="266"/>
+      <c r="AA24" s="266"/>
+      <c r="AB24" s="266"/>
+      <c r="AC24" s="266"/>
+      <c r="AD24" s="266"/>
+      <c r="AE24" s="267"/>
+      <c r="AF24" s="262"/>
+      <c r="AG24" s="263"/>
+      <c r="AH24" s="263"/>
+      <c r="AI24" s="264"/>
     </row>
     <row r="25" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="21"/>
-      <c r="B25" s="291"/>
-      <c r="C25" s="292"/>
-      <c r="D25" s="293"/>
-      <c r="E25" s="294"/>
-      <c r="F25" s="295"/>
-      <c r="G25" s="291"/>
-      <c r="H25" s="296"/>
-      <c r="I25" s="292"/>
-      <c r="J25" s="297"/>
-      <c r="K25" s="298"/>
-      <c r="L25" s="298"/>
-      <c r="M25" s="298"/>
-      <c r="N25" s="298"/>
-      <c r="O25" s="298"/>
-      <c r="P25" s="299"/>
-      <c r="Q25" s="300"/>
-      <c r="R25" s="301"/>
-      <c r="S25" s="301"/>
-      <c r="T25" s="301"/>
-      <c r="U25" s="301"/>
-      <c r="V25" s="301"/>
-      <c r="W25" s="301"/>
-      <c r="X25" s="301"/>
-      <c r="Y25" s="301"/>
-      <c r="Z25" s="301"/>
-      <c r="AA25" s="301"/>
-      <c r="AB25" s="301"/>
-      <c r="AC25" s="301"/>
-      <c r="AD25" s="301"/>
-      <c r="AE25" s="302"/>
-      <c r="AF25" s="297"/>
-      <c r="AG25" s="298"/>
-      <c r="AH25" s="298"/>
-      <c r="AI25" s="299"/>
+      <c r="B25" s="256"/>
+      <c r="C25" s="257"/>
+      <c r="D25" s="258"/>
+      <c r="E25" s="259"/>
+      <c r="F25" s="260"/>
+      <c r="G25" s="256"/>
+      <c r="H25" s="261"/>
+      <c r="I25" s="257"/>
+      <c r="J25" s="262"/>
+      <c r="K25" s="263"/>
+      <c r="L25" s="263"/>
+      <c r="M25" s="263"/>
+      <c r="N25" s="263"/>
+      <c r="O25" s="263"/>
+      <c r="P25" s="264"/>
+      <c r="Q25" s="265"/>
+      <c r="R25" s="266"/>
+      <c r="S25" s="266"/>
+      <c r="T25" s="266"/>
+      <c r="U25" s="266"/>
+      <c r="V25" s="266"/>
+      <c r="W25" s="266"/>
+      <c r="X25" s="266"/>
+      <c r="Y25" s="266"/>
+      <c r="Z25" s="266"/>
+      <c r="AA25" s="266"/>
+      <c r="AB25" s="266"/>
+      <c r="AC25" s="266"/>
+      <c r="AD25" s="266"/>
+      <c r="AE25" s="267"/>
+      <c r="AF25" s="262"/>
+      <c r="AG25" s="263"/>
+      <c r="AH25" s="263"/>
+      <c r="AI25" s="264"/>
     </row>
     <row r="26" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="21"/>
-      <c r="B26" s="291"/>
-      <c r="C26" s="292"/>
-      <c r="D26" s="293"/>
-      <c r="E26" s="294"/>
-      <c r="F26" s="295"/>
-      <c r="G26" s="291"/>
-      <c r="H26" s="296"/>
-      <c r="I26" s="292"/>
-      <c r="J26" s="297"/>
-      <c r="K26" s="298"/>
-      <c r="L26" s="298"/>
-      <c r="M26" s="298"/>
-      <c r="N26" s="298"/>
-      <c r="O26" s="298"/>
-      <c r="P26" s="299"/>
-      <c r="Q26" s="300"/>
-      <c r="R26" s="301"/>
-      <c r="S26" s="301"/>
-      <c r="T26" s="301"/>
-      <c r="U26" s="301"/>
-      <c r="V26" s="301"/>
-      <c r="W26" s="301"/>
-      <c r="X26" s="301"/>
-      <c r="Y26" s="301"/>
-      <c r="Z26" s="301"/>
-      <c r="AA26" s="301"/>
-      <c r="AB26" s="301"/>
-      <c r="AC26" s="301"/>
-      <c r="AD26" s="301"/>
-      <c r="AE26" s="302"/>
-      <c r="AF26" s="297"/>
-      <c r="AG26" s="298"/>
-      <c r="AH26" s="298"/>
-      <c r="AI26" s="299"/>
+      <c r="B26" s="256"/>
+      <c r="C26" s="257"/>
+      <c r="D26" s="258"/>
+      <c r="E26" s="259"/>
+      <c r="F26" s="260"/>
+      <c r="G26" s="256"/>
+      <c r="H26" s="261"/>
+      <c r="I26" s="257"/>
+      <c r="J26" s="262"/>
+      <c r="K26" s="263"/>
+      <c r="L26" s="263"/>
+      <c r="M26" s="263"/>
+      <c r="N26" s="263"/>
+      <c r="O26" s="263"/>
+      <c r="P26" s="264"/>
+      <c r="Q26" s="265"/>
+      <c r="R26" s="266"/>
+      <c r="S26" s="266"/>
+      <c r="T26" s="266"/>
+      <c r="U26" s="266"/>
+      <c r="V26" s="266"/>
+      <c r="W26" s="266"/>
+      <c r="X26" s="266"/>
+      <c r="Y26" s="266"/>
+      <c r="Z26" s="266"/>
+      <c r="AA26" s="266"/>
+      <c r="AB26" s="266"/>
+      <c r="AC26" s="266"/>
+      <c r="AD26" s="266"/>
+      <c r="AE26" s="267"/>
+      <c r="AF26" s="262"/>
+      <c r="AG26" s="263"/>
+      <c r="AH26" s="263"/>
+      <c r="AI26" s="264"/>
     </row>
     <row r="27" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="21"/>
-      <c r="B27" s="291"/>
-      <c r="C27" s="292"/>
-      <c r="D27" s="293"/>
-      <c r="E27" s="294"/>
-      <c r="F27" s="295"/>
-      <c r="G27" s="291"/>
-      <c r="H27" s="296"/>
-      <c r="I27" s="292"/>
-      <c r="J27" s="297"/>
-      <c r="K27" s="298"/>
-      <c r="L27" s="298"/>
-      <c r="M27" s="298"/>
-      <c r="N27" s="298"/>
-      <c r="O27" s="298"/>
-      <c r="P27" s="299"/>
-      <c r="Q27" s="300"/>
-      <c r="R27" s="301"/>
-      <c r="S27" s="301"/>
-      <c r="T27" s="301"/>
-      <c r="U27" s="301"/>
-      <c r="V27" s="301"/>
-      <c r="W27" s="301"/>
-      <c r="X27" s="301"/>
-      <c r="Y27" s="301"/>
-      <c r="Z27" s="301"/>
-      <c r="AA27" s="301"/>
-      <c r="AB27" s="301"/>
-      <c r="AC27" s="301"/>
-      <c r="AD27" s="301"/>
-      <c r="AE27" s="302"/>
-      <c r="AF27" s="297"/>
-      <c r="AG27" s="298"/>
-      <c r="AH27" s="298"/>
-      <c r="AI27" s="299"/>
+      <c r="B27" s="256"/>
+      <c r="C27" s="257"/>
+      <c r="D27" s="258"/>
+      <c r="E27" s="259"/>
+      <c r="F27" s="260"/>
+      <c r="G27" s="256"/>
+      <c r="H27" s="261"/>
+      <c r="I27" s="257"/>
+      <c r="J27" s="262"/>
+      <c r="K27" s="263"/>
+      <c r="L27" s="263"/>
+      <c r="M27" s="263"/>
+      <c r="N27" s="263"/>
+      <c r="O27" s="263"/>
+      <c r="P27" s="264"/>
+      <c r="Q27" s="265"/>
+      <c r="R27" s="266"/>
+      <c r="S27" s="266"/>
+      <c r="T27" s="266"/>
+      <c r="U27" s="266"/>
+      <c r="V27" s="266"/>
+      <c r="W27" s="266"/>
+      <c r="X27" s="266"/>
+      <c r="Y27" s="266"/>
+      <c r="Z27" s="266"/>
+      <c r="AA27" s="266"/>
+      <c r="AB27" s="266"/>
+      <c r="AC27" s="266"/>
+      <c r="AD27" s="266"/>
+      <c r="AE27" s="267"/>
+      <c r="AF27" s="262"/>
+      <c r="AG27" s="263"/>
+      <c r="AH27" s="263"/>
+      <c r="AI27" s="264"/>
     </row>
     <row r="28" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="291"/>
-      <c r="C28" s="292"/>
-      <c r="D28" s="293"/>
-      <c r="E28" s="294"/>
-      <c r="F28" s="295"/>
-      <c r="G28" s="291"/>
-      <c r="H28" s="296"/>
-      <c r="I28" s="292"/>
-      <c r="J28" s="297"/>
-      <c r="K28" s="298"/>
-      <c r="L28" s="298"/>
-      <c r="M28" s="298"/>
-      <c r="N28" s="298"/>
-      <c r="O28" s="298"/>
-      <c r="P28" s="299"/>
-      <c r="Q28" s="300"/>
-      <c r="R28" s="301"/>
-      <c r="S28" s="301"/>
-      <c r="T28" s="301"/>
-      <c r="U28" s="301"/>
-      <c r="V28" s="301"/>
-      <c r="W28" s="301"/>
-      <c r="X28" s="301"/>
-      <c r="Y28" s="301"/>
-      <c r="Z28" s="301"/>
-      <c r="AA28" s="301"/>
-      <c r="AB28" s="301"/>
-      <c r="AC28" s="301"/>
-      <c r="AD28" s="301"/>
-      <c r="AE28" s="302"/>
-      <c r="AF28" s="297"/>
-      <c r="AG28" s="298"/>
-      <c r="AH28" s="298"/>
-      <c r="AI28" s="299"/>
+      <c r="B28" s="256"/>
+      <c r="C28" s="257"/>
+      <c r="D28" s="258"/>
+      <c r="E28" s="259"/>
+      <c r="F28" s="260"/>
+      <c r="G28" s="256"/>
+      <c r="H28" s="261"/>
+      <c r="I28" s="257"/>
+      <c r="J28" s="262"/>
+      <c r="K28" s="263"/>
+      <c r="L28" s="263"/>
+      <c r="M28" s="263"/>
+      <c r="N28" s="263"/>
+      <c r="O28" s="263"/>
+      <c r="P28" s="264"/>
+      <c r="Q28" s="265"/>
+      <c r="R28" s="266"/>
+      <c r="S28" s="266"/>
+      <c r="T28" s="266"/>
+      <c r="U28" s="266"/>
+      <c r="V28" s="266"/>
+      <c r="W28" s="266"/>
+      <c r="X28" s="266"/>
+      <c r="Y28" s="266"/>
+      <c r="Z28" s="266"/>
+      <c r="AA28" s="266"/>
+      <c r="AB28" s="266"/>
+      <c r="AC28" s="266"/>
+      <c r="AD28" s="266"/>
+      <c r="AE28" s="267"/>
+      <c r="AF28" s="262"/>
+      <c r="AG28" s="263"/>
+      <c r="AH28" s="263"/>
+      <c r="AI28" s="264"/>
     </row>
     <row r="29" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="21"/>
-      <c r="B29" s="291"/>
-      <c r="C29" s="292"/>
-      <c r="D29" s="293"/>
-      <c r="E29" s="294"/>
-      <c r="F29" s="295"/>
-      <c r="G29" s="291"/>
-      <c r="H29" s="296"/>
-      <c r="I29" s="292"/>
-      <c r="J29" s="297"/>
-      <c r="K29" s="298"/>
-      <c r="L29" s="298"/>
-      <c r="M29" s="298"/>
-      <c r="N29" s="298"/>
-      <c r="O29" s="298"/>
-      <c r="P29" s="299"/>
-      <c r="Q29" s="300"/>
-      <c r="R29" s="301"/>
-      <c r="S29" s="301"/>
-      <c r="T29" s="301"/>
-      <c r="U29" s="301"/>
-      <c r="V29" s="301"/>
-      <c r="W29" s="301"/>
-      <c r="X29" s="301"/>
-      <c r="Y29" s="301"/>
-      <c r="Z29" s="301"/>
-      <c r="AA29" s="301"/>
-      <c r="AB29" s="301"/>
-      <c r="AC29" s="301"/>
-      <c r="AD29" s="301"/>
-      <c r="AE29" s="302"/>
-      <c r="AF29" s="297"/>
-      <c r="AG29" s="298"/>
-      <c r="AH29" s="298"/>
-      <c r="AI29" s="299"/>
+      <c r="B29" s="256"/>
+      <c r="C29" s="257"/>
+      <c r="D29" s="258"/>
+      <c r="E29" s="259"/>
+      <c r="F29" s="260"/>
+      <c r="G29" s="256"/>
+      <c r="H29" s="261"/>
+      <c r="I29" s="257"/>
+      <c r="J29" s="262"/>
+      <c r="K29" s="263"/>
+      <c r="L29" s="263"/>
+      <c r="M29" s="263"/>
+      <c r="N29" s="263"/>
+      <c r="O29" s="263"/>
+      <c r="P29" s="264"/>
+      <c r="Q29" s="265"/>
+      <c r="R29" s="266"/>
+      <c r="S29" s="266"/>
+      <c r="T29" s="266"/>
+      <c r="U29" s="266"/>
+      <c r="V29" s="266"/>
+      <c r="W29" s="266"/>
+      <c r="X29" s="266"/>
+      <c r="Y29" s="266"/>
+      <c r="Z29" s="266"/>
+      <c r="AA29" s="266"/>
+      <c r="AB29" s="266"/>
+      <c r="AC29" s="266"/>
+      <c r="AD29" s="266"/>
+      <c r="AE29" s="267"/>
+      <c r="AF29" s="262"/>
+      <c r="AG29" s="263"/>
+      <c r="AH29" s="263"/>
+      <c r="AI29" s="264"/>
     </row>
     <row r="30" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="21"/>
-      <c r="B30" s="291"/>
-      <c r="C30" s="292"/>
-      <c r="D30" s="293"/>
-      <c r="E30" s="294"/>
-      <c r="F30" s="295"/>
-      <c r="G30" s="291"/>
-      <c r="H30" s="296"/>
-      <c r="I30" s="292"/>
-      <c r="J30" s="297"/>
-      <c r="K30" s="298"/>
-      <c r="L30" s="298"/>
-      <c r="M30" s="298"/>
-      <c r="N30" s="298"/>
-      <c r="O30" s="298"/>
-      <c r="P30" s="299"/>
-      <c r="Q30" s="300"/>
-      <c r="R30" s="301"/>
-      <c r="S30" s="301"/>
-      <c r="T30" s="301"/>
-      <c r="U30" s="301"/>
-      <c r="V30" s="301"/>
-      <c r="W30" s="301"/>
-      <c r="X30" s="301"/>
-      <c r="Y30" s="301"/>
-      <c r="Z30" s="301"/>
-      <c r="AA30" s="301"/>
-      <c r="AB30" s="301"/>
-      <c r="AC30" s="301"/>
-      <c r="AD30" s="301"/>
-      <c r="AE30" s="302"/>
-      <c r="AF30" s="297"/>
-      <c r="AG30" s="298"/>
-      <c r="AH30" s="298"/>
-      <c r="AI30" s="299"/>
+      <c r="B30" s="256"/>
+      <c r="C30" s="257"/>
+      <c r="D30" s="258"/>
+      <c r="E30" s="259"/>
+      <c r="F30" s="260"/>
+      <c r="G30" s="256"/>
+      <c r="H30" s="261"/>
+      <c r="I30" s="257"/>
+      <c r="J30" s="262"/>
+      <c r="K30" s="263"/>
+      <c r="L30" s="263"/>
+      <c r="M30" s="263"/>
+      <c r="N30" s="263"/>
+      <c r="O30" s="263"/>
+      <c r="P30" s="264"/>
+      <c r="Q30" s="265"/>
+      <c r="R30" s="266"/>
+      <c r="S30" s="266"/>
+      <c r="T30" s="266"/>
+      <c r="U30" s="266"/>
+      <c r="V30" s="266"/>
+      <c r="W30" s="266"/>
+      <c r="X30" s="266"/>
+      <c r="Y30" s="266"/>
+      <c r="Z30" s="266"/>
+      <c r="AA30" s="266"/>
+      <c r="AB30" s="266"/>
+      <c r="AC30" s="266"/>
+      <c r="AD30" s="266"/>
+      <c r="AE30" s="267"/>
+      <c r="AF30" s="262"/>
+      <c r="AG30" s="263"/>
+      <c r="AH30" s="263"/>
+      <c r="AI30" s="264"/>
     </row>
     <row r="31" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="21"/>
-      <c r="B31" s="291"/>
-      <c r="C31" s="292"/>
-      <c r="D31" s="293"/>
-      <c r="E31" s="294"/>
-      <c r="F31" s="295"/>
-      <c r="G31" s="291"/>
-      <c r="H31" s="296"/>
-      <c r="I31" s="292"/>
-      <c r="J31" s="297"/>
-      <c r="K31" s="298"/>
-      <c r="L31" s="298"/>
-      <c r="M31" s="298"/>
-      <c r="N31" s="298"/>
-      <c r="O31" s="298"/>
-      <c r="P31" s="299"/>
-      <c r="Q31" s="300"/>
-      <c r="R31" s="301"/>
-      <c r="S31" s="301"/>
-      <c r="T31" s="301"/>
-      <c r="U31" s="301"/>
-      <c r="V31" s="301"/>
-      <c r="W31" s="301"/>
-      <c r="X31" s="301"/>
-      <c r="Y31" s="301"/>
-      <c r="Z31" s="301"/>
-      <c r="AA31" s="301"/>
-      <c r="AB31" s="301"/>
-      <c r="AC31" s="301"/>
-      <c r="AD31" s="301"/>
-      <c r="AE31" s="302"/>
-      <c r="AF31" s="297"/>
-      <c r="AG31" s="298"/>
-      <c r="AH31" s="298"/>
-      <c r="AI31" s="299"/>
+      <c r="B31" s="256"/>
+      <c r="C31" s="257"/>
+      <c r="D31" s="258"/>
+      <c r="E31" s="259"/>
+      <c r="F31" s="260"/>
+      <c r="G31" s="256"/>
+      <c r="H31" s="261"/>
+      <c r="I31" s="257"/>
+      <c r="J31" s="262"/>
+      <c r="K31" s="263"/>
+      <c r="L31" s="263"/>
+      <c r="M31" s="263"/>
+      <c r="N31" s="263"/>
+      <c r="O31" s="263"/>
+      <c r="P31" s="264"/>
+      <c r="Q31" s="265"/>
+      <c r="R31" s="266"/>
+      <c r="S31" s="266"/>
+      <c r="T31" s="266"/>
+      <c r="U31" s="266"/>
+      <c r="V31" s="266"/>
+      <c r="W31" s="266"/>
+      <c r="X31" s="266"/>
+      <c r="Y31" s="266"/>
+      <c r="Z31" s="266"/>
+      <c r="AA31" s="266"/>
+      <c r="AB31" s="266"/>
+      <c r="AC31" s="266"/>
+      <c r="AD31" s="266"/>
+      <c r="AE31" s="267"/>
+      <c r="AF31" s="262"/>
+      <c r="AG31" s="263"/>
+      <c r="AH31" s="263"/>
+      <c r="AI31" s="264"/>
     </row>
     <row r="32" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="21"/>
-      <c r="B32" s="291"/>
-      <c r="C32" s="292"/>
-      <c r="D32" s="293"/>
-      <c r="E32" s="294"/>
-      <c r="F32" s="295"/>
-      <c r="G32" s="291"/>
-      <c r="H32" s="296"/>
-      <c r="I32" s="292"/>
-      <c r="J32" s="297"/>
-      <c r="K32" s="316"/>
-      <c r="L32" s="298"/>
-      <c r="M32" s="298"/>
-      <c r="N32" s="298"/>
-      <c r="O32" s="298"/>
-      <c r="P32" s="299"/>
-      <c r="Q32" s="300"/>
-      <c r="R32" s="301"/>
-      <c r="S32" s="301"/>
-      <c r="T32" s="301"/>
-      <c r="U32" s="301"/>
-      <c r="V32" s="301"/>
-      <c r="W32" s="301"/>
-      <c r="X32" s="301"/>
-      <c r="Y32" s="301"/>
-      <c r="Z32" s="301"/>
-      <c r="AA32" s="301"/>
-      <c r="AB32" s="301"/>
-      <c r="AC32" s="301"/>
-      <c r="AD32" s="301"/>
-      <c r="AE32" s="302"/>
-      <c r="AF32" s="297"/>
-      <c r="AG32" s="298"/>
-      <c r="AH32" s="298"/>
-      <c r="AI32" s="299"/>
+      <c r="B32" s="256"/>
+      <c r="C32" s="257"/>
+      <c r="D32" s="258"/>
+      <c r="E32" s="259"/>
+      <c r="F32" s="260"/>
+      <c r="G32" s="256"/>
+      <c r="H32" s="261"/>
+      <c r="I32" s="257"/>
+      <c r="J32" s="262"/>
+      <c r="K32" s="268"/>
+      <c r="L32" s="263"/>
+      <c r="M32" s="263"/>
+      <c r="N32" s="263"/>
+      <c r="O32" s="263"/>
+      <c r="P32" s="264"/>
+      <c r="Q32" s="265"/>
+      <c r="R32" s="266"/>
+      <c r="S32" s="266"/>
+      <c r="T32" s="266"/>
+      <c r="U32" s="266"/>
+      <c r="V32" s="266"/>
+      <c r="W32" s="266"/>
+      <c r="X32" s="266"/>
+      <c r="Y32" s="266"/>
+      <c r="Z32" s="266"/>
+      <c r="AA32" s="266"/>
+      <c r="AB32" s="266"/>
+      <c r="AC32" s="266"/>
+      <c r="AD32" s="266"/>
+      <c r="AE32" s="267"/>
+      <c r="AF32" s="262"/>
+      <c r="AG32" s="263"/>
+      <c r="AH32" s="263"/>
+      <c r="AI32" s="264"/>
     </row>
     <row r="33" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="21"/>
-      <c r="B33" s="291"/>
-      <c r="C33" s="292"/>
-      <c r="D33" s="293"/>
-      <c r="E33" s="294"/>
-      <c r="F33" s="295"/>
-      <c r="G33" s="291"/>
-      <c r="H33" s="296"/>
-      <c r="I33" s="292"/>
-      <c r="J33" s="297"/>
-      <c r="K33" s="298"/>
-      <c r="L33" s="298"/>
-      <c r="M33" s="298"/>
-      <c r="N33" s="298"/>
-      <c r="O33" s="298"/>
-      <c r="P33" s="299"/>
-      <c r="Q33" s="300"/>
-      <c r="R33" s="301"/>
-      <c r="S33" s="301"/>
-      <c r="T33" s="301"/>
-      <c r="U33" s="301"/>
-      <c r="V33" s="301"/>
-      <c r="W33" s="301"/>
-      <c r="X33" s="301"/>
-      <c r="Y33" s="301"/>
-      <c r="Z33" s="301"/>
-      <c r="AA33" s="301"/>
-      <c r="AB33" s="301"/>
-      <c r="AC33" s="301"/>
-      <c r="AD33" s="301"/>
-      <c r="AE33" s="302"/>
-      <c r="AF33" s="297"/>
-      <c r="AG33" s="298"/>
-      <c r="AH33" s="298"/>
-      <c r="AI33" s="299"/>
+      <c r="B33" s="256"/>
+      <c r="C33" s="257"/>
+      <c r="D33" s="258"/>
+      <c r="E33" s="259"/>
+      <c r="F33" s="260"/>
+      <c r="G33" s="256"/>
+      <c r="H33" s="261"/>
+      <c r="I33" s="257"/>
+      <c r="J33" s="262"/>
+      <c r="K33" s="263"/>
+      <c r="L33" s="263"/>
+      <c r="M33" s="263"/>
+      <c r="N33" s="263"/>
+      <c r="O33" s="263"/>
+      <c r="P33" s="264"/>
+      <c r="Q33" s="265"/>
+      <c r="R33" s="266"/>
+      <c r="S33" s="266"/>
+      <c r="T33" s="266"/>
+      <c r="U33" s="266"/>
+      <c r="V33" s="266"/>
+      <c r="W33" s="266"/>
+      <c r="X33" s="266"/>
+      <c r="Y33" s="266"/>
+      <c r="Z33" s="266"/>
+      <c r="AA33" s="266"/>
+      <c r="AB33" s="266"/>
+      <c r="AC33" s="266"/>
+      <c r="AD33" s="266"/>
+      <c r="AE33" s="267"/>
+      <c r="AF33" s="262"/>
+      <c r="AG33" s="263"/>
+      <c r="AH33" s="263"/>
+      <c r="AI33" s="264"/>
     </row>
     <row r="34" spans="1:35" ht="14">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -15099,6 +14948,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -18857,7 +18862,7 @@
 )</f>
         <v>43-2-1</v>
       </c>
-      <c r="B112" s="317" t="s">
+      <c r="B112" s="318" t="s">
         <v>192</v>
       </c>
       <c r="C112" s="128"/>
@@ -18893,7 +18898,7 @@
 )</f>
         <v>43-3-1</v>
       </c>
-      <c r="B113" s="317"/>
+      <c r="B113" s="318"/>
       <c r="C113" s="128"/>
       <c r="D113" s="123"/>
       <c r="E113" s="146"/>
@@ -19565,7 +19570,7 @@
 )</f>
         <v>50-2-1</v>
       </c>
-      <c r="B132" s="317" t="s">
+      <c r="B132" s="318" t="s">
         <v>219</v>
       </c>
       <c r="C132" s="128"/>
@@ -19601,7 +19606,7 @@
 )</f>
         <v>50-3-1</v>
       </c>
-      <c r="B133" s="317"/>
+      <c r="B133" s="318"/>
       <c r="C133" s="128"/>
       <c r="D133" s="123"/>
       <c r="E133" s="123"/>
@@ -29565,7 +29570,7 @@
 )</f>
         <v>43-2-1</v>
       </c>
-      <c r="B123" s="318" t="s">
+      <c r="B123" s="319" t="s">
         <v>538</v>
       </c>
       <c r="C123" s="167"/>
@@ -29601,7 +29606,7 @@
 )</f>
         <v>43-3-1</v>
       </c>
-      <c r="B124" s="318"/>
+      <c r="B124" s="319"/>
       <c r="C124" s="167"/>
       <c r="D124" s="164"/>
       <c r="E124" s="184"/>
@@ -30273,7 +30278,7 @@
 )</f>
         <v>50-2-1</v>
       </c>
-      <c r="B143" s="318" t="s">
+      <c r="B143" s="319" t="s">
         <v>219</v>
       </c>
       <c r="C143" s="167"/>
@@ -30309,7 +30314,7 @@
 )</f>
         <v>50-3-1</v>
       </c>
-      <c r="B144" s="318"/>
+      <c r="B144" s="319"/>
       <c r="C144" s="167"/>
       <c r="D144" s="164"/>
       <c r="E144" s="167"/>
@@ -43664,7 +43669,7 @@
 )</f>
         <v>43-2-1</v>
       </c>
-      <c r="B112" s="318" t="s">
+      <c r="B112" s="319" t="s">
         <v>538</v>
       </c>
       <c r="C112" s="167"/>
@@ -43700,7 +43705,7 @@
 )</f>
         <v>43-3-1</v>
       </c>
-      <c r="B113" s="318"/>
+      <c r="B113" s="319"/>
       <c r="C113" s="167"/>
       <c r="D113" s="164"/>
       <c r="E113" s="184"/>
@@ -44372,7 +44377,7 @@
 )</f>
         <v>50-2-1</v>
       </c>
-      <c r="B132" s="318" t="s">
+      <c r="B132" s="319" t="s">
         <v>219</v>
       </c>
       <c r="C132" s="167"/>
@@ -44408,7 +44413,7 @@
 )</f>
         <v>50-3-1</v>
       </c>
-      <c r="B133" s="318"/>
+      <c r="B133" s="319"/>
       <c r="C133" s="167"/>
       <c r="D133" s="164"/>
       <c r="E133" s="167"/>
@@ -53670,10 +53675,10 @@
       </c>
       <c r="B21" s="248"/>
       <c r="C21" s="248"/>
-      <c r="D21" s="319" t="s">
+      <c r="D21" s="320" t="s">
         <v>606</v>
       </c>
-      <c r="E21" s="320"/>
+      <c r="E21" s="321"/>
       <c r="F21" s="85" t="s">
         <v>617</v>
       </c>
@@ -53909,7 +53914,7 @@
       <c r="B28" s="73" t="s">
         <v>586</v>
       </c>
-      <c r="C28" s="321" t="s">
+      <c r="C28" s="254" t="s">
         <v>587</v>
       </c>
       <c r="D28" s="77" t="s">

--- a/Sample_Project/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書(画面)_WA10101_認証.xlsx
+++ b/Sample_Project/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書(画面)_WA10101_認証.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7834CC1B-F5A2-4962-BB62-C4C882E471D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC12BFDE-9762-4E51-8852-84C25360D30D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="724" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11941,84 +11941,6 @@
     <xf numFmtId="31" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="17" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -12125,6 +12047,84 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="17" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12755,23 +12755,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:colOff>575468</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1">
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94680C47-373D-48A1-A8B1-3BE8D27C5534}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A361F9D7-294F-4CE2-A06B-FB81617DA3DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12779,8 +12779,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2352675" y="1971675"/>
-          <a:ext cx="11525250" cy="3419475"/>
+          <a:off x="3270250" y="1689100"/>
+          <a:ext cx="10900568" cy="3140074"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12803,14 +12803,23 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
-            <a:t>適合する観点がないため、取引単体テストのみでテストを行う。</a:t>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>リクエスト単体テストで確認が必要な観点なし。取引単体テストで品質担保する。</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -13730,51 +13739,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="288" t="s">
+      <c r="A1" s="262" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="289"/>
-      <c r="C1" s="289"/>
-      <c r="D1" s="290"/>
-      <c r="E1" s="291" t="s">
+      <c r="B1" s="263"/>
+      <c r="C1" s="263"/>
+      <c r="D1" s="264"/>
+      <c r="E1" s="265" t="s">
         <v>561</v>
       </c>
-      <c r="F1" s="292"/>
-      <c r="G1" s="292"/>
-      <c r="H1" s="292"/>
-      <c r="I1" s="292"/>
-      <c r="J1" s="292"/>
-      <c r="K1" s="292"/>
-      <c r="L1" s="292"/>
-      <c r="M1" s="292"/>
-      <c r="N1" s="293"/>
-      <c r="O1" s="297" t="s">
+      <c r="F1" s="266"/>
+      <c r="G1" s="266"/>
+      <c r="H1" s="266"/>
+      <c r="I1" s="266"/>
+      <c r="J1" s="266"/>
+      <c r="K1" s="266"/>
+      <c r="L1" s="266"/>
+      <c r="M1" s="266"/>
+      <c r="N1" s="267"/>
+      <c r="O1" s="271" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="298"/>
-      <c r="Q1" s="298"/>
-      <c r="R1" s="299"/>
-      <c r="S1" s="306" t="s">
+      <c r="P1" s="272"/>
+      <c r="Q1" s="272"/>
+      <c r="R1" s="273"/>
+      <c r="S1" s="280" t="s">
         <v>792</v>
       </c>
-      <c r="T1" s="307"/>
-      <c r="U1" s="307"/>
-      <c r="V1" s="307"/>
-      <c r="W1" s="307"/>
-      <c r="X1" s="307"/>
-      <c r="Y1" s="307"/>
-      <c r="Z1" s="308"/>
-      <c r="AA1" s="288" t="s">
+      <c r="T1" s="281"/>
+      <c r="U1" s="281"/>
+      <c r="V1" s="281"/>
+      <c r="W1" s="281"/>
+      <c r="X1" s="281"/>
+      <c r="Y1" s="281"/>
+      <c r="Z1" s="282"/>
+      <c r="AA1" s="262" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="290"/>
-      <c r="AC1" s="315"/>
-      <c r="AD1" s="316"/>
-      <c r="AE1" s="316"/>
-      <c r="AF1" s="317"/>
-      <c r="AG1" s="282"/>
-      <c r="AH1" s="283"/>
-      <c r="AI1" s="284"/>
+      <c r="AB1" s="264"/>
+      <c r="AC1" s="289"/>
+      <c r="AD1" s="290"/>
+      <c r="AE1" s="290"/>
+      <c r="AF1" s="291"/>
+      <c r="AG1" s="256"/>
+      <c r="AH1" s="257"/>
+      <c r="AI1" s="258"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -13782,53 +13791,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="288" t="s">
+      <c r="A2" s="262" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="289"/>
-      <c r="C2" s="289"/>
-      <c r="D2" s="290"/>
-      <c r="E2" s="291" t="s">
+      <c r="B2" s="263"/>
+      <c r="C2" s="263"/>
+      <c r="D2" s="264"/>
+      <c r="E2" s="265" t="s">
         <v>614</v>
       </c>
-      <c r="F2" s="292"/>
-      <c r="G2" s="292"/>
-      <c r="H2" s="292"/>
-      <c r="I2" s="292"/>
-      <c r="J2" s="292"/>
-      <c r="K2" s="292"/>
-      <c r="L2" s="292"/>
-      <c r="M2" s="292"/>
-      <c r="N2" s="293"/>
-      <c r="O2" s="300"/>
-      <c r="P2" s="301"/>
-      <c r="Q2" s="301"/>
-      <c r="R2" s="302"/>
-      <c r="S2" s="309"/>
-      <c r="T2" s="310"/>
-      <c r="U2" s="310"/>
-      <c r="V2" s="310"/>
-      <c r="W2" s="310"/>
-      <c r="X2" s="310"/>
-      <c r="Y2" s="310"/>
-      <c r="Z2" s="311"/>
-      <c r="AA2" s="288" t="s">
+      <c r="F2" s="266"/>
+      <c r="G2" s="266"/>
+      <c r="H2" s="266"/>
+      <c r="I2" s="266"/>
+      <c r="J2" s="266"/>
+      <c r="K2" s="266"/>
+      <c r="L2" s="266"/>
+      <c r="M2" s="266"/>
+      <c r="N2" s="267"/>
+      <c r="O2" s="274"/>
+      <c r="P2" s="275"/>
+      <c r="Q2" s="275"/>
+      <c r="R2" s="276"/>
+      <c r="S2" s="283"/>
+      <c r="T2" s="284"/>
+      <c r="U2" s="284"/>
+      <c r="V2" s="284"/>
+      <c r="W2" s="284"/>
+      <c r="X2" s="284"/>
+      <c r="Y2" s="284"/>
+      <c r="Z2" s="285"/>
+      <c r="AA2" s="262" t="s">
         <v>23</v>
       </c>
-      <c r="AB2" s="290"/>
-      <c r="AC2" s="294" t="str">
+      <c r="AB2" s="264"/>
+      <c r="AC2" s="268" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="295"/>
-      <c r="AE2" s="295"/>
-      <c r="AF2" s="296"/>
-      <c r="AG2" s="282" t="str">
+      <c r="AD2" s="269"/>
+      <c r="AE2" s="269"/>
+      <c r="AF2" s="270"/>
+      <c r="AG2" s="256" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="283"/>
-      <c r="AI2" s="284"/>
+      <c r="AH2" s="257"/>
+      <c r="AI2" s="258"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -13836,45 +13845,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="288" t="s">
+      <c r="A3" s="262" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="289"/>
-      <c r="C3" s="289"/>
-      <c r="D3" s="290"/>
-      <c r="E3" s="291" t="s">
+      <c r="B3" s="263"/>
+      <c r="C3" s="263"/>
+      <c r="D3" s="264"/>
+      <c r="E3" s="265" t="s">
         <v>615</v>
       </c>
-      <c r="F3" s="292"/>
-      <c r="G3" s="292"/>
-      <c r="H3" s="292"/>
-      <c r="I3" s="292"/>
-      <c r="J3" s="292"/>
-      <c r="K3" s="292"/>
-      <c r="L3" s="292"/>
-      <c r="M3" s="292"/>
-      <c r="N3" s="293"/>
-      <c r="O3" s="303"/>
-      <c r="P3" s="304"/>
-      <c r="Q3" s="304"/>
-      <c r="R3" s="305"/>
-      <c r="S3" s="312"/>
-      <c r="T3" s="313"/>
-      <c r="U3" s="313"/>
-      <c r="V3" s="313"/>
-      <c r="W3" s="313"/>
-      <c r="X3" s="313"/>
-      <c r="Y3" s="313"/>
-      <c r="Z3" s="314"/>
-      <c r="AA3" s="288"/>
-      <c r="AB3" s="290"/>
-      <c r="AC3" s="315"/>
-      <c r="AD3" s="316"/>
-      <c r="AE3" s="316"/>
-      <c r="AF3" s="317"/>
-      <c r="AG3" s="282"/>
-      <c r="AH3" s="283"/>
-      <c r="AI3" s="284"/>
+      <c r="F3" s="266"/>
+      <c r="G3" s="266"/>
+      <c r="H3" s="266"/>
+      <c r="I3" s="266"/>
+      <c r="J3" s="266"/>
+      <c r="K3" s="266"/>
+      <c r="L3" s="266"/>
+      <c r="M3" s="266"/>
+      <c r="N3" s="267"/>
+      <c r="O3" s="277"/>
+      <c r="P3" s="278"/>
+      <c r="Q3" s="278"/>
+      <c r="R3" s="279"/>
+      <c r="S3" s="286"/>
+      <c r="T3" s="287"/>
+      <c r="U3" s="287"/>
+      <c r="V3" s="287"/>
+      <c r="W3" s="287"/>
+      <c r="X3" s="287"/>
+      <c r="Y3" s="287"/>
+      <c r="Z3" s="288"/>
+      <c r="AA3" s="262"/>
+      <c r="AB3" s="264"/>
+      <c r="AC3" s="289"/>
+      <c r="AD3" s="290"/>
+      <c r="AE3" s="290"/>
+      <c r="AF3" s="291"/>
+      <c r="AG3" s="256"/>
+      <c r="AH3" s="257"/>
+      <c r="AI3" s="258"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -13911,1020 +13920,1176 @@
       <c r="A7" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="285" t="s">
+      <c r="B7" s="259" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="286"/>
-      <c r="D7" s="285" t="s">
+      <c r="C7" s="260"/>
+      <c r="D7" s="259" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="287"/>
-      <c r="F7" s="286"/>
-      <c r="G7" s="285" t="s">
+      <c r="E7" s="261"/>
+      <c r="F7" s="260"/>
+      <c r="G7" s="259" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="287"/>
-      <c r="I7" s="286"/>
-      <c r="J7" s="285" t="s">
+      <c r="H7" s="261"/>
+      <c r="I7" s="260"/>
+      <c r="J7" s="259" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="287"/>
-      <c r="L7" s="287"/>
-      <c r="M7" s="287"/>
-      <c r="N7" s="287"/>
-      <c r="O7" s="287"/>
-      <c r="P7" s="286"/>
-      <c r="Q7" s="285" t="s">
+      <c r="K7" s="261"/>
+      <c r="L7" s="261"/>
+      <c r="M7" s="261"/>
+      <c r="N7" s="261"/>
+      <c r="O7" s="261"/>
+      <c r="P7" s="260"/>
+      <c r="Q7" s="259" t="s">
         <v>30</v>
       </c>
-      <c r="R7" s="287"/>
-      <c r="S7" s="287"/>
-      <c r="T7" s="287"/>
-      <c r="U7" s="287"/>
-      <c r="V7" s="287"/>
-      <c r="W7" s="287"/>
-      <c r="X7" s="287"/>
-      <c r="Y7" s="287"/>
-      <c r="Z7" s="287"/>
-      <c r="AA7" s="287"/>
-      <c r="AB7" s="287"/>
-      <c r="AC7" s="287"/>
-      <c r="AD7" s="287"/>
-      <c r="AE7" s="286"/>
-      <c r="AF7" s="285" t="s">
+      <c r="R7" s="261"/>
+      <c r="S7" s="261"/>
+      <c r="T7" s="261"/>
+      <c r="U7" s="261"/>
+      <c r="V7" s="261"/>
+      <c r="W7" s="261"/>
+      <c r="X7" s="261"/>
+      <c r="Y7" s="261"/>
+      <c r="Z7" s="261"/>
+      <c r="AA7" s="261"/>
+      <c r="AB7" s="261"/>
+      <c r="AC7" s="261"/>
+      <c r="AD7" s="261"/>
+      <c r="AE7" s="260"/>
+      <c r="AF7" s="259" t="s">
         <v>31</v>
       </c>
-      <c r="AG7" s="287"/>
-      <c r="AH7" s="287"/>
-      <c r="AI7" s="286"/>
+      <c r="AG7" s="261"/>
+      <c r="AH7" s="261"/>
+      <c r="AI7" s="260"/>
     </row>
     <row r="8" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="20"/>
-      <c r="B8" s="269"/>
-      <c r="C8" s="270"/>
-      <c r="D8" s="271"/>
-      <c r="E8" s="272"/>
-      <c r="F8" s="273"/>
-      <c r="G8" s="274"/>
-      <c r="H8" s="275"/>
-      <c r="I8" s="270"/>
-      <c r="J8" s="276"/>
-      <c r="K8" s="277"/>
-      <c r="L8" s="277"/>
-      <c r="M8" s="277"/>
-      <c r="N8" s="277"/>
-      <c r="O8" s="277"/>
-      <c r="P8" s="278"/>
-      <c r="Q8" s="279"/>
-      <c r="R8" s="280"/>
-      <c r="S8" s="280"/>
-      <c r="T8" s="280"/>
-      <c r="U8" s="280"/>
-      <c r="V8" s="280"/>
-      <c r="W8" s="280"/>
-      <c r="X8" s="280"/>
-      <c r="Y8" s="280"/>
-      <c r="Z8" s="280"/>
-      <c r="AA8" s="280"/>
-      <c r="AB8" s="280"/>
-      <c r="AC8" s="280"/>
-      <c r="AD8" s="280"/>
-      <c r="AE8" s="281"/>
-      <c r="AF8" s="276"/>
-      <c r="AG8" s="277"/>
-      <c r="AH8" s="277"/>
-      <c r="AI8" s="278"/>
+      <c r="B8" s="304"/>
+      <c r="C8" s="305"/>
+      <c r="D8" s="306"/>
+      <c r="E8" s="307"/>
+      <c r="F8" s="308"/>
+      <c r="G8" s="309"/>
+      <c r="H8" s="310"/>
+      <c r="I8" s="305"/>
+      <c r="J8" s="311"/>
+      <c r="K8" s="312"/>
+      <c r="L8" s="312"/>
+      <c r="M8" s="312"/>
+      <c r="N8" s="312"/>
+      <c r="O8" s="312"/>
+      <c r="P8" s="313"/>
+      <c r="Q8" s="314"/>
+      <c r="R8" s="315"/>
+      <c r="S8" s="315"/>
+      <c r="T8" s="315"/>
+      <c r="U8" s="315"/>
+      <c r="V8" s="315"/>
+      <c r="W8" s="315"/>
+      <c r="X8" s="315"/>
+      <c r="Y8" s="315"/>
+      <c r="Z8" s="315"/>
+      <c r="AA8" s="315"/>
+      <c r="AB8" s="315"/>
+      <c r="AC8" s="315"/>
+      <c r="AD8" s="315"/>
+      <c r="AE8" s="316"/>
+      <c r="AF8" s="311"/>
+      <c r="AG8" s="312"/>
+      <c r="AH8" s="312"/>
+      <c r="AI8" s="313"/>
     </row>
     <row r="9" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="21"/>
-      <c r="B9" s="256"/>
-      <c r="C9" s="257"/>
-      <c r="D9" s="258"/>
-      <c r="E9" s="259"/>
-      <c r="F9" s="260"/>
-      <c r="G9" s="258"/>
-      <c r="H9" s="261"/>
-      <c r="I9" s="257"/>
-      <c r="J9" s="262"/>
-      <c r="K9" s="263"/>
-      <c r="L9" s="263"/>
-      <c r="M9" s="263"/>
-      <c r="N9" s="263"/>
-      <c r="O9" s="263"/>
-      <c r="P9" s="264"/>
-      <c r="Q9" s="265"/>
-      <c r="R9" s="266"/>
-      <c r="S9" s="266"/>
-      <c r="T9" s="266"/>
-      <c r="U9" s="266"/>
-      <c r="V9" s="266"/>
-      <c r="W9" s="266"/>
-      <c r="X9" s="266"/>
-      <c r="Y9" s="266"/>
-      <c r="Z9" s="266"/>
-      <c r="AA9" s="266"/>
-      <c r="AB9" s="266"/>
-      <c r="AC9" s="266"/>
-      <c r="AD9" s="266"/>
-      <c r="AE9" s="267"/>
-      <c r="AF9" s="262"/>
-      <c r="AG9" s="263"/>
-      <c r="AH9" s="263"/>
-      <c r="AI9" s="264"/>
+      <c r="B9" s="292"/>
+      <c r="C9" s="293"/>
+      <c r="D9" s="294"/>
+      <c r="E9" s="295"/>
+      <c r="F9" s="296"/>
+      <c r="G9" s="294"/>
+      <c r="H9" s="297"/>
+      <c r="I9" s="293"/>
+      <c r="J9" s="298"/>
+      <c r="K9" s="299"/>
+      <c r="L9" s="299"/>
+      <c r="M9" s="299"/>
+      <c r="N9" s="299"/>
+      <c r="O9" s="299"/>
+      <c r="P9" s="300"/>
+      <c r="Q9" s="301"/>
+      <c r="R9" s="302"/>
+      <c r="S9" s="302"/>
+      <c r="T9" s="302"/>
+      <c r="U9" s="302"/>
+      <c r="V9" s="302"/>
+      <c r="W9" s="302"/>
+      <c r="X9" s="302"/>
+      <c r="Y9" s="302"/>
+      <c r="Z9" s="302"/>
+      <c r="AA9" s="302"/>
+      <c r="AB9" s="302"/>
+      <c r="AC9" s="302"/>
+      <c r="AD9" s="302"/>
+      <c r="AE9" s="303"/>
+      <c r="AF9" s="298"/>
+      <c r="AG9" s="299"/>
+      <c r="AH9" s="299"/>
+      <c r="AI9" s="300"/>
     </row>
     <row r="10" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="21"/>
-      <c r="B10" s="256"/>
-      <c r="C10" s="257"/>
-      <c r="D10" s="258"/>
-      <c r="E10" s="259"/>
-      <c r="F10" s="260"/>
-      <c r="G10" s="256"/>
-      <c r="H10" s="261"/>
-      <c r="I10" s="257"/>
-      <c r="J10" s="262"/>
-      <c r="K10" s="263"/>
-      <c r="L10" s="263"/>
-      <c r="M10" s="263"/>
-      <c r="N10" s="263"/>
-      <c r="O10" s="263"/>
-      <c r="P10" s="264"/>
-      <c r="Q10" s="265"/>
-      <c r="R10" s="266"/>
-      <c r="S10" s="266"/>
-      <c r="T10" s="266"/>
-      <c r="U10" s="266"/>
-      <c r="V10" s="266"/>
-      <c r="W10" s="266"/>
-      <c r="X10" s="266"/>
-      <c r="Y10" s="266"/>
-      <c r="Z10" s="266"/>
-      <c r="AA10" s="266"/>
-      <c r="AB10" s="266"/>
-      <c r="AC10" s="266"/>
-      <c r="AD10" s="266"/>
-      <c r="AE10" s="267"/>
-      <c r="AF10" s="262"/>
-      <c r="AG10" s="263"/>
-      <c r="AH10" s="263"/>
-      <c r="AI10" s="264"/>
+      <c r="B10" s="292"/>
+      <c r="C10" s="293"/>
+      <c r="D10" s="294"/>
+      <c r="E10" s="295"/>
+      <c r="F10" s="296"/>
+      <c r="G10" s="292"/>
+      <c r="H10" s="297"/>
+      <c r="I10" s="293"/>
+      <c r="J10" s="298"/>
+      <c r="K10" s="299"/>
+      <c r="L10" s="299"/>
+      <c r="M10" s="299"/>
+      <c r="N10" s="299"/>
+      <c r="O10" s="299"/>
+      <c r="P10" s="300"/>
+      <c r="Q10" s="301"/>
+      <c r="R10" s="302"/>
+      <c r="S10" s="302"/>
+      <c r="T10" s="302"/>
+      <c r="U10" s="302"/>
+      <c r="V10" s="302"/>
+      <c r="W10" s="302"/>
+      <c r="X10" s="302"/>
+      <c r="Y10" s="302"/>
+      <c r="Z10" s="302"/>
+      <c r="AA10" s="302"/>
+      <c r="AB10" s="302"/>
+      <c r="AC10" s="302"/>
+      <c r="AD10" s="302"/>
+      <c r="AE10" s="303"/>
+      <c r="AF10" s="298"/>
+      <c r="AG10" s="299"/>
+      <c r="AH10" s="299"/>
+      <c r="AI10" s="300"/>
     </row>
     <row r="11" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="21"/>
-      <c r="B11" s="256"/>
-      <c r="C11" s="257"/>
-      <c r="D11" s="258"/>
-      <c r="E11" s="259"/>
-      <c r="F11" s="260"/>
-      <c r="G11" s="256"/>
-      <c r="H11" s="261"/>
-      <c r="I11" s="257"/>
-      <c r="J11" s="262"/>
-      <c r="K11" s="263"/>
-      <c r="L11" s="263"/>
-      <c r="M11" s="263"/>
-      <c r="N11" s="263"/>
-      <c r="O11" s="263"/>
-      <c r="P11" s="264"/>
-      <c r="Q11" s="265"/>
-      <c r="R11" s="266"/>
-      <c r="S11" s="266"/>
-      <c r="T11" s="266"/>
-      <c r="U11" s="266"/>
-      <c r="V11" s="266"/>
-      <c r="W11" s="266"/>
-      <c r="X11" s="266"/>
-      <c r="Y11" s="266"/>
-      <c r="Z11" s="266"/>
-      <c r="AA11" s="266"/>
-      <c r="AB11" s="266"/>
-      <c r="AC11" s="266"/>
-      <c r="AD11" s="266"/>
-      <c r="AE11" s="267"/>
-      <c r="AF11" s="262"/>
-      <c r="AG11" s="263"/>
-      <c r="AH11" s="263"/>
-      <c r="AI11" s="264"/>
+      <c r="B11" s="292"/>
+      <c r="C11" s="293"/>
+      <c r="D11" s="294"/>
+      <c r="E11" s="295"/>
+      <c r="F11" s="296"/>
+      <c r="G11" s="292"/>
+      <c r="H11" s="297"/>
+      <c r="I11" s="293"/>
+      <c r="J11" s="298"/>
+      <c r="K11" s="299"/>
+      <c r="L11" s="299"/>
+      <c r="M11" s="299"/>
+      <c r="N11" s="299"/>
+      <c r="O11" s="299"/>
+      <c r="P11" s="300"/>
+      <c r="Q11" s="301"/>
+      <c r="R11" s="302"/>
+      <c r="S11" s="302"/>
+      <c r="T11" s="302"/>
+      <c r="U11" s="302"/>
+      <c r="V11" s="302"/>
+      <c r="W11" s="302"/>
+      <c r="X11" s="302"/>
+      <c r="Y11" s="302"/>
+      <c r="Z11" s="302"/>
+      <c r="AA11" s="302"/>
+      <c r="AB11" s="302"/>
+      <c r="AC11" s="302"/>
+      <c r="AD11" s="302"/>
+      <c r="AE11" s="303"/>
+      <c r="AF11" s="298"/>
+      <c r="AG11" s="299"/>
+      <c r="AH11" s="299"/>
+      <c r="AI11" s="300"/>
     </row>
     <row r="12" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="21"/>
-      <c r="B12" s="256"/>
-      <c r="C12" s="257"/>
-      <c r="D12" s="258"/>
-      <c r="E12" s="259"/>
-      <c r="F12" s="260"/>
-      <c r="G12" s="256"/>
-      <c r="H12" s="261"/>
-      <c r="I12" s="257"/>
-      <c r="J12" s="262"/>
-      <c r="K12" s="263"/>
-      <c r="L12" s="263"/>
-      <c r="M12" s="263"/>
-      <c r="N12" s="263"/>
-      <c r="O12" s="263"/>
-      <c r="P12" s="264"/>
-      <c r="Q12" s="265"/>
-      <c r="R12" s="266"/>
-      <c r="S12" s="266"/>
-      <c r="T12" s="266"/>
-      <c r="U12" s="266"/>
-      <c r="V12" s="266"/>
-      <c r="W12" s="266"/>
-      <c r="X12" s="266"/>
-      <c r="Y12" s="266"/>
-      <c r="Z12" s="266"/>
-      <c r="AA12" s="266"/>
-      <c r="AB12" s="266"/>
-      <c r="AC12" s="266"/>
-      <c r="AD12" s="266"/>
-      <c r="AE12" s="267"/>
-      <c r="AF12" s="262"/>
-      <c r="AG12" s="263"/>
-      <c r="AH12" s="263"/>
-      <c r="AI12" s="264"/>
+      <c r="B12" s="292"/>
+      <c r="C12" s="293"/>
+      <c r="D12" s="294"/>
+      <c r="E12" s="295"/>
+      <c r="F12" s="296"/>
+      <c r="G12" s="292"/>
+      <c r="H12" s="297"/>
+      <c r="I12" s="293"/>
+      <c r="J12" s="298"/>
+      <c r="K12" s="299"/>
+      <c r="L12" s="299"/>
+      <c r="M12" s="299"/>
+      <c r="N12" s="299"/>
+      <c r="O12" s="299"/>
+      <c r="P12" s="300"/>
+      <c r="Q12" s="301"/>
+      <c r="R12" s="302"/>
+      <c r="S12" s="302"/>
+      <c r="T12" s="302"/>
+      <c r="U12" s="302"/>
+      <c r="V12" s="302"/>
+      <c r="W12" s="302"/>
+      <c r="X12" s="302"/>
+      <c r="Y12" s="302"/>
+      <c r="Z12" s="302"/>
+      <c r="AA12" s="302"/>
+      <c r="AB12" s="302"/>
+      <c r="AC12" s="302"/>
+      <c r="AD12" s="302"/>
+      <c r="AE12" s="303"/>
+      <c r="AF12" s="298"/>
+      <c r="AG12" s="299"/>
+      <c r="AH12" s="299"/>
+      <c r="AI12" s="300"/>
     </row>
     <row r="13" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="21"/>
-      <c r="B13" s="256"/>
-      <c r="C13" s="257"/>
-      <c r="D13" s="258"/>
-      <c r="E13" s="259"/>
-      <c r="F13" s="260"/>
-      <c r="G13" s="256"/>
-      <c r="H13" s="261"/>
-      <c r="I13" s="257"/>
-      <c r="J13" s="262"/>
-      <c r="K13" s="263"/>
-      <c r="L13" s="263"/>
-      <c r="M13" s="263"/>
-      <c r="N13" s="263"/>
-      <c r="O13" s="263"/>
-      <c r="P13" s="264"/>
-      <c r="Q13" s="265"/>
-      <c r="R13" s="266"/>
-      <c r="S13" s="266"/>
-      <c r="T13" s="266"/>
-      <c r="U13" s="266"/>
-      <c r="V13" s="266"/>
-      <c r="W13" s="266"/>
-      <c r="X13" s="266"/>
-      <c r="Y13" s="266"/>
-      <c r="Z13" s="266"/>
-      <c r="AA13" s="266"/>
-      <c r="AB13" s="266"/>
-      <c r="AC13" s="266"/>
-      <c r="AD13" s="266"/>
-      <c r="AE13" s="267"/>
-      <c r="AF13" s="262"/>
-      <c r="AG13" s="263"/>
-      <c r="AH13" s="263"/>
-      <c r="AI13" s="264"/>
+      <c r="B13" s="292"/>
+      <c r="C13" s="293"/>
+      <c r="D13" s="294"/>
+      <c r="E13" s="295"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="292"/>
+      <c r="H13" s="297"/>
+      <c r="I13" s="293"/>
+      <c r="J13" s="298"/>
+      <c r="K13" s="299"/>
+      <c r="L13" s="299"/>
+      <c r="M13" s="299"/>
+      <c r="N13" s="299"/>
+      <c r="O13" s="299"/>
+      <c r="P13" s="300"/>
+      <c r="Q13" s="301"/>
+      <c r="R13" s="302"/>
+      <c r="S13" s="302"/>
+      <c r="T13" s="302"/>
+      <c r="U13" s="302"/>
+      <c r="V13" s="302"/>
+      <c r="W13" s="302"/>
+      <c r="X13" s="302"/>
+      <c r="Y13" s="302"/>
+      <c r="Z13" s="302"/>
+      <c r="AA13" s="302"/>
+      <c r="AB13" s="302"/>
+      <c r="AC13" s="302"/>
+      <c r="AD13" s="302"/>
+      <c r="AE13" s="303"/>
+      <c r="AF13" s="298"/>
+      <c r="AG13" s="299"/>
+      <c r="AH13" s="299"/>
+      <c r="AI13" s="300"/>
     </row>
     <row r="14" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="21"/>
-      <c r="B14" s="256"/>
-      <c r="C14" s="257"/>
-      <c r="D14" s="258"/>
-      <c r="E14" s="259"/>
-      <c r="F14" s="260"/>
-      <c r="G14" s="256"/>
-      <c r="H14" s="261"/>
-      <c r="I14" s="257"/>
-      <c r="J14" s="262"/>
-      <c r="K14" s="263"/>
-      <c r="L14" s="263"/>
-      <c r="M14" s="263"/>
-      <c r="N14" s="263"/>
-      <c r="O14" s="263"/>
-      <c r="P14" s="264"/>
-      <c r="Q14" s="265"/>
-      <c r="R14" s="266"/>
-      <c r="S14" s="266"/>
-      <c r="T14" s="266"/>
-      <c r="U14" s="266"/>
-      <c r="V14" s="266"/>
-      <c r="W14" s="266"/>
-      <c r="X14" s="266"/>
-      <c r="Y14" s="266"/>
-      <c r="Z14" s="266"/>
-      <c r="AA14" s="266"/>
-      <c r="AB14" s="266"/>
-      <c r="AC14" s="266"/>
-      <c r="AD14" s="266"/>
-      <c r="AE14" s="267"/>
-      <c r="AF14" s="262"/>
-      <c r="AG14" s="263"/>
-      <c r="AH14" s="263"/>
-      <c r="AI14" s="264"/>
+      <c r="B14" s="292"/>
+      <c r="C14" s="293"/>
+      <c r="D14" s="294"/>
+      <c r="E14" s="295"/>
+      <c r="F14" s="296"/>
+      <c r="G14" s="292"/>
+      <c r="H14" s="297"/>
+      <c r="I14" s="293"/>
+      <c r="J14" s="298"/>
+      <c r="K14" s="299"/>
+      <c r="L14" s="299"/>
+      <c r="M14" s="299"/>
+      <c r="N14" s="299"/>
+      <c r="O14" s="299"/>
+      <c r="P14" s="300"/>
+      <c r="Q14" s="301"/>
+      <c r="R14" s="302"/>
+      <c r="S14" s="302"/>
+      <c r="T14" s="302"/>
+      <c r="U14" s="302"/>
+      <c r="V14" s="302"/>
+      <c r="W14" s="302"/>
+      <c r="X14" s="302"/>
+      <c r="Y14" s="302"/>
+      <c r="Z14" s="302"/>
+      <c r="AA14" s="302"/>
+      <c r="AB14" s="302"/>
+      <c r="AC14" s="302"/>
+      <c r="AD14" s="302"/>
+      <c r="AE14" s="303"/>
+      <c r="AF14" s="298"/>
+      <c r="AG14" s="299"/>
+      <c r="AH14" s="299"/>
+      <c r="AI14" s="300"/>
     </row>
     <row r="15" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="256"/>
-      <c r="C15" s="257"/>
-      <c r="D15" s="258"/>
-      <c r="E15" s="259"/>
-      <c r="F15" s="260"/>
-      <c r="G15" s="256"/>
-      <c r="H15" s="261"/>
-      <c r="I15" s="257"/>
-      <c r="J15" s="262"/>
-      <c r="K15" s="263"/>
-      <c r="L15" s="263"/>
-      <c r="M15" s="263"/>
-      <c r="N15" s="263"/>
-      <c r="O15" s="263"/>
-      <c r="P15" s="264"/>
-      <c r="Q15" s="265"/>
-      <c r="R15" s="266"/>
-      <c r="S15" s="266"/>
-      <c r="T15" s="266"/>
-      <c r="U15" s="266"/>
-      <c r="V15" s="266"/>
-      <c r="W15" s="266"/>
-      <c r="X15" s="266"/>
-      <c r="Y15" s="266"/>
-      <c r="Z15" s="266"/>
-      <c r="AA15" s="266"/>
-      <c r="AB15" s="266"/>
-      <c r="AC15" s="266"/>
-      <c r="AD15" s="266"/>
-      <c r="AE15" s="267"/>
-      <c r="AF15" s="262"/>
-      <c r="AG15" s="263"/>
-      <c r="AH15" s="263"/>
-      <c r="AI15" s="264"/>
+      <c r="B15" s="292"/>
+      <c r="C15" s="293"/>
+      <c r="D15" s="294"/>
+      <c r="E15" s="295"/>
+      <c r="F15" s="296"/>
+      <c r="G15" s="292"/>
+      <c r="H15" s="297"/>
+      <c r="I15" s="293"/>
+      <c r="J15" s="298"/>
+      <c r="K15" s="299"/>
+      <c r="L15" s="299"/>
+      <c r="M15" s="299"/>
+      <c r="N15" s="299"/>
+      <c r="O15" s="299"/>
+      <c r="P15" s="300"/>
+      <c r="Q15" s="301"/>
+      <c r="R15" s="302"/>
+      <c r="S15" s="302"/>
+      <c r="T15" s="302"/>
+      <c r="U15" s="302"/>
+      <c r="V15" s="302"/>
+      <c r="W15" s="302"/>
+      <c r="X15" s="302"/>
+      <c r="Y15" s="302"/>
+      <c r="Z15" s="302"/>
+      <c r="AA15" s="302"/>
+      <c r="AB15" s="302"/>
+      <c r="AC15" s="302"/>
+      <c r="AD15" s="302"/>
+      <c r="AE15" s="303"/>
+      <c r="AF15" s="298"/>
+      <c r="AG15" s="299"/>
+      <c r="AH15" s="299"/>
+      <c r="AI15" s="300"/>
     </row>
     <row r="16" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="21"/>
-      <c r="B16" s="256"/>
-      <c r="C16" s="257"/>
-      <c r="D16" s="258"/>
-      <c r="E16" s="259"/>
-      <c r="F16" s="260"/>
-      <c r="G16" s="256"/>
-      <c r="H16" s="261"/>
-      <c r="I16" s="257"/>
-      <c r="J16" s="262"/>
-      <c r="K16" s="263"/>
-      <c r="L16" s="263"/>
-      <c r="M16" s="263"/>
-      <c r="N16" s="263"/>
-      <c r="O16" s="263"/>
-      <c r="P16" s="264"/>
-      <c r="Q16" s="265"/>
-      <c r="R16" s="266"/>
-      <c r="S16" s="266"/>
-      <c r="T16" s="266"/>
-      <c r="U16" s="266"/>
-      <c r="V16" s="266"/>
-      <c r="W16" s="266"/>
-      <c r="X16" s="266"/>
-      <c r="Y16" s="266"/>
-      <c r="Z16" s="266"/>
-      <c r="AA16" s="266"/>
-      <c r="AB16" s="266"/>
-      <c r="AC16" s="266"/>
-      <c r="AD16" s="266"/>
-      <c r="AE16" s="267"/>
-      <c r="AF16" s="262"/>
-      <c r="AG16" s="263"/>
-      <c r="AH16" s="263"/>
-      <c r="AI16" s="264"/>
+      <c r="B16" s="292"/>
+      <c r="C16" s="293"/>
+      <c r="D16" s="294"/>
+      <c r="E16" s="295"/>
+      <c r="F16" s="296"/>
+      <c r="G16" s="292"/>
+      <c r="H16" s="297"/>
+      <c r="I16" s="293"/>
+      <c r="J16" s="298"/>
+      <c r="K16" s="299"/>
+      <c r="L16" s="299"/>
+      <c r="M16" s="299"/>
+      <c r="N16" s="299"/>
+      <c r="O16" s="299"/>
+      <c r="P16" s="300"/>
+      <c r="Q16" s="301"/>
+      <c r="R16" s="302"/>
+      <c r="S16" s="302"/>
+      <c r="T16" s="302"/>
+      <c r="U16" s="302"/>
+      <c r="V16" s="302"/>
+      <c r="W16" s="302"/>
+      <c r="X16" s="302"/>
+      <c r="Y16" s="302"/>
+      <c r="Z16" s="302"/>
+      <c r="AA16" s="302"/>
+      <c r="AB16" s="302"/>
+      <c r="AC16" s="302"/>
+      <c r="AD16" s="302"/>
+      <c r="AE16" s="303"/>
+      <c r="AF16" s="298"/>
+      <c r="AG16" s="299"/>
+      <c r="AH16" s="299"/>
+      <c r="AI16" s="300"/>
     </row>
     <row r="17" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="256"/>
-      <c r="C17" s="257"/>
-      <c r="D17" s="258"/>
-      <c r="E17" s="259"/>
-      <c r="F17" s="260"/>
-      <c r="G17" s="256"/>
-      <c r="H17" s="261"/>
-      <c r="I17" s="257"/>
-      <c r="J17" s="262"/>
-      <c r="K17" s="263"/>
-      <c r="L17" s="263"/>
-      <c r="M17" s="263"/>
-      <c r="N17" s="263"/>
-      <c r="O17" s="263"/>
-      <c r="P17" s="264"/>
-      <c r="Q17" s="265"/>
-      <c r="R17" s="266"/>
-      <c r="S17" s="266"/>
-      <c r="T17" s="266"/>
-      <c r="U17" s="266"/>
-      <c r="V17" s="266"/>
-      <c r="W17" s="266"/>
-      <c r="X17" s="266"/>
-      <c r="Y17" s="266"/>
-      <c r="Z17" s="266"/>
-      <c r="AA17" s="266"/>
-      <c r="AB17" s="266"/>
-      <c r="AC17" s="266"/>
-      <c r="AD17" s="266"/>
-      <c r="AE17" s="267"/>
-      <c r="AF17" s="262"/>
-      <c r="AG17" s="263"/>
-      <c r="AH17" s="263"/>
-      <c r="AI17" s="264"/>
+      <c r="B17" s="292"/>
+      <c r="C17" s="293"/>
+      <c r="D17" s="294"/>
+      <c r="E17" s="295"/>
+      <c r="F17" s="296"/>
+      <c r="G17" s="292"/>
+      <c r="H17" s="297"/>
+      <c r="I17" s="293"/>
+      <c r="J17" s="298"/>
+      <c r="K17" s="299"/>
+      <c r="L17" s="299"/>
+      <c r="M17" s="299"/>
+      <c r="N17" s="299"/>
+      <c r="O17" s="299"/>
+      <c r="P17" s="300"/>
+      <c r="Q17" s="301"/>
+      <c r="R17" s="302"/>
+      <c r="S17" s="302"/>
+      <c r="T17" s="302"/>
+      <c r="U17" s="302"/>
+      <c r="V17" s="302"/>
+      <c r="W17" s="302"/>
+      <c r="X17" s="302"/>
+      <c r="Y17" s="302"/>
+      <c r="Z17" s="302"/>
+      <c r="AA17" s="302"/>
+      <c r="AB17" s="302"/>
+      <c r="AC17" s="302"/>
+      <c r="AD17" s="302"/>
+      <c r="AE17" s="303"/>
+      <c r="AF17" s="298"/>
+      <c r="AG17" s="299"/>
+      <c r="AH17" s="299"/>
+      <c r="AI17" s="300"/>
     </row>
     <row r="18" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="21"/>
-      <c r="B18" s="256"/>
-      <c r="C18" s="257"/>
-      <c r="D18" s="258"/>
-      <c r="E18" s="259"/>
-      <c r="F18" s="260"/>
-      <c r="G18" s="256"/>
-      <c r="H18" s="261"/>
-      <c r="I18" s="257"/>
-      <c r="J18" s="262"/>
-      <c r="K18" s="263"/>
-      <c r="L18" s="263"/>
-      <c r="M18" s="263"/>
-      <c r="N18" s="263"/>
-      <c r="O18" s="263"/>
-      <c r="P18" s="264"/>
-      <c r="Q18" s="265"/>
-      <c r="R18" s="266"/>
-      <c r="S18" s="266"/>
-      <c r="T18" s="266"/>
-      <c r="U18" s="266"/>
-      <c r="V18" s="266"/>
-      <c r="W18" s="266"/>
-      <c r="X18" s="266"/>
-      <c r="Y18" s="266"/>
-      <c r="Z18" s="266"/>
-      <c r="AA18" s="266"/>
-      <c r="AB18" s="266"/>
-      <c r="AC18" s="266"/>
-      <c r="AD18" s="266"/>
-      <c r="AE18" s="267"/>
-      <c r="AF18" s="262"/>
-      <c r="AG18" s="263"/>
-      <c r="AH18" s="263"/>
-      <c r="AI18" s="264"/>
+      <c r="B18" s="292"/>
+      <c r="C18" s="293"/>
+      <c r="D18" s="294"/>
+      <c r="E18" s="295"/>
+      <c r="F18" s="296"/>
+      <c r="G18" s="292"/>
+      <c r="H18" s="297"/>
+      <c r="I18" s="293"/>
+      <c r="J18" s="298"/>
+      <c r="K18" s="299"/>
+      <c r="L18" s="299"/>
+      <c r="M18" s="299"/>
+      <c r="N18" s="299"/>
+      <c r="O18" s="299"/>
+      <c r="P18" s="300"/>
+      <c r="Q18" s="301"/>
+      <c r="R18" s="302"/>
+      <c r="S18" s="302"/>
+      <c r="T18" s="302"/>
+      <c r="U18" s="302"/>
+      <c r="V18" s="302"/>
+      <c r="W18" s="302"/>
+      <c r="X18" s="302"/>
+      <c r="Y18" s="302"/>
+      <c r="Z18" s="302"/>
+      <c r="AA18" s="302"/>
+      <c r="AB18" s="302"/>
+      <c r="AC18" s="302"/>
+      <c r="AD18" s="302"/>
+      <c r="AE18" s="303"/>
+      <c r="AF18" s="298"/>
+      <c r="AG18" s="299"/>
+      <c r="AH18" s="299"/>
+      <c r="AI18" s="300"/>
     </row>
     <row r="19" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="21"/>
-      <c r="B19" s="256"/>
-      <c r="C19" s="257"/>
-      <c r="D19" s="258"/>
-      <c r="E19" s="259"/>
-      <c r="F19" s="260"/>
-      <c r="G19" s="256"/>
-      <c r="H19" s="261"/>
-      <c r="I19" s="257"/>
-      <c r="J19" s="262"/>
-      <c r="K19" s="263"/>
-      <c r="L19" s="263"/>
-      <c r="M19" s="263"/>
-      <c r="N19" s="263"/>
-      <c r="O19" s="263"/>
-      <c r="P19" s="264"/>
-      <c r="Q19" s="265"/>
-      <c r="R19" s="266"/>
-      <c r="S19" s="266"/>
-      <c r="T19" s="266"/>
-      <c r="U19" s="266"/>
-      <c r="V19" s="266"/>
-      <c r="W19" s="266"/>
-      <c r="X19" s="266"/>
-      <c r="Y19" s="266"/>
-      <c r="Z19" s="266"/>
-      <c r="AA19" s="266"/>
-      <c r="AB19" s="266"/>
-      <c r="AC19" s="266"/>
-      <c r="AD19" s="266"/>
-      <c r="AE19" s="267"/>
-      <c r="AF19" s="262"/>
-      <c r="AG19" s="263"/>
-      <c r="AH19" s="263"/>
-      <c r="AI19" s="264"/>
+      <c r="B19" s="292"/>
+      <c r="C19" s="293"/>
+      <c r="D19" s="294"/>
+      <c r="E19" s="295"/>
+      <c r="F19" s="296"/>
+      <c r="G19" s="292"/>
+      <c r="H19" s="297"/>
+      <c r="I19" s="293"/>
+      <c r="J19" s="298"/>
+      <c r="K19" s="299"/>
+      <c r="L19" s="299"/>
+      <c r="M19" s="299"/>
+      <c r="N19" s="299"/>
+      <c r="O19" s="299"/>
+      <c r="P19" s="300"/>
+      <c r="Q19" s="301"/>
+      <c r="R19" s="302"/>
+      <c r="S19" s="302"/>
+      <c r="T19" s="302"/>
+      <c r="U19" s="302"/>
+      <c r="V19" s="302"/>
+      <c r="W19" s="302"/>
+      <c r="X19" s="302"/>
+      <c r="Y19" s="302"/>
+      <c r="Z19" s="302"/>
+      <c r="AA19" s="302"/>
+      <c r="AB19" s="302"/>
+      <c r="AC19" s="302"/>
+      <c r="AD19" s="302"/>
+      <c r="AE19" s="303"/>
+      <c r="AF19" s="298"/>
+      <c r="AG19" s="299"/>
+      <c r="AH19" s="299"/>
+      <c r="AI19" s="300"/>
     </row>
     <row r="20" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="21"/>
-      <c r="B20" s="256"/>
-      <c r="C20" s="257"/>
-      <c r="D20" s="258"/>
-      <c r="E20" s="259"/>
-      <c r="F20" s="260"/>
-      <c r="G20" s="256"/>
-      <c r="H20" s="261"/>
-      <c r="I20" s="257"/>
-      <c r="J20" s="262"/>
-      <c r="K20" s="263"/>
-      <c r="L20" s="263"/>
-      <c r="M20" s="263"/>
-      <c r="N20" s="263"/>
-      <c r="O20" s="263"/>
-      <c r="P20" s="264"/>
-      <c r="Q20" s="265"/>
-      <c r="R20" s="266"/>
-      <c r="S20" s="266"/>
-      <c r="T20" s="266"/>
-      <c r="U20" s="266"/>
-      <c r="V20" s="266"/>
-      <c r="W20" s="266"/>
-      <c r="X20" s="266"/>
-      <c r="Y20" s="266"/>
-      <c r="Z20" s="266"/>
-      <c r="AA20" s="266"/>
-      <c r="AB20" s="266"/>
-      <c r="AC20" s="266"/>
-      <c r="AD20" s="266"/>
-      <c r="AE20" s="267"/>
-      <c r="AF20" s="262"/>
-      <c r="AG20" s="263"/>
-      <c r="AH20" s="263"/>
-      <c r="AI20" s="264"/>
+      <c r="B20" s="292"/>
+      <c r="C20" s="293"/>
+      <c r="D20" s="294"/>
+      <c r="E20" s="295"/>
+      <c r="F20" s="296"/>
+      <c r="G20" s="292"/>
+      <c r="H20" s="297"/>
+      <c r="I20" s="293"/>
+      <c r="J20" s="298"/>
+      <c r="K20" s="299"/>
+      <c r="L20" s="299"/>
+      <c r="M20" s="299"/>
+      <c r="N20" s="299"/>
+      <c r="O20" s="299"/>
+      <c r="P20" s="300"/>
+      <c r="Q20" s="301"/>
+      <c r="R20" s="302"/>
+      <c r="S20" s="302"/>
+      <c r="T20" s="302"/>
+      <c r="U20" s="302"/>
+      <c r="V20" s="302"/>
+      <c r="W20" s="302"/>
+      <c r="X20" s="302"/>
+      <c r="Y20" s="302"/>
+      <c r="Z20" s="302"/>
+      <c r="AA20" s="302"/>
+      <c r="AB20" s="302"/>
+      <c r="AC20" s="302"/>
+      <c r="AD20" s="302"/>
+      <c r="AE20" s="303"/>
+      <c r="AF20" s="298"/>
+      <c r="AG20" s="299"/>
+      <c r="AH20" s="299"/>
+      <c r="AI20" s="300"/>
     </row>
     <row r="21" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="21"/>
-      <c r="B21" s="256"/>
-      <c r="C21" s="257"/>
-      <c r="D21" s="258"/>
-      <c r="E21" s="259"/>
-      <c r="F21" s="260"/>
-      <c r="G21" s="256"/>
-      <c r="H21" s="261"/>
-      <c r="I21" s="257"/>
-      <c r="J21" s="262"/>
-      <c r="K21" s="263"/>
-      <c r="L21" s="263"/>
-      <c r="M21" s="263"/>
-      <c r="N21" s="263"/>
-      <c r="O21" s="263"/>
-      <c r="P21" s="264"/>
-      <c r="Q21" s="265"/>
-      <c r="R21" s="266"/>
-      <c r="S21" s="266"/>
-      <c r="T21" s="266"/>
-      <c r="U21" s="266"/>
-      <c r="V21" s="266"/>
-      <c r="W21" s="266"/>
-      <c r="X21" s="266"/>
-      <c r="Y21" s="266"/>
-      <c r="Z21" s="266"/>
-      <c r="AA21" s="266"/>
-      <c r="AB21" s="266"/>
-      <c r="AC21" s="266"/>
-      <c r="AD21" s="266"/>
-      <c r="AE21" s="267"/>
-      <c r="AF21" s="262"/>
-      <c r="AG21" s="263"/>
-      <c r="AH21" s="263"/>
-      <c r="AI21" s="264"/>
+      <c r="B21" s="292"/>
+      <c r="C21" s="293"/>
+      <c r="D21" s="294"/>
+      <c r="E21" s="295"/>
+      <c r="F21" s="296"/>
+      <c r="G21" s="292"/>
+      <c r="H21" s="297"/>
+      <c r="I21" s="293"/>
+      <c r="J21" s="298"/>
+      <c r="K21" s="299"/>
+      <c r="L21" s="299"/>
+      <c r="M21" s="299"/>
+      <c r="N21" s="299"/>
+      <c r="O21" s="299"/>
+      <c r="P21" s="300"/>
+      <c r="Q21" s="301"/>
+      <c r="R21" s="302"/>
+      <c r="S21" s="302"/>
+      <c r="T21" s="302"/>
+      <c r="U21" s="302"/>
+      <c r="V21" s="302"/>
+      <c r="W21" s="302"/>
+      <c r="X21" s="302"/>
+      <c r="Y21" s="302"/>
+      <c r="Z21" s="302"/>
+      <c r="AA21" s="302"/>
+      <c r="AB21" s="302"/>
+      <c r="AC21" s="302"/>
+      <c r="AD21" s="302"/>
+      <c r="AE21" s="303"/>
+      <c r="AF21" s="298"/>
+      <c r="AG21" s="299"/>
+      <c r="AH21" s="299"/>
+      <c r="AI21" s="300"/>
     </row>
     <row r="22" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="21"/>
-      <c r="B22" s="256"/>
-      <c r="C22" s="257"/>
-      <c r="D22" s="258"/>
-      <c r="E22" s="259"/>
-      <c r="F22" s="260"/>
-      <c r="G22" s="256"/>
-      <c r="H22" s="261"/>
-      <c r="I22" s="257"/>
-      <c r="J22" s="262"/>
-      <c r="K22" s="263"/>
-      <c r="L22" s="263"/>
-      <c r="M22" s="263"/>
-      <c r="N22" s="263"/>
-      <c r="O22" s="263"/>
-      <c r="P22" s="264"/>
-      <c r="Q22" s="265"/>
-      <c r="R22" s="266"/>
-      <c r="S22" s="266"/>
-      <c r="T22" s="266"/>
-      <c r="U22" s="266"/>
-      <c r="V22" s="266"/>
-      <c r="W22" s="266"/>
-      <c r="X22" s="266"/>
-      <c r="Y22" s="266"/>
-      <c r="Z22" s="266"/>
-      <c r="AA22" s="266"/>
-      <c r="AB22" s="266"/>
-      <c r="AC22" s="266"/>
-      <c r="AD22" s="266"/>
-      <c r="AE22" s="267"/>
-      <c r="AF22" s="262"/>
-      <c r="AG22" s="263"/>
-      <c r="AH22" s="263"/>
-      <c r="AI22" s="264"/>
+      <c r="B22" s="292"/>
+      <c r="C22" s="293"/>
+      <c r="D22" s="294"/>
+      <c r="E22" s="295"/>
+      <c r="F22" s="296"/>
+      <c r="G22" s="292"/>
+      <c r="H22" s="297"/>
+      <c r="I22" s="293"/>
+      <c r="J22" s="298"/>
+      <c r="K22" s="299"/>
+      <c r="L22" s="299"/>
+      <c r="M22" s="299"/>
+      <c r="N22" s="299"/>
+      <c r="O22" s="299"/>
+      <c r="P22" s="300"/>
+      <c r="Q22" s="301"/>
+      <c r="R22" s="302"/>
+      <c r="S22" s="302"/>
+      <c r="T22" s="302"/>
+      <c r="U22" s="302"/>
+      <c r="V22" s="302"/>
+      <c r="W22" s="302"/>
+      <c r="X22" s="302"/>
+      <c r="Y22" s="302"/>
+      <c r="Z22" s="302"/>
+      <c r="AA22" s="302"/>
+      <c r="AB22" s="302"/>
+      <c r="AC22" s="302"/>
+      <c r="AD22" s="302"/>
+      <c r="AE22" s="303"/>
+      <c r="AF22" s="298"/>
+      <c r="AG22" s="299"/>
+      <c r="AH22" s="299"/>
+      <c r="AI22" s="300"/>
     </row>
     <row r="23" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="21"/>
-      <c r="B23" s="256"/>
-      <c r="C23" s="257"/>
-      <c r="D23" s="258"/>
-      <c r="E23" s="259"/>
-      <c r="F23" s="260"/>
-      <c r="G23" s="256"/>
-      <c r="H23" s="261"/>
-      <c r="I23" s="257"/>
-      <c r="J23" s="262"/>
-      <c r="K23" s="263"/>
-      <c r="L23" s="263"/>
-      <c r="M23" s="263"/>
-      <c r="N23" s="263"/>
-      <c r="O23" s="263"/>
-      <c r="P23" s="264"/>
-      <c r="Q23" s="265"/>
-      <c r="R23" s="266"/>
-      <c r="S23" s="266"/>
-      <c r="T23" s="266"/>
-      <c r="U23" s="266"/>
-      <c r="V23" s="266"/>
-      <c r="W23" s="266"/>
-      <c r="X23" s="266"/>
-      <c r="Y23" s="266"/>
-      <c r="Z23" s="266"/>
-      <c r="AA23" s="266"/>
-      <c r="AB23" s="266"/>
-      <c r="AC23" s="266"/>
-      <c r="AD23" s="266"/>
-      <c r="AE23" s="267"/>
-      <c r="AF23" s="262"/>
-      <c r="AG23" s="263"/>
-      <c r="AH23" s="263"/>
-      <c r="AI23" s="264"/>
+      <c r="B23" s="292"/>
+      <c r="C23" s="293"/>
+      <c r="D23" s="294"/>
+      <c r="E23" s="295"/>
+      <c r="F23" s="296"/>
+      <c r="G23" s="292"/>
+      <c r="H23" s="297"/>
+      <c r="I23" s="293"/>
+      <c r="J23" s="298"/>
+      <c r="K23" s="299"/>
+      <c r="L23" s="299"/>
+      <c r="M23" s="299"/>
+      <c r="N23" s="299"/>
+      <c r="O23" s="299"/>
+      <c r="P23" s="300"/>
+      <c r="Q23" s="301"/>
+      <c r="R23" s="302"/>
+      <c r="S23" s="302"/>
+      <c r="T23" s="302"/>
+      <c r="U23" s="302"/>
+      <c r="V23" s="302"/>
+      <c r="W23" s="302"/>
+      <c r="X23" s="302"/>
+      <c r="Y23" s="302"/>
+      <c r="Z23" s="302"/>
+      <c r="AA23" s="302"/>
+      <c r="AB23" s="302"/>
+      <c r="AC23" s="302"/>
+      <c r="AD23" s="302"/>
+      <c r="AE23" s="303"/>
+      <c r="AF23" s="298"/>
+      <c r="AG23" s="299"/>
+      <c r="AH23" s="299"/>
+      <c r="AI23" s="300"/>
     </row>
     <row r="24" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="21"/>
-      <c r="B24" s="256"/>
-      <c r="C24" s="257"/>
-      <c r="D24" s="258"/>
-      <c r="E24" s="259"/>
-      <c r="F24" s="260"/>
-      <c r="G24" s="256"/>
-      <c r="H24" s="261"/>
-      <c r="I24" s="257"/>
-      <c r="J24" s="262"/>
-      <c r="K24" s="263"/>
-      <c r="L24" s="263"/>
-      <c r="M24" s="263"/>
-      <c r="N24" s="263"/>
-      <c r="O24" s="263"/>
-      <c r="P24" s="264"/>
-      <c r="Q24" s="265"/>
-      <c r="R24" s="266"/>
-      <c r="S24" s="266"/>
-      <c r="T24" s="266"/>
-      <c r="U24" s="266"/>
-      <c r="V24" s="266"/>
-      <c r="W24" s="266"/>
-      <c r="X24" s="266"/>
-      <c r="Y24" s="266"/>
-      <c r="Z24" s="266"/>
-      <c r="AA24" s="266"/>
-      <c r="AB24" s="266"/>
-      <c r="AC24" s="266"/>
-      <c r="AD24" s="266"/>
-      <c r="AE24" s="267"/>
-      <c r="AF24" s="262"/>
-      <c r="AG24" s="263"/>
-      <c r="AH24" s="263"/>
-      <c r="AI24" s="264"/>
+      <c r="B24" s="292"/>
+      <c r="C24" s="293"/>
+      <c r="D24" s="294"/>
+      <c r="E24" s="295"/>
+      <c r="F24" s="296"/>
+      <c r="G24" s="292"/>
+      <c r="H24" s="297"/>
+      <c r="I24" s="293"/>
+      <c r="J24" s="298"/>
+      <c r="K24" s="299"/>
+      <c r="L24" s="299"/>
+      <c r="M24" s="299"/>
+      <c r="N24" s="299"/>
+      <c r="O24" s="299"/>
+      <c r="P24" s="300"/>
+      <c r="Q24" s="301"/>
+      <c r="R24" s="302"/>
+      <c r="S24" s="302"/>
+      <c r="T24" s="302"/>
+      <c r="U24" s="302"/>
+      <c r="V24" s="302"/>
+      <c r="W24" s="302"/>
+      <c r="X24" s="302"/>
+      <c r="Y24" s="302"/>
+      <c r="Z24" s="302"/>
+      <c r="AA24" s="302"/>
+      <c r="AB24" s="302"/>
+      <c r="AC24" s="302"/>
+      <c r="AD24" s="302"/>
+      <c r="AE24" s="303"/>
+      <c r="AF24" s="298"/>
+      <c r="AG24" s="299"/>
+      <c r="AH24" s="299"/>
+      <c r="AI24" s="300"/>
     </row>
     <row r="25" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="21"/>
-      <c r="B25" s="256"/>
-      <c r="C25" s="257"/>
-      <c r="D25" s="258"/>
-      <c r="E25" s="259"/>
-      <c r="F25" s="260"/>
-      <c r="G25" s="256"/>
-      <c r="H25" s="261"/>
-      <c r="I25" s="257"/>
-      <c r="J25" s="262"/>
-      <c r="K25" s="263"/>
-      <c r="L25" s="263"/>
-      <c r="M25" s="263"/>
-      <c r="N25" s="263"/>
-      <c r="O25" s="263"/>
-      <c r="P25" s="264"/>
-      <c r="Q25" s="265"/>
-      <c r="R25" s="266"/>
-      <c r="S25" s="266"/>
-      <c r="T25" s="266"/>
-      <c r="U25" s="266"/>
-      <c r="V25" s="266"/>
-      <c r="W25" s="266"/>
-      <c r="X25" s="266"/>
-      <c r="Y25" s="266"/>
-      <c r="Z25" s="266"/>
-      <c r="AA25" s="266"/>
-      <c r="AB25" s="266"/>
-      <c r="AC25" s="266"/>
-      <c r="AD25" s="266"/>
-      <c r="AE25" s="267"/>
-      <c r="AF25" s="262"/>
-      <c r="AG25" s="263"/>
-      <c r="AH25" s="263"/>
-      <c r="AI25" s="264"/>
+      <c r="B25" s="292"/>
+      <c r="C25" s="293"/>
+      <c r="D25" s="294"/>
+      <c r="E25" s="295"/>
+      <c r="F25" s="296"/>
+      <c r="G25" s="292"/>
+      <c r="H25" s="297"/>
+      <c r="I25" s="293"/>
+      <c r="J25" s="298"/>
+      <c r="K25" s="299"/>
+      <c r="L25" s="299"/>
+      <c r="M25" s="299"/>
+      <c r="N25" s="299"/>
+      <c r="O25" s="299"/>
+      <c r="P25" s="300"/>
+      <c r="Q25" s="301"/>
+      <c r="R25" s="302"/>
+      <c r="S25" s="302"/>
+      <c r="T25" s="302"/>
+      <c r="U25" s="302"/>
+      <c r="V25" s="302"/>
+      <c r="W25" s="302"/>
+      <c r="X25" s="302"/>
+      <c r="Y25" s="302"/>
+      <c r="Z25" s="302"/>
+      <c r="AA25" s="302"/>
+      <c r="AB25" s="302"/>
+      <c r="AC25" s="302"/>
+      <c r="AD25" s="302"/>
+      <c r="AE25" s="303"/>
+      <c r="AF25" s="298"/>
+      <c r="AG25" s="299"/>
+      <c r="AH25" s="299"/>
+      <c r="AI25" s="300"/>
     </row>
     <row r="26" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="21"/>
-      <c r="B26" s="256"/>
-      <c r="C26" s="257"/>
-      <c r="D26" s="258"/>
-      <c r="E26" s="259"/>
-      <c r="F26" s="260"/>
-      <c r="G26" s="256"/>
-      <c r="H26" s="261"/>
-      <c r="I26" s="257"/>
-      <c r="J26" s="262"/>
-      <c r="K26" s="263"/>
-      <c r="L26" s="263"/>
-      <c r="M26" s="263"/>
-      <c r="N26" s="263"/>
-      <c r="O26" s="263"/>
-      <c r="P26" s="264"/>
-      <c r="Q26" s="265"/>
-      <c r="R26" s="266"/>
-      <c r="S26" s="266"/>
-      <c r="T26" s="266"/>
-      <c r="U26" s="266"/>
-      <c r="V26" s="266"/>
-      <c r="W26" s="266"/>
-      <c r="X26" s="266"/>
-      <c r="Y26" s="266"/>
-      <c r="Z26" s="266"/>
-      <c r="AA26" s="266"/>
-      <c r="AB26" s="266"/>
-      <c r="AC26" s="266"/>
-      <c r="AD26" s="266"/>
-      <c r="AE26" s="267"/>
-      <c r="AF26" s="262"/>
-      <c r="AG26" s="263"/>
-      <c r="AH26" s="263"/>
-      <c r="AI26" s="264"/>
+      <c r="B26" s="292"/>
+      <c r="C26" s="293"/>
+      <c r="D26" s="294"/>
+      <c r="E26" s="295"/>
+      <c r="F26" s="296"/>
+      <c r="G26" s="292"/>
+      <c r="H26" s="297"/>
+      <c r="I26" s="293"/>
+      <c r="J26" s="298"/>
+      <c r="K26" s="299"/>
+      <c r="L26" s="299"/>
+      <c r="M26" s="299"/>
+      <c r="N26" s="299"/>
+      <c r="O26" s="299"/>
+      <c r="P26" s="300"/>
+      <c r="Q26" s="301"/>
+      <c r="R26" s="302"/>
+      <c r="S26" s="302"/>
+      <c r="T26" s="302"/>
+      <c r="U26" s="302"/>
+      <c r="V26" s="302"/>
+      <c r="W26" s="302"/>
+      <c r="X26" s="302"/>
+      <c r="Y26" s="302"/>
+      <c r="Z26" s="302"/>
+      <c r="AA26" s="302"/>
+      <c r="AB26" s="302"/>
+      <c r="AC26" s="302"/>
+      <c r="AD26" s="302"/>
+      <c r="AE26" s="303"/>
+      <c r="AF26" s="298"/>
+      <c r="AG26" s="299"/>
+      <c r="AH26" s="299"/>
+      <c r="AI26" s="300"/>
     </row>
     <row r="27" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="21"/>
-      <c r="B27" s="256"/>
-      <c r="C27" s="257"/>
-      <c r="D27" s="258"/>
-      <c r="E27" s="259"/>
-      <c r="F27" s="260"/>
-      <c r="G27" s="256"/>
-      <c r="H27" s="261"/>
-      <c r="I27" s="257"/>
-      <c r="J27" s="262"/>
-      <c r="K27" s="263"/>
-      <c r="L27" s="263"/>
-      <c r="M27" s="263"/>
-      <c r="N27" s="263"/>
-      <c r="O27" s="263"/>
-      <c r="P27" s="264"/>
-      <c r="Q27" s="265"/>
-      <c r="R27" s="266"/>
-      <c r="S27" s="266"/>
-      <c r="T27" s="266"/>
-      <c r="U27" s="266"/>
-      <c r="V27" s="266"/>
-      <c r="W27" s="266"/>
-      <c r="X27" s="266"/>
-      <c r="Y27" s="266"/>
-      <c r="Z27" s="266"/>
-      <c r="AA27" s="266"/>
-      <c r="AB27" s="266"/>
-      <c r="AC27" s="266"/>
-      <c r="AD27" s="266"/>
-      <c r="AE27" s="267"/>
-      <c r="AF27" s="262"/>
-      <c r="AG27" s="263"/>
-      <c r="AH27" s="263"/>
-      <c r="AI27" s="264"/>
+      <c r="B27" s="292"/>
+      <c r="C27" s="293"/>
+      <c r="D27" s="294"/>
+      <c r="E27" s="295"/>
+      <c r="F27" s="296"/>
+      <c r="G27" s="292"/>
+      <c r="H27" s="297"/>
+      <c r="I27" s="293"/>
+      <c r="J27" s="298"/>
+      <c r="K27" s="299"/>
+      <c r="L27" s="299"/>
+      <c r="M27" s="299"/>
+      <c r="N27" s="299"/>
+      <c r="O27" s="299"/>
+      <c r="P27" s="300"/>
+      <c r="Q27" s="301"/>
+      <c r="R27" s="302"/>
+      <c r="S27" s="302"/>
+      <c r="T27" s="302"/>
+      <c r="U27" s="302"/>
+      <c r="V27" s="302"/>
+      <c r="W27" s="302"/>
+      <c r="X27" s="302"/>
+      <c r="Y27" s="302"/>
+      <c r="Z27" s="302"/>
+      <c r="AA27" s="302"/>
+      <c r="AB27" s="302"/>
+      <c r="AC27" s="302"/>
+      <c r="AD27" s="302"/>
+      <c r="AE27" s="303"/>
+      <c r="AF27" s="298"/>
+      <c r="AG27" s="299"/>
+      <c r="AH27" s="299"/>
+      <c r="AI27" s="300"/>
     </row>
     <row r="28" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="256"/>
-      <c r="C28" s="257"/>
-      <c r="D28" s="258"/>
-      <c r="E28" s="259"/>
-      <c r="F28" s="260"/>
-      <c r="G28" s="256"/>
-      <c r="H28" s="261"/>
-      <c r="I28" s="257"/>
-      <c r="J28" s="262"/>
-      <c r="K28" s="263"/>
-      <c r="L28" s="263"/>
-      <c r="M28" s="263"/>
-      <c r="N28" s="263"/>
-      <c r="O28" s="263"/>
-      <c r="P28" s="264"/>
-      <c r="Q28" s="265"/>
-      <c r="R28" s="266"/>
-      <c r="S28" s="266"/>
-      <c r="T28" s="266"/>
-      <c r="U28" s="266"/>
-      <c r="V28" s="266"/>
-      <c r="W28" s="266"/>
-      <c r="X28" s="266"/>
-      <c r="Y28" s="266"/>
-      <c r="Z28" s="266"/>
-      <c r="AA28" s="266"/>
-      <c r="AB28" s="266"/>
-      <c r="AC28" s="266"/>
-      <c r="AD28" s="266"/>
-      <c r="AE28" s="267"/>
-      <c r="AF28" s="262"/>
-      <c r="AG28" s="263"/>
-      <c r="AH28" s="263"/>
-      <c r="AI28" s="264"/>
+      <c r="B28" s="292"/>
+      <c r="C28" s="293"/>
+      <c r="D28" s="294"/>
+      <c r="E28" s="295"/>
+      <c r="F28" s="296"/>
+      <c r="G28" s="292"/>
+      <c r="H28" s="297"/>
+      <c r="I28" s="293"/>
+      <c r="J28" s="298"/>
+      <c r="K28" s="299"/>
+      <c r="L28" s="299"/>
+      <c r="M28" s="299"/>
+      <c r="N28" s="299"/>
+      <c r="O28" s="299"/>
+      <c r="P28" s="300"/>
+      <c r="Q28" s="301"/>
+      <c r="R28" s="302"/>
+      <c r="S28" s="302"/>
+      <c r="T28" s="302"/>
+      <c r="U28" s="302"/>
+      <c r="V28" s="302"/>
+      <c r="W28" s="302"/>
+      <c r="X28" s="302"/>
+      <c r="Y28" s="302"/>
+      <c r="Z28" s="302"/>
+      <c r="AA28" s="302"/>
+      <c r="AB28" s="302"/>
+      <c r="AC28" s="302"/>
+      <c r="AD28" s="302"/>
+      <c r="AE28" s="303"/>
+      <c r="AF28" s="298"/>
+      <c r="AG28" s="299"/>
+      <c r="AH28" s="299"/>
+      <c r="AI28" s="300"/>
     </row>
     <row r="29" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="21"/>
-      <c r="B29" s="256"/>
-      <c r="C29" s="257"/>
-      <c r="D29" s="258"/>
-      <c r="E29" s="259"/>
-      <c r="F29" s="260"/>
-      <c r="G29" s="256"/>
-      <c r="H29" s="261"/>
-      <c r="I29" s="257"/>
-      <c r="J29" s="262"/>
-      <c r="K29" s="263"/>
-      <c r="L29" s="263"/>
-      <c r="M29" s="263"/>
-      <c r="N29" s="263"/>
-      <c r="O29" s="263"/>
-      <c r="P29" s="264"/>
-      <c r="Q29" s="265"/>
-      <c r="R29" s="266"/>
-      <c r="S29" s="266"/>
-      <c r="T29" s="266"/>
-      <c r="U29" s="266"/>
-      <c r="V29" s="266"/>
-      <c r="W29" s="266"/>
-      <c r="X29" s="266"/>
-      <c r="Y29" s="266"/>
-      <c r="Z29" s="266"/>
-      <c r="AA29" s="266"/>
-      <c r="AB29" s="266"/>
-      <c r="AC29" s="266"/>
-      <c r="AD29" s="266"/>
-      <c r="AE29" s="267"/>
-      <c r="AF29" s="262"/>
-      <c r="AG29" s="263"/>
-      <c r="AH29" s="263"/>
-      <c r="AI29" s="264"/>
+      <c r="B29" s="292"/>
+      <c r="C29" s="293"/>
+      <c r="D29" s="294"/>
+      <c r="E29" s="295"/>
+      <c r="F29" s="296"/>
+      <c r="G29" s="292"/>
+      <c r="H29" s="297"/>
+      <c r="I29" s="293"/>
+      <c r="J29" s="298"/>
+      <c r="K29" s="299"/>
+      <c r="L29" s="299"/>
+      <c r="M29" s="299"/>
+      <c r="N29" s="299"/>
+      <c r="O29" s="299"/>
+      <c r="P29" s="300"/>
+      <c r="Q29" s="301"/>
+      <c r="R29" s="302"/>
+      <c r="S29" s="302"/>
+      <c r="T29" s="302"/>
+      <c r="U29" s="302"/>
+      <c r="V29" s="302"/>
+      <c r="W29" s="302"/>
+      <c r="X29" s="302"/>
+      <c r="Y29" s="302"/>
+      <c r="Z29" s="302"/>
+      <c r="AA29" s="302"/>
+      <c r="AB29" s="302"/>
+      <c r="AC29" s="302"/>
+      <c r="AD29" s="302"/>
+      <c r="AE29" s="303"/>
+      <c r="AF29" s="298"/>
+      <c r="AG29" s="299"/>
+      <c r="AH29" s="299"/>
+      <c r="AI29" s="300"/>
     </row>
     <row r="30" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="21"/>
-      <c r="B30" s="256"/>
-      <c r="C30" s="257"/>
-      <c r="D30" s="258"/>
-      <c r="E30" s="259"/>
-      <c r="F30" s="260"/>
-      <c r="G30" s="256"/>
-      <c r="H30" s="261"/>
-      <c r="I30" s="257"/>
-      <c r="J30" s="262"/>
-      <c r="K30" s="263"/>
-      <c r="L30" s="263"/>
-      <c r="M30" s="263"/>
-      <c r="N30" s="263"/>
-      <c r="O30" s="263"/>
-      <c r="P30" s="264"/>
-      <c r="Q30" s="265"/>
-      <c r="R30" s="266"/>
-      <c r="S30" s="266"/>
-      <c r="T30" s="266"/>
-      <c r="U30" s="266"/>
-      <c r="V30" s="266"/>
-      <c r="W30" s="266"/>
-      <c r="X30" s="266"/>
-      <c r="Y30" s="266"/>
-      <c r="Z30" s="266"/>
-      <c r="AA30" s="266"/>
-      <c r="AB30" s="266"/>
-      <c r="AC30" s="266"/>
-      <c r="AD30" s="266"/>
-      <c r="AE30" s="267"/>
-      <c r="AF30" s="262"/>
-      <c r="AG30" s="263"/>
-      <c r="AH30" s="263"/>
-      <c r="AI30" s="264"/>
+      <c r="B30" s="292"/>
+      <c r="C30" s="293"/>
+      <c r="D30" s="294"/>
+      <c r="E30" s="295"/>
+      <c r="F30" s="296"/>
+      <c r="G30" s="292"/>
+      <c r="H30" s="297"/>
+      <c r="I30" s="293"/>
+      <c r="J30" s="298"/>
+      <c r="K30" s="299"/>
+      <c r="L30" s="299"/>
+      <c r="M30" s="299"/>
+      <c r="N30" s="299"/>
+      <c r="O30" s="299"/>
+      <c r="P30" s="300"/>
+      <c r="Q30" s="301"/>
+      <c r="R30" s="302"/>
+      <c r="S30" s="302"/>
+      <c r="T30" s="302"/>
+      <c r="U30" s="302"/>
+      <c r="V30" s="302"/>
+      <c r="W30" s="302"/>
+      <c r="X30" s="302"/>
+      <c r="Y30" s="302"/>
+      <c r="Z30" s="302"/>
+      <c r="AA30" s="302"/>
+      <c r="AB30" s="302"/>
+      <c r="AC30" s="302"/>
+      <c r="AD30" s="302"/>
+      <c r="AE30" s="303"/>
+      <c r="AF30" s="298"/>
+      <c r="AG30" s="299"/>
+      <c r="AH30" s="299"/>
+      <c r="AI30" s="300"/>
     </row>
     <row r="31" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="21"/>
-      <c r="B31" s="256"/>
-      <c r="C31" s="257"/>
-      <c r="D31" s="258"/>
-      <c r="E31" s="259"/>
-      <c r="F31" s="260"/>
-      <c r="G31" s="256"/>
-      <c r="H31" s="261"/>
-      <c r="I31" s="257"/>
-      <c r="J31" s="262"/>
-      <c r="K31" s="263"/>
-      <c r="L31" s="263"/>
-      <c r="M31" s="263"/>
-      <c r="N31" s="263"/>
-      <c r="O31" s="263"/>
-      <c r="P31" s="264"/>
-      <c r="Q31" s="265"/>
-      <c r="R31" s="266"/>
-      <c r="S31" s="266"/>
-      <c r="T31" s="266"/>
-      <c r="U31" s="266"/>
-      <c r="V31" s="266"/>
-      <c r="W31" s="266"/>
-      <c r="X31" s="266"/>
-      <c r="Y31" s="266"/>
-      <c r="Z31" s="266"/>
-      <c r="AA31" s="266"/>
-      <c r="AB31" s="266"/>
-      <c r="AC31" s="266"/>
-      <c r="AD31" s="266"/>
-      <c r="AE31" s="267"/>
-      <c r="AF31" s="262"/>
-      <c r="AG31" s="263"/>
-      <c r="AH31" s="263"/>
-      <c r="AI31" s="264"/>
+      <c r="B31" s="292"/>
+      <c r="C31" s="293"/>
+      <c r="D31" s="294"/>
+      <c r="E31" s="295"/>
+      <c r="F31" s="296"/>
+      <c r="G31" s="292"/>
+      <c r="H31" s="297"/>
+      <c r="I31" s="293"/>
+      <c r="J31" s="298"/>
+      <c r="K31" s="299"/>
+      <c r="L31" s="299"/>
+      <c r="M31" s="299"/>
+      <c r="N31" s="299"/>
+      <c r="O31" s="299"/>
+      <c r="P31" s="300"/>
+      <c r="Q31" s="301"/>
+      <c r="R31" s="302"/>
+      <c r="S31" s="302"/>
+      <c r="T31" s="302"/>
+      <c r="U31" s="302"/>
+      <c r="V31" s="302"/>
+      <c r="W31" s="302"/>
+      <c r="X31" s="302"/>
+      <c r="Y31" s="302"/>
+      <c r="Z31" s="302"/>
+      <c r="AA31" s="302"/>
+      <c r="AB31" s="302"/>
+      <c r="AC31" s="302"/>
+      <c r="AD31" s="302"/>
+      <c r="AE31" s="303"/>
+      <c r="AF31" s="298"/>
+      <c r="AG31" s="299"/>
+      <c r="AH31" s="299"/>
+      <c r="AI31" s="300"/>
     </row>
     <row r="32" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="21"/>
-      <c r="B32" s="256"/>
-      <c r="C32" s="257"/>
-      <c r="D32" s="258"/>
-      <c r="E32" s="259"/>
-      <c r="F32" s="260"/>
-      <c r="G32" s="256"/>
-      <c r="H32" s="261"/>
-      <c r="I32" s="257"/>
-      <c r="J32" s="262"/>
-      <c r="K32" s="268"/>
-      <c r="L32" s="263"/>
-      <c r="M32" s="263"/>
-      <c r="N32" s="263"/>
-      <c r="O32" s="263"/>
-      <c r="P32" s="264"/>
-      <c r="Q32" s="265"/>
-      <c r="R32" s="266"/>
-      <c r="S32" s="266"/>
-      <c r="T32" s="266"/>
-      <c r="U32" s="266"/>
-      <c r="V32" s="266"/>
-      <c r="W32" s="266"/>
-      <c r="X32" s="266"/>
-      <c r="Y32" s="266"/>
-      <c r="Z32" s="266"/>
-      <c r="AA32" s="266"/>
-      <c r="AB32" s="266"/>
-      <c r="AC32" s="266"/>
-      <c r="AD32" s="266"/>
-      <c r="AE32" s="267"/>
-      <c r="AF32" s="262"/>
-      <c r="AG32" s="263"/>
-      <c r="AH32" s="263"/>
-      <c r="AI32" s="264"/>
+      <c r="B32" s="292"/>
+      <c r="C32" s="293"/>
+      <c r="D32" s="294"/>
+      <c r="E32" s="295"/>
+      <c r="F32" s="296"/>
+      <c r="G32" s="292"/>
+      <c r="H32" s="297"/>
+      <c r="I32" s="293"/>
+      <c r="J32" s="298"/>
+      <c r="K32" s="317"/>
+      <c r="L32" s="299"/>
+      <c r="M32" s="299"/>
+      <c r="N32" s="299"/>
+      <c r="O32" s="299"/>
+      <c r="P32" s="300"/>
+      <c r="Q32" s="301"/>
+      <c r="R32" s="302"/>
+      <c r="S32" s="302"/>
+      <c r="T32" s="302"/>
+      <c r="U32" s="302"/>
+      <c r="V32" s="302"/>
+      <c r="W32" s="302"/>
+      <c r="X32" s="302"/>
+      <c r="Y32" s="302"/>
+      <c r="Z32" s="302"/>
+      <c r="AA32" s="302"/>
+      <c r="AB32" s="302"/>
+      <c r="AC32" s="302"/>
+      <c r="AD32" s="302"/>
+      <c r="AE32" s="303"/>
+      <c r="AF32" s="298"/>
+      <c r="AG32" s="299"/>
+      <c r="AH32" s="299"/>
+      <c r="AI32" s="300"/>
     </row>
     <row r="33" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="21"/>
-      <c r="B33" s="256"/>
-      <c r="C33" s="257"/>
-      <c r="D33" s="258"/>
-      <c r="E33" s="259"/>
-      <c r="F33" s="260"/>
-      <c r="G33" s="256"/>
-      <c r="H33" s="261"/>
-      <c r="I33" s="257"/>
-      <c r="J33" s="262"/>
-      <c r="K33" s="263"/>
-      <c r="L33" s="263"/>
-      <c r="M33" s="263"/>
-      <c r="N33" s="263"/>
-      <c r="O33" s="263"/>
-      <c r="P33" s="264"/>
-      <c r="Q33" s="265"/>
-      <c r="R33" s="266"/>
-      <c r="S33" s="266"/>
-      <c r="T33" s="266"/>
-      <c r="U33" s="266"/>
-      <c r="V33" s="266"/>
-      <c r="W33" s="266"/>
-      <c r="X33" s="266"/>
-      <c r="Y33" s="266"/>
-      <c r="Z33" s="266"/>
-      <c r="AA33" s="266"/>
-      <c r="AB33" s="266"/>
-      <c r="AC33" s="266"/>
-      <c r="AD33" s="266"/>
-      <c r="AE33" s="267"/>
-      <c r="AF33" s="262"/>
-      <c r="AG33" s="263"/>
-      <c r="AH33" s="263"/>
-      <c r="AI33" s="264"/>
+      <c r="B33" s="292"/>
+      <c r="C33" s="293"/>
+      <c r="D33" s="294"/>
+      <c r="E33" s="295"/>
+      <c r="F33" s="296"/>
+      <c r="G33" s="292"/>
+      <c r="H33" s="297"/>
+      <c r="I33" s="293"/>
+      <c r="J33" s="298"/>
+      <c r="K33" s="299"/>
+      <c r="L33" s="299"/>
+      <c r="M33" s="299"/>
+      <c r="N33" s="299"/>
+      <c r="O33" s="299"/>
+      <c r="P33" s="300"/>
+      <c r="Q33" s="301"/>
+      <c r="R33" s="302"/>
+      <c r="S33" s="302"/>
+      <c r="T33" s="302"/>
+      <c r="U33" s="302"/>
+      <c r="V33" s="302"/>
+      <c r="W33" s="302"/>
+      <c r="X33" s="302"/>
+      <c r="Y33" s="302"/>
+      <c r="Z33" s="302"/>
+      <c r="AA33" s="302"/>
+      <c r="AB33" s="302"/>
+      <c r="AC33" s="302"/>
+      <c r="AD33" s="302"/>
+      <c r="AE33" s="303"/>
+      <c r="AF33" s="298"/>
+      <c r="AG33" s="299"/>
+      <c r="AH33" s="299"/>
+      <c r="AI33" s="300"/>
     </row>
     <row r="34" spans="1:35" ht="14">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -14948,162 +15113,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>

--- a/Sample_Project/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書(画面)_WA10101_認証.xlsx
+++ b/Sample_Project/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書(画面)_WA10101_認証.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC12BFDE-9762-4E51-8852-84C25360D30D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40273B83-4CEF-4EB6-9518-8D427A376148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="724" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10389,11 +10389,17 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>リクエストID：WA1010101</t>
+    <t>テストターゲット名：WA1010101</t>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>リクエストID：WA1010102</t>
+    <t>テストターゲット名：WA1010102</t>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -11941,6 +11947,84 @@
     <xf numFmtId="31" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="17" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -12047,84 +12131,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="17" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13739,51 +13745,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="262" t="s">
+      <c r="A1" s="288" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="263"/>
-      <c r="C1" s="263"/>
-      <c r="D1" s="264"/>
-      <c r="E1" s="265" t="s">
+      <c r="B1" s="289"/>
+      <c r="C1" s="289"/>
+      <c r="D1" s="290"/>
+      <c r="E1" s="291" t="s">
         <v>561</v>
       </c>
-      <c r="F1" s="266"/>
-      <c r="G1" s="266"/>
-      <c r="H1" s="266"/>
-      <c r="I1" s="266"/>
-      <c r="J1" s="266"/>
-      <c r="K1" s="266"/>
-      <c r="L1" s="266"/>
-      <c r="M1" s="266"/>
-      <c r="N1" s="267"/>
-      <c r="O1" s="271" t="s">
+      <c r="F1" s="292"/>
+      <c r="G1" s="292"/>
+      <c r="H1" s="292"/>
+      <c r="I1" s="292"/>
+      <c r="J1" s="292"/>
+      <c r="K1" s="292"/>
+      <c r="L1" s="292"/>
+      <c r="M1" s="292"/>
+      <c r="N1" s="293"/>
+      <c r="O1" s="297" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="272"/>
-      <c r="Q1" s="272"/>
-      <c r="R1" s="273"/>
-      <c r="S1" s="280" t="s">
+      <c r="P1" s="298"/>
+      <c r="Q1" s="298"/>
+      <c r="R1" s="299"/>
+      <c r="S1" s="306" t="s">
         <v>792</v>
       </c>
-      <c r="T1" s="281"/>
-      <c r="U1" s="281"/>
-      <c r="V1" s="281"/>
-      <c r="W1" s="281"/>
-      <c r="X1" s="281"/>
-      <c r="Y1" s="281"/>
-      <c r="Z1" s="282"/>
-      <c r="AA1" s="262" t="s">
+      <c r="T1" s="307"/>
+      <c r="U1" s="307"/>
+      <c r="V1" s="307"/>
+      <c r="W1" s="307"/>
+      <c r="X1" s="307"/>
+      <c r="Y1" s="307"/>
+      <c r="Z1" s="308"/>
+      <c r="AA1" s="288" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="264"/>
-      <c r="AC1" s="289"/>
-      <c r="AD1" s="290"/>
-      <c r="AE1" s="290"/>
-      <c r="AF1" s="291"/>
-      <c r="AG1" s="256"/>
-      <c r="AH1" s="257"/>
-      <c r="AI1" s="258"/>
+      <c r="AB1" s="290"/>
+      <c r="AC1" s="315"/>
+      <c r="AD1" s="316"/>
+      <c r="AE1" s="316"/>
+      <c r="AF1" s="317"/>
+      <c r="AG1" s="282"/>
+      <c r="AH1" s="283"/>
+      <c r="AI1" s="284"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -13791,53 +13797,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="262" t="s">
+      <c r="A2" s="288" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="263"/>
-      <c r="C2" s="263"/>
-      <c r="D2" s="264"/>
-      <c r="E2" s="265" t="s">
+      <c r="B2" s="289"/>
+      <c r="C2" s="289"/>
+      <c r="D2" s="290"/>
+      <c r="E2" s="291" t="s">
         <v>614</v>
       </c>
-      <c r="F2" s="266"/>
-      <c r="G2" s="266"/>
-      <c r="H2" s="266"/>
-      <c r="I2" s="266"/>
-      <c r="J2" s="266"/>
-      <c r="K2" s="266"/>
-      <c r="L2" s="266"/>
-      <c r="M2" s="266"/>
-      <c r="N2" s="267"/>
-      <c r="O2" s="274"/>
-      <c r="P2" s="275"/>
-      <c r="Q2" s="275"/>
-      <c r="R2" s="276"/>
-      <c r="S2" s="283"/>
-      <c r="T2" s="284"/>
-      <c r="U2" s="284"/>
-      <c r="V2" s="284"/>
-      <c r="W2" s="284"/>
-      <c r="X2" s="284"/>
-      <c r="Y2" s="284"/>
-      <c r="Z2" s="285"/>
-      <c r="AA2" s="262" t="s">
+      <c r="F2" s="292"/>
+      <c r="G2" s="292"/>
+      <c r="H2" s="292"/>
+      <c r="I2" s="292"/>
+      <c r="J2" s="292"/>
+      <c r="K2" s="292"/>
+      <c r="L2" s="292"/>
+      <c r="M2" s="292"/>
+      <c r="N2" s="293"/>
+      <c r="O2" s="300"/>
+      <c r="P2" s="301"/>
+      <c r="Q2" s="301"/>
+      <c r="R2" s="302"/>
+      <c r="S2" s="309"/>
+      <c r="T2" s="310"/>
+      <c r="U2" s="310"/>
+      <c r="V2" s="310"/>
+      <c r="W2" s="310"/>
+      <c r="X2" s="310"/>
+      <c r="Y2" s="310"/>
+      <c r="Z2" s="311"/>
+      <c r="AA2" s="288" t="s">
         <v>23</v>
       </c>
-      <c r="AB2" s="264"/>
-      <c r="AC2" s="268" t="str">
+      <c r="AB2" s="290"/>
+      <c r="AC2" s="294" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="269"/>
-      <c r="AE2" s="269"/>
-      <c r="AF2" s="270"/>
-      <c r="AG2" s="256" t="str">
+      <c r="AD2" s="295"/>
+      <c r="AE2" s="295"/>
+      <c r="AF2" s="296"/>
+      <c r="AG2" s="282" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="257"/>
-      <c r="AI2" s="258"/>
+      <c r="AH2" s="283"/>
+      <c r="AI2" s="284"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -13845,45 +13851,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="262" t="s">
+      <c r="A3" s="288" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="263"/>
-      <c r="C3" s="263"/>
-      <c r="D3" s="264"/>
-      <c r="E3" s="265" t="s">
+      <c r="B3" s="289"/>
+      <c r="C3" s="289"/>
+      <c r="D3" s="290"/>
+      <c r="E3" s="291" t="s">
         <v>615</v>
       </c>
-      <c r="F3" s="266"/>
-      <c r="G3" s="266"/>
-      <c r="H3" s="266"/>
-      <c r="I3" s="266"/>
-      <c r="J3" s="266"/>
-      <c r="K3" s="266"/>
-      <c r="L3" s="266"/>
-      <c r="M3" s="266"/>
-      <c r="N3" s="267"/>
-      <c r="O3" s="277"/>
-      <c r="P3" s="278"/>
-      <c r="Q3" s="278"/>
-      <c r="R3" s="279"/>
-      <c r="S3" s="286"/>
-      <c r="T3" s="287"/>
-      <c r="U3" s="287"/>
-      <c r="V3" s="287"/>
-      <c r="W3" s="287"/>
-      <c r="X3" s="287"/>
-      <c r="Y3" s="287"/>
-      <c r="Z3" s="288"/>
-      <c r="AA3" s="262"/>
-      <c r="AB3" s="264"/>
-      <c r="AC3" s="289"/>
-      <c r="AD3" s="290"/>
-      <c r="AE3" s="290"/>
-      <c r="AF3" s="291"/>
-      <c r="AG3" s="256"/>
-      <c r="AH3" s="257"/>
-      <c r="AI3" s="258"/>
+      <c r="F3" s="292"/>
+      <c r="G3" s="292"/>
+      <c r="H3" s="292"/>
+      <c r="I3" s="292"/>
+      <c r="J3" s="292"/>
+      <c r="K3" s="292"/>
+      <c r="L3" s="292"/>
+      <c r="M3" s="292"/>
+      <c r="N3" s="293"/>
+      <c r="O3" s="303"/>
+      <c r="P3" s="304"/>
+      <c r="Q3" s="304"/>
+      <c r="R3" s="305"/>
+      <c r="S3" s="312"/>
+      <c r="T3" s="313"/>
+      <c r="U3" s="313"/>
+      <c r="V3" s="313"/>
+      <c r="W3" s="313"/>
+      <c r="X3" s="313"/>
+      <c r="Y3" s="313"/>
+      <c r="Z3" s="314"/>
+      <c r="AA3" s="288"/>
+      <c r="AB3" s="290"/>
+      <c r="AC3" s="315"/>
+      <c r="AD3" s="316"/>
+      <c r="AE3" s="316"/>
+      <c r="AF3" s="317"/>
+      <c r="AG3" s="282"/>
+      <c r="AH3" s="283"/>
+      <c r="AI3" s="284"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -13920,1176 +13926,1020 @@
       <c r="A7" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="259" t="s">
+      <c r="B7" s="285" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="260"/>
-      <c r="D7" s="259" t="s">
+      <c r="C7" s="286"/>
+      <c r="D7" s="285" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="261"/>
-      <c r="F7" s="260"/>
-      <c r="G7" s="259" t="s">
+      <c r="E7" s="287"/>
+      <c r="F7" s="286"/>
+      <c r="G7" s="285" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="261"/>
-      <c r="I7" s="260"/>
-      <c r="J7" s="259" t="s">
+      <c r="H7" s="287"/>
+      <c r="I7" s="286"/>
+      <c r="J7" s="285" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="261"/>
-      <c r="L7" s="261"/>
-      <c r="M7" s="261"/>
-      <c r="N7" s="261"/>
-      <c r="O7" s="261"/>
-      <c r="P7" s="260"/>
-      <c r="Q7" s="259" t="s">
+      <c r="K7" s="287"/>
+      <c r="L7" s="287"/>
+      <c r="M7" s="287"/>
+      <c r="N7" s="287"/>
+      <c r="O7" s="287"/>
+      <c r="P7" s="286"/>
+      <c r="Q7" s="285" t="s">
         <v>30</v>
       </c>
-      <c r="R7" s="261"/>
-      <c r="S7" s="261"/>
-      <c r="T7" s="261"/>
-      <c r="U7" s="261"/>
-      <c r="V7" s="261"/>
-      <c r="W7" s="261"/>
-      <c r="X7" s="261"/>
-      <c r="Y7" s="261"/>
-      <c r="Z7" s="261"/>
-      <c r="AA7" s="261"/>
-      <c r="AB7" s="261"/>
-      <c r="AC7" s="261"/>
-      <c r="AD7" s="261"/>
-      <c r="AE7" s="260"/>
-      <c r="AF7" s="259" t="s">
+      <c r="R7" s="287"/>
+      <c r="S7" s="287"/>
+      <c r="T7" s="287"/>
+      <c r="U7" s="287"/>
+      <c r="V7" s="287"/>
+      <c r="W7" s="287"/>
+      <c r="X7" s="287"/>
+      <c r="Y7" s="287"/>
+      <c r="Z7" s="287"/>
+      <c r="AA7" s="287"/>
+      <c r="AB7" s="287"/>
+      <c r="AC7" s="287"/>
+      <c r="AD7" s="287"/>
+      <c r="AE7" s="286"/>
+      <c r="AF7" s="285" t="s">
         <v>31</v>
       </c>
-      <c r="AG7" s="261"/>
-      <c r="AH7" s="261"/>
-      <c r="AI7" s="260"/>
+      <c r="AG7" s="287"/>
+      <c r="AH7" s="287"/>
+      <c r="AI7" s="286"/>
     </row>
     <row r="8" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="20"/>
-      <c r="B8" s="304"/>
-      <c r="C8" s="305"/>
-      <c r="D8" s="306"/>
-      <c r="E8" s="307"/>
-      <c r="F8" s="308"/>
-      <c r="G8" s="309"/>
-      <c r="H8" s="310"/>
-      <c r="I8" s="305"/>
-      <c r="J8" s="311"/>
-      <c r="K8" s="312"/>
-      <c r="L8" s="312"/>
-      <c r="M8" s="312"/>
-      <c r="N8" s="312"/>
-      <c r="O8" s="312"/>
-      <c r="P8" s="313"/>
-      <c r="Q8" s="314"/>
-      <c r="R8" s="315"/>
-      <c r="S8" s="315"/>
-      <c r="T8" s="315"/>
-      <c r="U8" s="315"/>
-      <c r="V8" s="315"/>
-      <c r="W8" s="315"/>
-      <c r="X8" s="315"/>
-      <c r="Y8" s="315"/>
-      <c r="Z8" s="315"/>
-      <c r="AA8" s="315"/>
-      <c r="AB8" s="315"/>
-      <c r="AC8" s="315"/>
-      <c r="AD8" s="315"/>
-      <c r="AE8" s="316"/>
-      <c r="AF8" s="311"/>
-      <c r="AG8" s="312"/>
-      <c r="AH8" s="312"/>
-      <c r="AI8" s="313"/>
+      <c r="B8" s="269"/>
+      <c r="C8" s="270"/>
+      <c r="D8" s="271"/>
+      <c r="E8" s="272"/>
+      <c r="F8" s="273"/>
+      <c r="G8" s="274"/>
+      <c r="H8" s="275"/>
+      <c r="I8" s="270"/>
+      <c r="J8" s="276"/>
+      <c r="K8" s="277"/>
+      <c r="L8" s="277"/>
+      <c r="M8" s="277"/>
+      <c r="N8" s="277"/>
+      <c r="O8" s="277"/>
+      <c r="P8" s="278"/>
+      <c r="Q8" s="279"/>
+      <c r="R8" s="280"/>
+      <c r="S8" s="280"/>
+      <c r="T8" s="280"/>
+      <c r="U8" s="280"/>
+      <c r="V8" s="280"/>
+      <c r="W8" s="280"/>
+      <c r="X8" s="280"/>
+      <c r="Y8" s="280"/>
+      <c r="Z8" s="280"/>
+      <c r="AA8" s="280"/>
+      <c r="AB8" s="280"/>
+      <c r="AC8" s="280"/>
+      <c r="AD8" s="280"/>
+      <c r="AE8" s="281"/>
+      <c r="AF8" s="276"/>
+      <c r="AG8" s="277"/>
+      <c r="AH8" s="277"/>
+      <c r="AI8" s="278"/>
     </row>
     <row r="9" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="21"/>
-      <c r="B9" s="292"/>
-      <c r="C9" s="293"/>
-      <c r="D9" s="294"/>
-      <c r="E9" s="295"/>
-      <c r="F9" s="296"/>
-      <c r="G9" s="294"/>
-      <c r="H9" s="297"/>
-      <c r="I9" s="293"/>
-      <c r="J9" s="298"/>
-      <c r="K9" s="299"/>
-      <c r="L9" s="299"/>
-      <c r="M9" s="299"/>
-      <c r="N9" s="299"/>
-      <c r="O9" s="299"/>
-      <c r="P9" s="300"/>
-      <c r="Q9" s="301"/>
-      <c r="R9" s="302"/>
-      <c r="S9" s="302"/>
-      <c r="T9" s="302"/>
-      <c r="U9" s="302"/>
-      <c r="V9" s="302"/>
-      <c r="W9" s="302"/>
-      <c r="X9" s="302"/>
-      <c r="Y9" s="302"/>
-      <c r="Z9" s="302"/>
-      <c r="AA9" s="302"/>
-      <c r="AB9" s="302"/>
-      <c r="AC9" s="302"/>
-      <c r="AD9" s="302"/>
-      <c r="AE9" s="303"/>
-      <c r="AF9" s="298"/>
-      <c r="AG9" s="299"/>
-      <c r="AH9" s="299"/>
-      <c r="AI9" s="300"/>
+      <c r="B9" s="256"/>
+      <c r="C9" s="257"/>
+      <c r="D9" s="258"/>
+      <c r="E9" s="259"/>
+      <c r="F9" s="260"/>
+      <c r="G9" s="258"/>
+      <c r="H9" s="261"/>
+      <c r="I9" s="257"/>
+      <c r="J9" s="262"/>
+      <c r="K9" s="263"/>
+      <c r="L9" s="263"/>
+      <c r="M9" s="263"/>
+      <c r="N9" s="263"/>
+      <c r="O9" s="263"/>
+      <c r="P9" s="264"/>
+      <c r="Q9" s="265"/>
+      <c r="R9" s="266"/>
+      <c r="S9" s="266"/>
+      <c r="T9" s="266"/>
+      <c r="U9" s="266"/>
+      <c r="V9" s="266"/>
+      <c r="W9" s="266"/>
+      <c r="X9" s="266"/>
+      <c r="Y9" s="266"/>
+      <c r="Z9" s="266"/>
+      <c r="AA9" s="266"/>
+      <c r="AB9" s="266"/>
+      <c r="AC9" s="266"/>
+      <c r="AD9" s="266"/>
+      <c r="AE9" s="267"/>
+      <c r="AF9" s="262"/>
+      <c r="AG9" s="263"/>
+      <c r="AH9" s="263"/>
+      <c r="AI9" s="264"/>
     </row>
     <row r="10" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="21"/>
-      <c r="B10" s="292"/>
-      <c r="C10" s="293"/>
-      <c r="D10" s="294"/>
-      <c r="E10" s="295"/>
-      <c r="F10" s="296"/>
-      <c r="G10" s="292"/>
-      <c r="H10" s="297"/>
-      <c r="I10" s="293"/>
-      <c r="J10" s="298"/>
-      <c r="K10" s="299"/>
-      <c r="L10" s="299"/>
-      <c r="M10" s="299"/>
-      <c r="N10" s="299"/>
-      <c r="O10" s="299"/>
-      <c r="P10" s="300"/>
-      <c r="Q10" s="301"/>
-      <c r="R10" s="302"/>
-      <c r="S10" s="302"/>
-      <c r="T10" s="302"/>
-      <c r="U10" s="302"/>
-      <c r="V10" s="302"/>
-      <c r="W10" s="302"/>
-      <c r="X10" s="302"/>
-      <c r="Y10" s="302"/>
-      <c r="Z10" s="302"/>
-      <c r="AA10" s="302"/>
-      <c r="AB10" s="302"/>
-      <c r="AC10" s="302"/>
-      <c r="AD10" s="302"/>
-      <c r="AE10" s="303"/>
-      <c r="AF10" s="298"/>
-      <c r="AG10" s="299"/>
-      <c r="AH10" s="299"/>
-      <c r="AI10" s="300"/>
+      <c r="B10" s="256"/>
+      <c r="C10" s="257"/>
+      <c r="D10" s="258"/>
+      <c r="E10" s="259"/>
+      <c r="F10" s="260"/>
+      <c r="G10" s="256"/>
+      <c r="H10" s="261"/>
+      <c r="I10" s="257"/>
+      <c r="J10" s="262"/>
+      <c r="K10" s="263"/>
+      <c r="L10" s="263"/>
+      <c r="M10" s="263"/>
+      <c r="N10" s="263"/>
+      <c r="O10" s="263"/>
+      <c r="P10" s="264"/>
+      <c r="Q10" s="265"/>
+      <c r="R10" s="266"/>
+      <c r="S10" s="266"/>
+      <c r="T10" s="266"/>
+      <c r="U10" s="266"/>
+      <c r="V10" s="266"/>
+      <c r="W10" s="266"/>
+      <c r="X10" s="266"/>
+      <c r="Y10" s="266"/>
+      <c r="Z10" s="266"/>
+      <c r="AA10" s="266"/>
+      <c r="AB10" s="266"/>
+      <c r="AC10" s="266"/>
+      <c r="AD10" s="266"/>
+      <c r="AE10" s="267"/>
+      <c r="AF10" s="262"/>
+      <c r="AG10" s="263"/>
+      <c r="AH10" s="263"/>
+      <c r="AI10" s="264"/>
     </row>
     <row r="11" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="21"/>
-      <c r="B11" s="292"/>
-      <c r="C11" s="293"/>
-      <c r="D11" s="294"/>
-      <c r="E11" s="295"/>
-      <c r="F11" s="296"/>
-      <c r="G11" s="292"/>
-      <c r="H11" s="297"/>
-      <c r="I11" s="293"/>
-      <c r="J11" s="298"/>
-      <c r="K11" s="299"/>
-      <c r="L11" s="299"/>
-      <c r="M11" s="299"/>
-      <c r="N11" s="299"/>
-      <c r="O11" s="299"/>
-      <c r="P11" s="300"/>
-      <c r="Q11" s="301"/>
-      <c r="R11" s="302"/>
-      <c r="S11" s="302"/>
-      <c r="T11" s="302"/>
-      <c r="U11" s="302"/>
-      <c r="V11" s="302"/>
-      <c r="W11" s="302"/>
-      <c r="X11" s="302"/>
-      <c r="Y11" s="302"/>
-      <c r="Z11" s="302"/>
-      <c r="AA11" s="302"/>
-      <c r="AB11" s="302"/>
-      <c r="AC11" s="302"/>
-      <c r="AD11" s="302"/>
-      <c r="AE11" s="303"/>
-      <c r="AF11" s="298"/>
-      <c r="AG11" s="299"/>
-      <c r="AH11" s="299"/>
-      <c r="AI11" s="300"/>
+      <c r="B11" s="256"/>
+      <c r="C11" s="257"/>
+      <c r="D11" s="258"/>
+      <c r="E11" s="259"/>
+      <c r="F11" s="260"/>
+      <c r="G11" s="256"/>
+      <c r="H11" s="261"/>
+      <c r="I11" s="257"/>
+      <c r="J11" s="262"/>
+      <c r="K11" s="263"/>
+      <c r="L11" s="263"/>
+      <c r="M11" s="263"/>
+      <c r="N11" s="263"/>
+      <c r="O11" s="263"/>
+      <c r="P11" s="264"/>
+      <c r="Q11" s="265"/>
+      <c r="R11" s="266"/>
+      <c r="S11" s="266"/>
+      <c r="T11" s="266"/>
+      <c r="U11" s="266"/>
+      <c r="V11" s="266"/>
+      <c r="W11" s="266"/>
+      <c r="X11" s="266"/>
+      <c r="Y11" s="266"/>
+      <c r="Z11" s="266"/>
+      <c r="AA11" s="266"/>
+      <c r="AB11" s="266"/>
+      <c r="AC11" s="266"/>
+      <c r="AD11" s="266"/>
+      <c r="AE11" s="267"/>
+      <c r="AF11" s="262"/>
+      <c r="AG11" s="263"/>
+      <c r="AH11" s="263"/>
+      <c r="AI11" s="264"/>
     </row>
     <row r="12" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="21"/>
-      <c r="B12" s="292"/>
-      <c r="C12" s="293"/>
-      <c r="D12" s="294"/>
-      <c r="E12" s="295"/>
-      <c r="F12" s="296"/>
-      <c r="G12" s="292"/>
-      <c r="H12" s="297"/>
-      <c r="I12" s="293"/>
-      <c r="J12" s="298"/>
-      <c r="K12" s="299"/>
-      <c r="L12" s="299"/>
-      <c r="M12" s="299"/>
-      <c r="N12" s="299"/>
-      <c r="O12" s="299"/>
-      <c r="P12" s="300"/>
-      <c r="Q12" s="301"/>
-      <c r="R12" s="302"/>
-      <c r="S12" s="302"/>
-      <c r="T12" s="302"/>
-      <c r="U12" s="302"/>
-      <c r="V12" s="302"/>
-      <c r="W12" s="302"/>
-      <c r="X12" s="302"/>
-      <c r="Y12" s="302"/>
-      <c r="Z12" s="302"/>
-      <c r="AA12" s="302"/>
-      <c r="AB12" s="302"/>
-      <c r="AC12" s="302"/>
-      <c r="AD12" s="302"/>
-      <c r="AE12" s="303"/>
-      <c r="AF12" s="298"/>
-      <c r="AG12" s="299"/>
-      <c r="AH12" s="299"/>
-      <c r="AI12" s="300"/>
+      <c r="B12" s="256"/>
+      <c r="C12" s="257"/>
+      <c r="D12" s="258"/>
+      <c r="E12" s="259"/>
+      <c r="F12" s="260"/>
+      <c r="G12" s="256"/>
+      <c r="H12" s="261"/>
+      <c r="I12" s="257"/>
+      <c r="J12" s="262"/>
+      <c r="K12" s="263"/>
+      <c r="L12" s="263"/>
+      <c r="M12" s="263"/>
+      <c r="N12" s="263"/>
+      <c r="O12" s="263"/>
+      <c r="P12" s="264"/>
+      <c r="Q12" s="265"/>
+      <c r="R12" s="266"/>
+      <c r="S12" s="266"/>
+      <c r="T12" s="266"/>
+      <c r="U12" s="266"/>
+      <c r="V12" s="266"/>
+      <c r="W12" s="266"/>
+      <c r="X12" s="266"/>
+      <c r="Y12" s="266"/>
+      <c r="Z12" s="266"/>
+      <c r="AA12" s="266"/>
+      <c r="AB12" s="266"/>
+      <c r="AC12" s="266"/>
+      <c r="AD12" s="266"/>
+      <c r="AE12" s="267"/>
+      <c r="AF12" s="262"/>
+      <c r="AG12" s="263"/>
+      <c r="AH12" s="263"/>
+      <c r="AI12" s="264"/>
     </row>
     <row r="13" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="21"/>
-      <c r="B13" s="292"/>
-      <c r="C13" s="293"/>
-      <c r="D13" s="294"/>
-      <c r="E13" s="295"/>
-      <c r="F13" s="296"/>
-      <c r="G13" s="292"/>
-      <c r="H13" s="297"/>
-      <c r="I13" s="293"/>
-      <c r="J13" s="298"/>
-      <c r="K13" s="299"/>
-      <c r="L13" s="299"/>
-      <c r="M13" s="299"/>
-      <c r="N13" s="299"/>
-      <c r="O13" s="299"/>
-      <c r="P13" s="300"/>
-      <c r="Q13" s="301"/>
-      <c r="R13" s="302"/>
-      <c r="S13" s="302"/>
-      <c r="T13" s="302"/>
-      <c r="U13" s="302"/>
-      <c r="V13" s="302"/>
-      <c r="W13" s="302"/>
-      <c r="X13" s="302"/>
-      <c r="Y13" s="302"/>
-      <c r="Z13" s="302"/>
-      <c r="AA13" s="302"/>
-      <c r="AB13" s="302"/>
-      <c r="AC13" s="302"/>
-      <c r="AD13" s="302"/>
-      <c r="AE13" s="303"/>
-      <c r="AF13" s="298"/>
-      <c r="AG13" s="299"/>
-      <c r="AH13" s="299"/>
-      <c r="AI13" s="300"/>
+      <c r="B13" s="256"/>
+      <c r="C13" s="257"/>
+      <c r="D13" s="258"/>
+      <c r="E13" s="259"/>
+      <c r="F13" s="260"/>
+      <c r="G13" s="256"/>
+      <c r="H13" s="261"/>
+      <c r="I13" s="257"/>
+      <c r="J13" s="262"/>
+      <c r="K13" s="263"/>
+      <c r="L13" s="263"/>
+      <c r="M13" s="263"/>
+      <c r="N13" s="263"/>
+      <c r="O13" s="263"/>
+      <c r="P13" s="264"/>
+      <c r="Q13" s="265"/>
+      <c r="R13" s="266"/>
+      <c r="S13" s="266"/>
+      <c r="T13" s="266"/>
+      <c r="U13" s="266"/>
+      <c r="V13" s="266"/>
+      <c r="W13" s="266"/>
+      <c r="X13" s="266"/>
+      <c r="Y13" s="266"/>
+      <c r="Z13" s="266"/>
+      <c r="AA13" s="266"/>
+      <c r="AB13" s="266"/>
+      <c r="AC13" s="266"/>
+      <c r="AD13" s="266"/>
+      <c r="AE13" s="267"/>
+      <c r="AF13" s="262"/>
+      <c r="AG13" s="263"/>
+      <c r="AH13" s="263"/>
+      <c r="AI13" s="264"/>
     </row>
     <row r="14" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="21"/>
-      <c r="B14" s="292"/>
-      <c r="C14" s="293"/>
-      <c r="D14" s="294"/>
-      <c r="E14" s="295"/>
-      <c r="F14" s="296"/>
-      <c r="G14" s="292"/>
-      <c r="H14" s="297"/>
-      <c r="I14" s="293"/>
-      <c r="J14" s="298"/>
-      <c r="K14" s="299"/>
-      <c r="L14" s="299"/>
-      <c r="M14" s="299"/>
-      <c r="N14" s="299"/>
-      <c r="O14" s="299"/>
-      <c r="P14" s="300"/>
-      <c r="Q14" s="301"/>
-      <c r="R14" s="302"/>
-      <c r="S14" s="302"/>
-      <c r="T14" s="302"/>
-      <c r="U14" s="302"/>
-      <c r="V14" s="302"/>
-      <c r="W14" s="302"/>
-      <c r="X14" s="302"/>
-      <c r="Y14" s="302"/>
-      <c r="Z14" s="302"/>
-      <c r="AA14" s="302"/>
-      <c r="AB14" s="302"/>
-      <c r="AC14" s="302"/>
-      <c r="AD14" s="302"/>
-      <c r="AE14" s="303"/>
-      <c r="AF14" s="298"/>
-      <c r="AG14" s="299"/>
-      <c r="AH14" s="299"/>
-      <c r="AI14" s="300"/>
+      <c r="B14" s="256"/>
+      <c r="C14" s="257"/>
+      <c r="D14" s="258"/>
+      <c r="E14" s="259"/>
+      <c r="F14" s="260"/>
+      <c r="G14" s="256"/>
+      <c r="H14" s="261"/>
+      <c r="I14" s="257"/>
+      <c r="J14" s="262"/>
+      <c r="K14" s="263"/>
+      <c r="L14" s="263"/>
+      <c r="M14" s="263"/>
+      <c r="N14" s="263"/>
+      <c r="O14" s="263"/>
+      <c r="P14" s="264"/>
+      <c r="Q14" s="265"/>
+      <c r="R14" s="266"/>
+      <c r="S14" s="266"/>
+      <c r="T14" s="266"/>
+      <c r="U14" s="266"/>
+      <c r="V14" s="266"/>
+      <c r="W14" s="266"/>
+      <c r="X14" s="266"/>
+      <c r="Y14" s="266"/>
+      <c r="Z14" s="266"/>
+      <c r="AA14" s="266"/>
+      <c r="AB14" s="266"/>
+      <c r="AC14" s="266"/>
+      <c r="AD14" s="266"/>
+      <c r="AE14" s="267"/>
+      <c r="AF14" s="262"/>
+      <c r="AG14" s="263"/>
+      <c r="AH14" s="263"/>
+      <c r="AI14" s="264"/>
     </row>
     <row r="15" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="292"/>
-      <c r="C15" s="293"/>
-      <c r="D15" s="294"/>
-      <c r="E15" s="295"/>
-      <c r="F15" s="296"/>
-      <c r="G15" s="292"/>
-      <c r="H15" s="297"/>
-      <c r="I15" s="293"/>
-      <c r="J15" s="298"/>
-      <c r="K15" s="299"/>
-      <c r="L15" s="299"/>
-      <c r="M15" s="299"/>
-      <c r="N15" s="299"/>
-      <c r="O15" s="299"/>
-      <c r="P15" s="300"/>
-      <c r="Q15" s="301"/>
-      <c r="R15" s="302"/>
-      <c r="S15" s="302"/>
-      <c r="T15" s="302"/>
-      <c r="U15" s="302"/>
-      <c r="V15" s="302"/>
-      <c r="W15" s="302"/>
-      <c r="X15" s="302"/>
-      <c r="Y15" s="302"/>
-      <c r="Z15" s="302"/>
-      <c r="AA15" s="302"/>
-      <c r="AB15" s="302"/>
-      <c r="AC15" s="302"/>
-      <c r="AD15" s="302"/>
-      <c r="AE15" s="303"/>
-      <c r="AF15" s="298"/>
-      <c r="AG15" s="299"/>
-      <c r="AH15" s="299"/>
-      <c r="AI15" s="300"/>
+      <c r="B15" s="256"/>
+      <c r="C15" s="257"/>
+      <c r="D15" s="258"/>
+      <c r="E15" s="259"/>
+      <c r="F15" s="260"/>
+      <c r="G15" s="256"/>
+      <c r="H15" s="261"/>
+      <c r="I15" s="257"/>
+      <c r="J15" s="262"/>
+      <c r="K15" s="263"/>
+      <c r="L15" s="263"/>
+      <c r="M15" s="263"/>
+      <c r="N15" s="263"/>
+      <c r="O15" s="263"/>
+      <c r="P15" s="264"/>
+      <c r="Q15" s="265"/>
+      <c r="R15" s="266"/>
+      <c r="S15" s="266"/>
+      <c r="T15" s="266"/>
+      <c r="U15" s="266"/>
+      <c r="V15" s="266"/>
+      <c r="W15" s="266"/>
+      <c r="X15" s="266"/>
+      <c r="Y15" s="266"/>
+      <c r="Z15" s="266"/>
+      <c r="AA15" s="266"/>
+      <c r="AB15" s="266"/>
+      <c r="AC15" s="266"/>
+      <c r="AD15" s="266"/>
+      <c r="AE15" s="267"/>
+      <c r="AF15" s="262"/>
+      <c r="AG15" s="263"/>
+      <c r="AH15" s="263"/>
+      <c r="AI15" s="264"/>
     </row>
     <row r="16" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="21"/>
-      <c r="B16" s="292"/>
-      <c r="C16" s="293"/>
-      <c r="D16" s="294"/>
-      <c r="E16" s="295"/>
-      <c r="F16" s="296"/>
-      <c r="G16" s="292"/>
-      <c r="H16" s="297"/>
-      <c r="I16" s="293"/>
-      <c r="J16" s="298"/>
-      <c r="K16" s="299"/>
-      <c r="L16" s="299"/>
-      <c r="M16" s="299"/>
-      <c r="N16" s="299"/>
-      <c r="O16" s="299"/>
-      <c r="P16" s="300"/>
-      <c r="Q16" s="301"/>
-      <c r="R16" s="302"/>
-      <c r="S16" s="302"/>
-      <c r="T16" s="302"/>
-      <c r="U16" s="302"/>
-      <c r="V16" s="302"/>
-      <c r="W16" s="302"/>
-      <c r="X16" s="302"/>
-      <c r="Y16" s="302"/>
-      <c r="Z16" s="302"/>
-      <c r="AA16" s="302"/>
-      <c r="AB16" s="302"/>
-      <c r="AC16" s="302"/>
-      <c r="AD16" s="302"/>
-      <c r="AE16" s="303"/>
-      <c r="AF16" s="298"/>
-      <c r="AG16" s="299"/>
-      <c r="AH16" s="299"/>
-      <c r="AI16" s="300"/>
+      <c r="B16" s="256"/>
+      <c r="C16" s="257"/>
+      <c r="D16" s="258"/>
+      <c r="E16" s="259"/>
+      <c r="F16" s="260"/>
+      <c r="G16" s="256"/>
+      <c r="H16" s="261"/>
+      <c r="I16" s="257"/>
+      <c r="J16" s="262"/>
+      <c r="K16" s="263"/>
+      <c r="L16" s="263"/>
+      <c r="M16" s="263"/>
+      <c r="N16" s="263"/>
+      <c r="O16" s="263"/>
+      <c r="P16" s="264"/>
+      <c r="Q16" s="265"/>
+      <c r="R16" s="266"/>
+      <c r="S16" s="266"/>
+      <c r="T16" s="266"/>
+      <c r="U16" s="266"/>
+      <c r="V16" s="266"/>
+      <c r="W16" s="266"/>
+      <c r="X16" s="266"/>
+      <c r="Y16" s="266"/>
+      <c r="Z16" s="266"/>
+      <c r="AA16" s="266"/>
+      <c r="AB16" s="266"/>
+      <c r="AC16" s="266"/>
+      <c r="AD16" s="266"/>
+      <c r="AE16" s="267"/>
+      <c r="AF16" s="262"/>
+      <c r="AG16" s="263"/>
+      <c r="AH16" s="263"/>
+      <c r="AI16" s="264"/>
     </row>
     <row r="17" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="292"/>
-      <c r="C17" s="293"/>
-      <c r="D17" s="294"/>
-      <c r="E17" s="295"/>
-      <c r="F17" s="296"/>
-      <c r="G17" s="292"/>
-      <c r="H17" s="297"/>
-      <c r="I17" s="293"/>
-      <c r="J17" s="298"/>
-      <c r="K17" s="299"/>
-      <c r="L17" s="299"/>
-      <c r="M17" s="299"/>
-      <c r="N17" s="299"/>
-      <c r="O17" s="299"/>
-      <c r="P17" s="300"/>
-      <c r="Q17" s="301"/>
-      <c r="R17" s="302"/>
-      <c r="S17" s="302"/>
-      <c r="T17" s="302"/>
-      <c r="U17" s="302"/>
-      <c r="V17" s="302"/>
-      <c r="W17" s="302"/>
-      <c r="X17" s="302"/>
-      <c r="Y17" s="302"/>
-      <c r="Z17" s="302"/>
-      <c r="AA17" s="302"/>
-      <c r="AB17" s="302"/>
-      <c r="AC17" s="302"/>
-      <c r="AD17" s="302"/>
-      <c r="AE17" s="303"/>
-      <c r="AF17" s="298"/>
-      <c r="AG17" s="299"/>
-      <c r="AH17" s="299"/>
-      <c r="AI17" s="300"/>
+      <c r="B17" s="256"/>
+      <c r="C17" s="257"/>
+      <c r="D17" s="258"/>
+      <c r="E17" s="259"/>
+      <c r="F17" s="260"/>
+      <c r="G17" s="256"/>
+      <c r="H17" s="261"/>
+      <c r="I17" s="257"/>
+      <c r="J17" s="262"/>
+      <c r="K17" s="263"/>
+      <c r="L17" s="263"/>
+      <c r="M17" s="263"/>
+      <c r="N17" s="263"/>
+      <c r="O17" s="263"/>
+      <c r="P17" s="264"/>
+      <c r="Q17" s="265"/>
+      <c r="R17" s="266"/>
+      <c r="S17" s="266"/>
+      <c r="T17" s="266"/>
+      <c r="U17" s="266"/>
+      <c r="V17" s="266"/>
+      <c r="W17" s="266"/>
+      <c r="X17" s="266"/>
+      <c r="Y17" s="266"/>
+      <c r="Z17" s="266"/>
+      <c r="AA17" s="266"/>
+      <c r="AB17" s="266"/>
+      <c r="AC17" s="266"/>
+      <c r="AD17" s="266"/>
+      <c r="AE17" s="267"/>
+      <c r="AF17" s="262"/>
+      <c r="AG17" s="263"/>
+      <c r="AH17" s="263"/>
+      <c r="AI17" s="264"/>
     </row>
     <row r="18" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="21"/>
-      <c r="B18" s="292"/>
-      <c r="C18" s="293"/>
-      <c r="D18" s="294"/>
-      <c r="E18" s="295"/>
-      <c r="F18" s="296"/>
-      <c r="G18" s="292"/>
-      <c r="H18" s="297"/>
-      <c r="I18" s="293"/>
-      <c r="J18" s="298"/>
-      <c r="K18" s="299"/>
-      <c r="L18" s="299"/>
-      <c r="M18" s="299"/>
-      <c r="N18" s="299"/>
-      <c r="O18" s="299"/>
-      <c r="P18" s="300"/>
-      <c r="Q18" s="301"/>
-      <c r="R18" s="302"/>
-      <c r="S18" s="302"/>
-      <c r="T18" s="302"/>
-      <c r="U18" s="302"/>
-      <c r="V18" s="302"/>
-      <c r="W18" s="302"/>
-      <c r="X18" s="302"/>
-      <c r="Y18" s="302"/>
-      <c r="Z18" s="302"/>
-      <c r="AA18" s="302"/>
-      <c r="AB18" s="302"/>
-      <c r="AC18" s="302"/>
-      <c r="AD18" s="302"/>
-      <c r="AE18" s="303"/>
-      <c r="AF18" s="298"/>
-      <c r="AG18" s="299"/>
-      <c r="AH18" s="299"/>
-      <c r="AI18" s="300"/>
+      <c r="B18" s="256"/>
+      <c r="C18" s="257"/>
+      <c r="D18" s="258"/>
+      <c r="E18" s="259"/>
+      <c r="F18" s="260"/>
+      <c r="G18" s="256"/>
+      <c r="H18" s="261"/>
+      <c r="I18" s="257"/>
+      <c r="J18" s="262"/>
+      <c r="K18" s="263"/>
+      <c r="L18" s="263"/>
+      <c r="M18" s="263"/>
+      <c r="N18" s="263"/>
+      <c r="O18" s="263"/>
+      <c r="P18" s="264"/>
+      <c r="Q18" s="265"/>
+      <c r="R18" s="266"/>
+      <c r="S18" s="266"/>
+      <c r="T18" s="266"/>
+      <c r="U18" s="266"/>
+      <c r="V18" s="266"/>
+      <c r="W18" s="266"/>
+      <c r="X18" s="266"/>
+      <c r="Y18" s="266"/>
+      <c r="Z18" s="266"/>
+      <c r="AA18" s="266"/>
+      <c r="AB18" s="266"/>
+      <c r="AC18" s="266"/>
+      <c r="AD18" s="266"/>
+      <c r="AE18" s="267"/>
+      <c r="AF18" s="262"/>
+      <c r="AG18" s="263"/>
+      <c r="AH18" s="263"/>
+      <c r="AI18" s="264"/>
     </row>
     <row r="19" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="21"/>
-      <c r="B19" s="292"/>
-      <c r="C19" s="293"/>
-      <c r="D19" s="294"/>
-      <c r="E19" s="295"/>
-      <c r="F19" s="296"/>
-      <c r="G19" s="292"/>
-      <c r="H19" s="297"/>
-      <c r="I19" s="293"/>
-      <c r="J19" s="298"/>
-      <c r="K19" s="299"/>
-      <c r="L19" s="299"/>
-      <c r="M19" s="299"/>
-      <c r="N19" s="299"/>
-      <c r="O19" s="299"/>
-      <c r="P19" s="300"/>
-      <c r="Q19" s="301"/>
-      <c r="R19" s="302"/>
-      <c r="S19" s="302"/>
-      <c r="T19" s="302"/>
-      <c r="U19" s="302"/>
-      <c r="V19" s="302"/>
-      <c r="W19" s="302"/>
-      <c r="X19" s="302"/>
-      <c r="Y19" s="302"/>
-      <c r="Z19" s="302"/>
-      <c r="AA19" s="302"/>
-      <c r="AB19" s="302"/>
-      <c r="AC19" s="302"/>
-      <c r="AD19" s="302"/>
-      <c r="AE19" s="303"/>
-      <c r="AF19" s="298"/>
-      <c r="AG19" s="299"/>
-      <c r="AH19" s="299"/>
-      <c r="AI19" s="300"/>
+      <c r="B19" s="256"/>
+      <c r="C19" s="257"/>
+      <c r="D19" s="258"/>
+      <c r="E19" s="259"/>
+      <c r="F19" s="260"/>
+      <c r="G19" s="256"/>
+      <c r="H19" s="261"/>
+      <c r="I19" s="257"/>
+      <c r="J19" s="262"/>
+      <c r="K19" s="263"/>
+      <c r="L19" s="263"/>
+      <c r="M19" s="263"/>
+      <c r="N19" s="263"/>
+      <c r="O19" s="263"/>
+      <c r="P19" s="264"/>
+      <c r="Q19" s="265"/>
+      <c r="R19" s="266"/>
+      <c r="S19" s="266"/>
+      <c r="T19" s="266"/>
+      <c r="U19" s="266"/>
+      <c r="V19" s="266"/>
+      <c r="W19" s="266"/>
+      <c r="X19" s="266"/>
+      <c r="Y19" s="266"/>
+      <c r="Z19" s="266"/>
+      <c r="AA19" s="266"/>
+      <c r="AB19" s="266"/>
+      <c r="AC19" s="266"/>
+      <c r="AD19" s="266"/>
+      <c r="AE19" s="267"/>
+      <c r="AF19" s="262"/>
+      <c r="AG19" s="263"/>
+      <c r="AH19" s="263"/>
+      <c r="AI19" s="264"/>
     </row>
     <row r="20" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="21"/>
-      <c r="B20" s="292"/>
-      <c r="C20" s="293"/>
-      <c r="D20" s="294"/>
-      <c r="E20" s="295"/>
-      <c r="F20" s="296"/>
-      <c r="G20" s="292"/>
-      <c r="H20" s="297"/>
-      <c r="I20" s="293"/>
-      <c r="J20" s="298"/>
-      <c r="K20" s="299"/>
-      <c r="L20" s="299"/>
-      <c r="M20" s="299"/>
-      <c r="N20" s="299"/>
-      <c r="O20" s="299"/>
-      <c r="P20" s="300"/>
-      <c r="Q20" s="301"/>
-      <c r="R20" s="302"/>
-      <c r="S20" s="302"/>
-      <c r="T20" s="302"/>
-      <c r="U20" s="302"/>
-      <c r="V20" s="302"/>
-      <c r="W20" s="302"/>
-      <c r="X20" s="302"/>
-      <c r="Y20" s="302"/>
-      <c r="Z20" s="302"/>
-      <c r="AA20" s="302"/>
-      <c r="AB20" s="302"/>
-      <c r="AC20" s="302"/>
-      <c r="AD20" s="302"/>
-      <c r="AE20" s="303"/>
-      <c r="AF20" s="298"/>
-      <c r="AG20" s="299"/>
-      <c r="AH20" s="299"/>
-      <c r="AI20" s="300"/>
+      <c r="B20" s="256"/>
+      <c r="C20" s="257"/>
+      <c r="D20" s="258"/>
+      <c r="E20" s="259"/>
+      <c r="F20" s="260"/>
+      <c r="G20" s="256"/>
+      <c r="H20" s="261"/>
+      <c r="I20" s="257"/>
+      <c r="J20" s="262"/>
+      <c r="K20" s="263"/>
+      <c r="L20" s="263"/>
+      <c r="M20" s="263"/>
+      <c r="N20" s="263"/>
+      <c r="O20" s="263"/>
+      <c r="P20" s="264"/>
+      <c r="Q20" s="265"/>
+      <c r="R20" s="266"/>
+      <c r="S20" s="266"/>
+      <c r="T20" s="266"/>
+      <c r="U20" s="266"/>
+      <c r="V20" s="266"/>
+      <c r="W20" s="266"/>
+      <c r="X20" s="266"/>
+      <c r="Y20" s="266"/>
+      <c r="Z20" s="266"/>
+      <c r="AA20" s="266"/>
+      <c r="AB20" s="266"/>
+      <c r="AC20" s="266"/>
+      <c r="AD20" s="266"/>
+      <c r="AE20" s="267"/>
+      <c r="AF20" s="262"/>
+      <c r="AG20" s="263"/>
+      <c r="AH20" s="263"/>
+      <c r="AI20" s="264"/>
     </row>
     <row r="21" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="21"/>
-      <c r="B21" s="292"/>
-      <c r="C21" s="293"/>
-      <c r="D21" s="294"/>
-      <c r="E21" s="295"/>
-      <c r="F21" s="296"/>
-      <c r="G21" s="292"/>
-      <c r="H21" s="297"/>
-      <c r="I21" s="293"/>
-      <c r="J21" s="298"/>
-      <c r="K21" s="299"/>
-      <c r="L21" s="299"/>
-      <c r="M21" s="299"/>
-      <c r="N21" s="299"/>
-      <c r="O21" s="299"/>
-      <c r="P21" s="300"/>
-      <c r="Q21" s="301"/>
-      <c r="R21" s="302"/>
-      <c r="S21" s="302"/>
-      <c r="T21" s="302"/>
-      <c r="U21" s="302"/>
-      <c r="V21" s="302"/>
-      <c r="W21" s="302"/>
-      <c r="X21" s="302"/>
-      <c r="Y21" s="302"/>
-      <c r="Z21" s="302"/>
-      <c r="AA21" s="302"/>
-      <c r="AB21" s="302"/>
-      <c r="AC21" s="302"/>
-      <c r="AD21" s="302"/>
-      <c r="AE21" s="303"/>
-      <c r="AF21" s="298"/>
-      <c r="AG21" s="299"/>
-      <c r="AH21" s="299"/>
-      <c r="AI21" s="300"/>
+      <c r="B21" s="256"/>
+      <c r="C21" s="257"/>
+      <c r="D21" s="258"/>
+      <c r="E21" s="259"/>
+      <c r="F21" s="260"/>
+      <c r="G21" s="256"/>
+      <c r="H21" s="261"/>
+      <c r="I21" s="257"/>
+      <c r="J21" s="262"/>
+      <c r="K21" s="263"/>
+      <c r="L21" s="263"/>
+      <c r="M21" s="263"/>
+      <c r="N21" s="263"/>
+      <c r="O21" s="263"/>
+      <c r="P21" s="264"/>
+      <c r="Q21" s="265"/>
+      <c r="R21" s="266"/>
+      <c r="S21" s="266"/>
+      <c r="T21" s="266"/>
+      <c r="U21" s="266"/>
+      <c r="V21" s="266"/>
+      <c r="W21" s="266"/>
+      <c r="X21" s="266"/>
+      <c r="Y21" s="266"/>
+      <c r="Z21" s="266"/>
+      <c r="AA21" s="266"/>
+      <c r="AB21" s="266"/>
+      <c r="AC21" s="266"/>
+      <c r="AD21" s="266"/>
+      <c r="AE21" s="267"/>
+      <c r="AF21" s="262"/>
+      <c r="AG21" s="263"/>
+      <c r="AH21" s="263"/>
+      <c r="AI21" s="264"/>
     </row>
     <row r="22" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="21"/>
-      <c r="B22" s="292"/>
-      <c r="C22" s="293"/>
-      <c r="D22" s="294"/>
-      <c r="E22" s="295"/>
-      <c r="F22" s="296"/>
-      <c r="G22" s="292"/>
-      <c r="H22" s="297"/>
-      <c r="I22" s="293"/>
-      <c r="J22" s="298"/>
-      <c r="K22" s="299"/>
-      <c r="L22" s="299"/>
-      <c r="M22" s="299"/>
-      <c r="N22" s="299"/>
-      <c r="O22" s="299"/>
-      <c r="P22" s="300"/>
-      <c r="Q22" s="301"/>
-      <c r="R22" s="302"/>
-      <c r="S22" s="302"/>
-      <c r="T22" s="302"/>
-      <c r="U22" s="302"/>
-      <c r="V22" s="302"/>
-      <c r="W22" s="302"/>
-      <c r="X22" s="302"/>
-      <c r="Y22" s="302"/>
-      <c r="Z22" s="302"/>
-      <c r="AA22" s="302"/>
-      <c r="AB22" s="302"/>
-      <c r="AC22" s="302"/>
-      <c r="AD22" s="302"/>
-      <c r="AE22" s="303"/>
-      <c r="AF22" s="298"/>
-      <c r="AG22" s="299"/>
-      <c r="AH22" s="299"/>
-      <c r="AI22" s="300"/>
+      <c r="B22" s="256"/>
+      <c r="C22" s="257"/>
+      <c r="D22" s="258"/>
+      <c r="E22" s="259"/>
+      <c r="F22" s="260"/>
+      <c r="G22" s="256"/>
+      <c r="H22" s="261"/>
+      <c r="I22" s="257"/>
+      <c r="J22" s="262"/>
+      <c r="K22" s="263"/>
+      <c r="L22" s="263"/>
+      <c r="M22" s="263"/>
+      <c r="N22" s="263"/>
+      <c r="O22" s="263"/>
+      <c r="P22" s="264"/>
+      <c r="Q22" s="265"/>
+      <c r="R22" s="266"/>
+      <c r="S22" s="266"/>
+      <c r="T22" s="266"/>
+      <c r="U22" s="266"/>
+      <c r="V22" s="266"/>
+      <c r="W22" s="266"/>
+      <c r="X22" s="266"/>
+      <c r="Y22" s="266"/>
+      <c r="Z22" s="266"/>
+      <c r="AA22" s="266"/>
+      <c r="AB22" s="266"/>
+      <c r="AC22" s="266"/>
+      <c r="AD22" s="266"/>
+      <c r="AE22" s="267"/>
+      <c r="AF22" s="262"/>
+      <c r="AG22" s="263"/>
+      <c r="AH22" s="263"/>
+      <c r="AI22" s="264"/>
     </row>
     <row r="23" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="21"/>
-      <c r="B23" s="292"/>
-      <c r="C23" s="293"/>
-      <c r="D23" s="294"/>
-      <c r="E23" s="295"/>
-      <c r="F23" s="296"/>
-      <c r="G23" s="292"/>
-      <c r="H23" s="297"/>
-      <c r="I23" s="293"/>
-      <c r="J23" s="298"/>
-      <c r="K23" s="299"/>
-      <c r="L23" s="299"/>
-      <c r="M23" s="299"/>
-      <c r="N23" s="299"/>
-      <c r="O23" s="299"/>
-      <c r="P23" s="300"/>
-      <c r="Q23" s="301"/>
-      <c r="R23" s="302"/>
-      <c r="S23" s="302"/>
-      <c r="T23" s="302"/>
-      <c r="U23" s="302"/>
-      <c r="V23" s="302"/>
-      <c r="W23" s="302"/>
-      <c r="X23" s="302"/>
-      <c r="Y23" s="302"/>
-      <c r="Z23" s="302"/>
-      <c r="AA23" s="302"/>
-      <c r="AB23" s="302"/>
-      <c r="AC23" s="302"/>
-      <c r="AD23" s="302"/>
-      <c r="AE23" s="303"/>
-      <c r="AF23" s="298"/>
-      <c r="AG23" s="299"/>
-      <c r="AH23" s="299"/>
-      <c r="AI23" s="300"/>
+      <c r="B23" s="256"/>
+      <c r="C23" s="257"/>
+      <c r="D23" s="258"/>
+      <c r="E23" s="259"/>
+      <c r="F23" s="260"/>
+      <c r="G23" s="256"/>
+      <c r="H23" s="261"/>
+      <c r="I23" s="257"/>
+      <c r="J23" s="262"/>
+      <c r="K23" s="263"/>
+      <c r="L23" s="263"/>
+      <c r="M23" s="263"/>
+      <c r="N23" s="263"/>
+      <c r="O23" s="263"/>
+      <c r="P23" s="264"/>
+      <c r="Q23" s="265"/>
+      <c r="R23" s="266"/>
+      <c r="S23" s="266"/>
+      <c r="T23" s="266"/>
+      <c r="U23" s="266"/>
+      <c r="V23" s="266"/>
+      <c r="W23" s="266"/>
+      <c r="X23" s="266"/>
+      <c r="Y23" s="266"/>
+      <c r="Z23" s="266"/>
+      <c r="AA23" s="266"/>
+      <c r="AB23" s="266"/>
+      <c r="AC23" s="266"/>
+      <c r="AD23" s="266"/>
+      <c r="AE23" s="267"/>
+      <c r="AF23" s="262"/>
+      <c r="AG23" s="263"/>
+      <c r="AH23" s="263"/>
+      <c r="AI23" s="264"/>
     </row>
     <row r="24" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="21"/>
-      <c r="B24" s="292"/>
-      <c r="C24" s="293"/>
-      <c r="D24" s="294"/>
-      <c r="E24" s="295"/>
-      <c r="F24" s="296"/>
-      <c r="G24" s="292"/>
-      <c r="H24" s="297"/>
-      <c r="I24" s="293"/>
-      <c r="J24" s="298"/>
-      <c r="K24" s="299"/>
-      <c r="L24" s="299"/>
-      <c r="M24" s="299"/>
-      <c r="N24" s="299"/>
-      <c r="O24" s="299"/>
-      <c r="P24" s="300"/>
-      <c r="Q24" s="301"/>
-      <c r="R24" s="302"/>
-      <c r="S24" s="302"/>
-      <c r="T24" s="302"/>
-      <c r="U24" s="302"/>
-      <c r="V24" s="302"/>
-      <c r="W24" s="302"/>
-      <c r="X24" s="302"/>
-      <c r="Y24" s="302"/>
-      <c r="Z24" s="302"/>
-      <c r="AA24" s="302"/>
-      <c r="AB24" s="302"/>
-      <c r="AC24" s="302"/>
-      <c r="AD24" s="302"/>
-      <c r="AE24" s="303"/>
-      <c r="AF24" s="298"/>
-      <c r="AG24" s="299"/>
-      <c r="AH24" s="299"/>
-      <c r="AI24" s="300"/>
+      <c r="B24" s="256"/>
+      <c r="C24" s="257"/>
+      <c r="D24" s="258"/>
+      <c r="E24" s="259"/>
+      <c r="F24" s="260"/>
+      <c r="G24" s="256"/>
+      <c r="H24" s="261"/>
+      <c r="I24" s="257"/>
+      <c r="J24" s="262"/>
+      <c r="K24" s="263"/>
+      <c r="L24" s="263"/>
+      <c r="M24" s="263"/>
+      <c r="N24" s="263"/>
+      <c r="O24" s="263"/>
+      <c r="P24" s="264"/>
+      <c r="Q24" s="265"/>
+      <c r="R24" s="266"/>
+      <c r="S24" s="266"/>
+      <c r="T24" s="266"/>
+      <c r="U24" s="266"/>
+      <c r="V24" s="266"/>
+      <c r="W24" s="266"/>
+      <c r="X24" s="266"/>
+      <c r="Y24" s="266"/>
+      <c r="Z24" s="266"/>
+      <c r="AA24" s="266"/>
+      <c r="AB24" s="266"/>
+      <c r="AC24" s="266"/>
+      <c r="AD24" s="266"/>
+      <c r="AE24" s="267"/>
+      <c r="AF24" s="262"/>
+      <c r="AG24" s="263"/>
+      <c r="AH24" s="263"/>
+      <c r="AI24" s="264"/>
     </row>
     <row r="25" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="21"/>
-      <c r="B25" s="292"/>
-      <c r="C25" s="293"/>
-      <c r="D25" s="294"/>
-      <c r="E25" s="295"/>
-      <c r="F25" s="296"/>
-      <c r="G25" s="292"/>
-      <c r="H25" s="297"/>
-      <c r="I25" s="293"/>
-      <c r="J25" s="298"/>
-      <c r="K25" s="299"/>
-      <c r="L25" s="299"/>
-      <c r="M25" s="299"/>
-      <c r="N25" s="299"/>
-      <c r="O25" s="299"/>
-      <c r="P25" s="300"/>
-      <c r="Q25" s="301"/>
-      <c r="R25" s="302"/>
-      <c r="S25" s="302"/>
-      <c r="T25" s="302"/>
-      <c r="U25" s="302"/>
-      <c r="V25" s="302"/>
-      <c r="W25" s="302"/>
-      <c r="X25" s="302"/>
-      <c r="Y25" s="302"/>
-      <c r="Z25" s="302"/>
-      <c r="AA25" s="302"/>
-      <c r="AB25" s="302"/>
-      <c r="AC25" s="302"/>
-      <c r="AD25" s="302"/>
-      <c r="AE25" s="303"/>
-      <c r="AF25" s="298"/>
-      <c r="AG25" s="299"/>
-      <c r="AH25" s="299"/>
-      <c r="AI25" s="300"/>
+      <c r="B25" s="256"/>
+      <c r="C25" s="257"/>
+      <c r="D25" s="258"/>
+      <c r="E25" s="259"/>
+      <c r="F25" s="260"/>
+      <c r="G25" s="256"/>
+      <c r="H25" s="261"/>
+      <c r="I25" s="257"/>
+      <c r="J25" s="262"/>
+      <c r="K25" s="263"/>
+      <c r="L25" s="263"/>
+      <c r="M25" s="263"/>
+      <c r="N25" s="263"/>
+      <c r="O25" s="263"/>
+      <c r="P25" s="264"/>
+      <c r="Q25" s="265"/>
+      <c r="R25" s="266"/>
+      <c r="S25" s="266"/>
+      <c r="T25" s="266"/>
+      <c r="U25" s="266"/>
+      <c r="V25" s="266"/>
+      <c r="W25" s="266"/>
+      <c r="X25" s="266"/>
+      <c r="Y25" s="266"/>
+      <c r="Z25" s="266"/>
+      <c r="AA25" s="266"/>
+      <c r="AB25" s="266"/>
+      <c r="AC25" s="266"/>
+      <c r="AD25" s="266"/>
+      <c r="AE25" s="267"/>
+      <c r="AF25" s="262"/>
+      <c r="AG25" s="263"/>
+      <c r="AH25" s="263"/>
+      <c r="AI25" s="264"/>
     </row>
     <row r="26" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="21"/>
-      <c r="B26" s="292"/>
-      <c r="C26" s="293"/>
-      <c r="D26" s="294"/>
-      <c r="E26" s="295"/>
-      <c r="F26" s="296"/>
-      <c r="G26" s="292"/>
-      <c r="H26" s="297"/>
-      <c r="I26" s="293"/>
-      <c r="J26" s="298"/>
-      <c r="K26" s="299"/>
-      <c r="L26" s="299"/>
-      <c r="M26" s="299"/>
-      <c r="N26" s="299"/>
-      <c r="O26" s="299"/>
-      <c r="P26" s="300"/>
-      <c r="Q26" s="301"/>
-      <c r="R26" s="302"/>
-      <c r="S26" s="302"/>
-      <c r="T26" s="302"/>
-      <c r="U26" s="302"/>
-      <c r="V26" s="302"/>
-      <c r="W26" s="302"/>
-      <c r="X26" s="302"/>
-      <c r="Y26" s="302"/>
-      <c r="Z26" s="302"/>
-      <c r="AA26" s="302"/>
-      <c r="AB26" s="302"/>
-      <c r="AC26" s="302"/>
-      <c r="AD26" s="302"/>
-      <c r="AE26" s="303"/>
-      <c r="AF26" s="298"/>
-      <c r="AG26" s="299"/>
-      <c r="AH26" s="299"/>
-      <c r="AI26" s="300"/>
+      <c r="B26" s="256"/>
+      <c r="C26" s="257"/>
+      <c r="D26" s="258"/>
+      <c r="E26" s="259"/>
+      <c r="F26" s="260"/>
+      <c r="G26" s="256"/>
+      <c r="H26" s="261"/>
+      <c r="I26" s="257"/>
+      <c r="J26" s="262"/>
+      <c r="K26" s="263"/>
+      <c r="L26" s="263"/>
+      <c r="M26" s="263"/>
+      <c r="N26" s="263"/>
+      <c r="O26" s="263"/>
+      <c r="P26" s="264"/>
+      <c r="Q26" s="265"/>
+      <c r="R26" s="266"/>
+      <c r="S26" s="266"/>
+      <c r="T26" s="266"/>
+      <c r="U26" s="266"/>
+      <c r="V26" s="266"/>
+      <c r="W26" s="266"/>
+      <c r="X26" s="266"/>
+      <c r="Y26" s="266"/>
+      <c r="Z26" s="266"/>
+      <c r="AA26" s="266"/>
+      <c r="AB26" s="266"/>
+      <c r="AC26" s="266"/>
+      <c r="AD26" s="266"/>
+      <c r="AE26" s="267"/>
+      <c r="AF26" s="262"/>
+      <c r="AG26" s="263"/>
+      <c r="AH26" s="263"/>
+      <c r="AI26" s="264"/>
     </row>
     <row r="27" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="21"/>
-      <c r="B27" s="292"/>
-      <c r="C27" s="293"/>
-      <c r="D27" s="294"/>
-      <c r="E27" s="295"/>
-      <c r="F27" s="296"/>
-      <c r="G27" s="292"/>
-      <c r="H27" s="297"/>
-      <c r="I27" s="293"/>
-      <c r="J27" s="298"/>
-      <c r="K27" s="299"/>
-      <c r="L27" s="299"/>
-      <c r="M27" s="299"/>
-      <c r="N27" s="299"/>
-      <c r="O27" s="299"/>
-      <c r="P27" s="300"/>
-      <c r="Q27" s="301"/>
-      <c r="R27" s="302"/>
-      <c r="S27" s="302"/>
-      <c r="T27" s="302"/>
-      <c r="U27" s="302"/>
-      <c r="V27" s="302"/>
-      <c r="W27" s="302"/>
-      <c r="X27" s="302"/>
-      <c r="Y27" s="302"/>
-      <c r="Z27" s="302"/>
-      <c r="AA27" s="302"/>
-      <c r="AB27" s="302"/>
-      <c r="AC27" s="302"/>
-      <c r="AD27" s="302"/>
-      <c r="AE27" s="303"/>
-      <c r="AF27" s="298"/>
-      <c r="AG27" s="299"/>
-      <c r="AH27" s="299"/>
-      <c r="AI27" s="300"/>
+      <c r="B27" s="256"/>
+      <c r="C27" s="257"/>
+      <c r="D27" s="258"/>
+      <c r="E27" s="259"/>
+      <c r="F27" s="260"/>
+      <c r="G27" s="256"/>
+      <c r="H27" s="261"/>
+      <c r="I27" s="257"/>
+      <c r="J27" s="262"/>
+      <c r="K27" s="263"/>
+      <c r="L27" s="263"/>
+      <c r="M27" s="263"/>
+      <c r="N27" s="263"/>
+      <c r="O27" s="263"/>
+      <c r="P27" s="264"/>
+      <c r="Q27" s="265"/>
+      <c r="R27" s="266"/>
+      <c r="S27" s="266"/>
+      <c r="T27" s="266"/>
+      <c r="U27" s="266"/>
+      <c r="V27" s="266"/>
+      <c r="W27" s="266"/>
+      <c r="X27" s="266"/>
+      <c r="Y27" s="266"/>
+      <c r="Z27" s="266"/>
+      <c r="AA27" s="266"/>
+      <c r="AB27" s="266"/>
+      <c r="AC27" s="266"/>
+      <c r="AD27" s="266"/>
+      <c r="AE27" s="267"/>
+      <c r="AF27" s="262"/>
+      <c r="AG27" s="263"/>
+      <c r="AH27" s="263"/>
+      <c r="AI27" s="264"/>
     </row>
     <row r="28" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="292"/>
-      <c r="C28" s="293"/>
-      <c r="D28" s="294"/>
-      <c r="E28" s="295"/>
-      <c r="F28" s="296"/>
-      <c r="G28" s="292"/>
-      <c r="H28" s="297"/>
-      <c r="I28" s="293"/>
-      <c r="J28" s="298"/>
-      <c r="K28" s="299"/>
-      <c r="L28" s="299"/>
-      <c r="M28" s="299"/>
-      <c r="N28" s="299"/>
-      <c r="O28" s="299"/>
-      <c r="P28" s="300"/>
-      <c r="Q28" s="301"/>
-      <c r="R28" s="302"/>
-      <c r="S28" s="302"/>
-      <c r="T28" s="302"/>
-      <c r="U28" s="302"/>
-      <c r="V28" s="302"/>
-      <c r="W28" s="302"/>
-      <c r="X28" s="302"/>
-      <c r="Y28" s="302"/>
-      <c r="Z28" s="302"/>
-      <c r="AA28" s="302"/>
-      <c r="AB28" s="302"/>
-      <c r="AC28" s="302"/>
-      <c r="AD28" s="302"/>
-      <c r="AE28" s="303"/>
-      <c r="AF28" s="298"/>
-      <c r="AG28" s="299"/>
-      <c r="AH28" s="299"/>
-      <c r="AI28" s="300"/>
+      <c r="B28" s="256"/>
+      <c r="C28" s="257"/>
+      <c r="D28" s="258"/>
+      <c r="E28" s="259"/>
+      <c r="F28" s="260"/>
+      <c r="G28" s="256"/>
+      <c r="H28" s="261"/>
+      <c r="I28" s="257"/>
+      <c r="J28" s="262"/>
+      <c r="K28" s="263"/>
+      <c r="L28" s="263"/>
+      <c r="M28" s="263"/>
+      <c r="N28" s="263"/>
+      <c r="O28" s="263"/>
+      <c r="P28" s="264"/>
+      <c r="Q28" s="265"/>
+      <c r="R28" s="266"/>
+      <c r="S28" s="266"/>
+      <c r="T28" s="266"/>
+      <c r="U28" s="266"/>
+      <c r="V28" s="266"/>
+      <c r="W28" s="266"/>
+      <c r="X28" s="266"/>
+      <c r="Y28" s="266"/>
+      <c r="Z28" s="266"/>
+      <c r="AA28" s="266"/>
+      <c r="AB28" s="266"/>
+      <c r="AC28" s="266"/>
+      <c r="AD28" s="266"/>
+      <c r="AE28" s="267"/>
+      <c r="AF28" s="262"/>
+      <c r="AG28" s="263"/>
+      <c r="AH28" s="263"/>
+      <c r="AI28" s="264"/>
     </row>
     <row r="29" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="21"/>
-      <c r="B29" s="292"/>
-      <c r="C29" s="293"/>
-      <c r="D29" s="294"/>
-      <c r="E29" s="295"/>
-      <c r="F29" s="296"/>
-      <c r="G29" s="292"/>
-      <c r="H29" s="297"/>
-      <c r="I29" s="293"/>
-      <c r="J29" s="298"/>
-      <c r="K29" s="299"/>
-      <c r="L29" s="299"/>
-      <c r="M29" s="299"/>
-      <c r="N29" s="299"/>
-      <c r="O29" s="299"/>
-      <c r="P29" s="300"/>
-      <c r="Q29" s="301"/>
-      <c r="R29" s="302"/>
-      <c r="S29" s="302"/>
-      <c r="T29" s="302"/>
-      <c r="U29" s="302"/>
-      <c r="V29" s="302"/>
-      <c r="W29" s="302"/>
-      <c r="X29" s="302"/>
-      <c r="Y29" s="302"/>
-      <c r="Z29" s="302"/>
-      <c r="AA29" s="302"/>
-      <c r="AB29" s="302"/>
-      <c r="AC29" s="302"/>
-      <c r="AD29" s="302"/>
-      <c r="AE29" s="303"/>
-      <c r="AF29" s="298"/>
-      <c r="AG29" s="299"/>
-      <c r="AH29" s="299"/>
-      <c r="AI29" s="300"/>
+      <c r="B29" s="256"/>
+      <c r="C29" s="257"/>
+      <c r="D29" s="258"/>
+      <c r="E29" s="259"/>
+      <c r="F29" s="260"/>
+      <c r="G29" s="256"/>
+      <c r="H29" s="261"/>
+      <c r="I29" s="257"/>
+      <c r="J29" s="262"/>
+      <c r="K29" s="263"/>
+      <c r="L29" s="263"/>
+      <c r="M29" s="263"/>
+      <c r="N29" s="263"/>
+      <c r="O29" s="263"/>
+      <c r="P29" s="264"/>
+      <c r="Q29" s="265"/>
+      <c r="R29" s="266"/>
+      <c r="S29" s="266"/>
+      <c r="T29" s="266"/>
+      <c r="U29" s="266"/>
+      <c r="V29" s="266"/>
+      <c r="W29" s="266"/>
+      <c r="X29" s="266"/>
+      <c r="Y29" s="266"/>
+      <c r="Z29" s="266"/>
+      <c r="AA29" s="266"/>
+      <c r="AB29" s="266"/>
+      <c r="AC29" s="266"/>
+      <c r="AD29" s="266"/>
+      <c r="AE29" s="267"/>
+      <c r="AF29" s="262"/>
+      <c r="AG29" s="263"/>
+      <c r="AH29" s="263"/>
+      <c r="AI29" s="264"/>
     </row>
     <row r="30" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="21"/>
-      <c r="B30" s="292"/>
-      <c r="C30" s="293"/>
-      <c r="D30" s="294"/>
-      <c r="E30" s="295"/>
-      <c r="F30" s="296"/>
-      <c r="G30" s="292"/>
-      <c r="H30" s="297"/>
-      <c r="I30" s="293"/>
-      <c r="J30" s="298"/>
-      <c r="K30" s="299"/>
-      <c r="L30" s="299"/>
-      <c r="M30" s="299"/>
-      <c r="N30" s="299"/>
-      <c r="O30" s="299"/>
-      <c r="P30" s="300"/>
-      <c r="Q30" s="301"/>
-      <c r="R30" s="302"/>
-      <c r="S30" s="302"/>
-      <c r="T30" s="302"/>
-      <c r="U30" s="302"/>
-      <c r="V30" s="302"/>
-      <c r="W30" s="302"/>
-      <c r="X30" s="302"/>
-      <c r="Y30" s="302"/>
-      <c r="Z30" s="302"/>
-      <c r="AA30" s="302"/>
-      <c r="AB30" s="302"/>
-      <c r="AC30" s="302"/>
-      <c r="AD30" s="302"/>
-      <c r="AE30" s="303"/>
-      <c r="AF30" s="298"/>
-      <c r="AG30" s="299"/>
-      <c r="AH30" s="299"/>
-      <c r="AI30" s="300"/>
+      <c r="B30" s="256"/>
+      <c r="C30" s="257"/>
+      <c r="D30" s="258"/>
+      <c r="E30" s="259"/>
+      <c r="F30" s="260"/>
+      <c r="G30" s="256"/>
+      <c r="H30" s="261"/>
+      <c r="I30" s="257"/>
+      <c r="J30" s="262"/>
+      <c r="K30" s="263"/>
+      <c r="L30" s="263"/>
+      <c r="M30" s="263"/>
+      <c r="N30" s="263"/>
+      <c r="O30" s="263"/>
+      <c r="P30" s="264"/>
+      <c r="Q30" s="265"/>
+      <c r="R30" s="266"/>
+      <c r="S30" s="266"/>
+      <c r="T30" s="266"/>
+      <c r="U30" s="266"/>
+      <c r="V30" s="266"/>
+      <c r="W30" s="266"/>
+      <c r="X30" s="266"/>
+      <c r="Y30" s="266"/>
+      <c r="Z30" s="266"/>
+      <c r="AA30" s="266"/>
+      <c r="AB30" s="266"/>
+      <c r="AC30" s="266"/>
+      <c r="AD30" s="266"/>
+      <c r="AE30" s="267"/>
+      <c r="AF30" s="262"/>
+      <c r="AG30" s="263"/>
+      <c r="AH30" s="263"/>
+      <c r="AI30" s="264"/>
     </row>
     <row r="31" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="21"/>
-      <c r="B31" s="292"/>
-      <c r="C31" s="293"/>
-      <c r="D31" s="294"/>
-      <c r="E31" s="295"/>
-      <c r="F31" s="296"/>
-      <c r="G31" s="292"/>
-      <c r="H31" s="297"/>
-      <c r="I31" s="293"/>
-      <c r="J31" s="298"/>
-      <c r="K31" s="299"/>
-      <c r="L31" s="299"/>
-      <c r="M31" s="299"/>
-      <c r="N31" s="299"/>
-      <c r="O31" s="299"/>
-      <c r="P31" s="300"/>
-      <c r="Q31" s="301"/>
-      <c r="R31" s="302"/>
-      <c r="S31" s="302"/>
-      <c r="T31" s="302"/>
-      <c r="U31" s="302"/>
-      <c r="V31" s="302"/>
-      <c r="W31" s="302"/>
-      <c r="X31" s="302"/>
-      <c r="Y31" s="302"/>
-      <c r="Z31" s="302"/>
-      <c r="AA31" s="302"/>
-      <c r="AB31" s="302"/>
-      <c r="AC31" s="302"/>
-      <c r="AD31" s="302"/>
-      <c r="AE31" s="303"/>
-      <c r="AF31" s="298"/>
-      <c r="AG31" s="299"/>
-      <c r="AH31" s="299"/>
-      <c r="AI31" s="300"/>
+      <c r="B31" s="256"/>
+      <c r="C31" s="257"/>
+      <c r="D31" s="258"/>
+      <c r="E31" s="259"/>
+      <c r="F31" s="260"/>
+      <c r="G31" s="256"/>
+      <c r="H31" s="261"/>
+      <c r="I31" s="257"/>
+      <c r="J31" s="262"/>
+      <c r="K31" s="263"/>
+      <c r="L31" s="263"/>
+      <c r="M31" s="263"/>
+      <c r="N31" s="263"/>
+      <c r="O31" s="263"/>
+      <c r="P31" s="264"/>
+      <c r="Q31" s="265"/>
+      <c r="R31" s="266"/>
+      <c r="S31" s="266"/>
+      <c r="T31" s="266"/>
+      <c r="U31" s="266"/>
+      <c r="V31" s="266"/>
+      <c r="W31" s="266"/>
+      <c r="X31" s="266"/>
+      <c r="Y31" s="266"/>
+      <c r="Z31" s="266"/>
+      <c r="AA31" s="266"/>
+      <c r="AB31" s="266"/>
+      <c r="AC31" s="266"/>
+      <c r="AD31" s="266"/>
+      <c r="AE31" s="267"/>
+      <c r="AF31" s="262"/>
+      <c r="AG31" s="263"/>
+      <c r="AH31" s="263"/>
+      <c r="AI31" s="264"/>
     </row>
     <row r="32" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="21"/>
-      <c r="B32" s="292"/>
-      <c r="C32" s="293"/>
-      <c r="D32" s="294"/>
-      <c r="E32" s="295"/>
-      <c r="F32" s="296"/>
-      <c r="G32" s="292"/>
-      <c r="H32" s="297"/>
-      <c r="I32" s="293"/>
-      <c r="J32" s="298"/>
-      <c r="K32" s="317"/>
-      <c r="L32" s="299"/>
-      <c r="M32" s="299"/>
-      <c r="N32" s="299"/>
-      <c r="O32" s="299"/>
-      <c r="P32" s="300"/>
-      <c r="Q32" s="301"/>
-      <c r="R32" s="302"/>
-      <c r="S32" s="302"/>
-      <c r="T32" s="302"/>
-      <c r="U32" s="302"/>
-      <c r="V32" s="302"/>
-      <c r="W32" s="302"/>
-      <c r="X32" s="302"/>
-      <c r="Y32" s="302"/>
-      <c r="Z32" s="302"/>
-      <c r="AA32" s="302"/>
-      <c r="AB32" s="302"/>
-      <c r="AC32" s="302"/>
-      <c r="AD32" s="302"/>
-      <c r="AE32" s="303"/>
-      <c r="AF32" s="298"/>
-      <c r="AG32" s="299"/>
-      <c r="AH32" s="299"/>
-      <c r="AI32" s="300"/>
+      <c r="B32" s="256"/>
+      <c r="C32" s="257"/>
+      <c r="D32" s="258"/>
+      <c r="E32" s="259"/>
+      <c r="F32" s="260"/>
+      <c r="G32" s="256"/>
+      <c r="H32" s="261"/>
+      <c r="I32" s="257"/>
+      <c r="J32" s="262"/>
+      <c r="K32" s="268"/>
+      <c r="L32" s="263"/>
+      <c r="M32" s="263"/>
+      <c r="N32" s="263"/>
+      <c r="O32" s="263"/>
+      <c r="P32" s="264"/>
+      <c r="Q32" s="265"/>
+      <c r="R32" s="266"/>
+      <c r="S32" s="266"/>
+      <c r="T32" s="266"/>
+      <c r="U32" s="266"/>
+      <c r="V32" s="266"/>
+      <c r="W32" s="266"/>
+      <c r="X32" s="266"/>
+      <c r="Y32" s="266"/>
+      <c r="Z32" s="266"/>
+      <c r="AA32" s="266"/>
+      <c r="AB32" s="266"/>
+      <c r="AC32" s="266"/>
+      <c r="AD32" s="266"/>
+      <c r="AE32" s="267"/>
+      <c r="AF32" s="262"/>
+      <c r="AG32" s="263"/>
+      <c r="AH32" s="263"/>
+      <c r="AI32" s="264"/>
     </row>
     <row r="33" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="21"/>
-      <c r="B33" s="292"/>
-      <c r="C33" s="293"/>
-      <c r="D33" s="294"/>
-      <c r="E33" s="295"/>
-      <c r="F33" s="296"/>
-      <c r="G33" s="292"/>
-      <c r="H33" s="297"/>
-      <c r="I33" s="293"/>
-      <c r="J33" s="298"/>
-      <c r="K33" s="299"/>
-      <c r="L33" s="299"/>
-      <c r="M33" s="299"/>
-      <c r="N33" s="299"/>
-      <c r="O33" s="299"/>
-      <c r="P33" s="300"/>
-      <c r="Q33" s="301"/>
-      <c r="R33" s="302"/>
-      <c r="S33" s="302"/>
-      <c r="T33" s="302"/>
-      <c r="U33" s="302"/>
-      <c r="V33" s="302"/>
-      <c r="W33" s="302"/>
-      <c r="X33" s="302"/>
-      <c r="Y33" s="302"/>
-      <c r="Z33" s="302"/>
-      <c r="AA33" s="302"/>
-      <c r="AB33" s="302"/>
-      <c r="AC33" s="302"/>
-      <c r="AD33" s="302"/>
-      <c r="AE33" s="303"/>
-      <c r="AF33" s="298"/>
-      <c r="AG33" s="299"/>
-      <c r="AH33" s="299"/>
-      <c r="AI33" s="300"/>
+      <c r="B33" s="256"/>
+      <c r="C33" s="257"/>
+      <c r="D33" s="258"/>
+      <c r="E33" s="259"/>
+      <c r="F33" s="260"/>
+      <c r="G33" s="256"/>
+      <c r="H33" s="261"/>
+      <c r="I33" s="257"/>
+      <c r="J33" s="262"/>
+      <c r="K33" s="263"/>
+      <c r="L33" s="263"/>
+      <c r="M33" s="263"/>
+      <c r="N33" s="263"/>
+      <c r="O33" s="263"/>
+      <c r="P33" s="264"/>
+      <c r="Q33" s="265"/>
+      <c r="R33" s="266"/>
+      <c r="S33" s="266"/>
+      <c r="T33" s="266"/>
+      <c r="U33" s="266"/>
+      <c r="V33" s="266"/>
+      <c r="W33" s="266"/>
+      <c r="X33" s="266"/>
+      <c r="Y33" s="266"/>
+      <c r="Z33" s="266"/>
+      <c r="AA33" s="266"/>
+      <c r="AB33" s="266"/>
+      <c r="AC33" s="266"/>
+      <c r="AD33" s="266"/>
+      <c r="AE33" s="267"/>
+      <c r="AF33" s="262"/>
+      <c r="AG33" s="263"/>
+      <c r="AH33" s="263"/>
+      <c r="AI33" s="264"/>
     </row>
     <row r="34" spans="1:35" ht="14">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -15113,6 +14963,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>

--- a/Sample_Project/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書(画面)_WA10101_認証.xlsx
+++ b/Sample_Project/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書(画面)_WA10101_認証.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF50186-85D1-4B85-BE7C-D07CEDB8ACBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72962795-A80E-422B-B8F1-27448727C8E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="724" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11919,6 +11919,84 @@
     <xf numFmtId="31" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="17" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -12025,84 +12103,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="17" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13717,51 +13717,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="262" t="s">
+      <c r="A1" s="288" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="263"/>
-      <c r="C1" s="263"/>
-      <c r="D1" s="264"/>
-      <c r="E1" s="265" t="s">
+      <c r="B1" s="289"/>
+      <c r="C1" s="289"/>
+      <c r="D1" s="290"/>
+      <c r="E1" s="291" t="s">
         <v>560</v>
       </c>
-      <c r="F1" s="266"/>
-      <c r="G1" s="266"/>
-      <c r="H1" s="266"/>
-      <c r="I1" s="266"/>
-      <c r="J1" s="266"/>
-      <c r="K1" s="266"/>
-      <c r="L1" s="266"/>
-      <c r="M1" s="266"/>
-      <c r="N1" s="267"/>
-      <c r="O1" s="271" t="s">
+      <c r="F1" s="292"/>
+      <c r="G1" s="292"/>
+      <c r="H1" s="292"/>
+      <c r="I1" s="292"/>
+      <c r="J1" s="292"/>
+      <c r="K1" s="292"/>
+      <c r="L1" s="292"/>
+      <c r="M1" s="292"/>
+      <c r="N1" s="293"/>
+      <c r="O1" s="297" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="272"/>
-      <c r="Q1" s="272"/>
-      <c r="R1" s="273"/>
-      <c r="S1" s="280" t="s">
+      <c r="P1" s="298"/>
+      <c r="Q1" s="298"/>
+      <c r="R1" s="299"/>
+      <c r="S1" s="306" t="s">
         <v>791</v>
       </c>
-      <c r="T1" s="281"/>
-      <c r="U1" s="281"/>
-      <c r="V1" s="281"/>
-      <c r="W1" s="281"/>
-      <c r="X1" s="281"/>
-      <c r="Y1" s="281"/>
-      <c r="Z1" s="282"/>
-      <c r="AA1" s="262" t="s">
+      <c r="T1" s="307"/>
+      <c r="U1" s="307"/>
+      <c r="V1" s="307"/>
+      <c r="W1" s="307"/>
+      <c r="X1" s="307"/>
+      <c r="Y1" s="307"/>
+      <c r="Z1" s="308"/>
+      <c r="AA1" s="288" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="264"/>
-      <c r="AC1" s="289"/>
-      <c r="AD1" s="290"/>
-      <c r="AE1" s="290"/>
-      <c r="AF1" s="291"/>
-      <c r="AG1" s="256"/>
-      <c r="AH1" s="257"/>
-      <c r="AI1" s="258"/>
+      <c r="AB1" s="290"/>
+      <c r="AC1" s="315"/>
+      <c r="AD1" s="316"/>
+      <c r="AE1" s="316"/>
+      <c r="AF1" s="317"/>
+      <c r="AG1" s="282"/>
+      <c r="AH1" s="283"/>
+      <c r="AI1" s="284"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -13769,53 +13769,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="262" t="s">
+      <c r="A2" s="288" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="263"/>
-      <c r="C2" s="263"/>
-      <c r="D2" s="264"/>
-      <c r="E2" s="265" t="s">
+      <c r="B2" s="289"/>
+      <c r="C2" s="289"/>
+      <c r="D2" s="290"/>
+      <c r="E2" s="291" t="s">
         <v>613</v>
       </c>
-      <c r="F2" s="266"/>
-      <c r="G2" s="266"/>
-      <c r="H2" s="266"/>
-      <c r="I2" s="266"/>
-      <c r="J2" s="266"/>
-      <c r="K2" s="266"/>
-      <c r="L2" s="266"/>
-      <c r="M2" s="266"/>
-      <c r="N2" s="267"/>
-      <c r="O2" s="274"/>
-      <c r="P2" s="275"/>
-      <c r="Q2" s="275"/>
-      <c r="R2" s="276"/>
-      <c r="S2" s="283"/>
-      <c r="T2" s="284"/>
-      <c r="U2" s="284"/>
-      <c r="V2" s="284"/>
-      <c r="W2" s="284"/>
-      <c r="X2" s="284"/>
-      <c r="Y2" s="284"/>
-      <c r="Z2" s="285"/>
-      <c r="AA2" s="262" t="s">
+      <c r="F2" s="292"/>
+      <c r="G2" s="292"/>
+      <c r="H2" s="292"/>
+      <c r="I2" s="292"/>
+      <c r="J2" s="292"/>
+      <c r="K2" s="292"/>
+      <c r="L2" s="292"/>
+      <c r="M2" s="292"/>
+      <c r="N2" s="293"/>
+      <c r="O2" s="300"/>
+      <c r="P2" s="301"/>
+      <c r="Q2" s="301"/>
+      <c r="R2" s="302"/>
+      <c r="S2" s="309"/>
+      <c r="T2" s="310"/>
+      <c r="U2" s="310"/>
+      <c r="V2" s="310"/>
+      <c r="W2" s="310"/>
+      <c r="X2" s="310"/>
+      <c r="Y2" s="310"/>
+      <c r="Z2" s="311"/>
+      <c r="AA2" s="288" t="s">
         <v>23</v>
       </c>
-      <c r="AB2" s="264"/>
-      <c r="AC2" s="268" t="str">
+      <c r="AB2" s="290"/>
+      <c r="AC2" s="294" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="269"/>
-      <c r="AE2" s="269"/>
-      <c r="AF2" s="270"/>
-      <c r="AG2" s="256" t="str">
+      <c r="AD2" s="295"/>
+      <c r="AE2" s="295"/>
+      <c r="AF2" s="296"/>
+      <c r="AG2" s="282" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="257"/>
-      <c r="AI2" s="258"/>
+      <c r="AH2" s="283"/>
+      <c r="AI2" s="284"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -13823,45 +13823,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="262" t="s">
+      <c r="A3" s="288" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="263"/>
-      <c r="C3" s="263"/>
-      <c r="D3" s="264"/>
-      <c r="E3" s="265" t="s">
+      <c r="B3" s="289"/>
+      <c r="C3" s="289"/>
+      <c r="D3" s="290"/>
+      <c r="E3" s="291" t="s">
         <v>614</v>
       </c>
-      <c r="F3" s="266"/>
-      <c r="G3" s="266"/>
-      <c r="H3" s="266"/>
-      <c r="I3" s="266"/>
-      <c r="J3" s="266"/>
-      <c r="K3" s="266"/>
-      <c r="L3" s="266"/>
-      <c r="M3" s="266"/>
-      <c r="N3" s="267"/>
-      <c r="O3" s="277"/>
-      <c r="P3" s="278"/>
-      <c r="Q3" s="278"/>
-      <c r="R3" s="279"/>
-      <c r="S3" s="286"/>
-      <c r="T3" s="287"/>
-      <c r="U3" s="287"/>
-      <c r="V3" s="287"/>
-      <c r="W3" s="287"/>
-      <c r="X3" s="287"/>
-      <c r="Y3" s="287"/>
-      <c r="Z3" s="288"/>
-      <c r="AA3" s="262"/>
-      <c r="AB3" s="264"/>
-      <c r="AC3" s="289"/>
-      <c r="AD3" s="290"/>
-      <c r="AE3" s="290"/>
-      <c r="AF3" s="291"/>
-      <c r="AG3" s="256"/>
-      <c r="AH3" s="257"/>
-      <c r="AI3" s="258"/>
+      <c r="F3" s="292"/>
+      <c r="G3" s="292"/>
+      <c r="H3" s="292"/>
+      <c r="I3" s="292"/>
+      <c r="J3" s="292"/>
+      <c r="K3" s="292"/>
+      <c r="L3" s="292"/>
+      <c r="M3" s="292"/>
+      <c r="N3" s="293"/>
+      <c r="O3" s="303"/>
+      <c r="P3" s="304"/>
+      <c r="Q3" s="304"/>
+      <c r="R3" s="305"/>
+      <c r="S3" s="312"/>
+      <c r="T3" s="313"/>
+      <c r="U3" s="313"/>
+      <c r="V3" s="313"/>
+      <c r="W3" s="313"/>
+      <c r="X3" s="313"/>
+      <c r="Y3" s="313"/>
+      <c r="Z3" s="314"/>
+      <c r="AA3" s="288"/>
+      <c r="AB3" s="290"/>
+      <c r="AC3" s="315"/>
+      <c r="AD3" s="316"/>
+      <c r="AE3" s="316"/>
+      <c r="AF3" s="317"/>
+      <c r="AG3" s="282"/>
+      <c r="AH3" s="283"/>
+      <c r="AI3" s="284"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -13898,1176 +13898,1020 @@
       <c r="A7" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="259" t="s">
+      <c r="B7" s="285" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="260"/>
-      <c r="D7" s="259" t="s">
+      <c r="C7" s="286"/>
+      <c r="D7" s="285" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="261"/>
-      <c r="F7" s="260"/>
-      <c r="G7" s="259" t="s">
+      <c r="E7" s="287"/>
+      <c r="F7" s="286"/>
+      <c r="G7" s="285" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="261"/>
-      <c r="I7" s="260"/>
-      <c r="J7" s="259" t="s">
+      <c r="H7" s="287"/>
+      <c r="I7" s="286"/>
+      <c r="J7" s="285" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="261"/>
-      <c r="L7" s="261"/>
-      <c r="M7" s="261"/>
-      <c r="N7" s="261"/>
-      <c r="O7" s="261"/>
-      <c r="P7" s="260"/>
-      <c r="Q7" s="259" t="s">
+      <c r="K7" s="287"/>
+      <c r="L7" s="287"/>
+      <c r="M7" s="287"/>
+      <c r="N7" s="287"/>
+      <c r="O7" s="287"/>
+      <c r="P7" s="286"/>
+      <c r="Q7" s="285" t="s">
         <v>30</v>
       </c>
-      <c r="R7" s="261"/>
-      <c r="S7" s="261"/>
-      <c r="T7" s="261"/>
-      <c r="U7" s="261"/>
-      <c r="V7" s="261"/>
-      <c r="W7" s="261"/>
-      <c r="X7" s="261"/>
-      <c r="Y7" s="261"/>
-      <c r="Z7" s="261"/>
-      <c r="AA7" s="261"/>
-      <c r="AB7" s="261"/>
-      <c r="AC7" s="261"/>
-      <c r="AD7" s="261"/>
-      <c r="AE7" s="260"/>
-      <c r="AF7" s="259" t="s">
+      <c r="R7" s="287"/>
+      <c r="S7" s="287"/>
+      <c r="T7" s="287"/>
+      <c r="U7" s="287"/>
+      <c r="V7" s="287"/>
+      <c r="W7" s="287"/>
+      <c r="X7" s="287"/>
+      <c r="Y7" s="287"/>
+      <c r="Z7" s="287"/>
+      <c r="AA7" s="287"/>
+      <c r="AB7" s="287"/>
+      <c r="AC7" s="287"/>
+      <c r="AD7" s="287"/>
+      <c r="AE7" s="286"/>
+      <c r="AF7" s="285" t="s">
         <v>31</v>
       </c>
-      <c r="AG7" s="261"/>
-      <c r="AH7" s="261"/>
-      <c r="AI7" s="260"/>
+      <c r="AG7" s="287"/>
+      <c r="AH7" s="287"/>
+      <c r="AI7" s="286"/>
     </row>
     <row r="8" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="20"/>
-      <c r="B8" s="304"/>
-      <c r="C8" s="305"/>
-      <c r="D8" s="306"/>
-      <c r="E8" s="307"/>
-      <c r="F8" s="308"/>
-      <c r="G8" s="309"/>
-      <c r="H8" s="310"/>
-      <c r="I8" s="305"/>
-      <c r="J8" s="311"/>
-      <c r="K8" s="312"/>
-      <c r="L8" s="312"/>
-      <c r="M8" s="312"/>
-      <c r="N8" s="312"/>
-      <c r="O8" s="312"/>
-      <c r="P8" s="313"/>
-      <c r="Q8" s="314"/>
-      <c r="R8" s="315"/>
-      <c r="S8" s="315"/>
-      <c r="T8" s="315"/>
-      <c r="U8" s="315"/>
-      <c r="V8" s="315"/>
-      <c r="W8" s="315"/>
-      <c r="X8" s="315"/>
-      <c r="Y8" s="315"/>
-      <c r="Z8" s="315"/>
-      <c r="AA8" s="315"/>
-      <c r="AB8" s="315"/>
-      <c r="AC8" s="315"/>
-      <c r="AD8" s="315"/>
-      <c r="AE8" s="316"/>
-      <c r="AF8" s="311"/>
-      <c r="AG8" s="312"/>
-      <c r="AH8" s="312"/>
-      <c r="AI8" s="313"/>
+      <c r="B8" s="269"/>
+      <c r="C8" s="270"/>
+      <c r="D8" s="271"/>
+      <c r="E8" s="272"/>
+      <c r="F8" s="273"/>
+      <c r="G8" s="274"/>
+      <c r="H8" s="275"/>
+      <c r="I8" s="270"/>
+      <c r="J8" s="276"/>
+      <c r="K8" s="277"/>
+      <c r="L8" s="277"/>
+      <c r="M8" s="277"/>
+      <c r="N8" s="277"/>
+      <c r="O8" s="277"/>
+      <c r="P8" s="278"/>
+      <c r="Q8" s="279"/>
+      <c r="R8" s="280"/>
+      <c r="S8" s="280"/>
+      <c r="T8" s="280"/>
+      <c r="U8" s="280"/>
+      <c r="V8" s="280"/>
+      <c r="W8" s="280"/>
+      <c r="X8" s="280"/>
+      <c r="Y8" s="280"/>
+      <c r="Z8" s="280"/>
+      <c r="AA8" s="280"/>
+      <c r="AB8" s="280"/>
+      <c r="AC8" s="280"/>
+      <c r="AD8" s="280"/>
+      <c r="AE8" s="281"/>
+      <c r="AF8" s="276"/>
+      <c r="AG8" s="277"/>
+      <c r="AH8" s="277"/>
+      <c r="AI8" s="278"/>
     </row>
     <row r="9" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="21"/>
-      <c r="B9" s="292"/>
-      <c r="C9" s="293"/>
-      <c r="D9" s="294"/>
-      <c r="E9" s="295"/>
-      <c r="F9" s="296"/>
-      <c r="G9" s="294"/>
-      <c r="H9" s="297"/>
-      <c r="I9" s="293"/>
-      <c r="J9" s="298"/>
-      <c r="K9" s="299"/>
-      <c r="L9" s="299"/>
-      <c r="M9" s="299"/>
-      <c r="N9" s="299"/>
-      <c r="O9" s="299"/>
-      <c r="P9" s="300"/>
-      <c r="Q9" s="301"/>
-      <c r="R9" s="302"/>
-      <c r="S9" s="302"/>
-      <c r="T9" s="302"/>
-      <c r="U9" s="302"/>
-      <c r="V9" s="302"/>
-      <c r="W9" s="302"/>
-      <c r="X9" s="302"/>
-      <c r="Y9" s="302"/>
-      <c r="Z9" s="302"/>
-      <c r="AA9" s="302"/>
-      <c r="AB9" s="302"/>
-      <c r="AC9" s="302"/>
-      <c r="AD9" s="302"/>
-      <c r="AE9" s="303"/>
-      <c r="AF9" s="298"/>
-      <c r="AG9" s="299"/>
-      <c r="AH9" s="299"/>
-      <c r="AI9" s="300"/>
+      <c r="B9" s="256"/>
+      <c r="C9" s="257"/>
+      <c r="D9" s="258"/>
+      <c r="E9" s="259"/>
+      <c r="F9" s="260"/>
+      <c r="G9" s="258"/>
+      <c r="H9" s="261"/>
+      <c r="I9" s="257"/>
+      <c r="J9" s="262"/>
+      <c r="K9" s="263"/>
+      <c r="L9" s="263"/>
+      <c r="M9" s="263"/>
+      <c r="N9" s="263"/>
+      <c r="O9" s="263"/>
+      <c r="P9" s="264"/>
+      <c r="Q9" s="265"/>
+      <c r="R9" s="266"/>
+      <c r="S9" s="266"/>
+      <c r="T9" s="266"/>
+      <c r="U9" s="266"/>
+      <c r="V9" s="266"/>
+      <c r="W9" s="266"/>
+      <c r="X9" s="266"/>
+      <c r="Y9" s="266"/>
+      <c r="Z9" s="266"/>
+      <c r="AA9" s="266"/>
+      <c r="AB9" s="266"/>
+      <c r="AC9" s="266"/>
+      <c r="AD9" s="266"/>
+      <c r="AE9" s="267"/>
+      <c r="AF9" s="262"/>
+      <c r="AG9" s="263"/>
+      <c r="AH9" s="263"/>
+      <c r="AI9" s="264"/>
     </row>
     <row r="10" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="21"/>
-      <c r="B10" s="292"/>
-      <c r="C10" s="293"/>
-      <c r="D10" s="294"/>
-      <c r="E10" s="295"/>
-      <c r="F10" s="296"/>
-      <c r="G10" s="292"/>
-      <c r="H10" s="297"/>
-      <c r="I10" s="293"/>
-      <c r="J10" s="298"/>
-      <c r="K10" s="299"/>
-      <c r="L10" s="299"/>
-      <c r="M10" s="299"/>
-      <c r="N10" s="299"/>
-      <c r="O10" s="299"/>
-      <c r="P10" s="300"/>
-      <c r="Q10" s="301"/>
-      <c r="R10" s="302"/>
-      <c r="S10" s="302"/>
-      <c r="T10" s="302"/>
-      <c r="U10" s="302"/>
-      <c r="V10" s="302"/>
-      <c r="W10" s="302"/>
-      <c r="X10" s="302"/>
-      <c r="Y10" s="302"/>
-      <c r="Z10" s="302"/>
-      <c r="AA10" s="302"/>
-      <c r="AB10" s="302"/>
-      <c r="AC10" s="302"/>
-      <c r="AD10" s="302"/>
-      <c r="AE10" s="303"/>
-      <c r="AF10" s="298"/>
-      <c r="AG10" s="299"/>
-      <c r="AH10" s="299"/>
-      <c r="AI10" s="300"/>
+      <c r="B10" s="256"/>
+      <c r="C10" s="257"/>
+      <c r="D10" s="258"/>
+      <c r="E10" s="259"/>
+      <c r="F10" s="260"/>
+      <c r="G10" s="256"/>
+      <c r="H10" s="261"/>
+      <c r="I10" s="257"/>
+      <c r="J10" s="262"/>
+      <c r="K10" s="263"/>
+      <c r="L10" s="263"/>
+      <c r="M10" s="263"/>
+      <c r="N10" s="263"/>
+      <c r="O10" s="263"/>
+      <c r="P10" s="264"/>
+      <c r="Q10" s="265"/>
+      <c r="R10" s="266"/>
+      <c r="S10" s="266"/>
+      <c r="T10" s="266"/>
+      <c r="U10" s="266"/>
+      <c r="V10" s="266"/>
+      <c r="W10" s="266"/>
+      <c r="X10" s="266"/>
+      <c r="Y10" s="266"/>
+      <c r="Z10" s="266"/>
+      <c r="AA10" s="266"/>
+      <c r="AB10" s="266"/>
+      <c r="AC10" s="266"/>
+      <c r="AD10" s="266"/>
+      <c r="AE10" s="267"/>
+      <c r="AF10" s="262"/>
+      <c r="AG10" s="263"/>
+      <c r="AH10" s="263"/>
+      <c r="AI10" s="264"/>
     </row>
     <row r="11" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="21"/>
-      <c r="B11" s="292"/>
-      <c r="C11" s="293"/>
-      <c r="D11" s="294"/>
-      <c r="E11" s="295"/>
-      <c r="F11" s="296"/>
-      <c r="G11" s="292"/>
-      <c r="H11" s="297"/>
-      <c r="I11" s="293"/>
-      <c r="J11" s="298"/>
-      <c r="K11" s="299"/>
-      <c r="L11" s="299"/>
-      <c r="M11" s="299"/>
-      <c r="N11" s="299"/>
-      <c r="O11" s="299"/>
-      <c r="P11" s="300"/>
-      <c r="Q11" s="301"/>
-      <c r="R11" s="302"/>
-      <c r="S11" s="302"/>
-      <c r="T11" s="302"/>
-      <c r="U11" s="302"/>
-      <c r="V11" s="302"/>
-      <c r="W11" s="302"/>
-      <c r="X11" s="302"/>
-      <c r="Y11" s="302"/>
-      <c r="Z11" s="302"/>
-      <c r="AA11" s="302"/>
-      <c r="AB11" s="302"/>
-      <c r="AC11" s="302"/>
-      <c r="AD11" s="302"/>
-      <c r="AE11" s="303"/>
-      <c r="AF11" s="298"/>
-      <c r="AG11" s="299"/>
-      <c r="AH11" s="299"/>
-      <c r="AI11" s="300"/>
+      <c r="B11" s="256"/>
+      <c r="C11" s="257"/>
+      <c r="D11" s="258"/>
+      <c r="E11" s="259"/>
+      <c r="F11" s="260"/>
+      <c r="G11" s="256"/>
+      <c r="H11" s="261"/>
+      <c r="I11" s="257"/>
+      <c r="J11" s="262"/>
+      <c r="K11" s="263"/>
+      <c r="L11" s="263"/>
+      <c r="M11" s="263"/>
+      <c r="N11" s="263"/>
+      <c r="O11" s="263"/>
+      <c r="P11" s="264"/>
+      <c r="Q11" s="265"/>
+      <c r="R11" s="266"/>
+      <c r="S11" s="266"/>
+      <c r="T11" s="266"/>
+      <c r="U11" s="266"/>
+      <c r="V11" s="266"/>
+      <c r="W11" s="266"/>
+      <c r="X11" s="266"/>
+      <c r="Y11" s="266"/>
+      <c r="Z11" s="266"/>
+      <c r="AA11" s="266"/>
+      <c r="AB11" s="266"/>
+      <c r="AC11" s="266"/>
+      <c r="AD11" s="266"/>
+      <c r="AE11" s="267"/>
+      <c r="AF11" s="262"/>
+      <c r="AG11" s="263"/>
+      <c r="AH11" s="263"/>
+      <c r="AI11" s="264"/>
     </row>
     <row r="12" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="21"/>
-      <c r="B12" s="292"/>
-      <c r="C12" s="293"/>
-      <c r="D12" s="294"/>
-      <c r="E12" s="295"/>
-      <c r="F12" s="296"/>
-      <c r="G12" s="292"/>
-      <c r="H12" s="297"/>
-      <c r="I12" s="293"/>
-      <c r="J12" s="298"/>
-      <c r="K12" s="299"/>
-      <c r="L12" s="299"/>
-      <c r="M12" s="299"/>
-      <c r="N12" s="299"/>
-      <c r="O12" s="299"/>
-      <c r="P12" s="300"/>
-      <c r="Q12" s="301"/>
-      <c r="R12" s="302"/>
-      <c r="S12" s="302"/>
-      <c r="T12" s="302"/>
-      <c r="U12" s="302"/>
-      <c r="V12" s="302"/>
-      <c r="W12" s="302"/>
-      <c r="X12" s="302"/>
-      <c r="Y12" s="302"/>
-      <c r="Z12" s="302"/>
-      <c r="AA12" s="302"/>
-      <c r="AB12" s="302"/>
-      <c r="AC12" s="302"/>
-      <c r="AD12" s="302"/>
-      <c r="AE12" s="303"/>
-      <c r="AF12" s="298"/>
-      <c r="AG12" s="299"/>
-      <c r="AH12" s="299"/>
-      <c r="AI12" s="300"/>
+      <c r="B12" s="256"/>
+      <c r="C12" s="257"/>
+      <c r="D12" s="258"/>
+      <c r="E12" s="259"/>
+      <c r="F12" s="260"/>
+      <c r="G12" s="256"/>
+      <c r="H12" s="261"/>
+      <c r="I12" s="257"/>
+      <c r="J12" s="262"/>
+      <c r="K12" s="263"/>
+      <c r="L12" s="263"/>
+      <c r="M12" s="263"/>
+      <c r="N12" s="263"/>
+      <c r="O12" s="263"/>
+      <c r="P12" s="264"/>
+      <c r="Q12" s="265"/>
+      <c r="R12" s="266"/>
+      <c r="S12" s="266"/>
+      <c r="T12" s="266"/>
+      <c r="U12" s="266"/>
+      <c r="V12" s="266"/>
+      <c r="W12" s="266"/>
+      <c r="X12" s="266"/>
+      <c r="Y12" s="266"/>
+      <c r="Z12" s="266"/>
+      <c r="AA12" s="266"/>
+      <c r="AB12" s="266"/>
+      <c r="AC12" s="266"/>
+      <c r="AD12" s="266"/>
+      <c r="AE12" s="267"/>
+      <c r="AF12" s="262"/>
+      <c r="AG12" s="263"/>
+      <c r="AH12" s="263"/>
+      <c r="AI12" s="264"/>
     </row>
     <row r="13" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="21"/>
-      <c r="B13" s="292"/>
-      <c r="C13" s="293"/>
-      <c r="D13" s="294"/>
-      <c r="E13" s="295"/>
-      <c r="F13" s="296"/>
-      <c r="G13" s="292"/>
-      <c r="H13" s="297"/>
-      <c r="I13" s="293"/>
-      <c r="J13" s="298"/>
-      <c r="K13" s="299"/>
-      <c r="L13" s="299"/>
-      <c r="M13" s="299"/>
-      <c r="N13" s="299"/>
-      <c r="O13" s="299"/>
-      <c r="P13" s="300"/>
-      <c r="Q13" s="301"/>
-      <c r="R13" s="302"/>
-      <c r="S13" s="302"/>
-      <c r="T13" s="302"/>
-      <c r="U13" s="302"/>
-      <c r="V13" s="302"/>
-      <c r="W13" s="302"/>
-      <c r="X13" s="302"/>
-      <c r="Y13" s="302"/>
-      <c r="Z13" s="302"/>
-      <c r="AA13" s="302"/>
-      <c r="AB13" s="302"/>
-      <c r="AC13" s="302"/>
-      <c r="AD13" s="302"/>
-      <c r="AE13" s="303"/>
-      <c r="AF13" s="298"/>
-      <c r="AG13" s="299"/>
-      <c r="AH13" s="299"/>
-      <c r="AI13" s="300"/>
+      <c r="B13" s="256"/>
+      <c r="C13" s="257"/>
+      <c r="D13" s="258"/>
+      <c r="E13" s="259"/>
+      <c r="F13" s="260"/>
+      <c r="G13" s="256"/>
+      <c r="H13" s="261"/>
+      <c r="I13" s="257"/>
+      <c r="J13" s="262"/>
+      <c r="K13" s="263"/>
+      <c r="L13" s="263"/>
+      <c r="M13" s="263"/>
+      <c r="N13" s="263"/>
+      <c r="O13" s="263"/>
+      <c r="P13" s="264"/>
+      <c r="Q13" s="265"/>
+      <c r="R13" s="266"/>
+      <c r="S13" s="266"/>
+      <c r="T13" s="266"/>
+      <c r="U13" s="266"/>
+      <c r="V13" s="266"/>
+      <c r="W13" s="266"/>
+      <c r="X13" s="266"/>
+      <c r="Y13" s="266"/>
+      <c r="Z13" s="266"/>
+      <c r="AA13" s="266"/>
+      <c r="AB13" s="266"/>
+      <c r="AC13" s="266"/>
+      <c r="AD13" s="266"/>
+      <c r="AE13" s="267"/>
+      <c r="AF13" s="262"/>
+      <c r="AG13" s="263"/>
+      <c r="AH13" s="263"/>
+      <c r="AI13" s="264"/>
     </row>
     <row r="14" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="21"/>
-      <c r="B14" s="292"/>
-      <c r="C14" s="293"/>
-      <c r="D14" s="294"/>
-      <c r="E14" s="295"/>
-      <c r="F14" s="296"/>
-      <c r="G14" s="292"/>
-      <c r="H14" s="297"/>
-      <c r="I14" s="293"/>
-      <c r="J14" s="298"/>
-      <c r="K14" s="299"/>
-      <c r="L14" s="299"/>
-      <c r="M14" s="299"/>
-      <c r="N14" s="299"/>
-      <c r="O14" s="299"/>
-      <c r="P14" s="300"/>
-      <c r="Q14" s="301"/>
-      <c r="R14" s="302"/>
-      <c r="S14" s="302"/>
-      <c r="T14" s="302"/>
-      <c r="U14" s="302"/>
-      <c r="V14" s="302"/>
-      <c r="W14" s="302"/>
-      <c r="X14" s="302"/>
-      <c r="Y14" s="302"/>
-      <c r="Z14" s="302"/>
-      <c r="AA14" s="302"/>
-      <c r="AB14" s="302"/>
-      <c r="AC14" s="302"/>
-      <c r="AD14" s="302"/>
-      <c r="AE14" s="303"/>
-      <c r="AF14" s="298"/>
-      <c r="AG14" s="299"/>
-      <c r="AH14" s="299"/>
-      <c r="AI14" s="300"/>
+      <c r="B14" s="256"/>
+      <c r="C14" s="257"/>
+      <c r="D14" s="258"/>
+      <c r="E14" s="259"/>
+      <c r="F14" s="260"/>
+      <c r="G14" s="256"/>
+      <c r="H14" s="261"/>
+      <c r="I14" s="257"/>
+      <c r="J14" s="262"/>
+      <c r="K14" s="263"/>
+      <c r="L14" s="263"/>
+      <c r="M14" s="263"/>
+      <c r="N14" s="263"/>
+      <c r="O14" s="263"/>
+      <c r="P14" s="264"/>
+      <c r="Q14" s="265"/>
+      <c r="R14" s="266"/>
+      <c r="S14" s="266"/>
+      <c r="T14" s="266"/>
+      <c r="U14" s="266"/>
+      <c r="V14" s="266"/>
+      <c r="W14" s="266"/>
+      <c r="X14" s="266"/>
+      <c r="Y14" s="266"/>
+      <c r="Z14" s="266"/>
+      <c r="AA14" s="266"/>
+      <c r="AB14" s="266"/>
+      <c r="AC14" s="266"/>
+      <c r="AD14" s="266"/>
+      <c r="AE14" s="267"/>
+      <c r="AF14" s="262"/>
+      <c r="AG14" s="263"/>
+      <c r="AH14" s="263"/>
+      <c r="AI14" s="264"/>
     </row>
     <row r="15" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="292"/>
-      <c r="C15" s="293"/>
-      <c r="D15" s="294"/>
-      <c r="E15" s="295"/>
-      <c r="F15" s="296"/>
-      <c r="G15" s="292"/>
-      <c r="H15" s="297"/>
-      <c r="I15" s="293"/>
-      <c r="J15" s="298"/>
-      <c r="K15" s="299"/>
-      <c r="L15" s="299"/>
-      <c r="M15" s="299"/>
-      <c r="N15" s="299"/>
-      <c r="O15" s="299"/>
-      <c r="P15" s="300"/>
-      <c r="Q15" s="301"/>
-      <c r="R15" s="302"/>
-      <c r="S15" s="302"/>
-      <c r="T15" s="302"/>
-      <c r="U15" s="302"/>
-      <c r="V15" s="302"/>
-      <c r="W15" s="302"/>
-      <c r="X15" s="302"/>
-      <c r="Y15" s="302"/>
-      <c r="Z15" s="302"/>
-      <c r="AA15" s="302"/>
-      <c r="AB15" s="302"/>
-      <c r="AC15" s="302"/>
-      <c r="AD15" s="302"/>
-      <c r="AE15" s="303"/>
-      <c r="AF15" s="298"/>
-      <c r="AG15" s="299"/>
-      <c r="AH15" s="299"/>
-      <c r="AI15" s="300"/>
+      <c r="B15" s="256"/>
+      <c r="C15" s="257"/>
+      <c r="D15" s="258"/>
+      <c r="E15" s="259"/>
+      <c r="F15" s="260"/>
+      <c r="G15" s="256"/>
+      <c r="H15" s="261"/>
+      <c r="I15" s="257"/>
+      <c r="J15" s="262"/>
+      <c r="K15" s="263"/>
+      <c r="L15" s="263"/>
+      <c r="M15" s="263"/>
+      <c r="N15" s="263"/>
+      <c r="O15" s="263"/>
+      <c r="P15" s="264"/>
+      <c r="Q15" s="265"/>
+      <c r="R15" s="266"/>
+      <c r="S15" s="266"/>
+      <c r="T15" s="266"/>
+      <c r="U15" s="266"/>
+      <c r="V15" s="266"/>
+      <c r="W15" s="266"/>
+      <c r="X15" s="266"/>
+      <c r="Y15" s="266"/>
+      <c r="Z15" s="266"/>
+      <c r="AA15" s="266"/>
+      <c r="AB15" s="266"/>
+      <c r="AC15" s="266"/>
+      <c r="AD15" s="266"/>
+      <c r="AE15" s="267"/>
+      <c r="AF15" s="262"/>
+      <c r="AG15" s="263"/>
+      <c r="AH15" s="263"/>
+      <c r="AI15" s="264"/>
     </row>
     <row r="16" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="21"/>
-      <c r="B16" s="292"/>
-      <c r="C16" s="293"/>
-      <c r="D16" s="294"/>
-      <c r="E16" s="295"/>
-      <c r="F16" s="296"/>
-      <c r="G16" s="292"/>
-      <c r="H16" s="297"/>
-      <c r="I16" s="293"/>
-      <c r="J16" s="298"/>
-      <c r="K16" s="299"/>
-      <c r="L16" s="299"/>
-      <c r="M16" s="299"/>
-      <c r="N16" s="299"/>
-      <c r="O16" s="299"/>
-      <c r="P16" s="300"/>
-      <c r="Q16" s="301"/>
-      <c r="R16" s="302"/>
-      <c r="S16" s="302"/>
-      <c r="T16" s="302"/>
-      <c r="U16" s="302"/>
-      <c r="V16" s="302"/>
-      <c r="W16" s="302"/>
-      <c r="X16" s="302"/>
-      <c r="Y16" s="302"/>
-      <c r="Z16" s="302"/>
-      <c r="AA16" s="302"/>
-      <c r="AB16" s="302"/>
-      <c r="AC16" s="302"/>
-      <c r="AD16" s="302"/>
-      <c r="AE16" s="303"/>
-      <c r="AF16" s="298"/>
-      <c r="AG16" s="299"/>
-      <c r="AH16" s="299"/>
-      <c r="AI16" s="300"/>
+      <c r="B16" s="256"/>
+      <c r="C16" s="257"/>
+      <c r="D16" s="258"/>
+      <c r="E16" s="259"/>
+      <c r="F16" s="260"/>
+      <c r="G16" s="256"/>
+      <c r="H16" s="261"/>
+      <c r="I16" s="257"/>
+      <c r="J16" s="262"/>
+      <c r="K16" s="263"/>
+      <c r="L16" s="263"/>
+      <c r="M16" s="263"/>
+      <c r="N16" s="263"/>
+      <c r="O16" s="263"/>
+      <c r="P16" s="264"/>
+      <c r="Q16" s="265"/>
+      <c r="R16" s="266"/>
+      <c r="S16" s="266"/>
+      <c r="T16" s="266"/>
+      <c r="U16" s="266"/>
+      <c r="V16" s="266"/>
+      <c r="W16" s="266"/>
+      <c r="X16" s="266"/>
+      <c r="Y16" s="266"/>
+      <c r="Z16" s="266"/>
+      <c r="AA16" s="266"/>
+      <c r="AB16" s="266"/>
+      <c r="AC16" s="266"/>
+      <c r="AD16" s="266"/>
+      <c r="AE16" s="267"/>
+      <c r="AF16" s="262"/>
+      <c r="AG16" s="263"/>
+      <c r="AH16" s="263"/>
+      <c r="AI16" s="264"/>
     </row>
     <row r="17" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="292"/>
-      <c r="C17" s="293"/>
-      <c r="D17" s="294"/>
-      <c r="E17" s="295"/>
-      <c r="F17" s="296"/>
-      <c r="G17" s="292"/>
-      <c r="H17" s="297"/>
-      <c r="I17" s="293"/>
-      <c r="J17" s="298"/>
-      <c r="K17" s="299"/>
-      <c r="L17" s="299"/>
-      <c r="M17" s="299"/>
-      <c r="N17" s="299"/>
-      <c r="O17" s="299"/>
-      <c r="P17" s="300"/>
-      <c r="Q17" s="301"/>
-      <c r="R17" s="302"/>
-      <c r="S17" s="302"/>
-      <c r="T17" s="302"/>
-      <c r="U17" s="302"/>
-      <c r="V17" s="302"/>
-      <c r="W17" s="302"/>
-      <c r="X17" s="302"/>
-      <c r="Y17" s="302"/>
-      <c r="Z17" s="302"/>
-      <c r="AA17" s="302"/>
-      <c r="AB17" s="302"/>
-      <c r="AC17" s="302"/>
-      <c r="AD17" s="302"/>
-      <c r="AE17" s="303"/>
-      <c r="AF17" s="298"/>
-      <c r="AG17" s="299"/>
-      <c r="AH17" s="299"/>
-      <c r="AI17" s="300"/>
+      <c r="B17" s="256"/>
+      <c r="C17" s="257"/>
+      <c r="D17" s="258"/>
+      <c r="E17" s="259"/>
+      <c r="F17" s="260"/>
+      <c r="G17" s="256"/>
+      <c r="H17" s="261"/>
+      <c r="I17" s="257"/>
+      <c r="J17" s="262"/>
+      <c r="K17" s="263"/>
+      <c r="L17" s="263"/>
+      <c r="M17" s="263"/>
+      <c r="N17" s="263"/>
+      <c r="O17" s="263"/>
+      <c r="P17" s="264"/>
+      <c r="Q17" s="265"/>
+      <c r="R17" s="266"/>
+      <c r="S17" s="266"/>
+      <c r="T17" s="266"/>
+      <c r="U17" s="266"/>
+      <c r="V17" s="266"/>
+      <c r="W17" s="266"/>
+      <c r="X17" s="266"/>
+      <c r="Y17" s="266"/>
+      <c r="Z17" s="266"/>
+      <c r="AA17" s="266"/>
+      <c r="AB17" s="266"/>
+      <c r="AC17" s="266"/>
+      <c r="AD17" s="266"/>
+      <c r="AE17" s="267"/>
+      <c r="AF17" s="262"/>
+      <c r="AG17" s="263"/>
+      <c r="AH17" s="263"/>
+      <c r="AI17" s="264"/>
     </row>
     <row r="18" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="21"/>
-      <c r="B18" s="292"/>
-      <c r="C18" s="293"/>
-      <c r="D18" s="294"/>
-      <c r="E18" s="295"/>
-      <c r="F18" s="296"/>
-      <c r="G18" s="292"/>
-      <c r="H18" s="297"/>
-      <c r="I18" s="293"/>
-      <c r="J18" s="298"/>
-      <c r="K18" s="299"/>
-      <c r="L18" s="299"/>
-      <c r="M18" s="299"/>
-      <c r="N18" s="299"/>
-      <c r="O18" s="299"/>
-      <c r="P18" s="300"/>
-      <c r="Q18" s="301"/>
-      <c r="R18" s="302"/>
-      <c r="S18" s="302"/>
-      <c r="T18" s="302"/>
-      <c r="U18" s="302"/>
-      <c r="V18" s="302"/>
-      <c r="W18" s="302"/>
-      <c r="X18" s="302"/>
-      <c r="Y18" s="302"/>
-      <c r="Z18" s="302"/>
-      <c r="AA18" s="302"/>
-      <c r="AB18" s="302"/>
-      <c r="AC18" s="302"/>
-      <c r="AD18" s="302"/>
-      <c r="AE18" s="303"/>
-      <c r="AF18" s="298"/>
-      <c r="AG18" s="299"/>
-      <c r="AH18" s="299"/>
-      <c r="AI18" s="300"/>
+      <c r="B18" s="256"/>
+      <c r="C18" s="257"/>
+      <c r="D18" s="258"/>
+      <c r="E18" s="259"/>
+      <c r="F18" s="260"/>
+      <c r="G18" s="256"/>
+      <c r="H18" s="261"/>
+      <c r="I18" s="257"/>
+      <c r="J18" s="262"/>
+      <c r="K18" s="263"/>
+      <c r="L18" s="263"/>
+      <c r="M18" s="263"/>
+      <c r="N18" s="263"/>
+      <c r="O18" s="263"/>
+      <c r="P18" s="264"/>
+      <c r="Q18" s="265"/>
+      <c r="R18" s="266"/>
+      <c r="S18" s="266"/>
+      <c r="T18" s="266"/>
+      <c r="U18" s="266"/>
+      <c r="V18" s="266"/>
+      <c r="W18" s="266"/>
+      <c r="X18" s="266"/>
+      <c r="Y18" s="266"/>
+      <c r="Z18" s="266"/>
+      <c r="AA18" s="266"/>
+      <c r="AB18" s="266"/>
+      <c r="AC18" s="266"/>
+      <c r="AD18" s="266"/>
+      <c r="AE18" s="267"/>
+      <c r="AF18" s="262"/>
+      <c r="AG18" s="263"/>
+      <c r="AH18" s="263"/>
+      <c r="AI18" s="264"/>
     </row>
     <row r="19" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="21"/>
-      <c r="B19" s="292"/>
-      <c r="C19" s="293"/>
-      <c r="D19" s="294"/>
-      <c r="E19" s="295"/>
-      <c r="F19" s="296"/>
-      <c r="G19" s="292"/>
-      <c r="H19" s="297"/>
-      <c r="I19" s="293"/>
-      <c r="J19" s="298"/>
-      <c r="K19" s="299"/>
-      <c r="L19" s="299"/>
-      <c r="M19" s="299"/>
-      <c r="N19" s="299"/>
-      <c r="O19" s="299"/>
-      <c r="P19" s="300"/>
-      <c r="Q19" s="301"/>
-      <c r="R19" s="302"/>
-      <c r="S19" s="302"/>
-      <c r="T19" s="302"/>
-      <c r="U19" s="302"/>
-      <c r="V19" s="302"/>
-      <c r="W19" s="302"/>
-      <c r="X19" s="302"/>
-      <c r="Y19" s="302"/>
-      <c r="Z19" s="302"/>
-      <c r="AA19" s="302"/>
-      <c r="AB19" s="302"/>
-      <c r="AC19" s="302"/>
-      <c r="AD19" s="302"/>
-      <c r="AE19" s="303"/>
-      <c r="AF19" s="298"/>
-      <c r="AG19" s="299"/>
-      <c r="AH19" s="299"/>
-      <c r="AI19" s="300"/>
+      <c r="B19" s="256"/>
+      <c r="C19" s="257"/>
+      <c r="D19" s="258"/>
+      <c r="E19" s="259"/>
+      <c r="F19" s="260"/>
+      <c r="G19" s="256"/>
+      <c r="H19" s="261"/>
+      <c r="I19" s="257"/>
+      <c r="J19" s="262"/>
+      <c r="K19" s="263"/>
+      <c r="L19" s="263"/>
+      <c r="M19" s="263"/>
+      <c r="N19" s="263"/>
+      <c r="O19" s="263"/>
+      <c r="P19" s="264"/>
+      <c r="Q19" s="265"/>
+      <c r="R19" s="266"/>
+      <c r="S19" s="266"/>
+      <c r="T19" s="266"/>
+      <c r="U19" s="266"/>
+      <c r="V19" s="266"/>
+      <c r="W19" s="266"/>
+      <c r="X19" s="266"/>
+      <c r="Y19" s="266"/>
+      <c r="Z19" s="266"/>
+      <c r="AA19" s="266"/>
+      <c r="AB19" s="266"/>
+      <c r="AC19" s="266"/>
+      <c r="AD19" s="266"/>
+      <c r="AE19" s="267"/>
+      <c r="AF19" s="262"/>
+      <c r="AG19" s="263"/>
+      <c r="AH19" s="263"/>
+      <c r="AI19" s="264"/>
     </row>
     <row r="20" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="21"/>
-      <c r="B20" s="292"/>
-      <c r="C20" s="293"/>
-      <c r="D20" s="294"/>
-      <c r="E20" s="295"/>
-      <c r="F20" s="296"/>
-      <c r="G20" s="292"/>
-      <c r="H20" s="297"/>
-      <c r="I20" s="293"/>
-      <c r="J20" s="298"/>
-      <c r="K20" s="299"/>
-      <c r="L20" s="299"/>
-      <c r="M20" s="299"/>
-      <c r="N20" s="299"/>
-      <c r="O20" s="299"/>
-      <c r="P20" s="300"/>
-      <c r="Q20" s="301"/>
-      <c r="R20" s="302"/>
-      <c r="S20" s="302"/>
-      <c r="T20" s="302"/>
-      <c r="U20" s="302"/>
-      <c r="V20" s="302"/>
-      <c r="W20" s="302"/>
-      <c r="X20" s="302"/>
-      <c r="Y20" s="302"/>
-      <c r="Z20" s="302"/>
-      <c r="AA20" s="302"/>
-      <c r="AB20" s="302"/>
-      <c r="AC20" s="302"/>
-      <c r="AD20" s="302"/>
-      <c r="AE20" s="303"/>
-      <c r="AF20" s="298"/>
-      <c r="AG20" s="299"/>
-      <c r="AH20" s="299"/>
-      <c r="AI20" s="300"/>
+      <c r="B20" s="256"/>
+      <c r="C20" s="257"/>
+      <c r="D20" s="258"/>
+      <c r="E20" s="259"/>
+      <c r="F20" s="260"/>
+      <c r="G20" s="256"/>
+      <c r="H20" s="261"/>
+      <c r="I20" s="257"/>
+      <c r="J20" s="262"/>
+      <c r="K20" s="263"/>
+      <c r="L20" s="263"/>
+      <c r="M20" s="263"/>
+      <c r="N20" s="263"/>
+      <c r="O20" s="263"/>
+      <c r="P20" s="264"/>
+      <c r="Q20" s="265"/>
+      <c r="R20" s="266"/>
+      <c r="S20" s="266"/>
+      <c r="T20" s="266"/>
+      <c r="U20" s="266"/>
+      <c r="V20" s="266"/>
+      <c r="W20" s="266"/>
+      <c r="X20" s="266"/>
+      <c r="Y20" s="266"/>
+      <c r="Z20" s="266"/>
+      <c r="AA20" s="266"/>
+      <c r="AB20" s="266"/>
+      <c r="AC20" s="266"/>
+      <c r="AD20" s="266"/>
+      <c r="AE20" s="267"/>
+      <c r="AF20" s="262"/>
+      <c r="AG20" s="263"/>
+      <c r="AH20" s="263"/>
+      <c r="AI20" s="264"/>
     </row>
     <row r="21" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="21"/>
-      <c r="B21" s="292"/>
-      <c r="C21" s="293"/>
-      <c r="D21" s="294"/>
-      <c r="E21" s="295"/>
-      <c r="F21" s="296"/>
-      <c r="G21" s="292"/>
-      <c r="H21" s="297"/>
-      <c r="I21" s="293"/>
-      <c r="J21" s="298"/>
-      <c r="K21" s="299"/>
-      <c r="L21" s="299"/>
-      <c r="M21" s="299"/>
-      <c r="N21" s="299"/>
-      <c r="O21" s="299"/>
-      <c r="P21" s="300"/>
-      <c r="Q21" s="301"/>
-      <c r="R21" s="302"/>
-      <c r="S21" s="302"/>
-      <c r="T21" s="302"/>
-      <c r="U21" s="302"/>
-      <c r="V21" s="302"/>
-      <c r="W21" s="302"/>
-      <c r="X21" s="302"/>
-      <c r="Y21" s="302"/>
-      <c r="Z21" s="302"/>
-      <c r="AA21" s="302"/>
-      <c r="AB21" s="302"/>
-      <c r="AC21" s="302"/>
-      <c r="AD21" s="302"/>
-      <c r="AE21" s="303"/>
-      <c r="AF21" s="298"/>
-      <c r="AG21" s="299"/>
-      <c r="AH21" s="299"/>
-      <c r="AI21" s="300"/>
+      <c r="B21" s="256"/>
+      <c r="C21" s="257"/>
+      <c r="D21" s="258"/>
+      <c r="E21" s="259"/>
+      <c r="F21" s="260"/>
+      <c r="G21" s="256"/>
+      <c r="H21" s="261"/>
+      <c r="I21" s="257"/>
+      <c r="J21" s="262"/>
+      <c r="K21" s="263"/>
+      <c r="L21" s="263"/>
+      <c r="M21" s="263"/>
+      <c r="N21" s="263"/>
+      <c r="O21" s="263"/>
+      <c r="P21" s="264"/>
+      <c r="Q21" s="265"/>
+      <c r="R21" s="266"/>
+      <c r="S21" s="266"/>
+      <c r="T21" s="266"/>
+      <c r="U21" s="266"/>
+      <c r="V21" s="266"/>
+      <c r="W21" s="266"/>
+      <c r="X21" s="266"/>
+      <c r="Y21" s="266"/>
+      <c r="Z21" s="266"/>
+      <c r="AA21" s="266"/>
+      <c r="AB21" s="266"/>
+      <c r="AC21" s="266"/>
+      <c r="AD21" s="266"/>
+      <c r="AE21" s="267"/>
+      <c r="AF21" s="262"/>
+      <c r="AG21" s="263"/>
+      <c r="AH21" s="263"/>
+      <c r="AI21" s="264"/>
     </row>
     <row r="22" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="21"/>
-      <c r="B22" s="292"/>
-      <c r="C22" s="293"/>
-      <c r="D22" s="294"/>
-      <c r="E22" s="295"/>
-      <c r="F22" s="296"/>
-      <c r="G22" s="292"/>
-      <c r="H22" s="297"/>
-      <c r="I22" s="293"/>
-      <c r="J22" s="298"/>
-      <c r="K22" s="299"/>
-      <c r="L22" s="299"/>
-      <c r="M22" s="299"/>
-      <c r="N22" s="299"/>
-      <c r="O22" s="299"/>
-      <c r="P22" s="300"/>
-      <c r="Q22" s="301"/>
-      <c r="R22" s="302"/>
-      <c r="S22" s="302"/>
-      <c r="T22" s="302"/>
-      <c r="U22" s="302"/>
-      <c r="V22" s="302"/>
-      <c r="W22" s="302"/>
-      <c r="X22" s="302"/>
-      <c r="Y22" s="302"/>
-      <c r="Z22" s="302"/>
-      <c r="AA22" s="302"/>
-      <c r="AB22" s="302"/>
-      <c r="AC22" s="302"/>
-      <c r="AD22" s="302"/>
-      <c r="AE22" s="303"/>
-      <c r="AF22" s="298"/>
-      <c r="AG22" s="299"/>
-      <c r="AH22" s="299"/>
-      <c r="AI22" s="300"/>
+      <c r="B22" s="256"/>
+      <c r="C22" s="257"/>
+      <c r="D22" s="258"/>
+      <c r="E22" s="259"/>
+      <c r="F22" s="260"/>
+      <c r="G22" s="256"/>
+      <c r="H22" s="261"/>
+      <c r="I22" s="257"/>
+      <c r="J22" s="262"/>
+      <c r="K22" s="263"/>
+      <c r="L22" s="263"/>
+      <c r="M22" s="263"/>
+      <c r="N22" s="263"/>
+      <c r="O22" s="263"/>
+      <c r="P22" s="264"/>
+      <c r="Q22" s="265"/>
+      <c r="R22" s="266"/>
+      <c r="S22" s="266"/>
+      <c r="T22" s="266"/>
+      <c r="U22" s="266"/>
+      <c r="V22" s="266"/>
+      <c r="W22" s="266"/>
+      <c r="X22" s="266"/>
+      <c r="Y22" s="266"/>
+      <c r="Z22" s="266"/>
+      <c r="AA22" s="266"/>
+      <c r="AB22" s="266"/>
+      <c r="AC22" s="266"/>
+      <c r="AD22" s="266"/>
+      <c r="AE22" s="267"/>
+      <c r="AF22" s="262"/>
+      <c r="AG22" s="263"/>
+      <c r="AH22" s="263"/>
+      <c r="AI22" s="264"/>
     </row>
     <row r="23" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="21"/>
-      <c r="B23" s="292"/>
-      <c r="C23" s="293"/>
-      <c r="D23" s="294"/>
-      <c r="E23" s="295"/>
-      <c r="F23" s="296"/>
-      <c r="G23" s="292"/>
-      <c r="H23" s="297"/>
-      <c r="I23" s="293"/>
-      <c r="J23" s="298"/>
-      <c r="K23" s="299"/>
-      <c r="L23" s="299"/>
-      <c r="M23" s="299"/>
-      <c r="N23" s="299"/>
-      <c r="O23" s="299"/>
-      <c r="P23" s="300"/>
-      <c r="Q23" s="301"/>
-      <c r="R23" s="302"/>
-      <c r="S23" s="302"/>
-      <c r="T23" s="302"/>
-      <c r="U23" s="302"/>
-      <c r="V23" s="302"/>
-      <c r="W23" s="302"/>
-      <c r="X23" s="302"/>
-      <c r="Y23" s="302"/>
-      <c r="Z23" s="302"/>
-      <c r="AA23" s="302"/>
-      <c r="AB23" s="302"/>
-      <c r="AC23" s="302"/>
-      <c r="AD23" s="302"/>
-      <c r="AE23" s="303"/>
-      <c r="AF23" s="298"/>
-      <c r="AG23" s="299"/>
-      <c r="AH23" s="299"/>
-      <c r="AI23" s="300"/>
+      <c r="B23" s="256"/>
+      <c r="C23" s="257"/>
+      <c r="D23" s="258"/>
+      <c r="E23" s="259"/>
+      <c r="F23" s="260"/>
+      <c r="G23" s="256"/>
+      <c r="H23" s="261"/>
+      <c r="I23" s="257"/>
+      <c r="J23" s="262"/>
+      <c r="K23" s="263"/>
+      <c r="L23" s="263"/>
+      <c r="M23" s="263"/>
+      <c r="N23" s="263"/>
+      <c r="O23" s="263"/>
+      <c r="P23" s="264"/>
+      <c r="Q23" s="265"/>
+      <c r="R23" s="266"/>
+      <c r="S23" s="266"/>
+      <c r="T23" s="266"/>
+      <c r="U23" s="266"/>
+      <c r="V23" s="266"/>
+      <c r="W23" s="266"/>
+      <c r="X23" s="266"/>
+      <c r="Y23" s="266"/>
+      <c r="Z23" s="266"/>
+      <c r="AA23" s="266"/>
+      <c r="AB23" s="266"/>
+      <c r="AC23" s="266"/>
+      <c r="AD23" s="266"/>
+      <c r="AE23" s="267"/>
+      <c r="AF23" s="262"/>
+      <c r="AG23" s="263"/>
+      <c r="AH23" s="263"/>
+      <c r="AI23" s="264"/>
     </row>
     <row r="24" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="21"/>
-      <c r="B24" s="292"/>
-      <c r="C24" s="293"/>
-      <c r="D24" s="294"/>
-      <c r="E24" s="295"/>
-      <c r="F24" s="296"/>
-      <c r="G24" s="292"/>
-      <c r="H24" s="297"/>
-      <c r="I24" s="293"/>
-      <c r="J24" s="298"/>
-      <c r="K24" s="299"/>
-      <c r="L24" s="299"/>
-      <c r="M24" s="299"/>
-      <c r="N24" s="299"/>
-      <c r="O24" s="299"/>
-      <c r="P24" s="300"/>
-      <c r="Q24" s="301"/>
-      <c r="R24" s="302"/>
-      <c r="S24" s="302"/>
-      <c r="T24" s="302"/>
-      <c r="U24" s="302"/>
-      <c r="V24" s="302"/>
-      <c r="W24" s="302"/>
-      <c r="X24" s="302"/>
-      <c r="Y24" s="302"/>
-      <c r="Z24" s="302"/>
-      <c r="AA24" s="302"/>
-      <c r="AB24" s="302"/>
-      <c r="AC24" s="302"/>
-      <c r="AD24" s="302"/>
-      <c r="AE24" s="303"/>
-      <c r="AF24" s="298"/>
-      <c r="AG24" s="299"/>
-      <c r="AH24" s="299"/>
-      <c r="AI24" s="300"/>
+      <c r="B24" s="256"/>
+      <c r="C24" s="257"/>
+      <c r="D24" s="258"/>
+      <c r="E24" s="259"/>
+      <c r="F24" s="260"/>
+      <c r="G24" s="256"/>
+      <c r="H24" s="261"/>
+      <c r="I24" s="257"/>
+      <c r="J24" s="262"/>
+      <c r="K24" s="263"/>
+      <c r="L24" s="263"/>
+      <c r="M24" s="263"/>
+      <c r="N24" s="263"/>
+      <c r="O24" s="263"/>
+      <c r="P24" s="264"/>
+      <c r="Q24" s="265"/>
+      <c r="R24" s="266"/>
+      <c r="S24" s="266"/>
+      <c r="T24" s="266"/>
+      <c r="U24" s="266"/>
+      <c r="V24" s="266"/>
+      <c r="W24" s="266"/>
+      <c r="X24" s="266"/>
+      <c r="Y24" s="266"/>
+      <c r="Z24" s="266"/>
+      <c r="AA24" s="266"/>
+      <c r="AB24" s="266"/>
+      <c r="AC24" s="266"/>
+      <c r="AD24" s="266"/>
+      <c r="AE24" s="267"/>
+      <c r="AF24" s="262"/>
+      <c r="AG24" s="263"/>
+      <c r="AH24" s="263"/>
+      <c r="AI24" s="264"/>
     </row>
     <row r="25" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="21"/>
-      <c r="B25" s="292"/>
-      <c r="C25" s="293"/>
-      <c r="D25" s="294"/>
-      <c r="E25" s="295"/>
-      <c r="F25" s="296"/>
-      <c r="G25" s="292"/>
-      <c r="H25" s="297"/>
-      <c r="I25" s="293"/>
-      <c r="J25" s="298"/>
-      <c r="K25" s="299"/>
-      <c r="L25" s="299"/>
-      <c r="M25" s="299"/>
-      <c r="N25" s="299"/>
-      <c r="O25" s="299"/>
-      <c r="P25" s="300"/>
-      <c r="Q25" s="301"/>
-      <c r="R25" s="302"/>
-      <c r="S25" s="302"/>
-      <c r="T25" s="302"/>
-      <c r="U25" s="302"/>
-      <c r="V25" s="302"/>
-      <c r="W25" s="302"/>
-      <c r="X25" s="302"/>
-      <c r="Y25" s="302"/>
-      <c r="Z25" s="302"/>
-      <c r="AA25" s="302"/>
-      <c r="AB25" s="302"/>
-      <c r="AC25" s="302"/>
-      <c r="AD25" s="302"/>
-      <c r="AE25" s="303"/>
-      <c r="AF25" s="298"/>
-      <c r="AG25" s="299"/>
-      <c r="AH25" s="299"/>
-      <c r="AI25" s="300"/>
+      <c r="B25" s="256"/>
+      <c r="C25" s="257"/>
+      <c r="D25" s="258"/>
+      <c r="E25" s="259"/>
+      <c r="F25" s="260"/>
+      <c r="G25" s="256"/>
+      <c r="H25" s="261"/>
+      <c r="I25" s="257"/>
+      <c r="J25" s="262"/>
+      <c r="K25" s="263"/>
+      <c r="L25" s="263"/>
+      <c r="M25" s="263"/>
+      <c r="N25" s="263"/>
+      <c r="O25" s="263"/>
+      <c r="P25" s="264"/>
+      <c r="Q25" s="265"/>
+      <c r="R25" s="266"/>
+      <c r="S25" s="266"/>
+      <c r="T25" s="266"/>
+      <c r="U25" s="266"/>
+      <c r="V25" s="266"/>
+      <c r="W25" s="266"/>
+      <c r="X25" s="266"/>
+      <c r="Y25" s="266"/>
+      <c r="Z25" s="266"/>
+      <c r="AA25" s="266"/>
+      <c r="AB25" s="266"/>
+      <c r="AC25" s="266"/>
+      <c r="AD25" s="266"/>
+      <c r="AE25" s="267"/>
+      <c r="AF25" s="262"/>
+      <c r="AG25" s="263"/>
+      <c r="AH25" s="263"/>
+      <c r="AI25" s="264"/>
     </row>
     <row r="26" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="21"/>
-      <c r="B26" s="292"/>
-      <c r="C26" s="293"/>
-      <c r="D26" s="294"/>
-      <c r="E26" s="295"/>
-      <c r="F26" s="296"/>
-      <c r="G26" s="292"/>
-      <c r="H26" s="297"/>
-      <c r="I26" s="293"/>
-      <c r="J26" s="298"/>
-      <c r="K26" s="299"/>
-      <c r="L26" s="299"/>
-      <c r="M26" s="299"/>
-      <c r="N26" s="299"/>
-      <c r="O26" s="299"/>
-      <c r="P26" s="300"/>
-      <c r="Q26" s="301"/>
-      <c r="R26" s="302"/>
-      <c r="S26" s="302"/>
-      <c r="T26" s="302"/>
-      <c r="U26" s="302"/>
-      <c r="V26" s="302"/>
-      <c r="W26" s="302"/>
-      <c r="X26" s="302"/>
-      <c r="Y26" s="302"/>
-      <c r="Z26" s="302"/>
-      <c r="AA26" s="302"/>
-      <c r="AB26" s="302"/>
-      <c r="AC26" s="302"/>
-      <c r="AD26" s="302"/>
-      <c r="AE26" s="303"/>
-      <c r="AF26" s="298"/>
-      <c r="AG26" s="299"/>
-      <c r="AH26" s="299"/>
-      <c r="AI26" s="300"/>
+      <c r="B26" s="256"/>
+      <c r="C26" s="257"/>
+      <c r="D26" s="258"/>
+      <c r="E26" s="259"/>
+      <c r="F26" s="260"/>
+      <c r="G26" s="256"/>
+      <c r="H26" s="261"/>
+      <c r="I26" s="257"/>
+      <c r="J26" s="262"/>
+      <c r="K26" s="263"/>
+      <c r="L26" s="263"/>
+      <c r="M26" s="263"/>
+      <c r="N26" s="263"/>
+      <c r="O26" s="263"/>
+      <c r="P26" s="264"/>
+      <c r="Q26" s="265"/>
+      <c r="R26" s="266"/>
+      <c r="S26" s="266"/>
+      <c r="T26" s="266"/>
+      <c r="U26" s="266"/>
+      <c r="V26" s="266"/>
+      <c r="W26" s="266"/>
+      <c r="X26" s="266"/>
+      <c r="Y26" s="266"/>
+      <c r="Z26" s="266"/>
+      <c r="AA26" s="266"/>
+      <c r="AB26" s="266"/>
+      <c r="AC26" s="266"/>
+      <c r="AD26" s="266"/>
+      <c r="AE26" s="267"/>
+      <c r="AF26" s="262"/>
+      <c r="AG26" s="263"/>
+      <c r="AH26" s="263"/>
+      <c r="AI26" s="264"/>
     </row>
     <row r="27" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="21"/>
-      <c r="B27" s="292"/>
-      <c r="C27" s="293"/>
-      <c r="D27" s="294"/>
-      <c r="E27" s="295"/>
-      <c r="F27" s="296"/>
-      <c r="G27" s="292"/>
-      <c r="H27" s="297"/>
-      <c r="I27" s="293"/>
-      <c r="J27" s="298"/>
-      <c r="K27" s="299"/>
-      <c r="L27" s="299"/>
-      <c r="M27" s="299"/>
-      <c r="N27" s="299"/>
-      <c r="O27" s="299"/>
-      <c r="P27" s="300"/>
-      <c r="Q27" s="301"/>
-      <c r="R27" s="302"/>
-      <c r="S27" s="302"/>
-      <c r="T27" s="302"/>
-      <c r="U27" s="302"/>
-      <c r="V27" s="302"/>
-      <c r="W27" s="302"/>
-      <c r="X27" s="302"/>
-      <c r="Y27" s="302"/>
-      <c r="Z27" s="302"/>
-      <c r="AA27" s="302"/>
-      <c r="AB27" s="302"/>
-      <c r="AC27" s="302"/>
-      <c r="AD27" s="302"/>
-      <c r="AE27" s="303"/>
-      <c r="AF27" s="298"/>
-      <c r="AG27" s="299"/>
-      <c r="AH27" s="299"/>
-      <c r="AI27" s="300"/>
+      <c r="B27" s="256"/>
+      <c r="C27" s="257"/>
+      <c r="D27" s="258"/>
+      <c r="E27" s="259"/>
+      <c r="F27" s="260"/>
+      <c r="G27" s="256"/>
+      <c r="H27" s="261"/>
+      <c r="I27" s="257"/>
+      <c r="J27" s="262"/>
+      <c r="K27" s="263"/>
+      <c r="L27" s="263"/>
+      <c r="M27" s="263"/>
+      <c r="N27" s="263"/>
+      <c r="O27" s="263"/>
+      <c r="P27" s="264"/>
+      <c r="Q27" s="265"/>
+      <c r="R27" s="266"/>
+      <c r="S27" s="266"/>
+      <c r="T27" s="266"/>
+      <c r="U27" s="266"/>
+      <c r="V27" s="266"/>
+      <c r="W27" s="266"/>
+      <c r="X27" s="266"/>
+      <c r="Y27" s="266"/>
+      <c r="Z27" s="266"/>
+      <c r="AA27" s="266"/>
+      <c r="AB27" s="266"/>
+      <c r="AC27" s="266"/>
+      <c r="AD27" s="266"/>
+      <c r="AE27" s="267"/>
+      <c r="AF27" s="262"/>
+      <c r="AG27" s="263"/>
+      <c r="AH27" s="263"/>
+      <c r="AI27" s="264"/>
     </row>
     <row r="28" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="292"/>
-      <c r="C28" s="293"/>
-      <c r="D28" s="294"/>
-      <c r="E28" s="295"/>
-      <c r="F28" s="296"/>
-      <c r="G28" s="292"/>
-      <c r="H28" s="297"/>
-      <c r="I28" s="293"/>
-      <c r="J28" s="298"/>
-      <c r="K28" s="299"/>
-      <c r="L28" s="299"/>
-      <c r="M28" s="299"/>
-      <c r="N28" s="299"/>
-      <c r="O28" s="299"/>
-      <c r="P28" s="300"/>
-      <c r="Q28" s="301"/>
-      <c r="R28" s="302"/>
-      <c r="S28" s="302"/>
-      <c r="T28" s="302"/>
-      <c r="U28" s="302"/>
-      <c r="V28" s="302"/>
-      <c r="W28" s="302"/>
-      <c r="X28" s="302"/>
-      <c r="Y28" s="302"/>
-      <c r="Z28" s="302"/>
-      <c r="AA28" s="302"/>
-      <c r="AB28" s="302"/>
-      <c r="AC28" s="302"/>
-      <c r="AD28" s="302"/>
-      <c r="AE28" s="303"/>
-      <c r="AF28" s="298"/>
-      <c r="AG28" s="299"/>
-      <c r="AH28" s="299"/>
-      <c r="AI28" s="300"/>
+      <c r="B28" s="256"/>
+      <c r="C28" s="257"/>
+      <c r="D28" s="258"/>
+      <c r="E28" s="259"/>
+      <c r="F28" s="260"/>
+      <c r="G28" s="256"/>
+      <c r="H28" s="261"/>
+      <c r="I28" s="257"/>
+      <c r="J28" s="262"/>
+      <c r="K28" s="263"/>
+      <c r="L28" s="263"/>
+      <c r="M28" s="263"/>
+      <c r="N28" s="263"/>
+      <c r="O28" s="263"/>
+      <c r="P28" s="264"/>
+      <c r="Q28" s="265"/>
+      <c r="R28" s="266"/>
+      <c r="S28" s="266"/>
+      <c r="T28" s="266"/>
+      <c r="U28" s="266"/>
+      <c r="V28" s="266"/>
+      <c r="W28" s="266"/>
+      <c r="X28" s="266"/>
+      <c r="Y28" s="266"/>
+      <c r="Z28" s="266"/>
+      <c r="AA28" s="266"/>
+      <c r="AB28" s="266"/>
+      <c r="AC28" s="266"/>
+      <c r="AD28" s="266"/>
+      <c r="AE28" s="267"/>
+      <c r="AF28" s="262"/>
+      <c r="AG28" s="263"/>
+      <c r="AH28" s="263"/>
+      <c r="AI28" s="264"/>
     </row>
     <row r="29" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="21"/>
-      <c r="B29" s="292"/>
-      <c r="C29" s="293"/>
-      <c r="D29" s="294"/>
-      <c r="E29" s="295"/>
-      <c r="F29" s="296"/>
-      <c r="G29" s="292"/>
-      <c r="H29" s="297"/>
-      <c r="I29" s="293"/>
-      <c r="J29" s="298"/>
-      <c r="K29" s="299"/>
-      <c r="L29" s="299"/>
-      <c r="M29" s="299"/>
-      <c r="N29" s="299"/>
-      <c r="O29" s="299"/>
-      <c r="P29" s="300"/>
-      <c r="Q29" s="301"/>
-      <c r="R29" s="302"/>
-      <c r="S29" s="302"/>
-      <c r="T29" s="302"/>
-      <c r="U29" s="302"/>
-      <c r="V29" s="302"/>
-      <c r="W29" s="302"/>
-      <c r="X29" s="302"/>
-      <c r="Y29" s="302"/>
-      <c r="Z29" s="302"/>
-      <c r="AA29" s="302"/>
-      <c r="AB29" s="302"/>
-      <c r="AC29" s="302"/>
-      <c r="AD29" s="302"/>
-      <c r="AE29" s="303"/>
-      <c r="AF29" s="298"/>
-      <c r="AG29" s="299"/>
-      <c r="AH29" s="299"/>
-      <c r="AI29" s="300"/>
+      <c r="B29" s="256"/>
+      <c r="C29" s="257"/>
+      <c r="D29" s="258"/>
+      <c r="E29" s="259"/>
+      <c r="F29" s="260"/>
+      <c r="G29" s="256"/>
+      <c r="H29" s="261"/>
+      <c r="I29" s="257"/>
+      <c r="J29" s="262"/>
+      <c r="K29" s="263"/>
+      <c r="L29" s="263"/>
+      <c r="M29" s="263"/>
+      <c r="N29" s="263"/>
+      <c r="O29" s="263"/>
+      <c r="P29" s="264"/>
+      <c r="Q29" s="265"/>
+      <c r="R29" s="266"/>
+      <c r="S29" s="266"/>
+      <c r="T29" s="266"/>
+      <c r="U29" s="266"/>
+      <c r="V29" s="266"/>
+      <c r="W29" s="266"/>
+      <c r="X29" s="266"/>
+      <c r="Y29" s="266"/>
+      <c r="Z29" s="266"/>
+      <c r="AA29" s="266"/>
+      <c r="AB29" s="266"/>
+      <c r="AC29" s="266"/>
+      <c r="AD29" s="266"/>
+      <c r="AE29" s="267"/>
+      <c r="AF29" s="262"/>
+      <c r="AG29" s="263"/>
+      <c r="AH29" s="263"/>
+      <c r="AI29" s="264"/>
     </row>
     <row r="30" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="21"/>
-      <c r="B30" s="292"/>
-      <c r="C30" s="293"/>
-      <c r="D30" s="294"/>
-      <c r="E30" s="295"/>
-      <c r="F30" s="296"/>
-      <c r="G30" s="292"/>
-      <c r="H30" s="297"/>
-      <c r="I30" s="293"/>
-      <c r="J30" s="298"/>
-      <c r="K30" s="299"/>
-      <c r="L30" s="299"/>
-      <c r="M30" s="299"/>
-      <c r="N30" s="299"/>
-      <c r="O30" s="299"/>
-      <c r="P30" s="300"/>
-      <c r="Q30" s="301"/>
-      <c r="R30" s="302"/>
-      <c r="S30" s="302"/>
-      <c r="T30" s="302"/>
-      <c r="U30" s="302"/>
-      <c r="V30" s="302"/>
-      <c r="W30" s="302"/>
-      <c r="X30" s="302"/>
-      <c r="Y30" s="302"/>
-      <c r="Z30" s="302"/>
-      <c r="AA30" s="302"/>
-      <c r="AB30" s="302"/>
-      <c r="AC30" s="302"/>
-      <c r="AD30" s="302"/>
-      <c r="AE30" s="303"/>
-      <c r="AF30" s="298"/>
-      <c r="AG30" s="299"/>
-      <c r="AH30" s="299"/>
-      <c r="AI30" s="300"/>
+      <c r="B30" s="256"/>
+      <c r="C30" s="257"/>
+      <c r="D30" s="258"/>
+      <c r="E30" s="259"/>
+      <c r="F30" s="260"/>
+      <c r="G30" s="256"/>
+      <c r="H30" s="261"/>
+      <c r="I30" s="257"/>
+      <c r="J30" s="262"/>
+      <c r="K30" s="263"/>
+      <c r="L30" s="263"/>
+      <c r="M30" s="263"/>
+      <c r="N30" s="263"/>
+      <c r="O30" s="263"/>
+      <c r="P30" s="264"/>
+      <c r="Q30" s="265"/>
+      <c r="R30" s="266"/>
+      <c r="S30" s="266"/>
+      <c r="T30" s="266"/>
+      <c r="U30" s="266"/>
+      <c r="V30" s="266"/>
+      <c r="W30" s="266"/>
+      <c r="X30" s="266"/>
+      <c r="Y30" s="266"/>
+      <c r="Z30" s="266"/>
+      <c r="AA30" s="266"/>
+      <c r="AB30" s="266"/>
+      <c r="AC30" s="266"/>
+      <c r="AD30" s="266"/>
+      <c r="AE30" s="267"/>
+      <c r="AF30" s="262"/>
+      <c r="AG30" s="263"/>
+      <c r="AH30" s="263"/>
+      <c r="AI30" s="264"/>
     </row>
     <row r="31" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="21"/>
-      <c r="B31" s="292"/>
-      <c r="C31" s="293"/>
-      <c r="D31" s="294"/>
-      <c r="E31" s="295"/>
-      <c r="F31" s="296"/>
-      <c r="G31" s="292"/>
-      <c r="H31" s="297"/>
-      <c r="I31" s="293"/>
-      <c r="J31" s="298"/>
-      <c r="K31" s="299"/>
-      <c r="L31" s="299"/>
-      <c r="M31" s="299"/>
-      <c r="N31" s="299"/>
-      <c r="O31" s="299"/>
-      <c r="P31" s="300"/>
-      <c r="Q31" s="301"/>
-      <c r="R31" s="302"/>
-      <c r="S31" s="302"/>
-      <c r="T31" s="302"/>
-      <c r="U31" s="302"/>
-      <c r="V31" s="302"/>
-      <c r="W31" s="302"/>
-      <c r="X31" s="302"/>
-      <c r="Y31" s="302"/>
-      <c r="Z31" s="302"/>
-      <c r="AA31" s="302"/>
-      <c r="AB31" s="302"/>
-      <c r="AC31" s="302"/>
-      <c r="AD31" s="302"/>
-      <c r="AE31" s="303"/>
-      <c r="AF31" s="298"/>
-      <c r="AG31" s="299"/>
-      <c r="AH31" s="299"/>
-      <c r="AI31" s="300"/>
+      <c r="B31" s="256"/>
+      <c r="C31" s="257"/>
+      <c r="D31" s="258"/>
+      <c r="E31" s="259"/>
+      <c r="F31" s="260"/>
+      <c r="G31" s="256"/>
+      <c r="H31" s="261"/>
+      <c r="I31" s="257"/>
+      <c r="J31" s="262"/>
+      <c r="K31" s="263"/>
+      <c r="L31" s="263"/>
+      <c r="M31" s="263"/>
+      <c r="N31" s="263"/>
+      <c r="O31" s="263"/>
+      <c r="P31" s="264"/>
+      <c r="Q31" s="265"/>
+      <c r="R31" s="266"/>
+      <c r="S31" s="266"/>
+      <c r="T31" s="266"/>
+      <c r="U31" s="266"/>
+      <c r="V31" s="266"/>
+      <c r="W31" s="266"/>
+      <c r="X31" s="266"/>
+      <c r="Y31" s="266"/>
+      <c r="Z31" s="266"/>
+      <c r="AA31" s="266"/>
+      <c r="AB31" s="266"/>
+      <c r="AC31" s="266"/>
+      <c r="AD31" s="266"/>
+      <c r="AE31" s="267"/>
+      <c r="AF31" s="262"/>
+      <c r="AG31" s="263"/>
+      <c r="AH31" s="263"/>
+      <c r="AI31" s="264"/>
     </row>
     <row r="32" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="21"/>
-      <c r="B32" s="292"/>
-      <c r="C32" s="293"/>
-      <c r="D32" s="294"/>
-      <c r="E32" s="295"/>
-      <c r="F32" s="296"/>
-      <c r="G32" s="292"/>
-      <c r="H32" s="297"/>
-      <c r="I32" s="293"/>
-      <c r="J32" s="298"/>
-      <c r="K32" s="317"/>
-      <c r="L32" s="299"/>
-      <c r="M32" s="299"/>
-      <c r="N32" s="299"/>
-      <c r="O32" s="299"/>
-      <c r="P32" s="300"/>
-      <c r="Q32" s="301"/>
-      <c r="R32" s="302"/>
-      <c r="S32" s="302"/>
-      <c r="T32" s="302"/>
-      <c r="U32" s="302"/>
-      <c r="V32" s="302"/>
-      <c r="W32" s="302"/>
-      <c r="X32" s="302"/>
-      <c r="Y32" s="302"/>
-      <c r="Z32" s="302"/>
-      <c r="AA32" s="302"/>
-      <c r="AB32" s="302"/>
-      <c r="AC32" s="302"/>
-      <c r="AD32" s="302"/>
-      <c r="AE32" s="303"/>
-      <c r="AF32" s="298"/>
-      <c r="AG32" s="299"/>
-      <c r="AH32" s="299"/>
-      <c r="AI32" s="300"/>
+      <c r="B32" s="256"/>
+      <c r="C32" s="257"/>
+      <c r="D32" s="258"/>
+      <c r="E32" s="259"/>
+      <c r="F32" s="260"/>
+      <c r="G32" s="256"/>
+      <c r="H32" s="261"/>
+      <c r="I32" s="257"/>
+      <c r="J32" s="262"/>
+      <c r="K32" s="268"/>
+      <c r="L32" s="263"/>
+      <c r="M32" s="263"/>
+      <c r="N32" s="263"/>
+      <c r="O32" s="263"/>
+      <c r="P32" s="264"/>
+      <c r="Q32" s="265"/>
+      <c r="R32" s="266"/>
+      <c r="S32" s="266"/>
+      <c r="T32" s="266"/>
+      <c r="U32" s="266"/>
+      <c r="V32" s="266"/>
+      <c r="W32" s="266"/>
+      <c r="X32" s="266"/>
+      <c r="Y32" s="266"/>
+      <c r="Z32" s="266"/>
+      <c r="AA32" s="266"/>
+      <c r="AB32" s="266"/>
+      <c r="AC32" s="266"/>
+      <c r="AD32" s="266"/>
+      <c r="AE32" s="267"/>
+      <c r="AF32" s="262"/>
+      <c r="AG32" s="263"/>
+      <c r="AH32" s="263"/>
+      <c r="AI32" s="264"/>
     </row>
     <row r="33" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="21"/>
-      <c r="B33" s="292"/>
-      <c r="C33" s="293"/>
-      <c r="D33" s="294"/>
-      <c r="E33" s="295"/>
-      <c r="F33" s="296"/>
-      <c r="G33" s="292"/>
-      <c r="H33" s="297"/>
-      <c r="I33" s="293"/>
-      <c r="J33" s="298"/>
-      <c r="K33" s="299"/>
-      <c r="L33" s="299"/>
-      <c r="M33" s="299"/>
-      <c r="N33" s="299"/>
-      <c r="O33" s="299"/>
-      <c r="P33" s="300"/>
-      <c r="Q33" s="301"/>
-      <c r="R33" s="302"/>
-      <c r="S33" s="302"/>
-      <c r="T33" s="302"/>
-      <c r="U33" s="302"/>
-      <c r="V33" s="302"/>
-      <c r="W33" s="302"/>
-      <c r="X33" s="302"/>
-      <c r="Y33" s="302"/>
-      <c r="Z33" s="302"/>
-      <c r="AA33" s="302"/>
-      <c r="AB33" s="302"/>
-      <c r="AC33" s="302"/>
-      <c r="AD33" s="302"/>
-      <c r="AE33" s="303"/>
-      <c r="AF33" s="298"/>
-      <c r="AG33" s="299"/>
-      <c r="AH33" s="299"/>
-      <c r="AI33" s="300"/>
+      <c r="B33" s="256"/>
+      <c r="C33" s="257"/>
+      <c r="D33" s="258"/>
+      <c r="E33" s="259"/>
+      <c r="F33" s="260"/>
+      <c r="G33" s="256"/>
+      <c r="H33" s="261"/>
+      <c r="I33" s="257"/>
+      <c r="J33" s="262"/>
+      <c r="K33" s="263"/>
+      <c r="L33" s="263"/>
+      <c r="M33" s="263"/>
+      <c r="N33" s="263"/>
+      <c r="O33" s="263"/>
+      <c r="P33" s="264"/>
+      <c r="Q33" s="265"/>
+      <c r="R33" s="266"/>
+      <c r="S33" s="266"/>
+      <c r="T33" s="266"/>
+      <c r="U33" s="266"/>
+      <c r="V33" s="266"/>
+      <c r="W33" s="266"/>
+      <c r="X33" s="266"/>
+      <c r="Y33" s="266"/>
+      <c r="Z33" s="266"/>
+      <c r="AA33" s="266"/>
+      <c r="AB33" s="266"/>
+      <c r="AC33" s="266"/>
+      <c r="AD33" s="266"/>
+      <c r="AE33" s="267"/>
+      <c r="AF33" s="262"/>
+      <c r="AG33" s="263"/>
+      <c r="AH33" s="263"/>
+      <c r="AI33" s="264"/>
     </row>
     <row r="34" spans="1:35" ht="14">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -15091,6 +14935,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -53297,7 +53297,7 @@
 _xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D11)&gt;0)*ROW($D$11:D11),0)),
 _xlpm.確認観点3数, COUNTA(INDIRECT("E"&amp;_xlpm.直近で確認観点2が空でないセルの行番号):E11),
 _xlpm.確認観点3数（確認観点3が空の場合は1）,IF(_xlpm.確認観点3数=0,1,_xlpm.確認観点3数),
-_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E11)&gt;0)*ROW($E$11:E11),0)),
+_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E11)&gt;0)*ROW($E$11:E11),0),_xlpm.直近で確認観点2が空でないセルの行番号),
 _xlpm.テスト内容数, COUNTA(INDIRECT("I"&amp;_xlpm.直近で確認観点3が空でないセルの行番号):I11),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(OR(_xlpm.テスト内容数=0,_xlpm.直近で確認観点2が空でないセルの行番号&gt;_xlpm.直近で確認観点3が空でないセルの行番号),1,_xlpm.テスト内容数),
 _xlpm.確認観点2数&amp;"-"&amp;_xlpm.確認観点3数（確認観点3が空の場合は1）&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
@@ -53341,7 +53341,7 @@
 _xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D12)&gt;0)*ROW($D$11:D12),0)),
 _xlpm.確認観点3数, COUNTA(INDIRECT("E"&amp;_xlpm.直近で確認観点2が空でないセルの行番号):E12),
 _xlpm.確認観点3数（確認観点3が空の場合は1）,IF(_xlpm.確認観点3数=0,1,_xlpm.確認観点3数),
-_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E12)&gt;0)*ROW($E$11:E12),0)),
+_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E12)&gt;0)*ROW($E$11:E12),0),_xlpm.直近で確認観点2が空でないセルの行番号),
 _xlpm.テスト内容数, COUNTA(INDIRECT("I"&amp;_xlpm.直近で確認観点3が空でないセルの行番号):I12),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(OR(_xlpm.テスト内容数=0,_xlpm.直近で確認観点2が空でないセルの行番号&gt;_xlpm.直近で確認観点3が空でないセルの行番号),1,_xlpm.テスト内容数),
 _xlpm.確認観点2数&amp;"-"&amp;_xlpm.確認観点3数（確認観点3が空の場合は1）&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
@@ -53373,7 +53373,7 @@
 _xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D13)&gt;0)*ROW($D$11:D13),0)),
 _xlpm.確認観点3数, COUNTA(INDIRECT("E"&amp;_xlpm.直近で確認観点2が空でないセルの行番号):E13),
 _xlpm.確認観点3数（確認観点3が空の場合は1）,IF(_xlpm.確認観点3数=0,1,_xlpm.確認観点3数),
-_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E13)&gt;0)*ROW($E$11:E13),0)),
+_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E13)&gt;0)*ROW($E$11:E13),0),_xlpm.直近で確認観点2が空でないセルの行番号),
 _xlpm.テスト内容数, COUNTA(INDIRECT("I"&amp;_xlpm.直近で確認観点3が空でないセルの行番号):I13),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(OR(_xlpm.テスト内容数=0,_xlpm.直近で確認観点2が空でないセルの行番号&gt;_xlpm.直近で確認観点3が空でないセルの行番号),1,_xlpm.テスト内容数),
 _xlpm.確認観点2数&amp;"-"&amp;_xlpm.確認観点3数（確認観点3が空の場合は1）&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
@@ -53407,7 +53407,7 @@
 _xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D14)&gt;0)*ROW($D$11:D14),0)),
 _xlpm.確認観点3数, COUNTA(INDIRECT("E"&amp;_xlpm.直近で確認観点2が空でないセルの行番号):E14),
 _xlpm.確認観点3数（確認観点3が空の場合は1）,IF(_xlpm.確認観点3数=0,1,_xlpm.確認観点3数),
-_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E14)&gt;0)*ROW($E$11:E14),0)),
+_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E14)&gt;0)*ROW($E$11:E14),0),_xlpm.直近で確認観点2が空でないセルの行番号),
 _xlpm.テスト内容数, COUNTA(INDIRECT("I"&amp;_xlpm.直近で確認観点3が空でないセルの行番号):I14),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(OR(_xlpm.テスト内容数=0,_xlpm.直近で確認観点2が空でないセルの行番号&gt;_xlpm.直近で確認観点3が空でないセルの行番号),1,_xlpm.テスト内容数),
 _xlpm.確認観点2数&amp;"-"&amp;_xlpm.確認観点3数（確認観点3が空の場合は1）&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
@@ -53439,7 +53439,7 @@
 _xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D15)&gt;0)*ROW($D$11:D15),0)),
 _xlpm.確認観点3数, COUNTA(INDIRECT("E"&amp;_xlpm.直近で確認観点2が空でないセルの行番号):E15),
 _xlpm.確認観点3数（確認観点3が空の場合は1）,IF(_xlpm.確認観点3数=0,1,_xlpm.確認観点3数),
-_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E15)&gt;0)*ROW($E$11:E15),0)),
+_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E15)&gt;0)*ROW($E$11:E15),0),_xlpm.直近で確認観点2が空でないセルの行番号),
 _xlpm.テスト内容数, COUNTA(INDIRECT("I"&amp;_xlpm.直近で確認観点3が空でないセルの行番号):I15),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(OR(_xlpm.テスト内容数=0,_xlpm.直近で確認観点2が空でないセルの行番号&gt;_xlpm.直近で確認観点3が空でないセルの行番号),1,_xlpm.テスト内容数),
 _xlpm.確認観点2数&amp;"-"&amp;_xlpm.確認観点3数（確認観点3が空の場合は1）&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
@@ -53473,7 +53473,7 @@
 _xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D16)&gt;0)*ROW($D$11:D16),0)),
 _xlpm.確認観点3数, COUNTA(INDIRECT("E"&amp;_xlpm.直近で確認観点2が空でないセルの行番号):E16),
 _xlpm.確認観点3数（確認観点3が空の場合は1）,IF(_xlpm.確認観点3数=0,1,_xlpm.確認観点3数),
-_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E16)&gt;0)*ROW($E$11:E16),0)),
+_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E16)&gt;0)*ROW($E$11:E16),0),_xlpm.直近で確認観点2が空でないセルの行番号),
 _xlpm.テスト内容数, COUNTA(INDIRECT("I"&amp;_xlpm.直近で確認観点3が空でないセルの行番号):I16),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(OR(_xlpm.テスト内容数=0,_xlpm.直近で確認観点2が空でないセルの行番号&gt;_xlpm.直近で確認観点3が空でないセルの行番号),1,_xlpm.テスト内容数),
 _xlpm.確認観点2数&amp;"-"&amp;_xlpm.確認観点3数（確認観点3が空の場合は1）&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
@@ -53507,7 +53507,7 @@
 _xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D17)&gt;0)*ROW($D$11:D17),0)),
 _xlpm.確認観点3数, COUNTA(INDIRECT("E"&amp;_xlpm.直近で確認観点2が空でないセルの行番号):E17),
 _xlpm.確認観点3数（確認観点3が空の場合は1）,IF(_xlpm.確認観点3数=0,1,_xlpm.確認観点3数),
-_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E17)&gt;0)*ROW($E$11:E17),0)),
+_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E17)&gt;0)*ROW($E$11:E17),0),_xlpm.直近で確認観点2が空でないセルの行番号),
 _xlpm.テスト内容数, COUNTA(INDIRECT("I"&amp;_xlpm.直近で確認観点3が空でないセルの行番号):I17),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(OR(_xlpm.テスト内容数=0,_xlpm.直近で確認観点2が空でないセルの行番号&gt;_xlpm.直近で確認観点3が空でないセルの行番号),1,_xlpm.テスト内容数),
 _xlpm.確認観点2数&amp;"-"&amp;_xlpm.確認観点3数（確認観点3が空の場合は1）&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
@@ -53541,7 +53541,7 @@
 _xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D18)&gt;0)*ROW($D$11:D18),0)),
 _xlpm.確認観点3数, COUNTA(INDIRECT("E"&amp;_xlpm.直近で確認観点2が空でないセルの行番号):E18),
 _xlpm.確認観点3数（確認観点3が空の場合は1）,IF(_xlpm.確認観点3数=0,1,_xlpm.確認観点3数),
-_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E18)&gt;0)*ROW($E$11:E18),0)),
+_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E18)&gt;0)*ROW($E$11:E18),0),_xlpm.直近で確認観点2が空でないセルの行番号),
 _xlpm.テスト内容数, COUNTA(INDIRECT("I"&amp;_xlpm.直近で確認観点3が空でないセルの行番号):I18),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(OR(_xlpm.テスト内容数=0,_xlpm.直近で確認観点2が空でないセルの行番号&gt;_xlpm.直近で確認観点3が空でないセルの行番号),1,_xlpm.テスト内容数),
 _xlpm.確認観点2数&amp;"-"&amp;_xlpm.確認観点3数（確認観点3が空の場合は1）&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
@@ -53575,7 +53575,7 @@
 _xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D19)&gt;0)*ROW($D$11:D19),0)),
 _xlpm.確認観点3数, COUNTA(INDIRECT("E"&amp;_xlpm.直近で確認観点2が空でないセルの行番号):E19),
 _xlpm.確認観点3数（確認観点3が空の場合は1）,IF(_xlpm.確認観点3数=0,1,_xlpm.確認観点3数),
-_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E19)&gt;0)*ROW($E$11:E19),0)),
+_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E19)&gt;0)*ROW($E$11:E19),0),_xlpm.直近で確認観点2が空でないセルの行番号),
 _xlpm.テスト内容数, COUNTA(INDIRECT("I"&amp;_xlpm.直近で確認観点3が空でないセルの行番号):I19),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(OR(_xlpm.テスト内容数=0,_xlpm.直近で確認観点2が空でないセルの行番号&gt;_xlpm.直近で確認観点3が空でないセルの行番号),1,_xlpm.テスト内容数),
 _xlpm.確認観点2数&amp;"-"&amp;_xlpm.確認観点3数（確認観点3が空の場合は1）&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
@@ -53611,7 +53611,7 @@
 _xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D20)&gt;0)*ROW($D$11:D20),0)),
 _xlpm.確認観点3数, COUNTA(INDIRECT("E"&amp;_xlpm.直近で確認観点2が空でないセルの行番号):E20),
 _xlpm.確認観点3数（確認観点3が空の場合は1）,IF(_xlpm.確認観点3数=0,1,_xlpm.確認観点3数),
-_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E20)&gt;0)*ROW($E$11:E20),0)),
+_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E20)&gt;0)*ROW($E$11:E20),0),_xlpm.直近で確認観点2が空でないセルの行番号),
 _xlpm.テスト内容数, COUNTA(INDIRECT("I"&amp;_xlpm.直近で確認観点3が空でないセルの行番号):I20),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(OR(_xlpm.テスト内容数=0,_xlpm.直近で確認観点2が空でないセルの行番号&gt;_xlpm.直近で確認観点3が空でないセルの行番号),1,_xlpm.テスト内容数),
 _xlpm.確認観点2数&amp;"-"&amp;_xlpm.確認観点3数（確認観点3が空の場合は1）&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
@@ -53653,7 +53653,7 @@
 _xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D21)&gt;0)*ROW($D$11:D21),0)),
 _xlpm.確認観点3数, COUNTA(INDIRECT("E"&amp;_xlpm.直近で確認観点2が空でないセルの行番号):E21),
 _xlpm.確認観点3数（確認観点3が空の場合は1）,IF(_xlpm.確認観点3数=0,1,_xlpm.確認観点3数),
-_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E21)&gt;0)*ROW($E$11:E21),0)),
+_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E21)&gt;0)*ROW($E$11:E21),0),_xlpm.直近で確認観点2が空でないセルの行番号),
 _xlpm.テスト内容数, COUNTA(INDIRECT("I"&amp;_xlpm.直近で確認観点3が空でないセルの行番号):I21),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(OR(_xlpm.テスト内容数=0,_xlpm.直近で確認観点2が空でないセルの行番号&gt;_xlpm.直近で確認観点3が空でないセルの行番号),1,_xlpm.テスト内容数),
 _xlpm.確認観点2数&amp;"-"&amp;_xlpm.確認観点3数（確認観点3が空の場合は1）&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
@@ -53687,7 +53687,7 @@
 _xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D22)&gt;0)*ROW($D$11:D22),0)),
 _xlpm.確認観点3数, COUNTA(INDIRECT("E"&amp;_xlpm.直近で確認観点2が空でないセルの行番号):E22),
 _xlpm.確認観点3数（確認観点3が空の場合は1）,IF(_xlpm.確認観点3数=0,1,_xlpm.確認観点3数),
-_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E22)&gt;0)*ROW($E$11:E22),0)),
+_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E22)&gt;0)*ROW($E$11:E22),0),_xlpm.直近で確認観点2が空でないセルの行番号),
 _xlpm.テスト内容数, COUNTA(INDIRECT("I"&amp;_xlpm.直近で確認観点3が空でないセルの行番号):I22),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(OR(_xlpm.テスト内容数=0,_xlpm.直近で確認観点2が空でないセルの行番号&gt;_xlpm.直近で確認観点3が空でないセルの行番号),1,_xlpm.テスト内容数),
 _xlpm.確認観点2数&amp;"-"&amp;_xlpm.確認観点3数（確認観点3が空の場合は1）&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
@@ -53723,7 +53723,7 @@
 _xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D23)&gt;0)*ROW($D$11:D23),0)),
 _xlpm.確認観点3数, COUNTA(INDIRECT("E"&amp;_xlpm.直近で確認観点2が空でないセルの行番号):E23),
 _xlpm.確認観点3数（確認観点3が空の場合は1）,IF(_xlpm.確認観点3数=0,1,_xlpm.確認観点3数),
-_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E23)&gt;0)*ROW($E$11:E23),0)),
+_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E23)&gt;0)*ROW($E$11:E23),0),_xlpm.直近で確認観点2が空でないセルの行番号),
 _xlpm.テスト内容数, COUNTA(INDIRECT("I"&amp;_xlpm.直近で確認観点3が空でないセルの行番号):I23),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(OR(_xlpm.テスト内容数=0,_xlpm.直近で確認観点2が空でないセルの行番号&gt;_xlpm.直近で確認観点3が空でないセルの行番号),1,_xlpm.テスト内容数),
 _xlpm.確認観点2数&amp;"-"&amp;_xlpm.確認観点3数（確認観点3が空の場合は1）&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
@@ -53757,7 +53757,7 @@
 _xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D24)&gt;0)*ROW($D$11:D24),0)),
 _xlpm.確認観点3数, COUNTA(INDIRECT("E"&amp;_xlpm.直近で確認観点2が空でないセルの行番号):E24),
 _xlpm.確認観点3数（確認観点3が空の場合は1）,IF(_xlpm.確認観点3数=0,1,_xlpm.確認観点3数),
-_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E24)&gt;0)*ROW($E$11:E24),0)),
+_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E24)&gt;0)*ROW($E$11:E24),0),_xlpm.直近で確認観点2が空でないセルの行番号),
 _xlpm.テスト内容数, COUNTA(INDIRECT("I"&amp;_xlpm.直近で確認観点3が空でないセルの行番号):I24),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(OR(_xlpm.テスト内容数=0,_xlpm.直近で確認観点2が空でないセルの行番号&gt;_xlpm.直近で確認観点3が空でないセルの行番号),1,_xlpm.テスト内容数),
 _xlpm.確認観点2数&amp;"-"&amp;_xlpm.確認観点3数（確認観点3が空の場合は1）&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
@@ -53793,7 +53793,7 @@
 _xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D25)&gt;0)*ROW($D$11:D25),0)),
 _xlpm.確認観点3数, COUNTA(INDIRECT("E"&amp;_xlpm.直近で確認観点2が空でないセルの行番号):E25),
 _xlpm.確認観点3数（確認観点3が空の場合は1）,IF(_xlpm.確認観点3数=0,1,_xlpm.確認観点3数),
-_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E25)&gt;0)*ROW($E$11:E25),0)),
+_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E25)&gt;0)*ROW($E$11:E25),0),_xlpm.直近で確認観点2が空でないセルの行番号),
 _xlpm.テスト内容数, COUNTA(INDIRECT("I"&amp;_xlpm.直近で確認観点3が空でないセルの行番号):I25),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(OR(_xlpm.テスト内容数=0,_xlpm.直近で確認観点2が空でないセルの行番号&gt;_xlpm.直近で確認観点3が空でないセルの行番号),1,_xlpm.テスト内容数),
 _xlpm.確認観点2数&amp;"-"&amp;_xlpm.確認観点3数（確認観点3が空の場合は1）&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
@@ -53825,7 +53825,7 @@
 _xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D26)&gt;0)*ROW($D$11:D26),0)),
 _xlpm.確認観点3数, COUNTA(INDIRECT("E"&amp;_xlpm.直近で確認観点2が空でないセルの行番号):E26),
 _xlpm.確認観点3数（確認観点3が空の場合は1）,IF(_xlpm.確認観点3数=0,1,_xlpm.確認観点3数),
-_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E26)&gt;0)*ROW($E$11:E26),0)),
+_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E26)&gt;0)*ROW($E$11:E26),0),_xlpm.直近で確認観点2が空でないセルの行番号),
 _xlpm.テスト内容数, COUNTA(INDIRECT("I"&amp;_xlpm.直近で確認観点3が空でないセルの行番号):I26),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(OR(_xlpm.テスト内容数=0,_xlpm.直近で確認観点2が空でないセルの行番号&gt;_xlpm.直近で確認観点3が空でないセルの行番号),1,_xlpm.テスト内容数),
 _xlpm.確認観点2数&amp;"-"&amp;_xlpm.確認観点3数（確認観点3が空の場合は1）&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
@@ -53859,7 +53859,7 @@
 _xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D27)&gt;0)*ROW($D$11:D27),0)),
 _xlpm.確認観点3数, COUNTA(INDIRECT("E"&amp;_xlpm.直近で確認観点2が空でないセルの行番号):E27),
 _xlpm.確認観点3数（確認観点3が空の場合は1）,IF(_xlpm.確認観点3数=0,1,_xlpm.確認観点3数),
-_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E27)&gt;0)*ROW($E$11:E27),0)),
+_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E27)&gt;0)*ROW($E$11:E27),0),_xlpm.直近で確認観点2が空でないセルの行番号),
 _xlpm.テスト内容数, COUNTA(INDIRECT("I"&amp;_xlpm.直近で確認観点3が空でないセルの行番号):I27),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(OR(_xlpm.テスト内容数=0,_xlpm.直近で確認観点2が空でないセルの行番号&gt;_xlpm.直近で確認観点3が空でないセルの行番号),1,_xlpm.テスト内容数),
 _xlpm.確認観点2数&amp;"-"&amp;_xlpm.確認観点3数（確認観点3が空の場合は1）&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
@@ -53891,7 +53891,7 @@
 _xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D28)&gt;0)*ROW($D$11:D28),0)),
 _xlpm.確認観点3数, COUNTA(INDIRECT("E"&amp;_xlpm.直近で確認観点2が空でないセルの行番号):E28),
 _xlpm.確認観点3数（確認観点3が空の場合は1）,IF(_xlpm.確認観点3数=0,1,_xlpm.確認観点3数),
-_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E28)&gt;0)*ROW($E$11:E28),0)),
+_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E28)&gt;0)*ROW($E$11:E28),0),_xlpm.直近で確認観点2が空でないセルの行番号),
 _xlpm.テスト内容数, COUNTA(INDIRECT("I"&amp;_xlpm.直近で確認観点3が空でないセルの行番号):I28),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(OR(_xlpm.テスト内容数=0,_xlpm.直近で確認観点2が空でないセルの行番号&gt;_xlpm.直近で確認観点3が空でないセルの行番号),1,_xlpm.テスト内容数),
 _xlpm.確認観点2数&amp;"-"&amp;_xlpm.確認観点3数（確認観点3が空の場合は1）&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
@@ -53929,7 +53929,7 @@
 _xlpm.直近で確認観点2が空でないセルの行番号, MAX(INDEX((LEN($D$11:D29)&gt;0)*ROW($D$11:D29),0)),
 _xlpm.確認観点3数, COUNTA(INDIRECT("E"&amp;_xlpm.直近で確認観点2が空でないセルの行番号):E29),
 _xlpm.確認観点3数（確認観点3が空の場合は1）,IF(_xlpm.確認観点3数=0,1,_xlpm.確認観点3数),
-_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E29)&gt;0)*ROW($E$11:E29),0)),
+_xlpm.直近で確認観点3が空でないセルの行番号, MAX(INDEX((LEN($E$11:E29)&gt;0)*ROW($E$11:E29),0),_xlpm.直近で確認観点2が空でないセルの行番号),
 _xlpm.テスト内容数, COUNTA(INDIRECT("I"&amp;_xlpm.直近で確認観点3が空でないセルの行番号):I29),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(OR(_xlpm.テスト内容数=0,_xlpm.直近で確認観点2が空でないセルの行番号&gt;_xlpm.直近で確認観点3が空でないセルの行番号),1,_xlpm.テスト内容数),
 _xlpm.確認観点2数&amp;"-"&amp;_xlpm.確認観点3数（確認観点3が空の場合は1）&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）

--- a/Sample_Project/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書(画面)_WA10101_認証.xlsx
+++ b/Sample_Project/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書(画面)_WA10101_認証.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72962795-A80E-422B-B8F1-27448727C8E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D29899-0032-406D-9B1B-5D9572429AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="724" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">取引単体!$A$10:$P$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">LoginForm_クラス単体!$A$1:$Q$295</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">WA1010101_リクエスト単体!$A$1:$Q$411</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">WA1010102_リクエスト単体!$A$1:$Q$383</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">取引単体!$A$1:$P$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$39</definedName>
@@ -81,6 +80,20 @@
     <author>作成者</author>
   </authors>
   <commentList>
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{B197BB7C-B904-4285-A32F-FCA13D07DE15}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>画面単位でリクエスト単体テストを実施するため、リクエストIDは不要。</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A10" authorId="0" shapeId="0" xr:uid="{8A4C8A02-BF74-4CD4-9883-F51627945261}">
       <text>
         <r>
@@ -109,6 +122,20 @@
     <author>作成者</author>
   </authors>
   <commentList>
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{BC81CC7A-E60F-44CD-9FB5-F2F6169BE2B7}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>画面単位でリクエスト単体テストを実施するため、リクエストIDは不要。</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A10" authorId="0" shapeId="0" xr:uid="{E5C6D4F3-F7D1-4E69-BD96-1BE683BE612B}">
       <text>
         <r>
@@ -182,7 +209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3089" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3091" uniqueCount="796">
   <si>
     <t>更新者：</t>
     <rPh sb="0" eb="3">
@@ -10361,14 +10388,21 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>テストターゲット名：WA1010101</t>
+    <t>リクエストID：</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テストターゲット名：ログイン画面（WA1010101）</t>
     <rPh sb="8" eb="9">
       <t>メイ</t>
     </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>テストターゲット名：WA1010102</t>
+    <t>テストターゲット名：ログアウト（WA1010102）</t>
     <rPh sb="8" eb="9">
       <t>メイ</t>
     </rPh>
@@ -10384,7 +10418,7 @@
     <numFmt numFmtId="177" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="178" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="10"/>
       <name val="VL Pゴシック"/>
@@ -10567,6 +10601,13 @@
       <color indexed="12"/>
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -25380,7 +25421,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="24" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
@@ -25394,7 +25435,9 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="11.5" thickBot="1">
-      <c r="A8" s="26"/>
+      <c r="A8" s="26" t="s">
+        <v>793</v>
+      </c>
       <c r="B8" s="26"/>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -39969,7 +40012,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="24" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
@@ -39983,7 +40026,9 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="11.5" thickBot="1">
-      <c r="A8" s="26"/>
+      <c r="A8" s="26" t="s">
+        <v>793</v>
+      </c>
       <c r="B8" s="26"/>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>

--- a/Sample_Project/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書(画面)_WA10101_認証.xlsx
+++ b/Sample_Project/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書(画面)_WA10101_認証.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D29899-0032-406D-9B1B-5D9572429AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12AA71EE-8BD4-440A-84F7-3341806966E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="724" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="724" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="19" r:id="rId1"/>
@@ -80,20 +80,6 @@
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{B197BB7C-B904-4285-A32F-FCA13D07DE15}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>画面単位でリクエスト単体テストを実施するため、リクエストIDは不要。</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="A10" authorId="0" shapeId="0" xr:uid="{8A4C8A02-BF74-4CD4-9883-F51627945261}">
       <text>
         <r>
@@ -122,20 +108,6 @@
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{BC81CC7A-E60F-44CD-9FB5-F2F6169BE2B7}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>画面単位でリクエスト単体テストを実施するため、リクエストIDは不要。</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="A10" authorId="0" shapeId="0" xr:uid="{E5C6D4F3-F7D1-4E69-BD96-1BE683BE612B}">
       <text>
         <r>
@@ -10388,10 +10360,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>リクエストID：</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>テストターゲット名：ログイン画面（WA1010101）</t>
     <rPh sb="8" eb="9">
       <t>メイ</t>
@@ -10406,6 +10374,10 @@
     <rPh sb="8" eb="9">
       <t>メイ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>リクエストID：画面単位でリクエスト単体テストを実施するため、リクエストIDは不要</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -10418,7 +10390,7 @@
     <numFmt numFmtId="177" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="178" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="10"/>
       <name val="VL Pゴシック"/>
@@ -10601,13 +10573,6 @@
       <color indexed="12"/>
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -12282,8 +12247,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7905750" y="285750"/>
-          <a:ext cx="1390650" cy="590550"/>
+          <a:off x="7953375" y="285750"/>
+          <a:ext cx="1400175" cy="590550"/>
           <a:chOff x="591" y="61"/>
           <a:chExt cx="147" cy="62"/>
         </a:xfrm>
@@ -13141,9 +13106,9 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.58203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="6.58203125" style="1"/>
+    <col min="1" max="16384" width="6.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="13.5" customHeight="1">
@@ -13229,7 +13194,7 @@
       <c r="G31" s="8"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="6:11" ht="19">
+    <row r="32" spans="6:11" ht="18.75">
       <c r="F32" s="5"/>
       <c r="G32" s="8"/>
       <c r="H32" s="5"/>
@@ -13237,12 +13202,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="6:10" ht="19">
+    <row r="33" spans="6:10" ht="18.75">
       <c r="F33" s="5"/>
       <c r="H33" s="5"/>
       <c r="J33" s="10"/>
     </row>
-    <row r="34" spans="6:10" ht="19">
+    <row r="34" spans="6:10" ht="18.75">
       <c r="F34" s="5"/>
       <c r="H34" s="5"/>
       <c r="J34" s="9" t="s">
@@ -13752,9 +13717,9 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="11"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="3.58203125" style="22"/>
+    <col min="1" max="16384" width="3.625" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
@@ -14948,7 +14913,7 @@
       <c r="AH33" s="263"/>
       <c r="AI33" s="264"/>
     </row>
-    <row r="34" spans="1:35" ht="14">
+    <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
@@ -15154,20 +15119,20 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.83203125" defaultRowHeight="11" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="15.875" defaultRowHeight="11.25" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="3" width="8.58203125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="8.58203125" style="25" customWidth="1"/>
-    <col min="5" max="5" width="8.58203125" style="24" customWidth="1"/>
-    <col min="6" max="6" width="40.58203125" style="24" customWidth="1"/>
-    <col min="7" max="7" width="40.58203125" style="24" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="15.58203125" style="24" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.58203125" style="24" customWidth="1"/>
-    <col min="10" max="10" width="25.58203125" style="35" customWidth="1"/>
-    <col min="11" max="11" width="25.58203125" style="33" customWidth="1"/>
-    <col min="12" max="12" width="12.58203125" style="25" customWidth="1"/>
-    <col min="13" max="17" width="8.58203125" style="24" customWidth="1"/>
-    <col min="18" max="16384" width="15.83203125" style="24"/>
+    <col min="1" max="3" width="8.625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="25" customWidth="1"/>
+    <col min="5" max="5" width="8.625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="40.625" style="24" customWidth="1"/>
+    <col min="7" max="7" width="40.625" style="24" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="15.625" style="24" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.625" style="24" customWidth="1"/>
+    <col min="10" max="10" width="25.625" style="35" customWidth="1"/>
+    <col min="11" max="11" width="25.625" style="33" customWidth="1"/>
+    <col min="12" max="12" width="12.625" style="25" customWidth="1"/>
+    <col min="13" max="17" width="8.625" style="24" customWidth="1"/>
+    <col min="18" max="16384" width="15.875" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -15216,7 +15181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="11.5" thickBot="1">
+    <row r="8" spans="1:17" ht="12" thickBot="1">
       <c r="A8" s="26"/>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
@@ -15235,7 +15200,7 @@
       <c r="P8" s="26"/>
       <c r="Q8" s="26"/>
     </row>
-    <row r="9" spans="1:17" ht="11.5" thickTop="1"/>
+    <row r="9" spans="1:17" ht="12" thickTop="1"/>
     <row r="10" spans="1:17" s="30" customFormat="1">
       <c r="A10" s="31" t="s">
         <v>32</v>
@@ -15289,7 +15254,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="22">
+    <row r="11" spans="1:17" ht="22.5">
       <c r="A11" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A11" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E11),
@@ -15331,7 +15296,7 @@
       <c r="P11" s="202"/>
       <c r="Q11" s="85"/>
     </row>
-    <row r="12" spans="1:17" ht="22">
+    <row r="12" spans="1:17" ht="22.5">
       <c r="A12" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A12" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E12),
@@ -15367,7 +15332,7 @@
       <c r="P12" s="202"/>
       <c r="Q12" s="85"/>
     </row>
-    <row r="13" spans="1:17" s="30" customFormat="1" ht="33">
+    <row r="13" spans="1:17" s="30" customFormat="1" ht="33.75">
       <c r="A13" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A13" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E13),
@@ -15405,7 +15370,7 @@
       <c r="P13" s="200"/>
       <c r="Q13" s="202"/>
     </row>
-    <row r="14" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="14" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A14" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A14" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E14),
@@ -15439,7 +15404,7 @@
       <c r="P14" s="200"/>
       <c r="Q14" s="202"/>
     </row>
-    <row r="15" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="15" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A15" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A15" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E15),
@@ -15473,7 +15438,7 @@
       <c r="P15" s="200"/>
       <c r="Q15" s="202"/>
     </row>
-    <row r="16" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="16" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A16" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A16" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E16),
@@ -15507,7 +15472,7 @@
       <c r="P16" s="202"/>
       <c r="Q16" s="85"/>
     </row>
-    <row r="17" spans="1:17" s="30" customFormat="1" ht="33">
+    <row r="17" spans="1:17" s="30" customFormat="1" ht="33.75">
       <c r="A17" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A17" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E17),
@@ -15541,7 +15506,7 @@
       <c r="P17" s="202"/>
       <c r="Q17" s="85"/>
     </row>
-    <row r="18" spans="1:17" ht="22">
+    <row r="18" spans="1:17" ht="22.5">
       <c r="A18" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A18" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E18),
@@ -15579,7 +15544,7 @@
       <c r="P18" s="202"/>
       <c r="Q18" s="85"/>
     </row>
-    <row r="19" spans="1:17" ht="22">
+    <row r="19" spans="1:17" ht="22.5">
       <c r="A19" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A19" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E19),
@@ -15613,7 +15578,7 @@
       <c r="P19" s="202"/>
       <c r="Q19" s="85"/>
     </row>
-    <row r="20" spans="1:17" ht="22">
+    <row r="20" spans="1:17" ht="22.5">
       <c r="A20" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A20" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E20),
@@ -15647,7 +15612,7 @@
       <c r="P20" s="202"/>
       <c r="Q20" s="85"/>
     </row>
-    <row r="21" spans="1:17" ht="22">
+    <row r="21" spans="1:17" ht="22.5">
       <c r="A21" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A21" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E21),
@@ -15683,7 +15648,7 @@
       <c r="P21" s="202"/>
       <c r="Q21" s="85"/>
     </row>
-    <row r="22" spans="1:17" ht="22">
+    <row r="22" spans="1:17" ht="22.5">
       <c r="A22" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A22" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E22),
@@ -15717,7 +15682,7 @@
       <c r="P22" s="202"/>
       <c r="Q22" s="85"/>
     </row>
-    <row r="23" spans="1:17" ht="22">
+    <row r="23" spans="1:17" ht="22.5">
       <c r="A23" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A23" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E23),
@@ -15751,7 +15716,7 @@
       <c r="P23" s="202"/>
       <c r="Q23" s="85"/>
     </row>
-    <row r="24" spans="1:17" ht="22">
+    <row r="24" spans="1:17" ht="22.5">
       <c r="A24" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A24" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E24),
@@ -15785,7 +15750,7 @@
       <c r="P24" s="202"/>
       <c r="Q24" s="85"/>
     </row>
-    <row r="25" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="25" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A25" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A25" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E25),
@@ -15857,7 +15822,7 @@
       <c r="P26" s="200"/>
       <c r="Q26" s="202"/>
     </row>
-    <row r="27" spans="1:17" s="30" customFormat="1" ht="33">
+    <row r="27" spans="1:17" s="30" customFormat="1" ht="33.75">
       <c r="A27" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A27" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E27),
@@ -15895,7 +15860,7 @@
       <c r="P27" s="200"/>
       <c r="Q27" s="202"/>
     </row>
-    <row r="28" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="28" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A28" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A28" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E28),
@@ -15929,7 +15894,7 @@
       <c r="P28" s="200"/>
       <c r="Q28" s="202"/>
     </row>
-    <row r="29" spans="1:17" ht="22">
+    <row r="29" spans="1:17" ht="22.5">
       <c r="A29" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A29" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E29),
@@ -15965,7 +15930,7 @@
       <c r="P29" s="85"/>
       <c r="Q29" s="85"/>
     </row>
-    <row r="30" spans="1:17" ht="22">
+    <row r="30" spans="1:17" ht="22.5">
       <c r="A30" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A30" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E30),
@@ -15999,7 +15964,7 @@
       <c r="P30" s="85"/>
       <c r="Q30" s="85"/>
     </row>
-    <row r="31" spans="1:17" ht="22">
+    <row r="31" spans="1:17" ht="22.5">
       <c r="A31" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A31" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E31),
@@ -16033,7 +15998,7 @@
       <c r="P31" s="85"/>
       <c r="Q31" s="85"/>
     </row>
-    <row r="32" spans="1:17" ht="22">
+    <row r="32" spans="1:17" ht="22.5">
       <c r="A32" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A32" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E32),
@@ -16067,7 +16032,7 @@
       <c r="P32" s="85"/>
       <c r="Q32" s="85"/>
     </row>
-    <row r="33" spans="1:17" ht="22">
+    <row r="33" spans="1:17" ht="22.5">
       <c r="A33" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A33" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E33),
@@ -16103,7 +16068,7 @@
       <c r="P33" s="85"/>
       <c r="Q33" s="85"/>
     </row>
-    <row r="34" spans="1:17" ht="22">
+    <row r="34" spans="1:17" ht="22.5">
       <c r="A34" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A34" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E34),
@@ -16137,7 +16102,7 @@
       <c r="P34" s="85"/>
       <c r="Q34" s="85"/>
     </row>
-    <row r="35" spans="1:17" ht="44">
+    <row r="35" spans="1:17" ht="45">
       <c r="A35" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A35" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E35),
@@ -16173,7 +16138,7 @@
       <c r="P35" s="85"/>
       <c r="Q35" s="85"/>
     </row>
-    <row r="36" spans="1:17" ht="33">
+    <row r="36" spans="1:17" ht="33.75">
       <c r="A36" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A36" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E36),
@@ -16213,7 +16178,7 @@
       <c r="P36" s="85"/>
       <c r="Q36" s="85"/>
     </row>
-    <row r="37" spans="1:17" ht="33">
+    <row r="37" spans="1:17" ht="33.75">
       <c r="A37" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A37" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E37),
@@ -16247,7 +16212,7 @@
       <c r="P37" s="85"/>
       <c r="Q37" s="85"/>
     </row>
-    <row r="38" spans="1:17" ht="22">
+    <row r="38" spans="1:17" ht="22.5">
       <c r="A38" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A38" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E38),
@@ -16281,7 +16246,7 @@
       <c r="P38" s="85"/>
       <c r="Q38" s="85"/>
     </row>
-    <row r="39" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="39" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A39" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A39" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E39),
@@ -16315,7 +16280,7 @@
       <c r="P39" s="202"/>
       <c r="Q39" s="85"/>
     </row>
-    <row r="40" spans="1:17" s="30" customFormat="1" ht="33">
+    <row r="40" spans="1:17" s="30" customFormat="1" ht="33.75">
       <c r="A40" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A40" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E40),
@@ -16387,7 +16352,7 @@
       <c r="P41" s="202"/>
       <c r="Q41" s="85"/>
     </row>
-    <row r="42" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="42" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A42" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A42" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E42),
@@ -16429,7 +16394,7 @@
       <c r="P42" s="47"/>
       <c r="Q42" s="48"/>
     </row>
-    <row r="43" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="43" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A43" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A43" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E43),
@@ -16463,7 +16428,7 @@
       <c r="P43" s="47"/>
       <c r="Q43" s="48"/>
     </row>
-    <row r="44" spans="1:17" s="30" customFormat="1" ht="33">
+    <row r="44" spans="1:17" s="30" customFormat="1" ht="33.75">
       <c r="A44" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A44" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E44),
@@ -16497,7 +16462,7 @@
       <c r="P44" s="47"/>
       <c r="Q44" s="48"/>
     </row>
-    <row r="45" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="45" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A45" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A45" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E45),
@@ -16533,7 +16498,7 @@
       <c r="P45" s="47"/>
       <c r="Q45" s="48"/>
     </row>
-    <row r="46" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="46" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A46" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A46" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E46),
@@ -16567,7 +16532,7 @@
       <c r="P46" s="47"/>
       <c r="Q46" s="48"/>
     </row>
-    <row r="47" spans="1:17" s="30" customFormat="1" ht="33">
+    <row r="47" spans="1:17" s="30" customFormat="1" ht="33.75">
       <c r="A47" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A47" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E47),
@@ -16601,7 +16566,7 @@
       <c r="P47" s="47"/>
       <c r="Q47" s="48"/>
     </row>
-    <row r="48" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="48" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A48" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A48" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E48),
@@ -16637,7 +16602,7 @@
       <c r="P48" s="47"/>
       <c r="Q48" s="48"/>
     </row>
-    <row r="49" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="49" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A49" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A49" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E49),
@@ -16671,7 +16636,7 @@
       <c r="P49" s="47"/>
       <c r="Q49" s="48"/>
     </row>
-    <row r="50" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="50" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A50" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A50" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E50),
@@ -16707,7 +16672,7 @@
       <c r="P50" s="47"/>
       <c r="Q50" s="48"/>
     </row>
-    <row r="51" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="51" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A51" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A51" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E51),
@@ -16741,7 +16706,7 @@
       <c r="P51" s="47"/>
       <c r="Q51" s="48"/>
     </row>
-    <row r="52" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="52" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A52" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A52" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E52),
@@ -16775,7 +16740,7 @@
       <c r="P52" s="47"/>
       <c r="Q52" s="48"/>
     </row>
-    <row r="53" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="53" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A53" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A53" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E53),
@@ -16809,7 +16774,7 @@
       <c r="P53" s="47"/>
       <c r="Q53" s="48"/>
     </row>
-    <row r="54" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="54" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A54" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A54" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E54),
@@ -16843,7 +16808,7 @@
       <c r="P54" s="47"/>
       <c r="Q54" s="48"/>
     </row>
-    <row r="55" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="55" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A55" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A55" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E55),
@@ -16877,7 +16842,7 @@
       <c r="P55" s="47"/>
       <c r="Q55" s="48"/>
     </row>
-    <row r="56" spans="1:17" s="30" customFormat="1" ht="33">
+    <row r="56" spans="1:17" s="30" customFormat="1" ht="33.75">
       <c r="A56" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A56" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E56),
@@ -16913,7 +16878,7 @@
       <c r="P56" s="47"/>
       <c r="Q56" s="48"/>
     </row>
-    <row r="57" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="57" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A57" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A57" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E57),
@@ -16949,7 +16914,7 @@
       <c r="P57" s="47"/>
       <c r="Q57" s="48"/>
     </row>
-    <row r="58" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="58" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A58" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A58" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E58),
@@ -16985,7 +16950,7 @@
       <c r="P58" s="47"/>
       <c r="Q58" s="48"/>
     </row>
-    <row r="59" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="59" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A59" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A59" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E59),
@@ -17023,7 +16988,7 @@
       <c r="P59" s="47"/>
       <c r="Q59" s="48"/>
     </row>
-    <row r="60" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="60" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A60" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A60" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E60),
@@ -17057,7 +17022,7 @@
       <c r="P60" s="47"/>
       <c r="Q60" s="48"/>
     </row>
-    <row r="61" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="61" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A61" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A61" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E61),
@@ -17091,7 +17056,7 @@
       <c r="P61" s="47"/>
       <c r="Q61" s="48"/>
     </row>
-    <row r="62" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="62" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A62" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A62" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E62),
@@ -17125,7 +17090,7 @@
       <c r="P62" s="47"/>
       <c r="Q62" s="48"/>
     </row>
-    <row r="63" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="63" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A63" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A63" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E63),
@@ -17159,7 +17124,7 @@
       <c r="P63" s="47"/>
       <c r="Q63" s="48"/>
     </row>
-    <row r="64" spans="1:17" s="30" customFormat="1" ht="33">
+    <row r="64" spans="1:17" s="30" customFormat="1" ht="33.75">
       <c r="A64" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A64" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E64),
@@ -17195,7 +17160,7 @@
       <c r="P64" s="47"/>
       <c r="Q64" s="48"/>
     </row>
-    <row r="65" spans="1:17" s="30" customFormat="1" ht="33">
+    <row r="65" spans="1:17" s="30" customFormat="1" ht="33.75">
       <c r="A65" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A65" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E65),
@@ -17229,7 +17194,7 @@
       <c r="P65" s="47"/>
       <c r="Q65" s="48"/>
     </row>
-    <row r="66" spans="1:17" s="30" customFormat="1" ht="33">
+    <row r="66" spans="1:17" s="30" customFormat="1" ht="33.75">
       <c r="A66" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A66" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E66),
@@ -17263,7 +17228,7 @@
       <c r="P66" s="47"/>
       <c r="Q66" s="48"/>
     </row>
-    <row r="67" spans="1:17" s="30" customFormat="1" ht="33">
+    <row r="67" spans="1:17" s="30" customFormat="1" ht="33.75">
       <c r="A67" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A67" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E67),
@@ -17297,7 +17262,7 @@
       <c r="P67" s="47"/>
       <c r="Q67" s="48"/>
     </row>
-    <row r="68" spans="1:17" s="30" customFormat="1" ht="33">
+    <row r="68" spans="1:17" s="30" customFormat="1" ht="33.75">
       <c r="A68" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A68" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E68),
@@ -17331,7 +17296,7 @@
       <c r="P68" s="47"/>
       <c r="Q68" s="48"/>
     </row>
-    <row r="69" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="69" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A69" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A69" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E69),
@@ -17365,7 +17330,7 @@
       <c r="P69" s="47"/>
       <c r="Q69" s="48"/>
     </row>
-    <row r="70" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="70" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A70" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A70" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E70),
@@ -17399,7 +17364,7 @@
       <c r="P70" s="47"/>
       <c r="Q70" s="48"/>
     </row>
-    <row r="71" spans="1:17" s="30" customFormat="1" ht="33">
+    <row r="71" spans="1:17" s="30" customFormat="1" ht="33.75">
       <c r="A71" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A71" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E71),
@@ -17433,7 +17398,7 @@
       <c r="P71" s="47"/>
       <c r="Q71" s="48"/>
     </row>
-    <row r="72" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="72" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A72" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A72" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E72),
@@ -17469,7 +17434,7 @@
       <c r="P72" s="47"/>
       <c r="Q72" s="48"/>
     </row>
-    <row r="73" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="73" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A73" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A73" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E73),
@@ -17505,7 +17470,7 @@
       <c r="P73" s="47"/>
       <c r="Q73" s="48"/>
     </row>
-    <row r="74" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="74" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A74" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A74" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E74),
@@ -17539,7 +17504,7 @@
       <c r="P74" s="47"/>
       <c r="Q74" s="48"/>
     </row>
-    <row r="75" spans="1:17" ht="22">
+    <row r="75" spans="1:17" ht="22.5">
       <c r="A75" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A75" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E75),
@@ -17573,7 +17538,7 @@
       <c r="P75" s="48"/>
       <c r="Q75" s="48"/>
     </row>
-    <row r="76" spans="1:17" ht="22">
+    <row r="76" spans="1:17" ht="22.5">
       <c r="A76" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A76" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E76),
@@ -17607,7 +17572,7 @@
       <c r="P76" s="48"/>
       <c r="Q76" s="48"/>
     </row>
-    <row r="77" spans="1:17" ht="22">
+    <row r="77" spans="1:17" ht="22.5">
       <c r="A77" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A77" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E77),
@@ -17641,7 +17606,7 @@
       <c r="P77" s="48"/>
       <c r="Q77" s="48"/>
     </row>
-    <row r="78" spans="1:17" ht="22">
+    <row r="78" spans="1:17" ht="22.5">
       <c r="A78" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A78" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E78),
@@ -17681,7 +17646,7 @@
       <c r="P78" s="48"/>
       <c r="Q78" s="48"/>
     </row>
-    <row r="79" spans="1:17" ht="33">
+    <row r="79" spans="1:17" ht="33.75">
       <c r="A79" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A79" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E79),
@@ -17715,7 +17680,7 @@
       <c r="P79" s="48"/>
       <c r="Q79" s="48"/>
     </row>
-    <row r="80" spans="1:17" ht="22">
+    <row r="80" spans="1:17" ht="22.5">
       <c r="A80" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A80" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E80),
@@ -17751,7 +17716,7 @@
       <c r="P80" s="48"/>
       <c r="Q80" s="48"/>
     </row>
-    <row r="81" spans="1:17" ht="33">
+    <row r="81" spans="1:17" ht="33.75">
       <c r="A81" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A81" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E81),
@@ -17787,7 +17752,7 @@
       <c r="P81" s="48"/>
       <c r="Q81" s="48"/>
     </row>
-    <row r="82" spans="1:17" ht="33">
+    <row r="82" spans="1:17" ht="33.75">
       <c r="A82" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A82" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E82),
@@ -17821,7 +17786,7 @@
       <c r="P82" s="48"/>
       <c r="Q82" s="48"/>
     </row>
-    <row r="83" spans="1:17" ht="22">
+    <row r="83" spans="1:17" ht="22.5">
       <c r="A83" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A83" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E83),
@@ -17857,7 +17822,7 @@
       <c r="P83" s="48"/>
       <c r="Q83" s="48"/>
     </row>
-    <row r="84" spans="1:17" ht="22">
+    <row r="84" spans="1:17" ht="22.5">
       <c r="A84" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A84" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E84),
@@ -17893,7 +17858,7 @@
       <c r="P84" s="48"/>
       <c r="Q84" s="48"/>
     </row>
-    <row r="85" spans="1:17" ht="22">
+    <row r="85" spans="1:17" ht="22.5">
       <c r="A85" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A85" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E85),
@@ -17933,7 +17898,7 @@
       <c r="P85" s="48"/>
       <c r="Q85" s="48"/>
     </row>
-    <row r="86" spans="1:17" ht="22">
+    <row r="86" spans="1:17" ht="22.5">
       <c r="A86" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A86" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E86),
@@ -17969,7 +17934,7 @@
       <c r="P86" s="48"/>
       <c r="Q86" s="48"/>
     </row>
-    <row r="87" spans="1:17" ht="33">
+    <row r="87" spans="1:17" ht="33.75">
       <c r="A87" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A87" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E87),
@@ -18005,7 +17970,7 @@
       <c r="P87" s="48"/>
       <c r="Q87" s="48"/>
     </row>
-    <row r="88" spans="1:17" ht="22">
+    <row r="88" spans="1:17" ht="22.5">
       <c r="A88" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A88" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E88),
@@ -18045,7 +18010,7 @@
       <c r="P88" s="48"/>
       <c r="Q88" s="48"/>
     </row>
-    <row r="89" spans="1:17" ht="33">
+    <row r="89" spans="1:17" ht="33.75">
       <c r="A89" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A89" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E89),
@@ -18079,7 +18044,7 @@
       <c r="P89" s="48"/>
       <c r="Q89" s="48"/>
     </row>
-    <row r="90" spans="1:17" ht="22">
+    <row r="90" spans="1:17" ht="22.5">
       <c r="A90" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A90" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E90),
@@ -18115,7 +18080,7 @@
       <c r="P90" s="48"/>
       <c r="Q90" s="48"/>
     </row>
-    <row r="91" spans="1:17" ht="33">
+    <row r="91" spans="1:17" ht="33.75">
       <c r="A91" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A91" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E91),
@@ -18151,7 +18116,7 @@
       <c r="P91" s="48"/>
       <c r="Q91" s="48"/>
     </row>
-    <row r="92" spans="1:17" ht="33">
+    <row r="92" spans="1:17" ht="33.75">
       <c r="A92" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A92" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E92),
@@ -18185,7 +18150,7 @@
       <c r="P92" s="48"/>
       <c r="Q92" s="48"/>
     </row>
-    <row r="93" spans="1:17" ht="33">
+    <row r="93" spans="1:17" ht="33.75">
       <c r="A93" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A93" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E93),
@@ -18221,7 +18186,7 @@
       <c r="P93" s="48"/>
       <c r="Q93" s="48"/>
     </row>
-    <row r="94" spans="1:17" ht="22">
+    <row r="94" spans="1:17" ht="22.5">
       <c r="A94" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A94" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E94),
@@ -18261,7 +18226,7 @@
       <c r="P94" s="48"/>
       <c r="Q94" s="48"/>
     </row>
-    <row r="95" spans="1:17" ht="33">
+    <row r="95" spans="1:17" ht="33.75">
       <c r="A95" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A95" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E95),
@@ -18295,7 +18260,7 @@
       <c r="P95" s="48"/>
       <c r="Q95" s="48"/>
     </row>
-    <row r="96" spans="1:17" ht="22">
+    <row r="96" spans="1:17" ht="22.5">
       <c r="A96" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A96" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E96),
@@ -18329,7 +18294,7 @@
       <c r="P96" s="48"/>
       <c r="Q96" s="48"/>
     </row>
-    <row r="97" spans="1:17" ht="33">
+    <row r="97" spans="1:17" ht="33.75">
       <c r="A97" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A97" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E97),
@@ -18363,7 +18328,7 @@
       <c r="P97" s="48"/>
       <c r="Q97" s="48"/>
     </row>
-    <row r="98" spans="1:17" ht="33">
+    <row r="98" spans="1:17" ht="33.75">
       <c r="A98" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A98" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E98),
@@ -18397,7 +18362,7 @@
       <c r="P98" s="48"/>
       <c r="Q98" s="48"/>
     </row>
-    <row r="99" spans="1:17" ht="22">
+    <row r="99" spans="1:17" ht="22.5">
       <c r="A99" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A99" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E99),
@@ -18433,7 +18398,7 @@
       <c r="P99" s="48"/>
       <c r="Q99" s="48"/>
     </row>
-    <row r="100" spans="1:17" ht="33">
+    <row r="100" spans="1:17" ht="33.75">
       <c r="A100" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A100" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E100),
@@ -18467,7 +18432,7 @@
       <c r="P100" s="48"/>
       <c r="Q100" s="48"/>
     </row>
-    <row r="101" spans="1:17" ht="22">
+    <row r="101" spans="1:17" ht="22.5">
       <c r="A101" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A101" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E101),
@@ -18501,7 +18466,7 @@
       <c r="P101" s="48"/>
       <c r="Q101" s="48"/>
     </row>
-    <row r="102" spans="1:17" ht="33">
+    <row r="102" spans="1:17" ht="33.75">
       <c r="A102" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A102" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E102),
@@ -18535,7 +18500,7 @@
       <c r="P102" s="48"/>
       <c r="Q102" s="48"/>
     </row>
-    <row r="103" spans="1:17" ht="33">
+    <row r="103" spans="1:17" ht="33.75">
       <c r="A103" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A103" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E103),
@@ -18569,7 +18534,7 @@
       <c r="P103" s="48"/>
       <c r="Q103" s="48"/>
     </row>
-    <row r="104" spans="1:17" ht="33">
+    <row r="104" spans="1:17" ht="33.75">
       <c r="A104" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A104" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E104),
@@ -18605,7 +18570,7 @@
       <c r="P104" s="48"/>
       <c r="Q104" s="48"/>
     </row>
-    <row r="105" spans="1:17" ht="33">
+    <row r="105" spans="1:17" ht="33.75">
       <c r="A105" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A105" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E105),
@@ -18647,7 +18612,7 @@
       <c r="P105" s="48"/>
       <c r="Q105" s="48"/>
     </row>
-    <row r="106" spans="1:17" ht="22">
+    <row r="106" spans="1:17" ht="22.5">
       <c r="A106" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A106" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E106),
@@ -18687,7 +18652,7 @@
       <c r="P106" s="48"/>
       <c r="Q106" s="48"/>
     </row>
-    <row r="107" spans="1:17" ht="22">
+    <row r="107" spans="1:17" ht="22.5">
       <c r="A107" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A107" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E107),
@@ -18721,7 +18686,7 @@
       <c r="P107" s="48"/>
       <c r="Q107" s="48"/>
     </row>
-    <row r="108" spans="1:17" ht="22">
+    <row r="108" spans="1:17" ht="22.5">
       <c r="A108" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A108" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E108),
@@ -18761,7 +18726,7 @@
       <c r="P108" s="48"/>
       <c r="Q108" s="48"/>
     </row>
-    <row r="109" spans="1:17" ht="22">
+    <row r="109" spans="1:17" ht="22.5">
       <c r="A109" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A109" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E109),
@@ -18801,7 +18766,7 @@
       <c r="P109" s="48"/>
       <c r="Q109" s="48"/>
     </row>
-    <row r="110" spans="1:17" ht="22">
+    <row r="110" spans="1:17" ht="22.5">
       <c r="A110" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A110" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E110),
@@ -18835,7 +18800,7 @@
       <c r="P110" s="48"/>
       <c r="Q110" s="48"/>
     </row>
-    <row r="111" spans="1:17" ht="22">
+    <row r="111" spans="1:17" ht="22.5">
       <c r="A111" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A111" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E111),
@@ -18877,7 +18842,7 @@
       <c r="P111" s="85"/>
       <c r="Q111" s="85"/>
     </row>
-    <row r="112" spans="1:17" ht="22">
+    <row r="112" spans="1:17" ht="22.5">
       <c r="A112" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A112" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E112),
@@ -18913,7 +18878,7 @@
       <c r="P112" s="85"/>
       <c r="Q112" s="85"/>
     </row>
-    <row r="113" spans="1:17" ht="22">
+    <row r="113" spans="1:17" ht="22.5">
       <c r="A113" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A113" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E113),
@@ -18947,7 +18912,7 @@
       <c r="P113" s="85"/>
       <c r="Q113" s="85"/>
     </row>
-    <row r="114" spans="1:17" ht="22">
+    <row r="114" spans="1:17" ht="22.5">
       <c r="A114" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A114" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E114),
@@ -18981,7 +18946,7 @@
       <c r="P114" s="85"/>
       <c r="Q114" s="85"/>
     </row>
-    <row r="115" spans="1:17" ht="22">
+    <row r="115" spans="1:17" ht="22.5">
       <c r="A115" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A115" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E115),
@@ -19017,7 +18982,7 @@
       <c r="P115" s="85"/>
       <c r="Q115" s="85"/>
     </row>
-    <row r="116" spans="1:17" ht="22">
+    <row r="116" spans="1:17" ht="22.5">
       <c r="A116" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A116" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E116),
@@ -19051,7 +19016,7 @@
       <c r="P116" s="85"/>
       <c r="Q116" s="85"/>
     </row>
-    <row r="117" spans="1:17" ht="22">
+    <row r="117" spans="1:17" ht="22.5">
       <c r="A117" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A117" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E117),
@@ -19085,7 +19050,7 @@
       <c r="P117" s="85"/>
       <c r="Q117" s="85"/>
     </row>
-    <row r="118" spans="1:17" ht="22">
+    <row r="118" spans="1:17" ht="22.5">
       <c r="A118" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A118" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E118),
@@ -19119,7 +19084,7 @@
       <c r="P118" s="85"/>
       <c r="Q118" s="85"/>
     </row>
-    <row r="119" spans="1:17" ht="33">
+    <row r="119" spans="1:17" ht="33.75">
       <c r="A119" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A119" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E119),
@@ -19153,7 +19118,7 @@
       <c r="P119" s="85"/>
       <c r="Q119" s="85"/>
     </row>
-    <row r="120" spans="1:17" ht="33">
+    <row r="120" spans="1:17" ht="33.75">
       <c r="A120" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A120" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E120),
@@ -19189,7 +19154,7 @@
       <c r="P120" s="85"/>
       <c r="Q120" s="85"/>
     </row>
-    <row r="121" spans="1:17" ht="33">
+    <row r="121" spans="1:17" ht="33.75">
       <c r="A121" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A121" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E121),
@@ -19223,7 +19188,7 @@
       <c r="P121" s="85"/>
       <c r="Q121" s="85"/>
     </row>
-    <row r="122" spans="1:17" ht="44">
+    <row r="122" spans="1:17" ht="45">
       <c r="A122" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A122" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E122),
@@ -19257,7 +19222,7 @@
       <c r="P122" s="85"/>
       <c r="Q122" s="85"/>
     </row>
-    <row r="123" spans="1:17" ht="44">
+    <row r="123" spans="1:17" ht="45">
       <c r="A123" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A123" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E123),
@@ -19291,7 +19256,7 @@
       <c r="P123" s="85"/>
       <c r="Q123" s="85"/>
     </row>
-    <row r="124" spans="1:17" ht="33">
+    <row r="124" spans="1:17" ht="33.75">
       <c r="A124" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A124" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E124),
@@ -19325,7 +19290,7 @@
       <c r="P124" s="85"/>
       <c r="Q124" s="85"/>
     </row>
-    <row r="125" spans="1:17" ht="33">
+    <row r="125" spans="1:17" ht="33.75">
       <c r="A125" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A125" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E125),
@@ -19361,7 +19326,7 @@
       <c r="P125" s="85"/>
       <c r="Q125" s="85"/>
     </row>
-    <row r="126" spans="1:17" ht="33">
+    <row r="126" spans="1:17" ht="33.75">
       <c r="A126" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A126" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E126),
@@ -19399,7 +19364,7 @@
       <c r="P126" s="85"/>
       <c r="Q126" s="85"/>
     </row>
-    <row r="127" spans="1:17" ht="33">
+    <row r="127" spans="1:17" ht="33.75">
       <c r="A127" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A127" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E127),
@@ -19439,7 +19404,7 @@
       <c r="P127" s="85"/>
       <c r="Q127" s="85"/>
     </row>
-    <row r="128" spans="1:17" ht="22">
+    <row r="128" spans="1:17" ht="22.5">
       <c r="A128" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A128" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E128),
@@ -19475,7 +19440,7 @@
       <c r="P128" s="85"/>
       <c r="Q128" s="85"/>
     </row>
-    <row r="129" spans="1:17" ht="22">
+    <row r="129" spans="1:17" ht="22.5">
       <c r="A129" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A129" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E129),
@@ -19509,7 +19474,7 @@
       <c r="P129" s="85"/>
       <c r="Q129" s="85"/>
     </row>
-    <row r="130" spans="1:17" ht="44">
+    <row r="130" spans="1:17" ht="45">
       <c r="A130" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A130" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E130),
@@ -19543,7 +19508,7 @@
       <c r="P130" s="85"/>
       <c r="Q130" s="85"/>
     </row>
-    <row r="131" spans="1:17" ht="22">
+    <row r="131" spans="1:17" ht="22.5">
       <c r="A131" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A131" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E131),
@@ -19585,7 +19550,7 @@
       <c r="P131" s="85"/>
       <c r="Q131" s="85"/>
     </row>
-    <row r="132" spans="1:17" ht="22">
+    <row r="132" spans="1:17" ht="22.5">
       <c r="A132" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A132" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E132),
@@ -19621,7 +19586,7 @@
       <c r="P132" s="85"/>
       <c r="Q132" s="85"/>
     </row>
-    <row r="133" spans="1:17" ht="22">
+    <row r="133" spans="1:17" ht="22.5">
       <c r="A133" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A133" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E133),
@@ -19655,7 +19620,7 @@
       <c r="P133" s="85"/>
       <c r="Q133" s="85"/>
     </row>
-    <row r="134" spans="1:17" ht="22">
+    <row r="134" spans="1:17" ht="22.5">
       <c r="A134" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A134" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E134),
@@ -19689,7 +19654,7 @@
       <c r="P134" s="85"/>
       <c r="Q134" s="85"/>
     </row>
-    <row r="135" spans="1:17" ht="22">
+    <row r="135" spans="1:17" ht="22.5">
       <c r="A135" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A135" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E135),
@@ -19725,7 +19690,7 @@
       <c r="P135" s="85"/>
       <c r="Q135" s="85"/>
     </row>
-    <row r="136" spans="1:17" ht="33">
+    <row r="136" spans="1:17" ht="33.75">
       <c r="A136" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A136" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E136),
@@ -19759,7 +19724,7 @@
       <c r="P136" s="85"/>
       <c r="Q136" s="85"/>
     </row>
-    <row r="137" spans="1:17" ht="33">
+    <row r="137" spans="1:17" ht="33.75">
       <c r="A137" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A137" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E137),
@@ -19797,7 +19762,7 @@
       <c r="P137" s="85"/>
       <c r="Q137" s="85"/>
     </row>
-    <row r="138" spans="1:17" ht="33">
+    <row r="138" spans="1:17" ht="33.75">
       <c r="A138" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A138" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E138),
@@ -19837,7 +19802,7 @@
       <c r="P138" s="85"/>
       <c r="Q138" s="85"/>
     </row>
-    <row r="139" spans="1:17" ht="33">
+    <row r="139" spans="1:17" ht="33.75">
       <c r="A139" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A139" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E139),
@@ -19873,7 +19838,7 @@
       <c r="P139" s="85"/>
       <c r="Q139" s="85"/>
     </row>
-    <row r="140" spans="1:17" ht="33">
+    <row r="140" spans="1:17" ht="33.75">
       <c r="A140" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A140" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E140),
@@ -19909,7 +19874,7 @@
       <c r="P140" s="85"/>
       <c r="Q140" s="85"/>
     </row>
-    <row r="141" spans="1:17" ht="33">
+    <row r="141" spans="1:17" ht="33.75">
       <c r="A141" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A141" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E141),
@@ -19945,7 +19910,7 @@
       <c r="P141" s="85"/>
       <c r="Q141" s="85"/>
     </row>
-    <row r="142" spans="1:17" ht="33">
+    <row r="142" spans="1:17" ht="33.75">
       <c r="A142" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A142" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E142),
@@ -19981,7 +19946,7 @@
       <c r="P142" s="85"/>
       <c r="Q142" s="85"/>
     </row>
-    <row r="143" spans="1:17" ht="22">
+    <row r="143" spans="1:17" ht="22.5">
       <c r="A143" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A143" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E143),
@@ -20017,7 +19982,7 @@
       <c r="P143" s="85"/>
       <c r="Q143" s="85"/>
     </row>
-    <row r="144" spans="1:17" ht="22">
+    <row r="144" spans="1:17" ht="22.5">
       <c r="A144" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A144" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E144),
@@ -20051,7 +20016,7 @@
       <c r="P144" s="85"/>
       <c r="Q144" s="85"/>
     </row>
-    <row r="145" spans="1:17" ht="22">
+    <row r="145" spans="1:17" ht="22.5">
       <c r="A145" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A145" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E145),
@@ -20085,7 +20050,7 @@
       <c r="P145" s="85"/>
       <c r="Q145" s="85"/>
     </row>
-    <row r="146" spans="1:17" ht="22">
+    <row r="146" spans="1:17" ht="22.5">
       <c r="A146" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A146" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E146),
@@ -20119,7 +20084,7 @@
       <c r="P146" s="85"/>
       <c r="Q146" s="85"/>
     </row>
-    <row r="147" spans="1:17" ht="22">
+    <row r="147" spans="1:17" ht="22.5">
       <c r="A147" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A147" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E147),
@@ -20153,7 +20118,7 @@
       <c r="P147" s="85"/>
       <c r="Q147" s="85"/>
     </row>
-    <row r="148" spans="1:17" ht="22">
+    <row r="148" spans="1:17" ht="22.5">
       <c r="A148" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A148" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E148),
@@ -20187,7 +20152,7 @@
       <c r="P148" s="85"/>
       <c r="Q148" s="85"/>
     </row>
-    <row r="149" spans="1:17" ht="22">
+    <row r="149" spans="1:17" ht="22.5">
       <c r="A149" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A149" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E149),
@@ -20225,7 +20190,7 @@
       <c r="P149" s="85"/>
       <c r="Q149" s="85"/>
     </row>
-    <row r="150" spans="1:17" ht="22">
+    <row r="150" spans="1:17" ht="22.5">
       <c r="A150" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A150" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E150),
@@ -20259,7 +20224,7 @@
       <c r="P150" s="85"/>
       <c r="Q150" s="85"/>
     </row>
-    <row r="151" spans="1:17" ht="33">
+    <row r="151" spans="1:17" ht="33.75">
       <c r="A151" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A151" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E151),
@@ -20295,7 +20260,7 @@
       <c r="P151" s="85"/>
       <c r="Q151" s="85"/>
     </row>
-    <row r="152" spans="1:17" ht="33">
+    <row r="152" spans="1:17" ht="33.75">
       <c r="A152" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A152" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E152),
@@ -20329,7 +20294,7 @@
       <c r="P152" s="85"/>
       <c r="Q152" s="85"/>
     </row>
-    <row r="153" spans="1:17" ht="33">
+    <row r="153" spans="1:17" ht="33.75">
       <c r="A153" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A153" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E153),
@@ -20363,7 +20328,7 @@
       <c r="P153" s="85"/>
       <c r="Q153" s="85"/>
     </row>
-    <row r="154" spans="1:17" ht="33">
+    <row r="154" spans="1:17" ht="33.75">
       <c r="A154" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A154" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E154),
@@ -20397,7 +20362,7 @@
       <c r="P154" s="85"/>
       <c r="Q154" s="85"/>
     </row>
-    <row r="155" spans="1:17" ht="33">
+    <row r="155" spans="1:17" ht="33.75">
       <c r="A155" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A155" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E155),
@@ -20431,7 +20396,7 @@
       <c r="P155" s="85"/>
       <c r="Q155" s="85"/>
     </row>
-    <row r="156" spans="1:17" ht="22">
+    <row r="156" spans="1:17" ht="22.5">
       <c r="A156" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A156" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E156),
@@ -20465,7 +20430,7 @@
       <c r="P156" s="85"/>
       <c r="Q156" s="85"/>
     </row>
-    <row r="157" spans="1:17" ht="22">
+    <row r="157" spans="1:17" ht="22.5">
       <c r="A157" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A157" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E157),
@@ -20499,7 +20464,7 @@
       <c r="P157" s="85"/>
       <c r="Q157" s="85"/>
     </row>
-    <row r="158" spans="1:17" ht="33">
+    <row r="158" spans="1:17" ht="33.75">
       <c r="A158" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A158" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E158),
@@ -20533,7 +20498,7 @@
       <c r="P158" s="85"/>
       <c r="Q158" s="85"/>
     </row>
-    <row r="159" spans="1:17" ht="33">
+    <row r="159" spans="1:17" ht="33.75">
       <c r="A159" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A159" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E159),
@@ -20567,7 +20532,7 @@
       <c r="P159" s="85"/>
       <c r="Q159" s="85"/>
     </row>
-    <row r="160" spans="1:17" ht="33">
+    <row r="160" spans="1:17" ht="33.75">
       <c r="A160" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A160" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E160),
@@ -20601,7 +20566,7 @@
       <c r="P160" s="85"/>
       <c r="Q160" s="85"/>
     </row>
-    <row r="161" spans="1:17" ht="33">
+    <row r="161" spans="1:17" ht="33.75">
       <c r="A161" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A161" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E161),
@@ -20705,7 +20670,7 @@
       <c r="P163" s="85"/>
       <c r="Q163" s="85"/>
     </row>
-    <row r="164" spans="1:17" ht="22">
+    <row r="164" spans="1:17" ht="22.5">
       <c r="A164" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A164" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E164),
@@ -20739,7 +20704,7 @@
       <c r="P164" s="85"/>
       <c r="Q164" s="85"/>
     </row>
-    <row r="165" spans="1:17" ht="22">
+    <row r="165" spans="1:17" ht="22.5">
       <c r="A165" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A165" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E165),
@@ -20773,7 +20738,7 @@
       <c r="P165" s="85"/>
       <c r="Q165" s="85"/>
     </row>
-    <row r="166" spans="1:17" ht="22">
+    <row r="166" spans="1:17" ht="22.5">
       <c r="A166" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A166" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E166),
@@ -20807,7 +20772,7 @@
       <c r="P166" s="85"/>
       <c r="Q166" s="85"/>
     </row>
-    <row r="167" spans="1:17" ht="33">
+    <row r="167" spans="1:17" ht="33.75">
       <c r="A167" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A167" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E167),
@@ -20841,7 +20806,7 @@
       <c r="P167" s="85"/>
       <c r="Q167" s="85"/>
     </row>
-    <row r="168" spans="1:17" ht="22">
+    <row r="168" spans="1:17" ht="22.5">
       <c r="A168" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A168" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E168),
@@ -20875,7 +20840,7 @@
       <c r="P168" s="85"/>
       <c r="Q168" s="85"/>
     </row>
-    <row r="169" spans="1:17" ht="22">
+    <row r="169" spans="1:17" ht="22.5">
       <c r="A169" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A169" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E169),
@@ -20911,7 +20876,7 @@
       <c r="P169" s="85"/>
       <c r="Q169" s="85"/>
     </row>
-    <row r="170" spans="1:17" ht="33">
+    <row r="170" spans="1:17" ht="33.75">
       <c r="A170" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A170" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E170),
@@ -20945,7 +20910,7 @@
       <c r="P170" s="85"/>
       <c r="Q170" s="85"/>
     </row>
-    <row r="171" spans="1:17" ht="33">
+    <row r="171" spans="1:17" ht="33.75">
       <c r="A171" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A171" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E171),
@@ -20979,7 +20944,7 @@
       <c r="P171" s="85"/>
       <c r="Q171" s="85"/>
     </row>
-    <row r="172" spans="1:17" ht="44">
+    <row r="172" spans="1:17" ht="45">
       <c r="A172" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A172" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E172),
@@ -21013,7 +20978,7 @@
       <c r="P172" s="85"/>
       <c r="Q172" s="85"/>
     </row>
-    <row r="173" spans="1:17" ht="44">
+    <row r="173" spans="1:17" ht="45">
       <c r="A173" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A173" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E173),
@@ -21047,7 +21012,7 @@
       <c r="P173" s="85"/>
       <c r="Q173" s="85"/>
     </row>
-    <row r="174" spans="1:17" ht="33">
+    <row r="174" spans="1:17" ht="33.75">
       <c r="A174" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A174" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E174),
@@ -21081,7 +21046,7 @@
       <c r="P174" s="85"/>
       <c r="Q174" s="85"/>
     </row>
-    <row r="175" spans="1:17" ht="44">
+    <row r="175" spans="1:17" ht="45">
       <c r="A175" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A175" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E175),
@@ -21115,7 +21080,7 @@
       <c r="P175" s="85"/>
       <c r="Q175" s="85"/>
     </row>
-    <row r="176" spans="1:17" ht="44">
+    <row r="176" spans="1:17" ht="45">
       <c r="A176" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A176" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E176),
@@ -21149,7 +21114,7 @@
       <c r="P176" s="85"/>
       <c r="Q176" s="85"/>
     </row>
-    <row r="177" spans="1:17" ht="22">
+    <row r="177" spans="1:17" ht="22.5">
       <c r="A177" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A177" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E177),
@@ -21183,7 +21148,7 @@
       <c r="P177" s="85"/>
       <c r="Q177" s="85"/>
     </row>
-    <row r="178" spans="1:17" ht="33">
+    <row r="178" spans="1:17" ht="33.75">
       <c r="A178" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A178" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E178),
@@ -21219,7 +21184,7 @@
       <c r="P178" s="85"/>
       <c r="Q178" s="85"/>
     </row>
-    <row r="179" spans="1:17" ht="22">
+    <row r="179" spans="1:17" ht="22.5">
       <c r="A179" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A179" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E179),
@@ -21255,7 +21220,7 @@
       <c r="P179" s="85"/>
       <c r="Q179" s="85"/>
     </row>
-    <row r="180" spans="1:17" ht="22">
+    <row r="180" spans="1:17" ht="22.5">
       <c r="A180" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A180" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E180),
@@ -21297,7 +21262,7 @@
       <c r="P180" s="48"/>
       <c r="Q180" s="48"/>
     </row>
-    <row r="181" spans="1:17" ht="22">
+    <row r="181" spans="1:17" ht="22.5">
       <c r="A181" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A181" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E181),
@@ -21335,7 +21300,7 @@
       <c r="P181" s="48"/>
       <c r="Q181" s="48"/>
     </row>
-    <row r="182" spans="1:17" ht="22">
+    <row r="182" spans="1:17" ht="22.5">
       <c r="A182" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A182" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E182),
@@ -21373,7 +21338,7 @@
       <c r="P182" s="48"/>
       <c r="Q182" s="48"/>
     </row>
-    <row r="183" spans="1:17" ht="22">
+    <row r="183" spans="1:17" ht="22.5">
       <c r="A183" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A183" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E183),
@@ -21415,7 +21380,7 @@
       <c r="P183" s="48"/>
       <c r="Q183" s="48"/>
     </row>
-    <row r="184" spans="1:17" ht="22">
+    <row r="184" spans="1:17" ht="22.5">
       <c r="A184" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A184" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E184),
@@ -21451,7 +21416,7 @@
       <c r="P184" s="48"/>
       <c r="Q184" s="48"/>
     </row>
-    <row r="185" spans="1:17" ht="22">
+    <row r="185" spans="1:17" ht="22.5">
       <c r="A185" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A185" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E185),
@@ -21485,7 +21450,7 @@
       <c r="P185" s="48"/>
       <c r="Q185" s="48"/>
     </row>
-    <row r="186" spans="1:17" ht="22">
+    <row r="186" spans="1:17" ht="22.5">
       <c r="A186" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A186" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E186),
@@ -21521,7 +21486,7 @@
       <c r="P186" s="48"/>
       <c r="Q186" s="48"/>
     </row>
-    <row r="187" spans="1:17" ht="22">
+    <row r="187" spans="1:17" ht="22.5">
       <c r="A187" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A187" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E187),
@@ -21555,7 +21520,7 @@
       <c r="P187" s="48"/>
       <c r="Q187" s="48"/>
     </row>
-    <row r="188" spans="1:17" ht="33">
+    <row r="188" spans="1:17" ht="33.75">
       <c r="A188" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A188" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E188),
@@ -21593,7 +21558,7 @@
       <c r="P188" s="48"/>
       <c r="Q188" s="48"/>
     </row>
-    <row r="189" spans="1:17" ht="22">
+    <row r="189" spans="1:17" ht="22.5">
       <c r="A189" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A189" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E189),
@@ -21633,7 +21598,7 @@
       <c r="P189" s="48"/>
       <c r="Q189" s="48"/>
     </row>
-    <row r="190" spans="1:17" ht="22">
+    <row r="190" spans="1:17" ht="22.5">
       <c r="A190" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A190" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E190),
@@ -21667,7 +21632,7 @@
       <c r="P190" s="48"/>
       <c r="Q190" s="48"/>
     </row>
-    <row r="191" spans="1:17" ht="22">
+    <row r="191" spans="1:17" ht="22.5">
       <c r="A191" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A191" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E191),
@@ -21701,7 +21666,7 @@
       <c r="P191" s="48"/>
       <c r="Q191" s="48"/>
     </row>
-    <row r="192" spans="1:17" ht="22">
+    <row r="192" spans="1:17" ht="22.5">
       <c r="A192" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A192" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E192),
@@ -21735,7 +21700,7 @@
       <c r="P192" s="48"/>
       <c r="Q192" s="48"/>
     </row>
-    <row r="193" spans="1:17" ht="22">
+    <row r="193" spans="1:17" ht="22.5">
       <c r="A193" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A193" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E193),
@@ -21769,7 +21734,7 @@
       <c r="P193" s="48"/>
       <c r="Q193" s="48"/>
     </row>
-    <row r="194" spans="1:17" ht="22">
+    <row r="194" spans="1:17" ht="22.5">
       <c r="A194" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A194" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E194),
@@ -21803,7 +21768,7 @@
       <c r="P194" s="48"/>
       <c r="Q194" s="48"/>
     </row>
-    <row r="195" spans="1:17" ht="22">
+    <row r="195" spans="1:17" ht="22.5">
       <c r="A195" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A195" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E195),
@@ -21837,7 +21802,7 @@
       <c r="P195" s="48"/>
       <c r="Q195" s="48"/>
     </row>
-    <row r="196" spans="1:17" ht="22">
+    <row r="196" spans="1:17" ht="22.5">
       <c r="A196" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A196" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E196),
@@ -21873,7 +21838,7 @@
       <c r="P196" s="48"/>
       <c r="Q196" s="48"/>
     </row>
-    <row r="197" spans="1:17" ht="22">
+    <row r="197" spans="1:17" ht="22.5">
       <c r="A197" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A197" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E197),
@@ -21911,7 +21876,7 @@
       <c r="P197" s="48"/>
       <c r="Q197" s="48"/>
     </row>
-    <row r="198" spans="1:17" ht="22">
+    <row r="198" spans="1:17" ht="22.5">
       <c r="A198" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A198" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E198),
@@ -21979,7 +21944,7 @@
       <c r="P199" s="48"/>
       <c r="Q199" s="48"/>
     </row>
-    <row r="200" spans="1:17" ht="22">
+    <row r="200" spans="1:17" ht="22.5">
       <c r="A200" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A200" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E200),
@@ -22013,7 +21978,7 @@
       <c r="P200" s="48"/>
       <c r="Q200" s="48"/>
     </row>
-    <row r="201" spans="1:17" ht="33">
+    <row r="201" spans="1:17" ht="33.75">
       <c r="A201" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A201" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E201),
@@ -22047,7 +22012,7 @@
       <c r="P201" s="48"/>
       <c r="Q201" s="48"/>
     </row>
-    <row r="202" spans="1:17" ht="33">
+    <row r="202" spans="1:17" ht="33.75">
       <c r="A202" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A202" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E202),
@@ -22081,7 +22046,7 @@
       <c r="P202" s="48"/>
       <c r="Q202" s="48"/>
     </row>
-    <row r="203" spans="1:17" ht="44">
+    <row r="203" spans="1:17" ht="45">
       <c r="A203" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A203" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E203),
@@ -22115,7 +22080,7 @@
       <c r="P203" s="48"/>
       <c r="Q203" s="48"/>
     </row>
-    <row r="204" spans="1:17" ht="33">
+    <row r="204" spans="1:17" ht="33.75">
       <c r="A204" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A204" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E204),
@@ -22149,7 +22114,7 @@
       <c r="P204" s="48"/>
       <c r="Q204" s="48"/>
     </row>
-    <row r="205" spans="1:17" ht="33">
+    <row r="205" spans="1:17" ht="33.75">
       <c r="A205" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A205" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E205),
@@ -22183,7 +22148,7 @@
       <c r="P205" s="48"/>
       <c r="Q205" s="48"/>
     </row>
-    <row r="206" spans="1:17" ht="22">
+    <row r="206" spans="1:17" ht="22.5">
       <c r="A206" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A206" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E206),
@@ -22217,7 +22182,7 @@
       <c r="P206" s="48"/>
       <c r="Q206" s="48"/>
     </row>
-    <row r="207" spans="1:17" ht="22">
+    <row r="207" spans="1:17" ht="22.5">
       <c r="A207" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A207" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E207),
@@ -22251,7 +22216,7 @@
       <c r="P207" s="48"/>
       <c r="Q207" s="48"/>
     </row>
-    <row r="208" spans="1:17" ht="33">
+    <row r="208" spans="1:17" ht="33.75">
       <c r="A208" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A208" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E208),
@@ -22285,7 +22250,7 @@
       <c r="P208" s="48"/>
       <c r="Q208" s="48"/>
     </row>
-    <row r="209" spans="1:17" ht="22">
+    <row r="209" spans="1:17" ht="22.5">
       <c r="A209" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A209" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E209),
@@ -22319,7 +22284,7 @@
       <c r="P209" s="48"/>
       <c r="Q209" s="48"/>
     </row>
-    <row r="210" spans="1:17" ht="22">
+    <row r="210" spans="1:17" ht="22.5">
       <c r="A210" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A210" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E210),
@@ -22357,7 +22322,7 @@
       <c r="P210" s="48"/>
       <c r="Q210" s="48"/>
     </row>
-    <row r="211" spans="1:17" ht="22">
+    <row r="211" spans="1:17" ht="22.5">
       <c r="A211" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A211" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E211),
@@ -22391,7 +22356,7 @@
       <c r="P211" s="48"/>
       <c r="Q211" s="48"/>
     </row>
-    <row r="212" spans="1:17" ht="22">
+    <row r="212" spans="1:17" ht="22.5">
       <c r="A212" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A212" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E212),
@@ -22459,7 +22424,7 @@
       <c r="P213" s="48"/>
       <c r="Q213" s="48"/>
     </row>
-    <row r="214" spans="1:17" ht="22">
+    <row r="214" spans="1:17" ht="22.5">
       <c r="A214" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A214" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E214),
@@ -22493,7 +22458,7 @@
       <c r="P214" s="48"/>
       <c r="Q214" s="48"/>
     </row>
-    <row r="215" spans="1:17" ht="44">
+    <row r="215" spans="1:17" ht="45">
       <c r="A215" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A215" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E215),
@@ -22527,7 +22492,7 @@
       <c r="P215" s="48"/>
       <c r="Q215" s="48"/>
     </row>
-    <row r="216" spans="1:17" ht="33">
+    <row r="216" spans="1:17" ht="33.75">
       <c r="A216" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A216" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E216),
@@ -22561,7 +22526,7 @@
       <c r="P216" s="48"/>
       <c r="Q216" s="48"/>
     </row>
-    <row r="217" spans="1:17" ht="33">
+    <row r="217" spans="1:17" ht="33.75">
       <c r="A217" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A217" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E217),
@@ -22595,7 +22560,7 @@
       <c r="P217" s="48"/>
       <c r="Q217" s="48"/>
     </row>
-    <row r="218" spans="1:17" ht="44">
+    <row r="218" spans="1:17" ht="45">
       <c r="A218" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A218" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E218),
@@ -22629,7 +22594,7 @@
       <c r="P218" s="48"/>
       <c r="Q218" s="48"/>
     </row>
-    <row r="219" spans="1:17" ht="33">
+    <row r="219" spans="1:17" ht="33.75">
       <c r="A219" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A219" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E219),
@@ -22663,7 +22628,7 @@
       <c r="P219" s="48"/>
       <c r="Q219" s="48"/>
     </row>
-    <row r="220" spans="1:17" ht="33">
+    <row r="220" spans="1:17" ht="33.75">
       <c r="A220" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A220" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E220),
@@ -22697,7 +22662,7 @@
       <c r="P220" s="48"/>
       <c r="Q220" s="48"/>
     </row>
-    <row r="221" spans="1:17" ht="22">
+    <row r="221" spans="1:17" ht="22.5">
       <c r="A221" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A221" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E221),
@@ -22731,7 +22696,7 @@
       <c r="P221" s="48"/>
       <c r="Q221" s="48"/>
     </row>
-    <row r="222" spans="1:17" ht="22">
+    <row r="222" spans="1:17" ht="22.5">
       <c r="A222" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A222" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E222),
@@ -22765,7 +22730,7 @@
       <c r="P222" s="48"/>
       <c r="Q222" s="48"/>
     </row>
-    <row r="223" spans="1:17" ht="33">
+    <row r="223" spans="1:17" ht="33.75">
       <c r="A223" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A223" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E223),
@@ -22799,7 +22764,7 @@
       <c r="P223" s="48"/>
       <c r="Q223" s="48"/>
     </row>
-    <row r="224" spans="1:17" ht="22">
+    <row r="224" spans="1:17" ht="22.5">
       <c r="A224" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A224" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E224),
@@ -22833,7 +22798,7 @@
       <c r="P224" s="48"/>
       <c r="Q224" s="48"/>
     </row>
-    <row r="225" spans="1:17" ht="44">
+    <row r="225" spans="1:17" ht="45">
       <c r="A225" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A225" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E225),
@@ -22869,7 +22834,7 @@
       <c r="P225" s="48"/>
       <c r="Q225" s="48"/>
     </row>
-    <row r="226" spans="1:17" ht="44">
+    <row r="226" spans="1:17" ht="45">
       <c r="A226" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A226" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E226),
@@ -22903,7 +22868,7 @@
       <c r="P226" s="48"/>
       <c r="Q226" s="48"/>
     </row>
-    <row r="227" spans="1:17" ht="33">
+    <row r="227" spans="1:17" ht="33.75">
       <c r="A227" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A227" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E227),
@@ -22937,7 +22902,7 @@
       <c r="P227" s="48"/>
       <c r="Q227" s="48"/>
     </row>
-    <row r="228" spans="1:17" ht="33">
+    <row r="228" spans="1:17" ht="33.75">
       <c r="A228" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A228" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E228),
@@ -22973,7 +22938,7 @@
       <c r="P228" s="48"/>
       <c r="Q228" s="48"/>
     </row>
-    <row r="229" spans="1:17" ht="22">
+    <row r="229" spans="1:17" ht="22.5">
       <c r="A229" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A229" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E229),
@@ -23009,7 +22974,7 @@
       <c r="P229" s="48"/>
       <c r="Q229" s="48"/>
     </row>
-    <row r="230" spans="1:17" ht="22">
+    <row r="230" spans="1:17" ht="22.5">
       <c r="A230" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A230" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E230),
@@ -23051,7 +23016,7 @@
       <c r="P230" s="48"/>
       <c r="Q230" s="48"/>
     </row>
-    <row r="231" spans="1:17" ht="22">
+    <row r="231" spans="1:17" ht="22.5">
       <c r="A231" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A231" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E231),
@@ -23087,7 +23052,7 @@
       <c r="P231" s="48"/>
       <c r="Q231" s="48"/>
     </row>
-    <row r="232" spans="1:17" ht="22">
+    <row r="232" spans="1:17" ht="22.5">
       <c r="A232" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A232" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E232),
@@ -23121,7 +23086,7 @@
       <c r="P232" s="48"/>
       <c r="Q232" s="48"/>
     </row>
-    <row r="233" spans="1:17" ht="22">
+    <row r="233" spans="1:17" ht="22.5">
       <c r="A233" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A233" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E233),
@@ -23155,7 +23120,7 @@
       <c r="P233" s="48"/>
       <c r="Q233" s="48"/>
     </row>
-    <row r="234" spans="1:17" ht="22">
+    <row r="234" spans="1:17" ht="22.5">
       <c r="A234" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A234" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E234),
@@ -23189,7 +23154,7 @@
       <c r="P234" s="48"/>
       <c r="Q234" s="48"/>
     </row>
-    <row r="235" spans="1:17" ht="33">
+    <row r="235" spans="1:17" ht="33.75">
       <c r="A235" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A235" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E235),
@@ -23223,7 +23188,7 @@
       <c r="P235" s="48"/>
       <c r="Q235" s="48"/>
     </row>
-    <row r="236" spans="1:17" ht="33">
+    <row r="236" spans="1:17" ht="33.75">
       <c r="A236" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A236" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E236),
@@ -23259,7 +23224,7 @@
       <c r="P236" s="48"/>
       <c r="Q236" s="48"/>
     </row>
-    <row r="237" spans="1:17" ht="33">
+    <row r="237" spans="1:17" ht="33.75">
       <c r="A237" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A237" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E237),
@@ -23293,7 +23258,7 @@
       <c r="P237" s="48"/>
       <c r="Q237" s="48"/>
     </row>
-    <row r="238" spans="1:17" ht="44">
+    <row r="238" spans="1:17" ht="45">
       <c r="A238" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A238" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E238),
@@ -23327,7 +23292,7 @@
       <c r="P238" s="48"/>
       <c r="Q238" s="48"/>
     </row>
-    <row r="239" spans="1:17" ht="44">
+    <row r="239" spans="1:17" ht="45">
       <c r="A239" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A239" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E239),
@@ -23361,7 +23326,7 @@
       <c r="P239" s="48"/>
       <c r="Q239" s="48"/>
     </row>
-    <row r="240" spans="1:17" ht="33">
+    <row r="240" spans="1:17" ht="33.75">
       <c r="A240" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A240" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E240),
@@ -23395,7 +23360,7 @@
       <c r="P240" s="48"/>
       <c r="Q240" s="48"/>
     </row>
-    <row r="241" spans="1:17" ht="33">
+    <row r="241" spans="1:17" ht="33.75">
       <c r="A241" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A241" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E241),
@@ -23431,7 +23396,7 @@
       <c r="P241" s="48"/>
       <c r="Q241" s="48"/>
     </row>
-    <row r="242" spans="1:17" ht="33">
+    <row r="242" spans="1:17" ht="33.75">
       <c r="A242" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A242" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E242),
@@ -23471,7 +23436,7 @@
       <c r="P242" s="48"/>
       <c r="Q242" s="48"/>
     </row>
-    <row r="243" spans="1:17" ht="22">
+    <row r="243" spans="1:17" ht="22.5">
       <c r="A243" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A243" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E243),
@@ -23513,7 +23478,7 @@
       <c r="P243" s="48"/>
       <c r="Q243" s="48"/>
     </row>
-    <row r="244" spans="1:17" ht="22">
+    <row r="244" spans="1:17" ht="22.5">
       <c r="A244" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A244" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E244),
@@ -23547,7 +23512,7 @@
       <c r="P244" s="48"/>
       <c r="Q244" s="48"/>
     </row>
-    <row r="245" spans="1:17" ht="33">
+    <row r="245" spans="1:17" ht="33.75">
       <c r="A245" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A245" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E245),
@@ -23585,7 +23550,7 @@
       <c r="P245" s="48"/>
       <c r="Q245" s="48"/>
     </row>
-    <row r="246" spans="1:17" ht="33">
+    <row r="246" spans="1:17" ht="33.75">
       <c r="A246" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A246" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E246),
@@ -23619,7 +23584,7 @@
       <c r="P246" s="48"/>
       <c r="Q246" s="48"/>
     </row>
-    <row r="247" spans="1:17" ht="33">
+    <row r="247" spans="1:17" ht="33.75">
       <c r="A247" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A247" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E247),
@@ -23659,7 +23624,7 @@
       <c r="P247" s="48"/>
       <c r="Q247" s="48"/>
     </row>
-    <row r="248" spans="1:17" ht="33">
+    <row r="248" spans="1:17" ht="33.75">
       <c r="A248" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A248" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E248),
@@ -23695,7 +23660,7 @@
       <c r="P248" s="48"/>
       <c r="Q248" s="48"/>
     </row>
-    <row r="249" spans="1:17" ht="33">
+    <row r="249" spans="1:17" ht="33.75">
       <c r="A249" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A249" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E249),
@@ -23731,7 +23696,7 @@
       <c r="P249" s="48"/>
       <c r="Q249" s="48"/>
     </row>
-    <row r="250" spans="1:17" ht="33">
+    <row r="250" spans="1:17" ht="33.75">
       <c r="A250" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A250" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E250),
@@ -23767,7 +23732,7 @@
       <c r="P250" s="48"/>
       <c r="Q250" s="48"/>
     </row>
-    <row r="251" spans="1:17" ht="22">
+    <row r="251" spans="1:17" ht="22.5">
       <c r="A251" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A251" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E251),
@@ -23805,7 +23770,7 @@
       <c r="P251" s="48"/>
       <c r="Q251" s="48"/>
     </row>
-    <row r="252" spans="1:17" ht="22">
+    <row r="252" spans="1:17" ht="22.5">
       <c r="A252" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A252" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E252),
@@ -23839,7 +23804,7 @@
       <c r="P252" s="48"/>
       <c r="Q252" s="48"/>
     </row>
-    <row r="253" spans="1:17" ht="33">
+    <row r="253" spans="1:17" ht="33.75">
       <c r="A253" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A253" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E253),
@@ -23875,7 +23840,7 @@
       <c r="P253" s="48"/>
       <c r="Q253" s="48"/>
     </row>
-    <row r="254" spans="1:17" ht="33">
+    <row r="254" spans="1:17" ht="33.75">
       <c r="A254" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A254" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E254),
@@ -23909,7 +23874,7 @@
       <c r="P254" s="48"/>
       <c r="Q254" s="48"/>
     </row>
-    <row r="255" spans="1:17" ht="33">
+    <row r="255" spans="1:17" ht="33.75">
       <c r="A255" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A255" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E255),
@@ -23943,7 +23908,7 @@
       <c r="P255" s="48"/>
       <c r="Q255" s="48"/>
     </row>
-    <row r="256" spans="1:17" ht="33">
+    <row r="256" spans="1:17" ht="33.75">
       <c r="A256" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A256" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E256),
@@ -23977,7 +23942,7 @@
       <c r="P256" s="48"/>
       <c r="Q256" s="48"/>
     </row>
-    <row r="257" spans="1:17" ht="33">
+    <row r="257" spans="1:17" ht="33.75">
       <c r="A257" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A257" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E257),
@@ -24011,7 +23976,7 @@
       <c r="P257" s="48"/>
       <c r="Q257" s="48"/>
     </row>
-    <row r="258" spans="1:17" ht="22">
+    <row r="258" spans="1:17" ht="22.5">
       <c r="A258" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A258" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E258),
@@ -24045,7 +24010,7 @@
       <c r="P258" s="48"/>
       <c r="Q258" s="48"/>
     </row>
-    <row r="259" spans="1:17" ht="22">
+    <row r="259" spans="1:17" ht="22.5">
       <c r="A259" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A259" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E259),
@@ -24079,7 +24044,7 @@
       <c r="P259" s="48"/>
       <c r="Q259" s="48"/>
     </row>
-    <row r="260" spans="1:17" ht="33">
+    <row r="260" spans="1:17" ht="33.75">
       <c r="A260" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A260" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E260),
@@ -24113,7 +24078,7 @@
       <c r="P260" s="48"/>
       <c r="Q260" s="48"/>
     </row>
-    <row r="261" spans="1:17" ht="33">
+    <row r="261" spans="1:17" ht="33.75">
       <c r="A261" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A261" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E261),
@@ -24147,7 +24112,7 @@
       <c r="P261" s="48"/>
       <c r="Q261" s="48"/>
     </row>
-    <row r="262" spans="1:17" ht="33">
+    <row r="262" spans="1:17" ht="33.75">
       <c r="A262" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A262" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E262),
@@ -24181,7 +24146,7 @@
       <c r="P262" s="48"/>
       <c r="Q262" s="48"/>
     </row>
-    <row r="263" spans="1:17" ht="33">
+    <row r="263" spans="1:17" ht="33.75">
       <c r="A263" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A263" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E263),
@@ -24285,7 +24250,7 @@
       <c r="P265" s="48"/>
       <c r="Q265" s="48"/>
     </row>
-    <row r="266" spans="1:17" ht="22">
+    <row r="266" spans="1:17" ht="22.5">
       <c r="A266" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A266" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E266),
@@ -24319,7 +24284,7 @@
       <c r="P266" s="48"/>
       <c r="Q266" s="48"/>
     </row>
-    <row r="267" spans="1:17" ht="22">
+    <row r="267" spans="1:17" ht="22.5">
       <c r="A267" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A267" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E267),
@@ -24353,7 +24318,7 @@
       <c r="P267" s="48"/>
       <c r="Q267" s="48"/>
     </row>
-    <row r="268" spans="1:17" ht="22">
+    <row r="268" spans="1:17" ht="22.5">
       <c r="A268" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A268" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E268),
@@ -24387,7 +24352,7 @@
       <c r="P268" s="48"/>
       <c r="Q268" s="48"/>
     </row>
-    <row r="269" spans="1:17" ht="33">
+    <row r="269" spans="1:17" ht="33.75">
       <c r="A269" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A269" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E269),
@@ -24421,7 +24386,7 @@
       <c r="P269" s="48"/>
       <c r="Q269" s="48"/>
     </row>
-    <row r="270" spans="1:17" ht="22">
+    <row r="270" spans="1:17" ht="22.5">
       <c r="A270" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A270" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E270),
@@ -24457,7 +24422,7 @@
       <c r="P270" s="48"/>
       <c r="Q270" s="48"/>
     </row>
-    <row r="271" spans="1:17" ht="33">
+    <row r="271" spans="1:17" ht="33.75">
       <c r="A271" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A271" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E271),
@@ -24491,7 +24456,7 @@
       <c r="P271" s="48"/>
       <c r="Q271" s="48"/>
     </row>
-    <row r="272" spans="1:17" ht="44">
+    <row r="272" spans="1:17" ht="45">
       <c r="A272" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A272" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E272),
@@ -24525,7 +24490,7 @@
       <c r="P272" s="48"/>
       <c r="Q272" s="48"/>
     </row>
-    <row r="273" spans="1:17" ht="44">
+    <row r="273" spans="1:17" ht="45">
       <c r="A273" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A273" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E273),
@@ -24559,7 +24524,7 @@
       <c r="P273" s="48"/>
       <c r="Q273" s="48"/>
     </row>
-    <row r="274" spans="1:17" ht="22">
+    <row r="274" spans="1:17" ht="22.5">
       <c r="A274" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A274" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E274),
@@ -24593,7 +24558,7 @@
       <c r="P274" s="48"/>
       <c r="Q274" s="48"/>
     </row>
-    <row r="275" spans="1:17" ht="44">
+    <row r="275" spans="1:17" ht="45">
       <c r="A275" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A275" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E275),
@@ -24627,7 +24592,7 @@
       <c r="P275" s="48"/>
       <c r="Q275" s="48"/>
     </row>
-    <row r="276" spans="1:17" ht="44">
+    <row r="276" spans="1:17" ht="45">
       <c r="A276" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A276" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E276),
@@ -24661,7 +24626,7 @@
       <c r="P276" s="48"/>
       <c r="Q276" s="48"/>
     </row>
-    <row r="277" spans="1:17" ht="22">
+    <row r="277" spans="1:17" ht="22.5">
       <c r="A277" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A277" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E277),
@@ -24695,7 +24660,7 @@
       <c r="P277" s="48"/>
       <c r="Q277" s="48"/>
     </row>
-    <row r="278" spans="1:17" ht="22">
+    <row r="278" spans="1:17" ht="22.5">
       <c r="A278" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A278" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E278),
@@ -24731,7 +24696,7 @@
       <c r="P278" s="48"/>
       <c r="Q278" s="48"/>
     </row>
-    <row r="279" spans="1:17" ht="22">
+    <row r="279" spans="1:17" ht="22.5">
       <c r="A279" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A279" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E279),
@@ -24773,7 +24738,7 @@
       <c r="P279" s="85"/>
       <c r="Q279" s="85"/>
     </row>
-    <row r="280" spans="1:17" ht="22">
+    <row r="280" spans="1:17" ht="22.5">
       <c r="A280" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A280" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E280),
@@ -24807,7 +24772,7 @@
       <c r="P280" s="85"/>
       <c r="Q280" s="85"/>
     </row>
-    <row r="281" spans="1:17" ht="22">
+    <row r="281" spans="1:17" ht="22.5">
       <c r="A281" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A281" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E281),
@@ -24841,7 +24806,7 @@
       <c r="P281" s="85"/>
       <c r="Q281" s="85"/>
     </row>
-    <row r="282" spans="1:17" ht="22">
+    <row r="282" spans="1:17" ht="22.5">
       <c r="A282" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A282" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E282),
@@ -24875,7 +24840,7 @@
       <c r="P282" s="85"/>
       <c r="Q282" s="85"/>
     </row>
-    <row r="283" spans="1:17" ht="22">
+    <row r="283" spans="1:17" ht="22.5">
       <c r="A283" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A283" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E283),
@@ -24915,7 +24880,7 @@
       <c r="P283" s="85"/>
       <c r="Q283" s="85"/>
     </row>
-    <row r="284" spans="1:17" ht="22">
+    <row r="284" spans="1:17" ht="22.5">
       <c r="A284" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A284" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E284),
@@ -24951,7 +24916,7 @@
       <c r="P284" s="85"/>
       <c r="Q284" s="85"/>
     </row>
-    <row r="285" spans="1:17" ht="22">
+    <row r="285" spans="1:17" ht="22.5">
       <c r="A285" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A285" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E285),
@@ -24987,7 +24952,7 @@
       <c r="P285" s="85"/>
       <c r="Q285" s="85"/>
     </row>
-    <row r="286" spans="1:17" ht="22">
+    <row r="286" spans="1:17" ht="22.5">
       <c r="A286" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A286" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E286),
@@ -25023,7 +24988,7 @@
       <c r="P286" s="85"/>
       <c r="Q286" s="85"/>
     </row>
-    <row r="287" spans="1:17" ht="22">
+    <row r="287" spans="1:17" ht="22.5">
       <c r="A287" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A287" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E287),
@@ -25061,7 +25026,7 @@
       <c r="P287" s="85"/>
       <c r="Q287" s="85"/>
     </row>
-    <row r="288" spans="1:17" ht="22">
+    <row r="288" spans="1:17" ht="22.5">
       <c r="A288" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A288" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E288),
@@ -25095,7 +25060,7 @@
       <c r="P288" s="85"/>
       <c r="Q288" s="85"/>
     </row>
-    <row r="289" spans="1:17" ht="33">
+    <row r="289" spans="1:17" ht="33.75">
       <c r="A289" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A289" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E289),
@@ -25129,7 +25094,7 @@
       <c r="P289" s="85"/>
       <c r="Q289" s="85"/>
     </row>
-    <row r="290" spans="1:17" ht="33">
+    <row r="290" spans="1:17" ht="33.75">
       <c r="A290" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A290" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E290),
@@ -25163,7 +25128,7 @@
       <c r="P290" s="85"/>
       <c r="Q290" s="85"/>
     </row>
-    <row r="291" spans="1:17" ht="33">
+    <row r="291" spans="1:17" ht="33.75">
       <c r="A291" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A291" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E291),
@@ -25197,7 +25162,7 @@
       <c r="P291" s="85"/>
       <c r="Q291" s="85"/>
     </row>
-    <row r="292" spans="1:17" ht="33">
+    <row r="292" spans="1:17" ht="33.75">
       <c r="A292" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A292" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E292),
@@ -25231,7 +25196,7 @@
       <c r="P292" s="85"/>
       <c r="Q292" s="85"/>
     </row>
-    <row r="293" spans="1:17" ht="33">
+    <row r="293" spans="1:17" ht="33.75">
       <c r="A293" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A293" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E293),
@@ -25265,7 +25230,7 @@
       <c r="P293" s="85"/>
       <c r="Q293" s="85"/>
     </row>
-    <row r="294" spans="1:17" ht="22">
+    <row r="294" spans="1:17" ht="22.5">
       <c r="A294" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A294" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E294),
@@ -25299,7 +25264,7 @@
       <c r="P294" s="85"/>
       <c r="Q294" s="85"/>
     </row>
-    <row r="295" spans="1:17" ht="22">
+    <row r="295" spans="1:17" ht="22.5">
       <c r="A295" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A295" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E295),
@@ -25347,7 +25312,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="59" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;"ＭＳ 明朝,標準"&amp;9- &amp;P -</oddFooter>
   </headerFooter>
@@ -25369,18 +25334,18 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="2" width="8.58203125" style="24" customWidth="1"/>
-    <col min="3" max="5" width="8.58203125" style="25" customWidth="1"/>
-    <col min="6" max="6" width="40.58203125" style="25" customWidth="1"/>
-    <col min="7" max="7" width="40.58203125" style="55" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="15.58203125" style="61" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.58203125" style="61" customWidth="1"/>
-    <col min="10" max="10" width="25.58203125" style="66" customWidth="1"/>
-    <col min="11" max="11" width="25.58203125" style="67" customWidth="1"/>
-    <col min="12" max="12" width="12.58203125" style="24" customWidth="1"/>
-    <col min="13" max="17" width="8.58203125" style="24" customWidth="1"/>
+    <col min="1" max="2" width="8.625" style="24" customWidth="1"/>
+    <col min="3" max="5" width="8.625" style="25" customWidth="1"/>
+    <col min="6" max="6" width="40.625" style="25" customWidth="1"/>
+    <col min="7" max="7" width="40.625" style="55" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="15.625" style="61" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.625" style="61" customWidth="1"/>
+    <col min="10" max="10" width="25.625" style="66" customWidth="1"/>
+    <col min="11" max="11" width="25.625" style="67" customWidth="1"/>
+    <col min="12" max="12" width="12.625" style="24" customWidth="1"/>
+    <col min="13" max="17" width="8.625" style="24" customWidth="1"/>
     <col min="18" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
@@ -25421,7 +25386,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="24" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
@@ -25434,9 +25399,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="11.5" thickBot="1">
+    <row r="8" spans="1:17" ht="12" thickBot="1">
       <c r="A8" s="26" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B8" s="26"/>
       <c r="C8" s="27"/>
@@ -25455,7 +25420,7 @@
       <c r="P8" s="26"/>
       <c r="Q8" s="26"/>
     </row>
-    <row r="9" spans="1:17" ht="11.5" thickTop="1"/>
+    <row r="9" spans="1:17" ht="12" thickTop="1"/>
     <row r="10" spans="1:17" s="30" customFormat="1">
       <c r="A10" s="28" t="s">
         <v>32</v>
@@ -25509,7 +25474,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="22">
+    <row r="11" spans="1:17" ht="22.5">
       <c r="A11" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A11" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E11),
@@ -25551,7 +25516,7 @@
       <c r="P11" s="86"/>
       <c r="Q11" s="86"/>
     </row>
-    <row r="12" spans="1:17" ht="22">
+    <row r="12" spans="1:17" ht="22.5">
       <c r="A12" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A12" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E12),
@@ -25587,7 +25552,7 @@
       <c r="P12" s="86"/>
       <c r="Q12" s="86"/>
     </row>
-    <row r="13" spans="1:17" ht="33">
+    <row r="13" spans="1:17" ht="33.75">
       <c r="A13" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A13" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E13),
@@ -25625,7 +25590,7 @@
       <c r="P13" s="86"/>
       <c r="Q13" s="86"/>
     </row>
-    <row r="14" spans="1:17" ht="22">
+    <row r="14" spans="1:17" ht="22.5">
       <c r="A14" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A14" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E14),
@@ -25659,7 +25624,7 @@
       <c r="P14" s="86"/>
       <c r="Q14" s="86"/>
     </row>
-    <row r="15" spans="1:17" ht="22">
+    <row r="15" spans="1:17" ht="22.5">
       <c r="A15" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A15" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E15),
@@ -25693,7 +25658,7 @@
       <c r="P15" s="86"/>
       <c r="Q15" s="86"/>
     </row>
-    <row r="16" spans="1:17" ht="22">
+    <row r="16" spans="1:17" ht="22.5">
       <c r="A16" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A16" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E16),
@@ -25727,7 +25692,7 @@
       <c r="P16" s="86"/>
       <c r="Q16" s="86"/>
     </row>
-    <row r="17" spans="1:17" ht="33">
+    <row r="17" spans="1:17" ht="33.75">
       <c r="A17" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A17" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E17),
@@ -25761,7 +25726,7 @@
       <c r="P17" s="86"/>
       <c r="Q17" s="86"/>
     </row>
-    <row r="18" spans="1:17" ht="22">
+    <row r="18" spans="1:17" ht="22.5">
       <c r="A18" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A18" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E18),
@@ -25799,7 +25764,7 @@
       <c r="P18" s="86"/>
       <c r="Q18" s="86"/>
     </row>
-    <row r="19" spans="1:17" ht="22">
+    <row r="19" spans="1:17" ht="22.5">
       <c r="A19" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A19" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E19),
@@ -25833,7 +25798,7 @@
       <c r="P19" s="86"/>
       <c r="Q19" s="86"/>
     </row>
-    <row r="20" spans="1:17" ht="22">
+    <row r="20" spans="1:17" ht="22.5">
       <c r="A20" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A20" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E20),
@@ -25867,7 +25832,7 @@
       <c r="P20" s="86"/>
       <c r="Q20" s="86"/>
     </row>
-    <row r="21" spans="1:17" ht="22">
+    <row r="21" spans="1:17" ht="22.5">
       <c r="A21" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A21" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E21),
@@ -25903,7 +25868,7 @@
       <c r="P21" s="86"/>
       <c r="Q21" s="86"/>
     </row>
-    <row r="22" spans="1:17" ht="22">
+    <row r="22" spans="1:17" ht="22.5">
       <c r="A22" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A22" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E22),
@@ -25937,7 +25902,7 @@
       <c r="P22" s="86"/>
       <c r="Q22" s="86"/>
     </row>
-    <row r="23" spans="1:17" ht="22">
+    <row r="23" spans="1:17" ht="22.5">
       <c r="A23" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A23" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E23),
@@ -25971,7 +25936,7 @@
       <c r="P23" s="86"/>
       <c r="Q23" s="86"/>
     </row>
-    <row r="24" spans="1:17" ht="22">
+    <row r="24" spans="1:17" ht="22.5">
       <c r="A24" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A24" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E24),
@@ -26005,7 +25970,7 @@
       <c r="P24" s="86"/>
       <c r="Q24" s="86"/>
     </row>
-    <row r="25" spans="1:17" ht="22">
+    <row r="25" spans="1:17" ht="22.5">
       <c r="A25" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A25" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E25),
@@ -26077,7 +26042,7 @@
       <c r="P26" s="86"/>
       <c r="Q26" s="86"/>
     </row>
-    <row r="27" spans="1:17" ht="33">
+    <row r="27" spans="1:17" ht="33.75">
       <c r="A27" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A27" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E27),
@@ -26115,7 +26080,7 @@
       <c r="P27" s="86"/>
       <c r="Q27" s="86"/>
     </row>
-    <row r="28" spans="1:17" ht="22">
+    <row r="28" spans="1:17" ht="22.5">
       <c r="A28" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A28" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E28),
@@ -26149,7 +26114,7 @@
       <c r="P28" s="86"/>
       <c r="Q28" s="86"/>
     </row>
-    <row r="29" spans="1:17" ht="22">
+    <row r="29" spans="1:17" ht="22.5">
       <c r="A29" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A29" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E29),
@@ -26185,7 +26150,7 @@
       <c r="P29" s="86"/>
       <c r="Q29" s="86"/>
     </row>
-    <row r="30" spans="1:17" ht="22">
+    <row r="30" spans="1:17" ht="22.5">
       <c r="A30" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A30" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E30),
@@ -26219,7 +26184,7 @@
       <c r="P30" s="86"/>
       <c r="Q30" s="86"/>
     </row>
-    <row r="31" spans="1:17" ht="22">
+    <row r="31" spans="1:17" ht="22.5">
       <c r="A31" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A31" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E31),
@@ -26253,7 +26218,7 @@
       <c r="P31" s="86"/>
       <c r="Q31" s="86"/>
     </row>
-    <row r="32" spans="1:17" ht="22">
+    <row r="32" spans="1:17" ht="22.5">
       <c r="A32" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A32" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E32),
@@ -26287,7 +26252,7 @@
       <c r="P32" s="86"/>
       <c r="Q32" s="86"/>
     </row>
-    <row r="33" spans="1:17" ht="22">
+    <row r="33" spans="1:17" ht="22.5">
       <c r="A33" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A33" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E33),
@@ -26323,7 +26288,7 @@
       <c r="P33" s="86"/>
       <c r="Q33" s="86"/>
     </row>
-    <row r="34" spans="1:17" ht="22">
+    <row r="34" spans="1:17" ht="22.5">
       <c r="A34" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A34" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E34),
@@ -26357,7 +26322,7 @@
       <c r="P34" s="86"/>
       <c r="Q34" s="86"/>
     </row>
-    <row r="35" spans="1:17" ht="44">
+    <row r="35" spans="1:17" ht="45">
       <c r="A35" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A35" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E35),
@@ -26393,7 +26358,7 @@
       <c r="P35" s="86"/>
       <c r="Q35" s="86"/>
     </row>
-    <row r="36" spans="1:17" ht="33">
+    <row r="36" spans="1:17" ht="33.75">
       <c r="A36" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A36" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E36),
@@ -26433,7 +26398,7 @@
       <c r="P36" s="45"/>
       <c r="Q36" s="45"/>
     </row>
-    <row r="37" spans="1:17" ht="33">
+    <row r="37" spans="1:17" ht="33.75">
       <c r="A37" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A37" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E37),
@@ -26467,7 +26432,7 @@
       <c r="P37" s="45"/>
       <c r="Q37" s="45"/>
     </row>
-    <row r="38" spans="1:17" ht="22">
+    <row r="38" spans="1:17" ht="22.5">
       <c r="A38" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A38" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E38),
@@ -26501,7 +26466,7 @@
       <c r="P38" s="45"/>
       <c r="Q38" s="45"/>
     </row>
-    <row r="39" spans="1:17" ht="22">
+    <row r="39" spans="1:17" ht="22.5">
       <c r="A39" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A39" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E39),
@@ -26535,7 +26500,7 @@
       <c r="P39" s="45"/>
       <c r="Q39" s="45"/>
     </row>
-    <row r="40" spans="1:17" ht="55">
+    <row r="40" spans="1:17" ht="56.25">
       <c r="A40" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A40" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E40),
@@ -26579,7 +26544,7 @@
       <c r="P40" s="71"/>
       <c r="Q40" s="71"/>
     </row>
-    <row r="41" spans="1:17" ht="44">
+    <row r="41" spans="1:17" ht="45">
       <c r="A41" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A41" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E41),
@@ -26619,7 +26584,7 @@
       <c r="P41" s="71"/>
       <c r="Q41" s="71"/>
     </row>
-    <row r="42" spans="1:17" ht="44">
+    <row r="42" spans="1:17" ht="45">
       <c r="A42" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A42" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E42),
@@ -26657,7 +26622,7 @@
       <c r="P42" s="71"/>
       <c r="Q42" s="71"/>
     </row>
-    <row r="43" spans="1:17" ht="77">
+    <row r="43" spans="1:17" ht="78.75">
       <c r="A43" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A43" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E43),
@@ -26695,7 +26660,7 @@
       <c r="P43" s="71"/>
       <c r="Q43" s="71"/>
     </row>
-    <row r="44" spans="1:17" ht="77">
+    <row r="44" spans="1:17" ht="78.75">
       <c r="A44" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A44" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E44),
@@ -26733,7 +26698,7 @@
       <c r="P44" s="71"/>
       <c r="Q44" s="71"/>
     </row>
-    <row r="45" spans="1:17" ht="77">
+    <row r="45" spans="1:17" ht="78.75">
       <c r="A45" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A45" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E45),
@@ -26771,7 +26736,7 @@
       <c r="P45" s="71"/>
       <c r="Q45" s="71"/>
     </row>
-    <row r="46" spans="1:17" ht="77">
+    <row r="46" spans="1:17" ht="78.75">
       <c r="A46" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A46" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E46),
@@ -26809,7 +26774,7 @@
       <c r="P46" s="71"/>
       <c r="Q46" s="71"/>
     </row>
-    <row r="47" spans="1:17" ht="110">
+    <row r="47" spans="1:17" ht="112.5">
       <c r="A47" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A47" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E47),
@@ -26857,7 +26822,7 @@
       <c r="P47" s="71"/>
       <c r="Q47" s="71"/>
     </row>
-    <row r="48" spans="1:17" ht="99">
+    <row r="48" spans="1:17" ht="101.25">
       <c r="A48" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A48" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E48),
@@ -26897,7 +26862,7 @@
       <c r="P48" s="71"/>
       <c r="Q48" s="71"/>
     </row>
-    <row r="49" spans="1:17" ht="33">
+    <row r="49" spans="1:17" ht="33.75">
       <c r="A49" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A49" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E49),
@@ -26931,7 +26896,7 @@
       <c r="P49" s="86"/>
       <c r="Q49" s="86"/>
     </row>
-    <row r="50" spans="1:17" ht="22">
+    <row r="50" spans="1:17" ht="22.5">
       <c r="A50" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A50" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E50),
@@ -26967,7 +26932,7 @@
       <c r="P50" s="86"/>
       <c r="Q50" s="86"/>
     </row>
-    <row r="51" spans="1:17" ht="22">
+    <row r="51" spans="1:17" ht="22.5">
       <c r="A51" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A51" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E51),
@@ -27001,7 +26966,7 @@
       <c r="P51" s="86"/>
       <c r="Q51" s="86"/>
     </row>
-    <row r="52" spans="1:17" ht="33">
+    <row r="52" spans="1:17" ht="33.75">
       <c r="A52" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A52" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E52),
@@ -27035,7 +27000,7 @@
       <c r="P52" s="86"/>
       <c r="Q52" s="86"/>
     </row>
-    <row r="53" spans="1:17" ht="110">
+    <row r="53" spans="1:17" ht="112.5">
       <c r="A53" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A53" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E53),
@@ -27077,7 +27042,7 @@
       <c r="P53" s="71"/>
       <c r="Q53" s="71"/>
     </row>
-    <row r="54" spans="1:17" ht="110">
+    <row r="54" spans="1:17" ht="112.5">
       <c r="A54" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A54" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E54),
@@ -27115,7 +27080,7 @@
       <c r="P54" s="71"/>
       <c r="Q54" s="71"/>
     </row>
-    <row r="55" spans="1:17" ht="99">
+    <row r="55" spans="1:17" ht="101.25">
       <c r="A55" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A55" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E55),
@@ -27155,7 +27120,7 @@
       <c r="P55" s="71"/>
       <c r="Q55" s="71"/>
     </row>
-    <row r="56" spans="1:17" ht="110">
+    <row r="56" spans="1:17" ht="112.5">
       <c r="A56" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A56" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E56),
@@ -27193,7 +27158,7 @@
       <c r="P56" s="71"/>
       <c r="Q56" s="71"/>
     </row>
-    <row r="57" spans="1:17" ht="22">
+    <row r="57" spans="1:17" ht="22.5">
       <c r="A57" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A57" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E57),
@@ -27229,7 +27194,7 @@
       <c r="P57" s="86"/>
       <c r="Q57" s="86"/>
     </row>
-    <row r="58" spans="1:17" ht="22">
+    <row r="58" spans="1:17" ht="22.5">
       <c r="A58" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A58" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E58),
@@ -27263,7 +27228,7 @@
       <c r="P58" s="86"/>
       <c r="Q58" s="86"/>
     </row>
-    <row r="59" spans="1:17" ht="22">
+    <row r="59" spans="1:17" ht="22.5">
       <c r="A59" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A59" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E59),
@@ -27297,7 +27262,7 @@
       <c r="P59" s="86"/>
       <c r="Q59" s="86"/>
     </row>
-    <row r="60" spans="1:17" ht="22">
+    <row r="60" spans="1:17" ht="22.5">
       <c r="A60" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A60" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E60),
@@ -27331,7 +27296,7 @@
       <c r="P60" s="86"/>
       <c r="Q60" s="86"/>
     </row>
-    <row r="61" spans="1:17" ht="22">
+    <row r="61" spans="1:17" ht="22.5">
       <c r="A61" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A61" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E61),
@@ -27365,7 +27330,7 @@
       <c r="P61" s="86"/>
       <c r="Q61" s="86"/>
     </row>
-    <row r="62" spans="1:17" ht="22">
+    <row r="62" spans="1:17" ht="22.5">
       <c r="A62" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A62" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E62),
@@ -27399,7 +27364,7 @@
       <c r="P62" s="86"/>
       <c r="Q62" s="86"/>
     </row>
-    <row r="63" spans="1:17" ht="33">
+    <row r="63" spans="1:17" ht="33.75">
       <c r="A63" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A63" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E63),
@@ -27435,7 +27400,7 @@
       <c r="P63" s="86"/>
       <c r="Q63" s="86"/>
     </row>
-    <row r="64" spans="1:17" ht="22">
+    <row r="64" spans="1:17" ht="22.5">
       <c r="A64" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A64" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E64),
@@ -27471,7 +27436,7 @@
       <c r="P64" s="86"/>
       <c r="Q64" s="86"/>
     </row>
-    <row r="65" spans="1:17" ht="22">
+    <row r="65" spans="1:17" ht="22.5">
       <c r="A65" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A65" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E65),
@@ -27507,7 +27472,7 @@
       <c r="P65" s="86"/>
       <c r="Q65" s="86"/>
     </row>
-    <row r="66" spans="1:17" ht="22">
+    <row r="66" spans="1:17" ht="22.5">
       <c r="A66" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A66" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E66),
@@ -27545,7 +27510,7 @@
       <c r="P66" s="86"/>
       <c r="Q66" s="86"/>
     </row>
-    <row r="67" spans="1:17" ht="44">
+    <row r="67" spans="1:17" ht="45">
       <c r="A67" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A67" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E67),
@@ -27585,7 +27550,7 @@
       <c r="P67" s="71"/>
       <c r="Q67" s="71"/>
     </row>
-    <row r="68" spans="1:17" ht="22">
+    <row r="68" spans="1:17" ht="22.5">
       <c r="A68" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A68" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E68),
@@ -27623,7 +27588,7 @@
       <c r="P68" s="71"/>
       <c r="Q68" s="71"/>
     </row>
-    <row r="69" spans="1:17" ht="22">
+    <row r="69" spans="1:17" ht="22.5">
       <c r="A69" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A69" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E69),
@@ -27657,7 +27622,7 @@
       <c r="P69" s="86"/>
       <c r="Q69" s="86"/>
     </row>
-    <row r="70" spans="1:17" ht="22">
+    <row r="70" spans="1:17" ht="22.5">
       <c r="A70" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A70" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E70),
@@ -27691,7 +27656,7 @@
       <c r="P70" s="86"/>
       <c r="Q70" s="86"/>
     </row>
-    <row r="71" spans="1:17" ht="22">
+    <row r="71" spans="1:17" ht="22.5">
       <c r="A71" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A71" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E71),
@@ -27725,7 +27690,7 @@
       <c r="P71" s="86"/>
       <c r="Q71" s="86"/>
     </row>
-    <row r="72" spans="1:17" ht="33">
+    <row r="72" spans="1:17" ht="33.75">
       <c r="A72" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A72" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E72),
@@ -27761,7 +27726,7 @@
       <c r="P72" s="86"/>
       <c r="Q72" s="86"/>
     </row>
-    <row r="73" spans="1:17" ht="33">
+    <row r="73" spans="1:17" ht="33.75">
       <c r="A73" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A73" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E73),
@@ -27795,7 +27760,7 @@
       <c r="P73" s="86"/>
       <c r="Q73" s="86"/>
     </row>
-    <row r="74" spans="1:17" ht="33">
+    <row r="74" spans="1:17" ht="33.75">
       <c r="A74" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A74" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E74),
@@ -27829,7 +27794,7 @@
       <c r="P74" s="86"/>
       <c r="Q74" s="86"/>
     </row>
-    <row r="75" spans="1:17" ht="33">
+    <row r="75" spans="1:17" ht="33.75">
       <c r="A75" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A75" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E75),
@@ -27863,7 +27828,7 @@
       <c r="P75" s="86"/>
       <c r="Q75" s="86"/>
     </row>
-    <row r="76" spans="1:17" ht="33">
+    <row r="76" spans="1:17" ht="33.75">
       <c r="A76" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A76" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E76),
@@ -27897,7 +27862,7 @@
       <c r="P76" s="86"/>
       <c r="Q76" s="86"/>
     </row>
-    <row r="77" spans="1:17" ht="22">
+    <row r="77" spans="1:17" ht="22.5">
       <c r="A77" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A77" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E77),
@@ -27931,7 +27896,7 @@
       <c r="P77" s="86"/>
       <c r="Q77" s="86"/>
     </row>
-    <row r="78" spans="1:17" ht="22">
+    <row r="78" spans="1:17" ht="22.5">
       <c r="A78" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A78" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E78),
@@ -27965,7 +27930,7 @@
       <c r="P78" s="86"/>
       <c r="Q78" s="86"/>
     </row>
-    <row r="79" spans="1:17" ht="33">
+    <row r="79" spans="1:17" ht="33.75">
       <c r="A79" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A79" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E79),
@@ -27999,7 +27964,7 @@
       <c r="P79" s="86"/>
       <c r="Q79" s="86"/>
     </row>
-    <row r="80" spans="1:17" ht="33">
+    <row r="80" spans="1:17" ht="33.75">
       <c r="A80" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A80" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E80),
@@ -28041,7 +28006,7 @@
       <c r="P80" s="71"/>
       <c r="Q80" s="71"/>
     </row>
-    <row r="81" spans="1:17" ht="22">
+    <row r="81" spans="1:17" ht="22.5">
       <c r="A81" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A81" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E81),
@@ -28079,7 +28044,7 @@
       <c r="P81" s="71"/>
       <c r="Q81" s="71"/>
     </row>
-    <row r="82" spans="1:17" ht="22">
+    <row r="82" spans="1:17" ht="22.5">
       <c r="A82" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A82" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E82),
@@ -28117,7 +28082,7 @@
       <c r="P82" s="71"/>
       <c r="Q82" s="71"/>
     </row>
-    <row r="83" spans="1:17" ht="22">
+    <row r="83" spans="1:17" ht="22.5">
       <c r="A83" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A83" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E83),
@@ -28153,7 +28118,7 @@
       <c r="P83" s="86"/>
       <c r="Q83" s="86"/>
     </row>
-    <row r="84" spans="1:17" ht="22">
+    <row r="84" spans="1:17" ht="22.5">
       <c r="A84" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A84" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E84),
@@ -28187,7 +28152,7 @@
       <c r="P84" s="86"/>
       <c r="Q84" s="86"/>
     </row>
-    <row r="85" spans="1:17" ht="22">
+    <row r="85" spans="1:17" ht="22.5">
       <c r="A85" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A85" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E85),
@@ -28221,7 +28186,7 @@
       <c r="P85" s="86"/>
       <c r="Q85" s="86"/>
     </row>
-    <row r="86" spans="1:17" ht="22">
+    <row r="86" spans="1:17" ht="22.5">
       <c r="A86" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A86" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E86),
@@ -28255,7 +28220,7 @@
       <c r="P86" s="86"/>
       <c r="Q86" s="86"/>
     </row>
-    <row r="87" spans="1:17" ht="22">
+    <row r="87" spans="1:17" ht="22.5">
       <c r="A87" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A87" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E87),
@@ -28289,7 +28254,7 @@
       <c r="P87" s="86"/>
       <c r="Q87" s="86"/>
     </row>
-    <row r="88" spans="1:17" ht="110">
+    <row r="88" spans="1:17" ht="112.5">
       <c r="A88" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A88" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E88),
@@ -28335,7 +28300,7 @@
       <c r="P88" s="71"/>
       <c r="Q88" s="71"/>
     </row>
-    <row r="89" spans="1:17" ht="44">
+    <row r="89" spans="1:17" ht="45">
       <c r="A89" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A89" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E89),
@@ -28411,7 +28376,7 @@
       <c r="P90" s="86"/>
       <c r="Q90" s="86"/>
     </row>
-    <row r="91" spans="1:17" ht="33">
+    <row r="91" spans="1:17" ht="33.75">
       <c r="A91" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A91" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E91),
@@ -28447,7 +28412,7 @@
       <c r="P91" s="86"/>
       <c r="Q91" s="86"/>
     </row>
-    <row r="92" spans="1:17" ht="33">
+    <row r="92" spans="1:17" ht="33.75">
       <c r="A92" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A92" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E92),
@@ -28481,7 +28446,7 @@
       <c r="P92" s="86"/>
       <c r="Q92" s="86"/>
     </row>
-    <row r="93" spans="1:17" ht="22">
+    <row r="93" spans="1:17" ht="22.5">
       <c r="A93" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A93" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E93),
@@ -28517,7 +28482,7 @@
       <c r="P93" s="86"/>
       <c r="Q93" s="86"/>
     </row>
-    <row r="94" spans="1:17" ht="22">
+    <row r="94" spans="1:17" ht="22.5">
       <c r="A94" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A94" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E94),
@@ -28553,7 +28518,7 @@
       <c r="P94" s="86"/>
       <c r="Q94" s="86"/>
     </row>
-    <row r="95" spans="1:17" ht="22">
+    <row r="95" spans="1:17" ht="22.5">
       <c r="A95" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A95" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E95),
@@ -28629,7 +28594,7 @@
       <c r="P96" s="86"/>
       <c r="Q96" s="86"/>
     </row>
-    <row r="97" spans="1:17" ht="33">
+    <row r="97" spans="1:17" ht="33.75">
       <c r="A97" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A97" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E97),
@@ -28665,7 +28630,7 @@
       <c r="P97" s="86"/>
       <c r="Q97" s="86"/>
     </row>
-    <row r="98" spans="1:17" ht="99">
+    <row r="98" spans="1:17" ht="101.25">
       <c r="A98" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A98" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E98),
@@ -28711,7 +28676,7 @@
       <c r="P98" s="71"/>
       <c r="Q98" s="71"/>
     </row>
-    <row r="99" spans="1:17" ht="110">
+    <row r="99" spans="1:17" ht="112.5">
       <c r="A99" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A99" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E99),
@@ -28749,7 +28714,7 @@
       <c r="P99" s="71"/>
       <c r="Q99" s="71"/>
     </row>
-    <row r="100" spans="1:17" ht="33">
+    <row r="100" spans="1:17" ht="33.75">
       <c r="A100" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A100" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E100),
@@ -28783,7 +28748,7 @@
       <c r="P100" s="86"/>
       <c r="Q100" s="86"/>
     </row>
-    <row r="101" spans="1:17" ht="99">
+    <row r="101" spans="1:17" ht="101.25">
       <c r="A101" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A101" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E101),
@@ -28825,7 +28790,7 @@
       <c r="P101" s="71"/>
       <c r="Q101" s="71"/>
     </row>
-    <row r="102" spans="1:17" ht="33">
+    <row r="102" spans="1:17" ht="33.75">
       <c r="A102" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A102" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E102),
@@ -28861,7 +28826,7 @@
       <c r="P102" s="86"/>
       <c r="Q102" s="86"/>
     </row>
-    <row r="103" spans="1:17" ht="33">
+    <row r="103" spans="1:17" ht="33.75">
       <c r="A103" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A103" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E103),
@@ -28895,7 +28860,7 @@
       <c r="P103" s="86"/>
       <c r="Q103" s="86"/>
     </row>
-    <row r="104" spans="1:17" ht="33">
+    <row r="104" spans="1:17" ht="33.75">
       <c r="A104" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A104" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E104),
@@ -28931,7 +28896,7 @@
       <c r="P104" s="86"/>
       <c r="Q104" s="86"/>
     </row>
-    <row r="105" spans="1:17" ht="22">
+    <row r="105" spans="1:17" ht="22.5">
       <c r="A105" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A105" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E105),
@@ -28971,7 +28936,7 @@
       <c r="P105" s="86"/>
       <c r="Q105" s="86"/>
     </row>
-    <row r="106" spans="1:17" ht="33">
+    <row r="106" spans="1:17" ht="33.75">
       <c r="A106" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A106" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E106),
@@ -29039,7 +29004,7 @@
       <c r="P107" s="86"/>
       <c r="Q107" s="86"/>
     </row>
-    <row r="108" spans="1:17" ht="33">
+    <row r="108" spans="1:17" ht="33.75">
       <c r="A108" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A108" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E108),
@@ -29073,7 +29038,7 @@
       <c r="P108" s="86"/>
       <c r="Q108" s="86"/>
     </row>
-    <row r="109" spans="1:17" ht="33">
+    <row r="109" spans="1:17" ht="33.75">
       <c r="A109" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A109" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E109),
@@ -29107,7 +29072,7 @@
       <c r="P109" s="86"/>
       <c r="Q109" s="86"/>
     </row>
-    <row r="110" spans="1:17" ht="22">
+    <row r="110" spans="1:17" ht="22.5">
       <c r="A110" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A110" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E110),
@@ -29143,7 +29108,7 @@
       <c r="P110" s="86"/>
       <c r="Q110" s="86"/>
     </row>
-    <row r="111" spans="1:17" ht="33">
+    <row r="111" spans="1:17" ht="33.75">
       <c r="A111" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A111" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E111),
@@ -29211,7 +29176,7 @@
       <c r="P112" s="86"/>
       <c r="Q112" s="86"/>
     </row>
-    <row r="113" spans="1:17" ht="33">
+    <row r="113" spans="1:17" ht="33.75">
       <c r="A113" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A113" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E113),
@@ -29245,7 +29210,7 @@
       <c r="P113" s="86"/>
       <c r="Q113" s="86"/>
     </row>
-    <row r="114" spans="1:17" ht="33">
+    <row r="114" spans="1:17" ht="33.75">
       <c r="A114" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A114" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E114),
@@ -29279,7 +29244,7 @@
       <c r="P114" s="86"/>
       <c r="Q114" s="86"/>
     </row>
-    <row r="115" spans="1:17" ht="33">
+    <row r="115" spans="1:17" ht="33.75">
       <c r="A115" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A115" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E115),
@@ -29315,7 +29280,7 @@
       <c r="P115" s="86"/>
       <c r="Q115" s="86"/>
     </row>
-    <row r="116" spans="1:17" ht="33">
+    <row r="116" spans="1:17" ht="33.75">
       <c r="A116" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A116" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E116),
@@ -29431,7 +29396,7 @@
       <c r="P118" s="86"/>
       <c r="Q118" s="86"/>
     </row>
-    <row r="119" spans="1:17" ht="22">
+    <row r="119" spans="1:17" ht="22.5">
       <c r="A119" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A119" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E119),
@@ -29471,7 +29436,7 @@
       <c r="P119" s="86"/>
       <c r="Q119" s="86"/>
     </row>
-    <row r="120" spans="1:17" ht="22">
+    <row r="120" spans="1:17" ht="22.5">
       <c r="A120" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A120" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E120),
@@ -29511,7 +29476,7 @@
       <c r="P120" s="86"/>
       <c r="Q120" s="86"/>
     </row>
-    <row r="121" spans="1:17" ht="22">
+    <row r="121" spans="1:17" ht="22.5">
       <c r="A121" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A121" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E121),
@@ -29545,7 +29510,7 @@
       <c r="P121" s="86"/>
       <c r="Q121" s="86"/>
     </row>
-    <row r="122" spans="1:17" ht="22">
+    <row r="122" spans="1:17" ht="22.5">
       <c r="A122" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A122" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E122),
@@ -29587,7 +29552,7 @@
       <c r="P122" s="86"/>
       <c r="Q122" s="86"/>
     </row>
-    <row r="123" spans="1:17" ht="22">
+    <row r="123" spans="1:17" ht="22.5">
       <c r="A123" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A123" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E123),
@@ -29623,7 +29588,7 @@
       <c r="P123" s="86"/>
       <c r="Q123" s="86"/>
     </row>
-    <row r="124" spans="1:17" ht="22">
+    <row r="124" spans="1:17" ht="22.5">
       <c r="A124" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A124" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E124),
@@ -29657,7 +29622,7 @@
       <c r="P124" s="86"/>
       <c r="Q124" s="86"/>
     </row>
-    <row r="125" spans="1:17" ht="22">
+    <row r="125" spans="1:17" ht="22.5">
       <c r="A125" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A125" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E125),
@@ -29691,7 +29656,7 @@
       <c r="P125" s="86"/>
       <c r="Q125" s="86"/>
     </row>
-    <row r="126" spans="1:17" ht="22">
+    <row r="126" spans="1:17" ht="22.5">
       <c r="A126" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A126" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E126),
@@ -29727,7 +29692,7 @@
       <c r="P126" s="86"/>
       <c r="Q126" s="86"/>
     </row>
-    <row r="127" spans="1:17" ht="22">
+    <row r="127" spans="1:17" ht="22.5">
       <c r="A127" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A127" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E127),
@@ -29761,7 +29726,7 @@
       <c r="P127" s="86"/>
       <c r="Q127" s="86"/>
     </row>
-    <row r="128" spans="1:17" ht="22">
+    <row r="128" spans="1:17" ht="22.5">
       <c r="A128" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A128" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E128),
@@ -29795,7 +29760,7 @@
       <c r="P128" s="86"/>
       <c r="Q128" s="86"/>
     </row>
-    <row r="129" spans="1:17" ht="22">
+    <row r="129" spans="1:17" ht="22.5">
       <c r="A129" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A129" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E129),
@@ -29829,7 +29794,7 @@
       <c r="P129" s="86"/>
       <c r="Q129" s="86"/>
     </row>
-    <row r="130" spans="1:17" ht="33">
+    <row r="130" spans="1:17" ht="33.75">
       <c r="A130" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A130" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E130),
@@ -29863,7 +29828,7 @@
       <c r="P130" s="86"/>
       <c r="Q130" s="86"/>
     </row>
-    <row r="131" spans="1:17" ht="33">
+    <row r="131" spans="1:17" ht="33.75">
       <c r="A131" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A131" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E131),
@@ -29899,7 +29864,7 @@
       <c r="P131" s="86"/>
       <c r="Q131" s="86"/>
     </row>
-    <row r="132" spans="1:17" ht="33">
+    <row r="132" spans="1:17" ht="33.75">
       <c r="A132" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A132" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E132),
@@ -29933,7 +29898,7 @@
       <c r="P132" s="86"/>
       <c r="Q132" s="86"/>
     </row>
-    <row r="133" spans="1:17" ht="44">
+    <row r="133" spans="1:17" ht="45">
       <c r="A133" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A133" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E133),
@@ -29967,7 +29932,7 @@
       <c r="P133" s="86"/>
       <c r="Q133" s="86"/>
     </row>
-    <row r="134" spans="1:17" ht="44">
+    <row r="134" spans="1:17" ht="45">
       <c r="A134" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A134" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E134),
@@ -30001,7 +29966,7 @@
       <c r="P134" s="86"/>
       <c r="Q134" s="86"/>
     </row>
-    <row r="135" spans="1:17" ht="33">
+    <row r="135" spans="1:17" ht="33.75">
       <c r="A135" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A135" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E135),
@@ -30035,7 +30000,7 @@
       <c r="P135" s="86"/>
       <c r="Q135" s="86"/>
     </row>
-    <row r="136" spans="1:17" ht="33">
+    <row r="136" spans="1:17" ht="33.75">
       <c r="A136" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A136" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E136),
@@ -30071,7 +30036,7 @@
       <c r="P136" s="86"/>
       <c r="Q136" s="86"/>
     </row>
-    <row r="137" spans="1:17" ht="33">
+    <row r="137" spans="1:17" ht="33.75">
       <c r="A137" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A137" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E137),
@@ -30109,7 +30074,7 @@
       <c r="P137" s="86"/>
       <c r="Q137" s="86"/>
     </row>
-    <row r="138" spans="1:17" ht="33">
+    <row r="138" spans="1:17" ht="33.75">
       <c r="A138" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A138" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E138),
@@ -30149,7 +30114,7 @@
       <c r="P138" s="86"/>
       <c r="Q138" s="86"/>
     </row>
-    <row r="139" spans="1:17" ht="22">
+    <row r="139" spans="1:17" ht="22.5">
       <c r="A139" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A139" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E139),
@@ -30185,7 +30150,7 @@
       <c r="P139" s="86"/>
       <c r="Q139" s="86"/>
     </row>
-    <row r="140" spans="1:17" ht="22">
+    <row r="140" spans="1:17" ht="22.5">
       <c r="A140" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A140" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E140),
@@ -30219,7 +30184,7 @@
       <c r="P140" s="86"/>
       <c r="Q140" s="86"/>
     </row>
-    <row r="141" spans="1:17" ht="44">
+    <row r="141" spans="1:17" ht="45">
       <c r="A141" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A141" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E141),
@@ -30253,7 +30218,7 @@
       <c r="P141" s="86"/>
       <c r="Q141" s="86"/>
     </row>
-    <row r="142" spans="1:17" ht="22">
+    <row r="142" spans="1:17" ht="22.5">
       <c r="A142" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A142" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E142),
@@ -30295,7 +30260,7 @@
       <c r="P142" s="86"/>
       <c r="Q142" s="86"/>
     </row>
-    <row r="143" spans="1:17" ht="22">
+    <row r="143" spans="1:17" ht="22.5">
       <c r="A143" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A143" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E143),
@@ -30331,7 +30296,7 @@
       <c r="P143" s="86"/>
       <c r="Q143" s="86"/>
     </row>
-    <row r="144" spans="1:17" ht="22">
+    <row r="144" spans="1:17" ht="22.5">
       <c r="A144" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A144" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E144),
@@ -30365,7 +30330,7 @@
       <c r="P144" s="86"/>
       <c r="Q144" s="86"/>
     </row>
-    <row r="145" spans="1:17" ht="22">
+    <row r="145" spans="1:17" ht="22.5">
       <c r="A145" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A145" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E145),
@@ -30399,7 +30364,7 @@
       <c r="P145" s="86"/>
       <c r="Q145" s="86"/>
     </row>
-    <row r="146" spans="1:17" ht="22">
+    <row r="146" spans="1:17" ht="22.5">
       <c r="A146" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A146" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E146),
@@ -30435,7 +30400,7 @@
       <c r="P146" s="86"/>
       <c r="Q146" s="86"/>
     </row>
-    <row r="147" spans="1:17" ht="33">
+    <row r="147" spans="1:17" ht="33.75">
       <c r="A147" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A147" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E147),
@@ -30469,7 +30434,7 @@
       <c r="P147" s="86"/>
       <c r="Q147" s="86"/>
     </row>
-    <row r="148" spans="1:17" ht="33">
+    <row r="148" spans="1:17" ht="33.75">
       <c r="A148" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A148" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E148),
@@ -30507,7 +30472,7 @@
       <c r="P148" s="86"/>
       <c r="Q148" s="86"/>
     </row>
-    <row r="149" spans="1:17" ht="33">
+    <row r="149" spans="1:17" ht="33.75">
       <c r="A149" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A149" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E149),
@@ -30547,7 +30512,7 @@
       <c r="P149" s="86"/>
       <c r="Q149" s="86"/>
     </row>
-    <row r="150" spans="1:17" ht="33">
+    <row r="150" spans="1:17" ht="33.75">
       <c r="A150" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A150" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E150),
@@ -30583,7 +30548,7 @@
       <c r="P150" s="86"/>
       <c r="Q150" s="86"/>
     </row>
-    <row r="151" spans="1:17" ht="33">
+    <row r="151" spans="1:17" ht="33.75">
       <c r="A151" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A151" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E151),
@@ -30619,7 +30584,7 @@
       <c r="P151" s="86"/>
       <c r="Q151" s="86"/>
     </row>
-    <row r="152" spans="1:17" ht="33">
+    <row r="152" spans="1:17" ht="33.75">
       <c r="A152" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A152" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E152),
@@ -30655,7 +30620,7 @@
       <c r="P152" s="86"/>
       <c r="Q152" s="86"/>
     </row>
-    <row r="153" spans="1:17" ht="33">
+    <row r="153" spans="1:17" ht="33.75">
       <c r="A153" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A153" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E153),
@@ -30691,7 +30656,7 @@
       <c r="P153" s="86"/>
       <c r="Q153" s="86"/>
     </row>
-    <row r="154" spans="1:17" ht="22">
+    <row r="154" spans="1:17" ht="22.5">
       <c r="A154" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A154" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E154),
@@ -30727,7 +30692,7 @@
       <c r="P154" s="86"/>
       <c r="Q154" s="86"/>
     </row>
-    <row r="155" spans="1:17" ht="22">
+    <row r="155" spans="1:17" ht="22.5">
       <c r="A155" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A155" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E155),
@@ -30761,7 +30726,7 @@
       <c r="P155" s="86"/>
       <c r="Q155" s="86"/>
     </row>
-    <row r="156" spans="1:17" ht="22">
+    <row r="156" spans="1:17" ht="22.5">
       <c r="A156" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A156" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E156),
@@ -30795,7 +30760,7 @@
       <c r="P156" s="86"/>
       <c r="Q156" s="86"/>
     </row>
-    <row r="157" spans="1:17" ht="22">
+    <row r="157" spans="1:17" ht="22.5">
       <c r="A157" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A157" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E157),
@@ -30829,7 +30794,7 @@
       <c r="P157" s="86"/>
       <c r="Q157" s="86"/>
     </row>
-    <row r="158" spans="1:17" ht="22">
+    <row r="158" spans="1:17" ht="22.5">
       <c r="A158" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A158" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E158),
@@ -30863,7 +30828,7 @@
       <c r="P158" s="86"/>
       <c r="Q158" s="86"/>
     </row>
-    <row r="159" spans="1:17" ht="22">
+    <row r="159" spans="1:17" ht="22.5">
       <c r="A159" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A159" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E159),
@@ -30897,7 +30862,7 @@
       <c r="P159" s="86"/>
       <c r="Q159" s="86"/>
     </row>
-    <row r="160" spans="1:17" ht="22">
+    <row r="160" spans="1:17" ht="22.5">
       <c r="A160" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A160" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E160),
@@ -30935,7 +30900,7 @@
       <c r="P160" s="86"/>
       <c r="Q160" s="86"/>
     </row>
-    <row r="161" spans="1:17" ht="22">
+    <row r="161" spans="1:17" ht="22.5">
       <c r="A161" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A161" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E161),
@@ -30969,7 +30934,7 @@
       <c r="P161" s="86"/>
       <c r="Q161" s="86"/>
     </row>
-    <row r="162" spans="1:17" ht="33">
+    <row r="162" spans="1:17" ht="33.75">
       <c r="A162" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A162" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E162),
@@ -31005,7 +30970,7 @@
       <c r="P162" s="86"/>
       <c r="Q162" s="86"/>
     </row>
-    <row r="163" spans="1:17" ht="33">
+    <row r="163" spans="1:17" ht="33.75">
       <c r="A163" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A163" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E163),
@@ -31039,7 +31004,7 @@
       <c r="P163" s="86"/>
       <c r="Q163" s="86"/>
     </row>
-    <row r="164" spans="1:17" ht="33">
+    <row r="164" spans="1:17" ht="33.75">
       <c r="A164" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A164" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E164),
@@ -31073,7 +31038,7 @@
       <c r="P164" s="86"/>
       <c r="Q164" s="86"/>
     </row>
-    <row r="165" spans="1:17" ht="33">
+    <row r="165" spans="1:17" ht="33.75">
       <c r="A165" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A165" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E165),
@@ -31107,7 +31072,7 @@
       <c r="P165" s="86"/>
       <c r="Q165" s="86"/>
     </row>
-    <row r="166" spans="1:17" ht="33">
+    <row r="166" spans="1:17" ht="33.75">
       <c r="A166" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A166" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E166),
@@ -31141,7 +31106,7 @@
       <c r="P166" s="86"/>
       <c r="Q166" s="86"/>
     </row>
-    <row r="167" spans="1:17" ht="22">
+    <row r="167" spans="1:17" ht="22.5">
       <c r="A167" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A167" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E167),
@@ -31175,7 +31140,7 @@
       <c r="P167" s="86"/>
       <c r="Q167" s="86"/>
     </row>
-    <row r="168" spans="1:17" ht="22">
+    <row r="168" spans="1:17" ht="22.5">
       <c r="A168" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A168" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E168),
@@ -31209,7 +31174,7 @@
       <c r="P168" s="86"/>
       <c r="Q168" s="86"/>
     </row>
-    <row r="169" spans="1:17" ht="33">
+    <row r="169" spans="1:17" ht="33.75">
       <c r="A169" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A169" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E169),
@@ -31243,7 +31208,7 @@
       <c r="P169" s="86"/>
       <c r="Q169" s="86"/>
     </row>
-    <row r="170" spans="1:17" ht="33">
+    <row r="170" spans="1:17" ht="33.75">
       <c r="A170" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A170" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E170),
@@ -31277,7 +31242,7 @@
       <c r="P170" s="86"/>
       <c r="Q170" s="86"/>
     </row>
-    <row r="171" spans="1:17" ht="33">
+    <row r="171" spans="1:17" ht="33.75">
       <c r="A171" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A171" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E171),
@@ -31311,7 +31276,7 @@
       <c r="P171" s="86"/>
       <c r="Q171" s="86"/>
     </row>
-    <row r="172" spans="1:17" ht="33">
+    <row r="172" spans="1:17" ht="33.75">
       <c r="A172" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A172" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E172),
@@ -31415,7 +31380,7 @@
       <c r="P174" s="86"/>
       <c r="Q174" s="86"/>
     </row>
-    <row r="175" spans="1:17" ht="22">
+    <row r="175" spans="1:17" ht="22.5">
       <c r="A175" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A175" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E175),
@@ -31449,7 +31414,7 @@
       <c r="P175" s="86"/>
       <c r="Q175" s="86"/>
     </row>
-    <row r="176" spans="1:17" ht="22">
+    <row r="176" spans="1:17" ht="22.5">
       <c r="A176" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A176" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E176),
@@ -31483,7 +31448,7 @@
       <c r="P176" s="86"/>
       <c r="Q176" s="86"/>
     </row>
-    <row r="177" spans="1:17" ht="22">
+    <row r="177" spans="1:17" ht="22.5">
       <c r="A177" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A177" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E177),
@@ -31517,7 +31482,7 @@
       <c r="P177" s="86"/>
       <c r="Q177" s="86"/>
     </row>
-    <row r="178" spans="1:17" ht="33">
+    <row r="178" spans="1:17" ht="33.75">
       <c r="A178" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A178" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E178),
@@ -31551,7 +31516,7 @@
       <c r="P178" s="86"/>
       <c r="Q178" s="86"/>
     </row>
-    <row r="179" spans="1:17" ht="22">
+    <row r="179" spans="1:17" ht="22.5">
       <c r="A179" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A179" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E179),
@@ -31585,7 +31550,7 @@
       <c r="P179" s="86"/>
       <c r="Q179" s="86"/>
     </row>
-    <row r="180" spans="1:17" ht="22">
+    <row r="180" spans="1:17" ht="22.5">
       <c r="A180" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A180" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E180),
@@ -31621,7 +31586,7 @@
       <c r="P180" s="86"/>
       <c r="Q180" s="86"/>
     </row>
-    <row r="181" spans="1:17" ht="33">
+    <row r="181" spans="1:17" ht="33.75">
       <c r="A181" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A181" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E181),
@@ -31655,7 +31620,7 @@
       <c r="P181" s="86"/>
       <c r="Q181" s="86"/>
     </row>
-    <row r="182" spans="1:17" ht="33">
+    <row r="182" spans="1:17" ht="33.75">
       <c r="A182" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A182" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E182),
@@ -31689,7 +31654,7 @@
       <c r="P182" s="86"/>
       <c r="Q182" s="86"/>
     </row>
-    <row r="183" spans="1:17" ht="44">
+    <row r="183" spans="1:17" ht="45">
       <c r="A183" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A183" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E183),
@@ -31723,7 +31688,7 @@
       <c r="P183" s="86"/>
       <c r="Q183" s="86"/>
     </row>
-    <row r="184" spans="1:17" ht="44">
+    <row r="184" spans="1:17" ht="45">
       <c r="A184" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A184" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E184),
@@ -31757,7 +31722,7 @@
       <c r="P184" s="86"/>
       <c r="Q184" s="86"/>
     </row>
-    <row r="185" spans="1:17" ht="33">
+    <row r="185" spans="1:17" ht="33.75">
       <c r="A185" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A185" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E185),
@@ -31791,7 +31756,7 @@
       <c r="P185" s="86"/>
       <c r="Q185" s="86"/>
     </row>
-    <row r="186" spans="1:17" ht="44">
+    <row r="186" spans="1:17" ht="45">
       <c r="A186" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A186" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E186),
@@ -31825,7 +31790,7 @@
       <c r="P186" s="86"/>
       <c r="Q186" s="86"/>
     </row>
-    <row r="187" spans="1:17" ht="44">
+    <row r="187" spans="1:17" ht="45">
       <c r="A187" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A187" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E187),
@@ -31859,7 +31824,7 @@
       <c r="P187" s="86"/>
       <c r="Q187" s="86"/>
     </row>
-    <row r="188" spans="1:17" ht="22">
+    <row r="188" spans="1:17" ht="22.5">
       <c r="A188" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A188" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E188),
@@ -31893,7 +31858,7 @@
       <c r="P188" s="86"/>
       <c r="Q188" s="86"/>
     </row>
-    <row r="189" spans="1:17" ht="33">
+    <row r="189" spans="1:17" ht="33.75">
       <c r="A189" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A189" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E189),
@@ -31929,7 +31894,7 @@
       <c r="P189" s="86"/>
       <c r="Q189" s="86"/>
     </row>
-    <row r="190" spans="1:17" ht="22">
+    <row r="190" spans="1:17" ht="22.5">
       <c r="A190" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A190" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E190),
@@ -31965,7 +31930,7 @@
       <c r="P190" s="86"/>
       <c r="Q190" s="86"/>
     </row>
-    <row r="191" spans="1:17" ht="22">
+    <row r="191" spans="1:17" ht="22.5">
       <c r="A191" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A191" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E191),
@@ -32007,7 +31972,7 @@
       <c r="P191" s="86"/>
       <c r="Q191" s="86"/>
     </row>
-    <row r="192" spans="1:17" ht="22">
+    <row r="192" spans="1:17" ht="22.5">
       <c r="A192" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A192" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E192),
@@ -32045,7 +32010,7 @@
       <c r="P192" s="86"/>
       <c r="Q192" s="86"/>
     </row>
-    <row r="193" spans="1:17" ht="22">
+    <row r="193" spans="1:17" ht="22.5">
       <c r="A193" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A193" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E193),
@@ -32083,7 +32048,7 @@
       <c r="P193" s="86"/>
       <c r="Q193" s="86"/>
     </row>
-    <row r="194" spans="1:17" ht="22">
+    <row r="194" spans="1:17" ht="22.5">
       <c r="A194" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A194" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E194),
@@ -32125,7 +32090,7 @@
       <c r="P194" s="45"/>
       <c r="Q194" s="45"/>
     </row>
-    <row r="195" spans="1:17" ht="22">
+    <row r="195" spans="1:17" ht="22.5">
       <c r="A195" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A195" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E195),
@@ -32161,7 +32126,7 @@
       <c r="P195" s="45"/>
       <c r="Q195" s="45"/>
     </row>
-    <row r="196" spans="1:17" ht="22">
+    <row r="196" spans="1:17" ht="22.5">
       <c r="A196" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A196" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E196),
@@ -32195,7 +32160,7 @@
       <c r="P196" s="45"/>
       <c r="Q196" s="45"/>
     </row>
-    <row r="197" spans="1:17" ht="22">
+    <row r="197" spans="1:17" ht="22.5">
       <c r="A197" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A197" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E197),
@@ -32231,7 +32196,7 @@
       <c r="P197" s="45"/>
       <c r="Q197" s="45"/>
     </row>
-    <row r="198" spans="1:17" ht="22">
+    <row r="198" spans="1:17" ht="22.5">
       <c r="A198" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A198" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E198),
@@ -32265,7 +32230,7 @@
       <c r="P198" s="45"/>
       <c r="Q198" s="45"/>
     </row>
-    <row r="199" spans="1:17" ht="33">
+    <row r="199" spans="1:17" ht="33.75">
       <c r="A199" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A199" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E199),
@@ -32303,7 +32268,7 @@
       <c r="P199" s="45"/>
       <c r="Q199" s="45"/>
     </row>
-    <row r="200" spans="1:17" ht="22">
+    <row r="200" spans="1:17" ht="22.5">
       <c r="A200" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A200" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E200),
@@ -32343,7 +32308,7 @@
       <c r="P200" s="45"/>
       <c r="Q200" s="45"/>
     </row>
-    <row r="201" spans="1:17" ht="22">
+    <row r="201" spans="1:17" ht="22.5">
       <c r="A201" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A201" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E201),
@@ -32377,7 +32342,7 @@
       <c r="P201" s="45"/>
       <c r="Q201" s="45"/>
     </row>
-    <row r="202" spans="1:17" ht="22">
+    <row r="202" spans="1:17" ht="22.5">
       <c r="A202" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A202" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E202),
@@ -32411,7 +32376,7 @@
       <c r="P202" s="45"/>
       <c r="Q202" s="45"/>
     </row>
-    <row r="203" spans="1:17" ht="22">
+    <row r="203" spans="1:17" ht="22.5">
       <c r="A203" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A203" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E203),
@@ -32445,7 +32410,7 @@
       <c r="P203" s="45"/>
       <c r="Q203" s="45"/>
     </row>
-    <row r="204" spans="1:17" ht="22">
+    <row r="204" spans="1:17" ht="22.5">
       <c r="A204" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A204" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E204),
@@ -32479,7 +32444,7 @@
       <c r="P204" s="45"/>
       <c r="Q204" s="45"/>
     </row>
-    <row r="205" spans="1:17" ht="22">
+    <row r="205" spans="1:17" ht="22.5">
       <c r="A205" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A205" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E205),
@@ -32513,7 +32478,7 @@
       <c r="P205" s="45"/>
       <c r="Q205" s="45"/>
     </row>
-    <row r="206" spans="1:17" ht="22">
+    <row r="206" spans="1:17" ht="22.5">
       <c r="A206" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A206" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E206),
@@ -32547,7 +32512,7 @@
       <c r="P206" s="45"/>
       <c r="Q206" s="45"/>
     </row>
-    <row r="207" spans="1:17" ht="22">
+    <row r="207" spans="1:17" ht="22.5">
       <c r="A207" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A207" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E207),
@@ -32583,7 +32548,7 @@
       <c r="P207" s="45"/>
       <c r="Q207" s="45"/>
     </row>
-    <row r="208" spans="1:17" ht="22">
+    <row r="208" spans="1:17" ht="22.5">
       <c r="A208" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A208" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E208),
@@ -32621,7 +32586,7 @@
       <c r="P208" s="45"/>
       <c r="Q208" s="45"/>
     </row>
-    <row r="209" spans="1:17" ht="22">
+    <row r="209" spans="1:17" ht="22.5">
       <c r="A209" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A209" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E209),
@@ -32689,7 +32654,7 @@
       <c r="P210" s="45"/>
       <c r="Q210" s="45"/>
     </row>
-    <row r="211" spans="1:17" ht="22">
+    <row r="211" spans="1:17" ht="22.5">
       <c r="A211" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A211" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E211),
@@ -32723,7 +32688,7 @@
       <c r="P211" s="45"/>
       <c r="Q211" s="45"/>
     </row>
-    <row r="212" spans="1:17" ht="33">
+    <row r="212" spans="1:17" ht="33.75">
       <c r="A212" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A212" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E212),
@@ -32757,7 +32722,7 @@
       <c r="P212" s="45"/>
       <c r="Q212" s="45"/>
     </row>
-    <row r="213" spans="1:17" ht="33">
+    <row r="213" spans="1:17" ht="33.75">
       <c r="A213" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A213" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E213),
@@ -32791,7 +32756,7 @@
       <c r="P213" s="45"/>
       <c r="Q213" s="45"/>
     </row>
-    <row r="214" spans="1:17" ht="44">
+    <row r="214" spans="1:17" ht="45">
       <c r="A214" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A214" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E214),
@@ -32825,7 +32790,7 @@
       <c r="P214" s="45"/>
       <c r="Q214" s="45"/>
     </row>
-    <row r="215" spans="1:17" ht="33">
+    <row r="215" spans="1:17" ht="33.75">
       <c r="A215" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A215" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E215),
@@ -32859,7 +32824,7 @@
       <c r="P215" s="45"/>
       <c r="Q215" s="45"/>
     </row>
-    <row r="216" spans="1:17" ht="33">
+    <row r="216" spans="1:17" ht="33.75">
       <c r="A216" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A216" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E216),
@@ -32893,7 +32858,7 @@
       <c r="P216" s="45"/>
       <c r="Q216" s="45"/>
     </row>
-    <row r="217" spans="1:17" ht="22">
+    <row r="217" spans="1:17" ht="22.5">
       <c r="A217" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A217" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E217),
@@ -32927,7 +32892,7 @@
       <c r="P217" s="45"/>
       <c r="Q217" s="45"/>
     </row>
-    <row r="218" spans="1:17" ht="22">
+    <row r="218" spans="1:17" ht="22.5">
       <c r="A218" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A218" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E218),
@@ -32961,7 +32926,7 @@
       <c r="P218" s="45"/>
       <c r="Q218" s="45"/>
     </row>
-    <row r="219" spans="1:17" ht="33">
+    <row r="219" spans="1:17" ht="33.75">
       <c r="A219" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A219" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E219),
@@ -32995,7 +32960,7 @@
       <c r="P219" s="45"/>
       <c r="Q219" s="45"/>
     </row>
-    <row r="220" spans="1:17" ht="22">
+    <row r="220" spans="1:17" ht="22.5">
       <c r="A220" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A220" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E220),
@@ -33029,7 +32994,7 @@
       <c r="P220" s="45"/>
       <c r="Q220" s="45"/>
     </row>
-    <row r="221" spans="1:17" ht="22">
+    <row r="221" spans="1:17" ht="22.5">
       <c r="A221" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A221" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E221),
@@ -33067,7 +33032,7 @@
       <c r="P221" s="45"/>
       <c r="Q221" s="45"/>
     </row>
-    <row r="222" spans="1:17" ht="22">
+    <row r="222" spans="1:17" ht="22.5">
       <c r="A222" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A222" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E222),
@@ -33101,7 +33066,7 @@
       <c r="P222" s="45"/>
       <c r="Q222" s="45"/>
     </row>
-    <row r="223" spans="1:17" ht="22">
+    <row r="223" spans="1:17" ht="22.5">
       <c r="A223" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A223" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E223),
@@ -33169,7 +33134,7 @@
       <c r="P224" s="45"/>
       <c r="Q224" s="45"/>
     </row>
-    <row r="225" spans="1:17" ht="22">
+    <row r="225" spans="1:17" ht="22.5">
       <c r="A225" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A225" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E225),
@@ -33203,7 +33168,7 @@
       <c r="P225" s="45"/>
       <c r="Q225" s="45"/>
     </row>
-    <row r="226" spans="1:17" ht="44">
+    <row r="226" spans="1:17" ht="45">
       <c r="A226" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A226" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E226),
@@ -33237,7 +33202,7 @@
       <c r="P226" s="45"/>
       <c r="Q226" s="45"/>
     </row>
-    <row r="227" spans="1:17" ht="33">
+    <row r="227" spans="1:17" ht="33.75">
       <c r="A227" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A227" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E227),
@@ -33271,7 +33236,7 @@
       <c r="P227" s="45"/>
       <c r="Q227" s="45"/>
     </row>
-    <row r="228" spans="1:17" ht="33">
+    <row r="228" spans="1:17" ht="33.75">
       <c r="A228" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A228" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E228),
@@ -33305,7 +33270,7 @@
       <c r="P228" s="45"/>
       <c r="Q228" s="45"/>
     </row>
-    <row r="229" spans="1:17" ht="44">
+    <row r="229" spans="1:17" ht="45">
       <c r="A229" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A229" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E229),
@@ -33339,7 +33304,7 @@
       <c r="P229" s="45"/>
       <c r="Q229" s="45"/>
     </row>
-    <row r="230" spans="1:17" ht="33">
+    <row r="230" spans="1:17" ht="33.75">
       <c r="A230" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A230" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E230),
@@ -33373,7 +33338,7 @@
       <c r="P230" s="45"/>
       <c r="Q230" s="45"/>
     </row>
-    <row r="231" spans="1:17" ht="33">
+    <row r="231" spans="1:17" ht="33.75">
       <c r="A231" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A231" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E231),
@@ -33407,7 +33372,7 @@
       <c r="P231" s="45"/>
       <c r="Q231" s="45"/>
     </row>
-    <row r="232" spans="1:17" ht="22">
+    <row r="232" spans="1:17" ht="22.5">
       <c r="A232" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A232" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E232),
@@ -33441,7 +33406,7 @@
       <c r="P232" s="45"/>
       <c r="Q232" s="45"/>
     </row>
-    <row r="233" spans="1:17" ht="22">
+    <row r="233" spans="1:17" ht="22.5">
       <c r="A233" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A233" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E233),
@@ -33475,7 +33440,7 @@
       <c r="P233" s="45"/>
       <c r="Q233" s="45"/>
     </row>
-    <row r="234" spans="1:17" ht="33">
+    <row r="234" spans="1:17" ht="33.75">
       <c r="A234" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A234" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E234),
@@ -33509,7 +33474,7 @@
       <c r="P234" s="45"/>
       <c r="Q234" s="45"/>
     </row>
-    <row r="235" spans="1:17" ht="22">
+    <row r="235" spans="1:17" ht="22.5">
       <c r="A235" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A235" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E235),
@@ -33543,7 +33508,7 @@
       <c r="P235" s="45"/>
       <c r="Q235" s="45"/>
     </row>
-    <row r="236" spans="1:17" ht="44">
+    <row r="236" spans="1:17" ht="45">
       <c r="A236" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A236" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E236),
@@ -33579,7 +33544,7 @@
       <c r="P236" s="45"/>
       <c r="Q236" s="45"/>
     </row>
-    <row r="237" spans="1:17" ht="44">
+    <row r="237" spans="1:17" ht="45">
       <c r="A237" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A237" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E237),
@@ -33613,7 +33578,7 @@
       <c r="P237" s="45"/>
       <c r="Q237" s="45"/>
     </row>
-    <row r="238" spans="1:17" ht="33">
+    <row r="238" spans="1:17" ht="33.75">
       <c r="A238" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A238" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E238),
@@ -33647,7 +33612,7 @@
       <c r="P238" s="45"/>
       <c r="Q238" s="45"/>
     </row>
-    <row r="239" spans="1:17" ht="33">
+    <row r="239" spans="1:17" ht="33.75">
       <c r="A239" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A239" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E239),
@@ -33683,7 +33648,7 @@
       <c r="P239" s="45"/>
       <c r="Q239" s="45"/>
     </row>
-    <row r="240" spans="1:17" ht="22">
+    <row r="240" spans="1:17" ht="22.5">
       <c r="A240" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A240" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E240),
@@ -33719,7 +33684,7 @@
       <c r="P240" s="45"/>
       <c r="Q240" s="45"/>
     </row>
-    <row r="241" spans="1:17" ht="22">
+    <row r="241" spans="1:17" ht="22.5">
       <c r="A241" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A241" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E241),
@@ -33761,7 +33726,7 @@
       <c r="P241" s="45"/>
       <c r="Q241" s="45"/>
     </row>
-    <row r="242" spans="1:17" ht="22">
+    <row r="242" spans="1:17" ht="22.5">
       <c r="A242" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A242" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E242),
@@ -33797,7 +33762,7 @@
       <c r="P242" s="45"/>
       <c r="Q242" s="45"/>
     </row>
-    <row r="243" spans="1:17" ht="22">
+    <row r="243" spans="1:17" ht="22.5">
       <c r="A243" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A243" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E243),
@@ -33831,7 +33796,7 @@
       <c r="P243" s="45"/>
       <c r="Q243" s="45"/>
     </row>
-    <row r="244" spans="1:17" ht="22">
+    <row r="244" spans="1:17" ht="22.5">
       <c r="A244" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A244" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E244),
@@ -33865,7 +33830,7 @@
       <c r="P244" s="45"/>
       <c r="Q244" s="45"/>
     </row>
-    <row r="245" spans="1:17" ht="22">
+    <row r="245" spans="1:17" ht="22.5">
       <c r="A245" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A245" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E245),
@@ -33899,7 +33864,7 @@
       <c r="P245" s="45"/>
       <c r="Q245" s="45"/>
     </row>
-    <row r="246" spans="1:17" ht="33">
+    <row r="246" spans="1:17" ht="33.75">
       <c r="A246" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A246" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E246),
@@ -33933,7 +33898,7 @@
       <c r="P246" s="45"/>
       <c r="Q246" s="45"/>
     </row>
-    <row r="247" spans="1:17" ht="33">
+    <row r="247" spans="1:17" ht="33.75">
       <c r="A247" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A247" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E247),
@@ -33969,7 +33934,7 @@
       <c r="P247" s="45"/>
       <c r="Q247" s="45"/>
     </row>
-    <row r="248" spans="1:17" ht="33">
+    <row r="248" spans="1:17" ht="33.75">
       <c r="A248" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A248" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E248),
@@ -34003,7 +33968,7 @@
       <c r="P248" s="45"/>
       <c r="Q248" s="45"/>
     </row>
-    <row r="249" spans="1:17" ht="44">
+    <row r="249" spans="1:17" ht="45">
       <c r="A249" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A249" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E249),
@@ -34037,7 +34002,7 @@
       <c r="P249" s="45"/>
       <c r="Q249" s="45"/>
     </row>
-    <row r="250" spans="1:17" ht="44">
+    <row r="250" spans="1:17" ht="45">
       <c r="A250" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A250" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E250),
@@ -34071,7 +34036,7 @@
       <c r="P250" s="45"/>
       <c r="Q250" s="45"/>
     </row>
-    <row r="251" spans="1:17" ht="33">
+    <row r="251" spans="1:17" ht="33.75">
       <c r="A251" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A251" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E251),
@@ -34105,7 +34070,7 @@
       <c r="P251" s="45"/>
       <c r="Q251" s="45"/>
     </row>
-    <row r="252" spans="1:17" ht="33">
+    <row r="252" spans="1:17" ht="33.75">
       <c r="A252" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A252" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E252),
@@ -34141,7 +34106,7 @@
       <c r="P252" s="45"/>
       <c r="Q252" s="45"/>
     </row>
-    <row r="253" spans="1:17" ht="33">
+    <row r="253" spans="1:17" ht="33.75">
       <c r="A253" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A253" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E253),
@@ -34181,7 +34146,7 @@
       <c r="P253" s="45"/>
       <c r="Q253" s="45"/>
     </row>
-    <row r="254" spans="1:17" ht="22">
+    <row r="254" spans="1:17" ht="22.5">
       <c r="A254" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A254" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E254),
@@ -34223,7 +34188,7 @@
       <c r="P254" s="45"/>
       <c r="Q254" s="45"/>
     </row>
-    <row r="255" spans="1:17" ht="22">
+    <row r="255" spans="1:17" ht="22.5">
       <c r="A255" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A255" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E255),
@@ -34257,7 +34222,7 @@
       <c r="P255" s="45"/>
       <c r="Q255" s="45"/>
     </row>
-    <row r="256" spans="1:17" ht="33">
+    <row r="256" spans="1:17" ht="33.75">
       <c r="A256" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A256" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E256),
@@ -34295,7 +34260,7 @@
       <c r="P256" s="45"/>
       <c r="Q256" s="45"/>
     </row>
-    <row r="257" spans="1:17" ht="33">
+    <row r="257" spans="1:17" ht="33.75">
       <c r="A257" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A257" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E257),
@@ -34329,7 +34294,7 @@
       <c r="P257" s="45"/>
       <c r="Q257" s="45"/>
     </row>
-    <row r="258" spans="1:17" ht="33">
+    <row r="258" spans="1:17" ht="33.75">
       <c r="A258" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A258" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E258),
@@ -34369,7 +34334,7 @@
       <c r="P258" s="45"/>
       <c r="Q258" s="45"/>
     </row>
-    <row r="259" spans="1:17" ht="33">
+    <row r="259" spans="1:17" ht="33.75">
       <c r="A259" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A259" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E259),
@@ -34405,7 +34370,7 @@
       <c r="P259" s="45"/>
       <c r="Q259" s="45"/>
     </row>
-    <row r="260" spans="1:17" ht="33">
+    <row r="260" spans="1:17" ht="33.75">
       <c r="A260" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A260" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E260),
@@ -34441,7 +34406,7 @@
       <c r="P260" s="45"/>
       <c r="Q260" s="45"/>
     </row>
-    <row r="261" spans="1:17" ht="33">
+    <row r="261" spans="1:17" ht="33.75">
       <c r="A261" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A261" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E261),
@@ -34477,7 +34442,7 @@
       <c r="P261" s="45"/>
       <c r="Q261" s="45"/>
     </row>
-    <row r="262" spans="1:17" ht="22">
+    <row r="262" spans="1:17" ht="22.5">
       <c r="A262" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A262" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E262),
@@ -34515,7 +34480,7 @@
       <c r="P262" s="45"/>
       <c r="Q262" s="45"/>
     </row>
-    <row r="263" spans="1:17" ht="22">
+    <row r="263" spans="1:17" ht="22.5">
       <c r="A263" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A263" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E263),
@@ -34549,7 +34514,7 @@
       <c r="P263" s="45"/>
       <c r="Q263" s="45"/>
     </row>
-    <row r="264" spans="1:17" ht="33">
+    <row r="264" spans="1:17" ht="33.75">
       <c r="A264" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A264" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E264),
@@ -34585,7 +34550,7 @@
       <c r="P264" s="45"/>
       <c r="Q264" s="45"/>
     </row>
-    <row r="265" spans="1:17" ht="33">
+    <row r="265" spans="1:17" ht="33.75">
       <c r="A265" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A265" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E265),
@@ -34619,7 +34584,7 @@
       <c r="P265" s="45"/>
       <c r="Q265" s="45"/>
     </row>
-    <row r="266" spans="1:17" ht="33">
+    <row r="266" spans="1:17" ht="33.75">
       <c r="A266" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A266" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E266),
@@ -34653,7 +34618,7 @@
       <c r="P266" s="45"/>
       <c r="Q266" s="45"/>
     </row>
-    <row r="267" spans="1:17" ht="33">
+    <row r="267" spans="1:17" ht="33.75">
       <c r="A267" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A267" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E267),
@@ -34687,7 +34652,7 @@
       <c r="P267" s="45"/>
       <c r="Q267" s="45"/>
     </row>
-    <row r="268" spans="1:17" ht="33">
+    <row r="268" spans="1:17" ht="33.75">
       <c r="A268" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A268" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E268),
@@ -34721,7 +34686,7 @@
       <c r="P268" s="45"/>
       <c r="Q268" s="45"/>
     </row>
-    <row r="269" spans="1:17" ht="22">
+    <row r="269" spans="1:17" ht="22.5">
       <c r="A269" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A269" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E269),
@@ -34755,7 +34720,7 @@
       <c r="P269" s="45"/>
       <c r="Q269" s="45"/>
     </row>
-    <row r="270" spans="1:17" ht="22">
+    <row r="270" spans="1:17" ht="22.5">
       <c r="A270" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A270" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E270),
@@ -34789,7 +34754,7 @@
       <c r="P270" s="45"/>
       <c r="Q270" s="45"/>
     </row>
-    <row r="271" spans="1:17" ht="33">
+    <row r="271" spans="1:17" ht="33.75">
       <c r="A271" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A271" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E271),
@@ -34823,7 +34788,7 @@
       <c r="P271" s="45"/>
       <c r="Q271" s="45"/>
     </row>
-    <row r="272" spans="1:17" ht="33">
+    <row r="272" spans="1:17" ht="33.75">
       <c r="A272" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A272" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E272),
@@ -34857,7 +34822,7 @@
       <c r="P272" s="45"/>
       <c r="Q272" s="45"/>
     </row>
-    <row r="273" spans="1:17" ht="33">
+    <row r="273" spans="1:17" ht="33.75">
       <c r="A273" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A273" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E273),
@@ -34891,7 +34856,7 @@
       <c r="P273" s="45"/>
       <c r="Q273" s="45"/>
     </row>
-    <row r="274" spans="1:17" ht="33">
+    <row r="274" spans="1:17" ht="33.75">
       <c r="A274" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A274" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E274),
@@ -34995,7 +34960,7 @@
       <c r="P276" s="45"/>
       <c r="Q276" s="45"/>
     </row>
-    <row r="277" spans="1:17" ht="22">
+    <row r="277" spans="1:17" ht="22.5">
       <c r="A277" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A277" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E277),
@@ -35029,7 +34994,7 @@
       <c r="P277" s="45"/>
       <c r="Q277" s="45"/>
     </row>
-    <row r="278" spans="1:17" ht="22">
+    <row r="278" spans="1:17" ht="22.5">
       <c r="A278" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A278" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E278),
@@ -35063,7 +35028,7 @@
       <c r="P278" s="45"/>
       <c r="Q278" s="45"/>
     </row>
-    <row r="279" spans="1:17" ht="22">
+    <row r="279" spans="1:17" ht="22.5">
       <c r="A279" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A279" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E279),
@@ -35097,7 +35062,7 @@
       <c r="P279" s="45"/>
       <c r="Q279" s="45"/>
     </row>
-    <row r="280" spans="1:17" ht="33">
+    <row r="280" spans="1:17" ht="33.75">
       <c r="A280" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A280" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E280),
@@ -35131,7 +35096,7 @@
       <c r="P280" s="45"/>
       <c r="Q280" s="45"/>
     </row>
-    <row r="281" spans="1:17" ht="22">
+    <row r="281" spans="1:17" ht="22.5">
       <c r="A281" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A281" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E281),
@@ -35167,7 +35132,7 @@
       <c r="P281" s="45"/>
       <c r="Q281" s="45"/>
     </row>
-    <row r="282" spans="1:17" ht="33">
+    <row r="282" spans="1:17" ht="33.75">
       <c r="A282" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A282" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E282),
@@ -35201,7 +35166,7 @@
       <c r="P282" s="45"/>
       <c r="Q282" s="45"/>
     </row>
-    <row r="283" spans="1:17" ht="44">
+    <row r="283" spans="1:17" ht="45">
       <c r="A283" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A283" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E283),
@@ -35235,7 +35200,7 @@
       <c r="P283" s="45"/>
       <c r="Q283" s="45"/>
     </row>
-    <row r="284" spans="1:17" ht="44">
+    <row r="284" spans="1:17" ht="45">
       <c r="A284" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A284" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E284),
@@ -35269,7 +35234,7 @@
       <c r="P284" s="45"/>
       <c r="Q284" s="45"/>
     </row>
-    <row r="285" spans="1:17" ht="22">
+    <row r="285" spans="1:17" ht="22.5">
       <c r="A285" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A285" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E285),
@@ -35303,7 +35268,7 @@
       <c r="P285" s="45"/>
       <c r="Q285" s="45"/>
     </row>
-    <row r="286" spans="1:17" ht="44">
+    <row r="286" spans="1:17" ht="45">
       <c r="A286" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A286" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E286),
@@ -35337,7 +35302,7 @@
       <c r="P286" s="45"/>
       <c r="Q286" s="45"/>
     </row>
-    <row r="287" spans="1:17" ht="44">
+    <row r="287" spans="1:17" ht="45">
       <c r="A287" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A287" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E287),
@@ -35371,7 +35336,7 @@
       <c r="P287" s="45"/>
       <c r="Q287" s="45"/>
     </row>
-    <row r="288" spans="1:17" ht="22">
+    <row r="288" spans="1:17" ht="22.5">
       <c r="A288" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A288" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E288),
@@ -35405,7 +35370,7 @@
       <c r="P288" s="45"/>
       <c r="Q288" s="45"/>
     </row>
-    <row r="289" spans="1:17" ht="22">
+    <row r="289" spans="1:17" ht="22.5">
       <c r="A289" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A289" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E289),
@@ -35441,7 +35406,7 @@
       <c r="P289" s="45"/>
       <c r="Q289" s="45"/>
     </row>
-    <row r="290" spans="1:17" ht="22">
+    <row r="290" spans="1:17" ht="22.5">
       <c r="A290" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A290" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E290),
@@ -35483,7 +35448,7 @@
       <c r="P290" s="86"/>
       <c r="Q290" s="86"/>
     </row>
-    <row r="291" spans="1:17" ht="22">
+    <row r="291" spans="1:17" ht="22.5">
       <c r="A291" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A291" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E291),
@@ -35517,7 +35482,7 @@
       <c r="P291" s="86"/>
       <c r="Q291" s="86"/>
     </row>
-    <row r="292" spans="1:17" ht="22">
+    <row r="292" spans="1:17" ht="22.5">
       <c r="A292" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A292" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E292),
@@ -35551,7 +35516,7 @@
       <c r="P292" s="86"/>
       <c r="Q292" s="86"/>
     </row>
-    <row r="293" spans="1:17" ht="22">
+    <row r="293" spans="1:17" ht="22.5">
       <c r="A293" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A293" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E293),
@@ -35585,7 +35550,7 @@
       <c r="P293" s="86"/>
       <c r="Q293" s="86"/>
     </row>
-    <row r="294" spans="1:17" ht="22">
+    <row r="294" spans="1:17" ht="22.5">
       <c r="A294" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A294" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E294),
@@ -35625,7 +35590,7 @@
       <c r="P294" s="86"/>
       <c r="Q294" s="86"/>
     </row>
-    <row r="295" spans="1:17" ht="22">
+    <row r="295" spans="1:17" ht="22.5">
       <c r="A295" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A295" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E295),
@@ -35661,7 +35626,7 @@
       <c r="P295" s="86"/>
       <c r="Q295" s="86"/>
     </row>
-    <row r="296" spans="1:17" ht="22">
+    <row r="296" spans="1:17" ht="22.5">
       <c r="A296" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A296" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E296),
@@ -35697,7 +35662,7 @@
       <c r="P296" s="86"/>
       <c r="Q296" s="86"/>
     </row>
-    <row r="297" spans="1:17" ht="22">
+    <row r="297" spans="1:17" ht="22.5">
       <c r="A297" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A297" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E297),
@@ -35733,7 +35698,7 @@
       <c r="P297" s="86"/>
       <c r="Q297" s="86"/>
     </row>
-    <row r="298" spans="1:17" ht="22">
+    <row r="298" spans="1:17" ht="22.5">
       <c r="A298" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A298" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E298),
@@ -35771,7 +35736,7 @@
       <c r="P298" s="86"/>
       <c r="Q298" s="86"/>
     </row>
-    <row r="299" spans="1:17" ht="22">
+    <row r="299" spans="1:17" ht="22.5">
       <c r="A299" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A299" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E299),
@@ -35805,7 +35770,7 @@
       <c r="P299" s="86"/>
       <c r="Q299" s="86"/>
     </row>
-    <row r="300" spans="1:17" ht="33">
+    <row r="300" spans="1:17" ht="33.75">
       <c r="A300" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A300" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E300),
@@ -35839,7 +35804,7 @@
       <c r="P300" s="86"/>
       <c r="Q300" s="86"/>
     </row>
-    <row r="301" spans="1:17" ht="33">
+    <row r="301" spans="1:17" ht="33.75">
       <c r="A301" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A301" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E301),
@@ -35873,7 +35838,7 @@
       <c r="P301" s="86"/>
       <c r="Q301" s="86"/>
     </row>
-    <row r="302" spans="1:17" ht="33">
+    <row r="302" spans="1:17" ht="33.75">
       <c r="A302" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A302" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E302),
@@ -35907,7 +35872,7 @@
       <c r="P302" s="86"/>
       <c r="Q302" s="86"/>
     </row>
-    <row r="303" spans="1:17" ht="33">
+    <row r="303" spans="1:17" ht="33.75">
       <c r="A303" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A303" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E303),
@@ -35941,7 +35906,7 @@
       <c r="P303" s="86"/>
       <c r="Q303" s="86"/>
     </row>
-    <row r="304" spans="1:17" ht="33">
+    <row r="304" spans="1:17" ht="33.75">
       <c r="A304" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A304" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E304),
@@ -35975,7 +35940,7 @@
       <c r="P304" s="86"/>
       <c r="Q304" s="86"/>
     </row>
-    <row r="305" spans="1:17" ht="22">
+    <row r="305" spans="1:17" ht="22.5">
       <c r="A305" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A305" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E305),
@@ -36009,7 +35974,7 @@
       <c r="P305" s="86"/>
       <c r="Q305" s="86"/>
     </row>
-    <row r="306" spans="1:17" ht="22">
+    <row r="306" spans="1:17" ht="22.5">
       <c r="A306" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A306" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E306),
@@ -36043,7 +36008,7 @@
       <c r="P306" s="86"/>
       <c r="Q306" s="86"/>
     </row>
-    <row r="307" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="307" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A307" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A307" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E307),
@@ -36119,7 +36084,7 @@
       <c r="P308" s="72"/>
       <c r="Q308" s="72"/>
     </row>
-    <row r="309" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="309" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A309" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A309" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E309),
@@ -36159,7 +36124,7 @@
       <c r="P309" s="32"/>
       <c r="Q309" s="32"/>
     </row>
-    <row r="310" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="310" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A310" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A310" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E310),
@@ -36199,7 +36164,7 @@
       <c r="P310" s="32"/>
       <c r="Q310" s="32"/>
     </row>
-    <row r="311" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="311" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A311" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A311" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E311),
@@ -36239,7 +36204,7 @@
       <c r="P311" s="32"/>
       <c r="Q311" s="32"/>
     </row>
-    <row r="312" spans="1:17" ht="22">
+    <row r="312" spans="1:17" ht="22.5">
       <c r="A312" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A312" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E312),
@@ -36279,7 +36244,7 @@
       <c r="P312" s="102"/>
       <c r="Q312" s="102"/>
     </row>
-    <row r="313" spans="1:17" s="30" customFormat="1" ht="33">
+    <row r="313" spans="1:17" s="30" customFormat="1" ht="33.75">
       <c r="A313" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A313" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E313),
@@ -36319,7 +36284,7 @@
       <c r="P313" s="32"/>
       <c r="Q313" s="32"/>
     </row>
-    <row r="314" spans="1:17" s="30" customFormat="1" ht="33">
+    <row r="314" spans="1:17" s="30" customFormat="1" ht="33.75">
       <c r="A314" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A314" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E314),
@@ -36359,7 +36324,7 @@
       <c r="P314" s="32"/>
       <c r="Q314" s="32"/>
     </row>
-    <row r="315" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="315" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A315" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A315" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E315),
@@ -36399,7 +36364,7 @@
       <c r="P315" s="32"/>
       <c r="Q315" s="32"/>
     </row>
-    <row r="316" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="316" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A316" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A316" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E316),
@@ -36439,7 +36404,7 @@
       <c r="P316" s="32"/>
       <c r="Q316" s="32"/>
     </row>
-    <row r="317" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="317" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A317" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A317" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E317),
@@ -36479,7 +36444,7 @@
       <c r="P317" s="32"/>
       <c r="Q317" s="32"/>
     </row>
-    <row r="318" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="318" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A318" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A318" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E318),
@@ -36519,7 +36484,7 @@
       <c r="P318" s="32"/>
       <c r="Q318" s="32"/>
     </row>
-    <row r="319" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="319" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A319" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A319" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E319),
@@ -36559,7 +36524,7 @@
       <c r="P319" s="32"/>
       <c r="Q319" s="32"/>
     </row>
-    <row r="320" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="320" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A320" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A320" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E320),
@@ -36599,7 +36564,7 @@
       <c r="P320" s="32"/>
       <c r="Q320" s="32"/>
     </row>
-    <row r="321" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="321" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A321" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A321" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E321),
@@ -36637,7 +36602,7 @@
       <c r="P321" s="32"/>
       <c r="Q321" s="32"/>
     </row>
-    <row r="322" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="322" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A322" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A322" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E322),
@@ -36677,7 +36642,7 @@
       <c r="P322" s="32"/>
       <c r="Q322" s="32"/>
     </row>
-    <row r="323" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="323" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A323" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A323" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E323),
@@ -36717,7 +36682,7 @@
       <c r="P323" s="32"/>
       <c r="Q323" s="32"/>
     </row>
-    <row r="324" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="324" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A324" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A324" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E324),
@@ -36757,7 +36722,7 @@
       <c r="P324" s="32"/>
       <c r="Q324" s="32"/>
     </row>
-    <row r="325" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="325" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A325" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A325" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E325),
@@ -36795,7 +36760,7 @@
       <c r="P325" s="32"/>
       <c r="Q325" s="32"/>
     </row>
-    <row r="326" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="326" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A326" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A326" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E326),
@@ -36833,7 +36798,7 @@
       <c r="P326" s="32"/>
       <c r="Q326" s="32"/>
     </row>
-    <row r="327" spans="1:17" s="30" customFormat="1" ht="33">
+    <row r="327" spans="1:17" s="30" customFormat="1" ht="33.75">
       <c r="A327" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A327" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E327),
@@ -36873,7 +36838,7 @@
       <c r="P327" s="32"/>
       <c r="Q327" s="32"/>
     </row>
-    <row r="328" spans="1:17" s="30" customFormat="1" ht="33">
+    <row r="328" spans="1:17" s="30" customFormat="1" ht="33.75">
       <c r="A328" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A328" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E328),
@@ -36911,7 +36876,7 @@
       <c r="P328" s="32"/>
       <c r="Q328" s="32"/>
     </row>
-    <row r="329" spans="1:17" s="30" customFormat="1" ht="33">
+    <row r="329" spans="1:17" s="30" customFormat="1" ht="33.75">
       <c r="A329" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A329" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E329),
@@ -36949,7 +36914,7 @@
       <c r="P329" s="32"/>
       <c r="Q329" s="32"/>
     </row>
-    <row r="330" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="330" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A330" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A330" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E330),
@@ -36989,7 +36954,7 @@
       <c r="P330" s="32"/>
       <c r="Q330" s="32"/>
     </row>
-    <row r="331" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="331" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A331" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A331" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E331),
@@ -37027,7 +36992,7 @@
       <c r="P331" s="32"/>
       <c r="Q331" s="32"/>
     </row>
-    <row r="332" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="332" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A332" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A332" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E332),
@@ -37061,7 +37026,7 @@
       <c r="P332" s="72"/>
       <c r="Q332" s="72"/>
     </row>
-    <row r="333" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="333" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A333" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A333" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E333),
@@ -37095,7 +37060,7 @@
       <c r="P333" s="72"/>
       <c r="Q333" s="72"/>
     </row>
-    <row r="334" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="334" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A334" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A334" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E334),
@@ -37131,7 +37096,7 @@
       <c r="P334" s="72"/>
       <c r="Q334" s="72"/>
     </row>
-    <row r="335" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="335" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A335" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A335" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E335),
@@ -37165,7 +37130,7 @@
       <c r="P335" s="72"/>
       <c r="Q335" s="72"/>
     </row>
-    <row r="336" spans="1:17" ht="22">
+    <row r="336" spans="1:17" ht="22.5">
       <c r="A336" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A336" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E336),
@@ -37201,7 +37166,7 @@
       <c r="P336" s="108"/>
       <c r="Q336" s="108"/>
     </row>
-    <row r="337" spans="1:17" ht="22">
+    <row r="337" spans="1:17" ht="22.5">
       <c r="A337" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A337" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E337),
@@ -37235,7 +37200,7 @@
       <c r="P337" s="108"/>
       <c r="Q337" s="108"/>
     </row>
-    <row r="338" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="338" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A338" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A338" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E338),
@@ -37271,7 +37236,7 @@
       <c r="P338" s="72"/>
       <c r="Q338" s="72"/>
     </row>
-    <row r="339" spans="1:17" s="30" customFormat="1" ht="66">
+    <row r="339" spans="1:17" s="30" customFormat="1" ht="67.5">
       <c r="A339" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A339" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E339),
@@ -37313,7 +37278,7 @@
       <c r="P339" s="32"/>
       <c r="Q339" s="32"/>
     </row>
-    <row r="340" spans="1:17" s="30" customFormat="1" ht="66">
+    <row r="340" spans="1:17" s="30" customFormat="1" ht="67.5">
       <c r="A340" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A340" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E340),
@@ -37351,7 +37316,7 @@
       <c r="P340" s="32"/>
       <c r="Q340" s="32"/>
     </row>
-    <row r="341" spans="1:17" ht="44">
+    <row r="341" spans="1:17" ht="45">
       <c r="A341" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A341" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E341),
@@ -37391,7 +37356,7 @@
       <c r="P341" s="71"/>
       <c r="Q341" s="71"/>
     </row>
-    <row r="342" spans="1:17" ht="44">
+    <row r="342" spans="1:17" ht="45">
       <c r="A342" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A342" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E342),
@@ -37429,7 +37394,7 @@
       <c r="P342" s="71"/>
       <c r="Q342" s="71"/>
     </row>
-    <row r="343" spans="1:17" ht="77">
+    <row r="343" spans="1:17" ht="78.75">
       <c r="A343" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A343" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E343),
@@ -37467,7 +37432,7 @@
       <c r="P343" s="71"/>
       <c r="Q343" s="71"/>
     </row>
-    <row r="344" spans="1:17" ht="77">
+    <row r="344" spans="1:17" ht="78.75">
       <c r="A344" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A344" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E344),
@@ -37505,7 +37470,7 @@
       <c r="P344" s="71"/>
       <c r="Q344" s="71"/>
     </row>
-    <row r="345" spans="1:17" ht="77">
+    <row r="345" spans="1:17" ht="78.75">
       <c r="A345" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A345" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E345),
@@ -37543,7 +37508,7 @@
       <c r="P345" s="71"/>
       <c r="Q345" s="71"/>
     </row>
-    <row r="346" spans="1:17" ht="77">
+    <row r="346" spans="1:17" ht="78.75">
       <c r="A346" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A346" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E346),
@@ -37581,7 +37546,7 @@
       <c r="P346" s="71"/>
       <c r="Q346" s="71"/>
     </row>
-    <row r="347" spans="1:17" ht="66">
+    <row r="347" spans="1:17" ht="67.5">
       <c r="A347" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A347" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E347),
@@ -37621,7 +37586,7 @@
       <c r="P347" s="71"/>
       <c r="Q347" s="71"/>
     </row>
-    <row r="348" spans="1:17" ht="44">
+    <row r="348" spans="1:17" ht="45">
       <c r="A348" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A348" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E348),
@@ -37655,7 +37620,7 @@
       <c r="P348" s="86"/>
       <c r="Q348" s="86"/>
     </row>
-    <row r="349" spans="1:17" ht="33">
+    <row r="349" spans="1:17" ht="33.75">
       <c r="A349" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A349" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E349),
@@ -37689,7 +37654,7 @@
       <c r="P349" s="86"/>
       <c r="Q349" s="86"/>
     </row>
-    <row r="350" spans="1:17" ht="44">
+    <row r="350" spans="1:17" ht="45">
       <c r="A350" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A350" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E350),
@@ -37723,7 +37688,7 @@
       <c r="P350" s="86"/>
       <c r="Q350" s="86"/>
     </row>
-    <row r="351" spans="1:17" ht="33">
+    <row r="351" spans="1:17" ht="33.75">
       <c r="A351" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A351" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E351),
@@ -37757,7 +37722,7 @@
       <c r="P351" s="86"/>
       <c r="Q351" s="86"/>
     </row>
-    <row r="352" spans="1:17" ht="44">
+    <row r="352" spans="1:17" ht="45">
       <c r="A352" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A352" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E352),
@@ -37791,7 +37756,7 @@
       <c r="P352" s="86"/>
       <c r="Q352" s="86"/>
     </row>
-    <row r="353" spans="1:17" ht="22">
+    <row r="353" spans="1:17" ht="22.5">
       <c r="A353" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A353" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E353),
@@ -37825,7 +37790,7 @@
       <c r="P353" s="86"/>
       <c r="Q353" s="86"/>
     </row>
-    <row r="354" spans="1:17" ht="33">
+    <row r="354" spans="1:17" ht="33.75">
       <c r="A354" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A354" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E354),
@@ -37867,7 +37832,7 @@
       <c r="P354" s="71"/>
       <c r="Q354" s="71"/>
     </row>
-    <row r="355" spans="1:17" ht="22">
+    <row r="355" spans="1:17" ht="22.5">
       <c r="A355" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A355" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E355),
@@ -37909,7 +37874,7 @@
       <c r="P355" s="71"/>
       <c r="Q355" s="71"/>
     </row>
-    <row r="356" spans="1:17" ht="33">
+    <row r="356" spans="1:17" ht="33.75">
       <c r="A356" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A356" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E356),
@@ -37953,7 +37918,7 @@
       <c r="P356" s="71"/>
       <c r="Q356" s="71"/>
     </row>
-    <row r="357" spans="1:17" ht="33">
+    <row r="357" spans="1:17" ht="33.75">
       <c r="A357" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A357" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E357),
@@ -37991,7 +37956,7 @@
       <c r="P357" s="71"/>
       <c r="Q357" s="71"/>
     </row>
-    <row r="358" spans="1:17" ht="33">
+    <row r="358" spans="1:17" ht="33.75">
       <c r="A358" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A358" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E358),
@@ -38029,7 +37994,7 @@
       <c r="P358" s="71"/>
       <c r="Q358" s="71"/>
     </row>
-    <row r="359" spans="1:17" ht="22">
+    <row r="359" spans="1:17" ht="22.5">
       <c r="A359" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A359" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E359),
@@ -38109,7 +38074,7 @@
       <c r="P360" s="71"/>
       <c r="Q360" s="71"/>
     </row>
-    <row r="361" spans="1:17" ht="22">
+    <row r="361" spans="1:17" ht="22.5">
       <c r="A361" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A361" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E361),
@@ -38143,7 +38108,7 @@
       <c r="P361" s="86"/>
       <c r="Q361" s="86"/>
     </row>
-    <row r="362" spans="1:17" ht="22">
+    <row r="362" spans="1:17" ht="22.5">
       <c r="A362" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A362" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E362),
@@ -38177,7 +38142,7 @@
       <c r="P362" s="86"/>
       <c r="Q362" s="86"/>
     </row>
-    <row r="363" spans="1:17" ht="22">
+    <row r="363" spans="1:17" ht="22.5">
       <c r="A363" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A363" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E363),
@@ -38249,7 +38214,7 @@
       <c r="P364" s="86"/>
       <c r="Q364" s="86"/>
     </row>
-    <row r="365" spans="1:17" ht="22">
+    <row r="365" spans="1:17" ht="22.5">
       <c r="A365" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A365" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E365),
@@ -38283,7 +38248,7 @@
       <c r="P365" s="86"/>
       <c r="Q365" s="86"/>
     </row>
-    <row r="366" spans="1:17" ht="22">
+    <row r="366" spans="1:17" ht="22.5">
       <c r="A366" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A366" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E366),
@@ -38317,7 +38282,7 @@
       <c r="P366" s="86"/>
       <c r="Q366" s="86"/>
     </row>
-    <row r="367" spans="1:17" ht="22">
+    <row r="367" spans="1:17" ht="22.5">
       <c r="A367" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A367" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E367),
@@ -38355,7 +38320,7 @@
       <c r="P367" s="86"/>
       <c r="Q367" s="86"/>
     </row>
-    <row r="368" spans="1:17" ht="22">
+    <row r="368" spans="1:17" ht="22.5">
       <c r="A368" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A368" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E368),
@@ -38389,7 +38354,7 @@
       <c r="P368" s="86"/>
       <c r="Q368" s="86"/>
     </row>
-    <row r="369" spans="1:17" ht="22">
+    <row r="369" spans="1:17" ht="22.5">
       <c r="A369" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A369" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E369),
@@ -38423,7 +38388,7 @@
       <c r="P369" s="86"/>
       <c r="Q369" s="86"/>
     </row>
-    <row r="370" spans="1:17" ht="22">
+    <row r="370" spans="1:17" ht="22.5">
       <c r="A370" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A370" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E370),
@@ -38457,7 +38422,7 @@
       <c r="P370" s="86"/>
       <c r="Q370" s="86"/>
     </row>
-    <row r="371" spans="1:17" ht="22">
+    <row r="371" spans="1:17" ht="22.5">
       <c r="A371" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A371" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E371),
@@ -38491,7 +38456,7 @@
       <c r="P371" s="86"/>
       <c r="Q371" s="86"/>
     </row>
-    <row r="372" spans="1:17" ht="33">
+    <row r="372" spans="1:17" ht="33.75">
       <c r="A372" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A372" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E372),
@@ -38525,7 +38490,7 @@
       <c r="P372" s="86"/>
       <c r="Q372" s="86"/>
     </row>
-    <row r="373" spans="1:17" ht="22">
+    <row r="373" spans="1:17" ht="22.5">
       <c r="A373" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A373" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E373),
@@ -38559,7 +38524,7 @@
       <c r="P373" s="86"/>
       <c r="Q373" s="86"/>
     </row>
-    <row r="374" spans="1:17" ht="22">
+    <row r="374" spans="1:17" ht="22.5">
       <c r="A374" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A374" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E374),
@@ -38593,7 +38558,7 @@
       <c r="P374" s="86"/>
       <c r="Q374" s="86"/>
     </row>
-    <row r="375" spans="1:17" ht="22">
+    <row r="375" spans="1:17" ht="22.5">
       <c r="A375" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A375" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E375),
@@ -38627,7 +38592,7 @@
       <c r="P375" s="86"/>
       <c r="Q375" s="86"/>
     </row>
-    <row r="376" spans="1:17" ht="22">
+    <row r="376" spans="1:17" ht="22.5">
       <c r="A376" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A376" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E376),
@@ -38661,7 +38626,7 @@
       <c r="P376" s="86"/>
       <c r="Q376" s="86"/>
     </row>
-    <row r="377" spans="1:17" ht="22">
+    <row r="377" spans="1:17" ht="22.5">
       <c r="A377" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A377" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E377),
@@ -38695,7 +38660,7 @@
       <c r="P377" s="86"/>
       <c r="Q377" s="86"/>
     </row>
-    <row r="378" spans="1:17" ht="22">
+    <row r="378" spans="1:17" ht="22.5">
       <c r="A378" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A378" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E378),
@@ -38729,7 +38694,7 @@
       <c r="P378" s="86"/>
       <c r="Q378" s="86"/>
     </row>
-    <row r="379" spans="1:17" ht="22">
+    <row r="379" spans="1:17" ht="22.5">
       <c r="A379" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A379" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E379),
@@ -38763,7 +38728,7 @@
       <c r="P379" s="86"/>
       <c r="Q379" s="86"/>
     </row>
-    <row r="380" spans="1:17" ht="22">
+    <row r="380" spans="1:17" ht="22.5">
       <c r="A380" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A380" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E380),
@@ -38797,7 +38762,7 @@
       <c r="P380" s="86"/>
       <c r="Q380" s="86"/>
     </row>
-    <row r="381" spans="1:17" ht="22">
+    <row r="381" spans="1:17" ht="22.5">
       <c r="A381" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A381" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E381),
@@ -38833,7 +38798,7 @@
       <c r="P381" s="86"/>
       <c r="Q381" s="86"/>
     </row>
-    <row r="382" spans="1:17" ht="33">
+    <row r="382" spans="1:17" ht="33.75">
       <c r="A382" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A382" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E382),
@@ -38867,7 +38832,7 @@
       <c r="P382" s="86"/>
       <c r="Q382" s="86"/>
     </row>
-    <row r="383" spans="1:17" ht="33">
+    <row r="383" spans="1:17" ht="33.75">
       <c r="A383" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A383" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E383),
@@ -38901,7 +38866,7 @@
       <c r="P383" s="86"/>
       <c r="Q383" s="86"/>
     </row>
-    <row r="384" spans="1:17" ht="33">
+    <row r="384" spans="1:17" ht="33.75">
       <c r="A384" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A384" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E384),
@@ -38935,7 +38900,7 @@
       <c r="P384" s="86"/>
       <c r="Q384" s="86"/>
     </row>
-    <row r="385" spans="1:17" ht="22">
+    <row r="385" spans="1:17" ht="22.5">
       <c r="A385" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A385" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E385),
@@ -38969,7 +38934,7 @@
       <c r="P385" s="86"/>
       <c r="Q385" s="86"/>
     </row>
-    <row r="386" spans="1:17" ht="22">
+    <row r="386" spans="1:17" ht="22.5">
       <c r="A386" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A386" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E386),
@@ -39003,7 +38968,7 @@
       <c r="P386" s="86"/>
       <c r="Q386" s="86"/>
     </row>
-    <row r="387" spans="1:17" ht="22">
+    <row r="387" spans="1:17" ht="22.5">
       <c r="A387" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A387" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E387),
@@ -39037,7 +39002,7 @@
       <c r="P387" s="86"/>
       <c r="Q387" s="86"/>
     </row>
-    <row r="388" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="388" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A388" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A388" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E388),
@@ -39079,7 +39044,7 @@
       <c r="P388" s="218"/>
       <c r="Q388" s="218"/>
     </row>
-    <row r="389" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="389" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A389" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A389" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E389),
@@ -39113,7 +39078,7 @@
       <c r="P389" s="198"/>
       <c r="Q389" s="198"/>
     </row>
-    <row r="390" spans="1:17" s="30" customFormat="1" ht="33">
+    <row r="390" spans="1:17" s="30" customFormat="1" ht="33.75">
       <c r="A390" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A390" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E390),
@@ -39147,7 +39112,7 @@
       <c r="P390" s="198"/>
       <c r="Q390" s="198"/>
     </row>
-    <row r="391" spans="1:17" s="30" customFormat="1" ht="33">
+    <row r="391" spans="1:17" s="30" customFormat="1" ht="33.75">
       <c r="A391" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A391" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E391),
@@ -39181,7 +39146,7 @@
       <c r="P391" s="198"/>
       <c r="Q391" s="198"/>
     </row>
-    <row r="392" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="392" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A392" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A392" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E392),
@@ -39215,7 +39180,7 @@
       <c r="P392" s="198"/>
       <c r="Q392" s="198"/>
     </row>
-    <row r="393" spans="1:17" s="30" customFormat="1" ht="33">
+    <row r="393" spans="1:17" s="30" customFormat="1" ht="33.75">
       <c r="A393" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A393" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E393),
@@ -39293,7 +39258,7 @@
       <c r="P394" s="198"/>
       <c r="Q394" s="198"/>
     </row>
-    <row r="395" spans="1:17" s="30" customFormat="1" ht="33">
+    <row r="395" spans="1:17" s="30" customFormat="1" ht="33.75">
       <c r="A395" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A395" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E395),
@@ -39327,7 +39292,7 @@
       <c r="P395" s="198"/>
       <c r="Q395" s="198"/>
     </row>
-    <row r="396" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="396" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A396" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A396" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E396),
@@ -39367,7 +39332,7 @@
       <c r="P396" s="117"/>
       <c r="Q396" s="117"/>
     </row>
-    <row r="397" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="397" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A397" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A397" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E397),
@@ -39439,7 +39404,7 @@
       <c r="P398" s="198"/>
       <c r="Q398" s="198"/>
     </row>
-    <row r="399" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="399" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A399" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A399" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E399),
@@ -39485,7 +39450,7 @@
       <c r="P399" s="119"/>
       <c r="Q399" s="119"/>
     </row>
-    <row r="400" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="400" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A400" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A400" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E400),
@@ -39565,7 +39530,7 @@
       <c r="P401" s="119"/>
       <c r="Q401" s="119"/>
     </row>
-    <row r="402" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="402" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A402" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A402" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E402),
@@ -39599,7 +39564,7 @@
       <c r="P402" s="157"/>
       <c r="Q402" s="157"/>
     </row>
-    <row r="403" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="403" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A403" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A403" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E403),
@@ -39633,7 +39598,7 @@
       <c r="P403" s="157"/>
       <c r="Q403" s="157"/>
     </row>
-    <row r="404" spans="1:17" s="30" customFormat="1" ht="33">
+    <row r="404" spans="1:17" s="30" customFormat="1" ht="33.75">
       <c r="A404" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A404" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E404),
@@ -39673,7 +39638,7 @@
       <c r="P404" s="119"/>
       <c r="Q404" s="119"/>
     </row>
-    <row r="405" spans="1:17" s="30" customFormat="1" ht="33">
+    <row r="405" spans="1:17" s="30" customFormat="1" ht="33.75">
       <c r="A405" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A405" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E405),
@@ -39717,7 +39682,7 @@
       <c r="P405" s="119"/>
       <c r="Q405" s="119"/>
     </row>
-    <row r="406" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="406" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A406" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A406" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E406),
@@ -39761,7 +39726,7 @@
       <c r="P406" s="119"/>
       <c r="Q406" s="119"/>
     </row>
-    <row r="407" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="407" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A407" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A407" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E407),
@@ -39799,7 +39764,7 @@
       <c r="P407" s="121"/>
       <c r="Q407" s="121"/>
     </row>
-    <row r="408" spans="1:17" s="30" customFormat="1" ht="55">
+    <row r="408" spans="1:17" s="30" customFormat="1" ht="56.25">
       <c r="A408" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A408" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E408),
@@ -39843,7 +39808,7 @@
       <c r="P408" s="121"/>
       <c r="Q408" s="121"/>
     </row>
-    <row r="409" spans="1:17" ht="22">
+    <row r="409" spans="1:17" ht="22.5">
       <c r="A409" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A409" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E409),
@@ -39885,7 +39850,7 @@
       <c r="P409" s="86"/>
       <c r="Q409" s="86"/>
     </row>
-    <row r="410" spans="1:17" ht="22">
+    <row r="410" spans="1:17" ht="22.5">
       <c r="A410" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A410" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E410),
@@ -39939,7 +39904,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="59" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;"ＭＳ 明朝,標準"&amp;9- &amp;P -</oddFooter>
   </headerFooter>
@@ -39960,18 +39925,18 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="2" width="8.58203125" style="24" customWidth="1"/>
-    <col min="3" max="5" width="8.58203125" style="25" customWidth="1"/>
-    <col min="6" max="6" width="40.58203125" style="25" customWidth="1"/>
-    <col min="7" max="7" width="40.58203125" style="55" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="15.58203125" style="61" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.58203125" style="61" customWidth="1"/>
-    <col min="10" max="10" width="25.58203125" style="66" customWidth="1"/>
-    <col min="11" max="11" width="25.58203125" style="67" customWidth="1"/>
-    <col min="12" max="12" width="12.58203125" style="24" customWidth="1"/>
-    <col min="13" max="17" width="8.58203125" style="24" customWidth="1"/>
+    <col min="1" max="2" width="8.625" style="24" customWidth="1"/>
+    <col min="3" max="5" width="8.625" style="25" customWidth="1"/>
+    <col min="6" max="6" width="40.625" style="25" customWidth="1"/>
+    <col min="7" max="7" width="40.625" style="55" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="15.625" style="61" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.625" style="61" customWidth="1"/>
+    <col min="10" max="10" width="25.625" style="66" customWidth="1"/>
+    <col min="11" max="11" width="25.625" style="67" customWidth="1"/>
+    <col min="12" max="12" width="12.625" style="24" customWidth="1"/>
+    <col min="13" max="17" width="8.625" style="24" customWidth="1"/>
     <col min="18" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
@@ -40012,7 +39977,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="24" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
@@ -40025,9 +39990,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="11.5" thickBot="1">
+    <row r="8" spans="1:17" ht="12" thickBot="1">
       <c r="A8" s="26" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B8" s="26"/>
       <c r="C8" s="27"/>
@@ -40046,7 +40011,7 @@
       <c r="P8" s="26"/>
       <c r="Q8" s="26"/>
     </row>
-    <row r="9" spans="1:17" ht="11.5" thickTop="1"/>
+    <row r="9" spans="1:17" ht="12" thickTop="1"/>
     <row r="10" spans="1:17" s="30" customFormat="1">
       <c r="A10" s="28" t="s">
         <v>32</v>
@@ -40100,7 +40065,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="22">
+    <row r="11" spans="1:17" ht="22.5">
       <c r="A11" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A11" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E11),
@@ -40142,7 +40107,7 @@
       <c r="P11" s="86"/>
       <c r="Q11" s="86"/>
     </row>
-    <row r="12" spans="1:17" ht="22">
+    <row r="12" spans="1:17" ht="22.5">
       <c r="A12" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A12" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E12),
@@ -40178,7 +40143,7 @@
       <c r="P12" s="86"/>
       <c r="Q12" s="86"/>
     </row>
-    <row r="13" spans="1:17" ht="33">
+    <row r="13" spans="1:17" ht="33.75">
       <c r="A13" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A13" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E13),
@@ -40216,7 +40181,7 @@
       <c r="P13" s="86"/>
       <c r="Q13" s="86"/>
     </row>
-    <row r="14" spans="1:17" ht="22">
+    <row r="14" spans="1:17" ht="22.5">
       <c r="A14" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A14" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E14),
@@ -40250,7 +40215,7 @@
       <c r="P14" s="86"/>
       <c r="Q14" s="86"/>
     </row>
-    <row r="15" spans="1:17" ht="22">
+    <row r="15" spans="1:17" ht="22.5">
       <c r="A15" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A15" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E15),
@@ -40284,7 +40249,7 @@
       <c r="P15" s="86"/>
       <c r="Q15" s="86"/>
     </row>
-    <row r="16" spans="1:17" ht="22">
+    <row r="16" spans="1:17" ht="22.5">
       <c r="A16" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A16" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E16),
@@ -40318,7 +40283,7 @@
       <c r="P16" s="86"/>
       <c r="Q16" s="86"/>
     </row>
-    <row r="17" spans="1:17" ht="33">
+    <row r="17" spans="1:17" ht="33.75">
       <c r="A17" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A17" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E17),
@@ -40352,7 +40317,7 @@
       <c r="P17" s="86"/>
       <c r="Q17" s="86"/>
     </row>
-    <row r="18" spans="1:17" ht="22">
+    <row r="18" spans="1:17" ht="22.5">
       <c r="A18" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A18" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E18),
@@ -40390,7 +40355,7 @@
       <c r="P18" s="86"/>
       <c r="Q18" s="86"/>
     </row>
-    <row r="19" spans="1:17" ht="22">
+    <row r="19" spans="1:17" ht="22.5">
       <c r="A19" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A19" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E19),
@@ -40424,7 +40389,7 @@
       <c r="P19" s="86"/>
       <c r="Q19" s="86"/>
     </row>
-    <row r="20" spans="1:17" ht="22">
+    <row r="20" spans="1:17" ht="22.5">
       <c r="A20" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A20" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E20),
@@ -40458,7 +40423,7 @@
       <c r="P20" s="86"/>
       <c r="Q20" s="86"/>
     </row>
-    <row r="21" spans="1:17" ht="22">
+    <row r="21" spans="1:17" ht="22.5">
       <c r="A21" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A21" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E21),
@@ -40494,7 +40459,7 @@
       <c r="P21" s="86"/>
       <c r="Q21" s="86"/>
     </row>
-    <row r="22" spans="1:17" ht="22">
+    <row r="22" spans="1:17" ht="22.5">
       <c r="A22" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A22" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E22),
@@ -40528,7 +40493,7 @@
       <c r="P22" s="86"/>
       <c r="Q22" s="86"/>
     </row>
-    <row r="23" spans="1:17" ht="22">
+    <row r="23" spans="1:17" ht="22.5">
       <c r="A23" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A23" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E23),
@@ -40562,7 +40527,7 @@
       <c r="P23" s="86"/>
       <c r="Q23" s="86"/>
     </row>
-    <row r="24" spans="1:17" ht="22">
+    <row r="24" spans="1:17" ht="22.5">
       <c r="A24" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A24" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E24),
@@ -40596,7 +40561,7 @@
       <c r="P24" s="86"/>
       <c r="Q24" s="86"/>
     </row>
-    <row r="25" spans="1:17" ht="22">
+    <row r="25" spans="1:17" ht="22.5">
       <c r="A25" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A25" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E25),
@@ -40668,7 +40633,7 @@
       <c r="P26" s="86"/>
       <c r="Q26" s="86"/>
     </row>
-    <row r="27" spans="1:17" ht="33">
+    <row r="27" spans="1:17" ht="33.75">
       <c r="A27" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A27" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E27),
@@ -40706,7 +40671,7 @@
       <c r="P27" s="86"/>
       <c r="Q27" s="86"/>
     </row>
-    <row r="28" spans="1:17" ht="22">
+    <row r="28" spans="1:17" ht="22.5">
       <c r="A28" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A28" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E28),
@@ -40740,7 +40705,7 @@
       <c r="P28" s="86"/>
       <c r="Q28" s="86"/>
     </row>
-    <row r="29" spans="1:17" ht="22">
+    <row r="29" spans="1:17" ht="22.5">
       <c r="A29" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A29" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E29),
@@ -40776,7 +40741,7 @@
       <c r="P29" s="86"/>
       <c r="Q29" s="86"/>
     </row>
-    <row r="30" spans="1:17" ht="22">
+    <row r="30" spans="1:17" ht="22.5">
       <c r="A30" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A30" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E30),
@@ -40810,7 +40775,7 @@
       <c r="P30" s="86"/>
       <c r="Q30" s="86"/>
     </row>
-    <row r="31" spans="1:17" ht="22">
+    <row r="31" spans="1:17" ht="22.5">
       <c r="A31" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A31" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E31),
@@ -40844,7 +40809,7 @@
       <c r="P31" s="86"/>
       <c r="Q31" s="86"/>
     </row>
-    <row r="32" spans="1:17" ht="22">
+    <row r="32" spans="1:17" ht="22.5">
       <c r="A32" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A32" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E32),
@@ -40878,7 +40843,7 @@
       <c r="P32" s="86"/>
       <c r="Q32" s="86"/>
     </row>
-    <row r="33" spans="1:17" ht="22">
+    <row r="33" spans="1:17" ht="22.5">
       <c r="A33" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A33" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E33),
@@ -40914,7 +40879,7 @@
       <c r="P33" s="86"/>
       <c r="Q33" s="86"/>
     </row>
-    <row r="34" spans="1:17" ht="22">
+    <row r="34" spans="1:17" ht="22.5">
       <c r="A34" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A34" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E34),
@@ -40948,7 +40913,7 @@
       <c r="P34" s="86"/>
       <c r="Q34" s="86"/>
     </row>
-    <row r="35" spans="1:17" ht="44">
+    <row r="35" spans="1:17" ht="45">
       <c r="A35" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A35" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E35),
@@ -40984,7 +40949,7 @@
       <c r="P35" s="86"/>
       <c r="Q35" s="86"/>
     </row>
-    <row r="36" spans="1:17" ht="33">
+    <row r="36" spans="1:17" ht="33.75">
       <c r="A36" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A36" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E36),
@@ -41024,7 +40989,7 @@
       <c r="P36" s="86"/>
       <c r="Q36" s="86"/>
     </row>
-    <row r="37" spans="1:17" ht="33">
+    <row r="37" spans="1:17" ht="33.75">
       <c r="A37" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A37" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E37),
@@ -41058,7 +41023,7 @@
       <c r="P37" s="86"/>
       <c r="Q37" s="86"/>
     </row>
-    <row r="38" spans="1:17" ht="22">
+    <row r="38" spans="1:17" ht="22.5">
       <c r="A38" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A38" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E38),
@@ -41092,7 +41057,7 @@
       <c r="P38" s="86"/>
       <c r="Q38" s="86"/>
     </row>
-    <row r="39" spans="1:17" ht="22">
+    <row r="39" spans="1:17" ht="22.5">
       <c r="A39" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A39" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E39),
@@ -41126,7 +41091,7 @@
       <c r="P39" s="86"/>
       <c r="Q39" s="86"/>
     </row>
-    <row r="40" spans="1:17" ht="33">
+    <row r="40" spans="1:17" ht="33.75">
       <c r="A40" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A40" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E40),
@@ -41198,7 +41163,7 @@
       <c r="P41" s="86"/>
       <c r="Q41" s="86"/>
     </row>
-    <row r="42" spans="1:17" ht="22">
+    <row r="42" spans="1:17" ht="22.5">
       <c r="A42" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A42" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E42),
@@ -41240,7 +41205,7 @@
       <c r="P42" s="86"/>
       <c r="Q42" s="86"/>
     </row>
-    <row r="43" spans="1:17" ht="22">
+    <row r="43" spans="1:17" ht="22.5">
       <c r="A43" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A43" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E43),
@@ -41274,7 +41239,7 @@
       <c r="P43" s="86"/>
       <c r="Q43" s="86"/>
     </row>
-    <row r="44" spans="1:17" ht="33">
+    <row r="44" spans="1:17" ht="33.75">
       <c r="A44" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A44" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E44),
@@ -41308,7 +41273,7 @@
       <c r="P44" s="86"/>
       <c r="Q44" s="86"/>
     </row>
-    <row r="45" spans="1:17" ht="22">
+    <row r="45" spans="1:17" ht="22.5">
       <c r="A45" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A45" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E45),
@@ -41344,7 +41309,7 @@
       <c r="P45" s="86"/>
       <c r="Q45" s="86"/>
     </row>
-    <row r="46" spans="1:17" ht="22">
+    <row r="46" spans="1:17" ht="22.5">
       <c r="A46" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A46" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E46),
@@ -41378,7 +41343,7 @@
       <c r="P46" s="86"/>
       <c r="Q46" s="86"/>
     </row>
-    <row r="47" spans="1:17" ht="33">
+    <row r="47" spans="1:17" ht="33.75">
       <c r="A47" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A47" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E47),
@@ -41412,7 +41377,7 @@
       <c r="P47" s="86"/>
       <c r="Q47" s="86"/>
     </row>
-    <row r="48" spans="1:17" ht="22">
+    <row r="48" spans="1:17" ht="22.5">
       <c r="A48" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A48" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E48),
@@ -41448,7 +41413,7 @@
       <c r="P48" s="86"/>
       <c r="Q48" s="86"/>
     </row>
-    <row r="49" spans="1:17" ht="22">
+    <row r="49" spans="1:17" ht="22.5">
       <c r="A49" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A49" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E49),
@@ -41482,7 +41447,7 @@
       <c r="P49" s="86"/>
       <c r="Q49" s="86"/>
     </row>
-    <row r="50" spans="1:17" ht="22">
+    <row r="50" spans="1:17" ht="22.5">
       <c r="A50" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A50" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E50),
@@ -41518,7 +41483,7 @@
       <c r="P50" s="86"/>
       <c r="Q50" s="86"/>
     </row>
-    <row r="51" spans="1:17" ht="22">
+    <row r="51" spans="1:17" ht="22.5">
       <c r="A51" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A51" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E51),
@@ -41552,7 +41517,7 @@
       <c r="P51" s="86"/>
       <c r="Q51" s="86"/>
     </row>
-    <row r="52" spans="1:17" ht="22">
+    <row r="52" spans="1:17" ht="22.5">
       <c r="A52" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A52" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E52),
@@ -41586,7 +41551,7 @@
       <c r="P52" s="86"/>
       <c r="Q52" s="86"/>
     </row>
-    <row r="53" spans="1:17" ht="22">
+    <row r="53" spans="1:17" ht="22.5">
       <c r="A53" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A53" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E53),
@@ -41620,7 +41585,7 @@
       <c r="P53" s="86"/>
       <c r="Q53" s="86"/>
     </row>
-    <row r="54" spans="1:17" ht="22">
+    <row r="54" spans="1:17" ht="22.5">
       <c r="A54" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A54" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E54),
@@ -41654,7 +41619,7 @@
       <c r="P54" s="86"/>
       <c r="Q54" s="86"/>
     </row>
-    <row r="55" spans="1:17" ht="22">
+    <row r="55" spans="1:17" ht="22.5">
       <c r="A55" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A55" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E55),
@@ -41688,7 +41653,7 @@
       <c r="P55" s="86"/>
       <c r="Q55" s="86"/>
     </row>
-    <row r="56" spans="1:17" ht="33">
+    <row r="56" spans="1:17" ht="33.75">
       <c r="A56" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A56" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E56),
@@ -41724,7 +41689,7 @@
       <c r="P56" s="86"/>
       <c r="Q56" s="86"/>
     </row>
-    <row r="57" spans="1:17" ht="22">
+    <row r="57" spans="1:17" ht="22.5">
       <c r="A57" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A57" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E57),
@@ -41760,7 +41725,7 @@
       <c r="P57" s="86"/>
       <c r="Q57" s="86"/>
     </row>
-    <row r="58" spans="1:17" ht="22">
+    <row r="58" spans="1:17" ht="22.5">
       <c r="A58" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A58" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E58),
@@ -41796,7 +41761,7 @@
       <c r="P58" s="86"/>
       <c r="Q58" s="86"/>
     </row>
-    <row r="59" spans="1:17" ht="22">
+    <row r="59" spans="1:17" ht="22.5">
       <c r="A59" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A59" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E59),
@@ -41834,7 +41799,7 @@
       <c r="P59" s="86"/>
       <c r="Q59" s="86"/>
     </row>
-    <row r="60" spans="1:17" ht="22">
+    <row r="60" spans="1:17" ht="22.5">
       <c r="A60" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A60" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E60),
@@ -41868,7 +41833,7 @@
       <c r="P60" s="86"/>
       <c r="Q60" s="86"/>
     </row>
-    <row r="61" spans="1:17" ht="22">
+    <row r="61" spans="1:17" ht="22.5">
       <c r="A61" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A61" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E61),
@@ -41902,7 +41867,7 @@
       <c r="P61" s="86"/>
       <c r="Q61" s="86"/>
     </row>
-    <row r="62" spans="1:17" ht="22">
+    <row r="62" spans="1:17" ht="22.5">
       <c r="A62" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A62" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E62),
@@ -41936,7 +41901,7 @@
       <c r="P62" s="86"/>
       <c r="Q62" s="86"/>
     </row>
-    <row r="63" spans="1:17" ht="22">
+    <row r="63" spans="1:17" ht="22.5">
       <c r="A63" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A63" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E63),
@@ -41970,7 +41935,7 @@
       <c r="P63" s="86"/>
       <c r="Q63" s="86"/>
     </row>
-    <row r="64" spans="1:17" ht="33">
+    <row r="64" spans="1:17" ht="33.75">
       <c r="A64" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A64" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E64),
@@ -42006,7 +41971,7 @@
       <c r="P64" s="86"/>
       <c r="Q64" s="86"/>
     </row>
-    <row r="65" spans="1:17" ht="33">
+    <row r="65" spans="1:17" ht="33.75">
       <c r="A65" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A65" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E65),
@@ -42040,7 +42005,7 @@
       <c r="P65" s="86"/>
       <c r="Q65" s="86"/>
     </row>
-    <row r="66" spans="1:17" ht="33">
+    <row r="66" spans="1:17" ht="33.75">
       <c r="A66" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A66" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E66),
@@ -42074,7 +42039,7 @@
       <c r="P66" s="86"/>
       <c r="Q66" s="86"/>
     </row>
-    <row r="67" spans="1:17" ht="33">
+    <row r="67" spans="1:17" ht="33.75">
       <c r="A67" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A67" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E67),
@@ -42108,7 +42073,7 @@
       <c r="P67" s="86"/>
       <c r="Q67" s="86"/>
     </row>
-    <row r="68" spans="1:17" ht="33">
+    <row r="68" spans="1:17" ht="33.75">
       <c r="A68" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A68" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E68),
@@ -42142,7 +42107,7 @@
       <c r="P68" s="86"/>
       <c r="Q68" s="86"/>
     </row>
-    <row r="69" spans="1:17" ht="22">
+    <row r="69" spans="1:17" ht="22.5">
       <c r="A69" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A69" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E69),
@@ -42176,7 +42141,7 @@
       <c r="P69" s="86"/>
       <c r="Q69" s="86"/>
     </row>
-    <row r="70" spans="1:17" ht="22">
+    <row r="70" spans="1:17" ht="22.5">
       <c r="A70" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A70" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E70),
@@ -42210,7 +42175,7 @@
       <c r="P70" s="86"/>
       <c r="Q70" s="86"/>
     </row>
-    <row r="71" spans="1:17" ht="33">
+    <row r="71" spans="1:17" ht="33.75">
       <c r="A71" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A71" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E71),
@@ -42244,7 +42209,7 @@
       <c r="P71" s="86"/>
       <c r="Q71" s="86"/>
     </row>
-    <row r="72" spans="1:17" ht="22">
+    <row r="72" spans="1:17" ht="22.5">
       <c r="A72" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A72" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E72),
@@ -42418,7 +42383,7 @@
       <c r="P76" s="86"/>
       <c r="Q76" s="86"/>
     </row>
-    <row r="77" spans="1:17" ht="22">
+    <row r="77" spans="1:17" ht="22.5">
       <c r="A77" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A77" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E77),
@@ -42452,7 +42417,7 @@
       <c r="P77" s="86"/>
       <c r="Q77" s="86"/>
     </row>
-    <row r="78" spans="1:17" ht="22">
+    <row r="78" spans="1:17" ht="22.5">
       <c r="A78" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A78" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E78),
@@ -42492,7 +42457,7 @@
       <c r="P78" s="86"/>
       <c r="Q78" s="86"/>
     </row>
-    <row r="79" spans="1:17" ht="33">
+    <row r="79" spans="1:17" ht="33.75">
       <c r="A79" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A79" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E79),
@@ -42562,7 +42527,7 @@
       <c r="P80" s="86"/>
       <c r="Q80" s="86"/>
     </row>
-    <row r="81" spans="1:17" ht="33">
+    <row r="81" spans="1:17" ht="33.75">
       <c r="A81" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A81" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E81),
@@ -42598,7 +42563,7 @@
       <c r="P81" s="86"/>
       <c r="Q81" s="86"/>
     </row>
-    <row r="82" spans="1:17" ht="33">
+    <row r="82" spans="1:17" ht="33.75">
       <c r="A82" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A82" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E82),
@@ -42632,7 +42597,7 @@
       <c r="P82" s="86"/>
       <c r="Q82" s="86"/>
     </row>
-    <row r="83" spans="1:17" ht="22">
+    <row r="83" spans="1:17" ht="22.5">
       <c r="A83" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A83" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E83),
@@ -42668,7 +42633,7 @@
       <c r="P83" s="86"/>
       <c r="Q83" s="86"/>
     </row>
-    <row r="84" spans="1:17" ht="22">
+    <row r="84" spans="1:17" ht="22.5">
       <c r="A84" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A84" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E84),
@@ -42704,7 +42669,7 @@
       <c r="P84" s="86"/>
       <c r="Q84" s="86"/>
     </row>
-    <row r="85" spans="1:17" ht="22">
+    <row r="85" spans="1:17" ht="22.5">
       <c r="A85" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A85" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E85),
@@ -42780,7 +42745,7 @@
       <c r="P86" s="86"/>
       <c r="Q86" s="86"/>
     </row>
-    <row r="87" spans="1:17" ht="33">
+    <row r="87" spans="1:17" ht="33.75">
       <c r="A87" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A87" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E87),
@@ -42816,7 +42781,7 @@
       <c r="P87" s="86"/>
       <c r="Q87" s="86"/>
     </row>
-    <row r="88" spans="1:17" ht="22">
+    <row r="88" spans="1:17" ht="22.5">
       <c r="A88" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A88" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E88),
@@ -42856,7 +42821,7 @@
       <c r="P88" s="86"/>
       <c r="Q88" s="86"/>
     </row>
-    <row r="89" spans="1:17" ht="33">
+    <row r="89" spans="1:17" ht="33.75">
       <c r="A89" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A89" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E89),
@@ -42926,7 +42891,7 @@
       <c r="P90" s="86"/>
       <c r="Q90" s="86"/>
     </row>
-    <row r="91" spans="1:17" ht="33">
+    <row r="91" spans="1:17" ht="33.75">
       <c r="A91" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A91" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E91),
@@ -42962,7 +42927,7 @@
       <c r="P91" s="86"/>
       <c r="Q91" s="86"/>
     </row>
-    <row r="92" spans="1:17" ht="33">
+    <row r="92" spans="1:17" ht="33.75">
       <c r="A92" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A92" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E92),
@@ -42996,7 +42961,7 @@
       <c r="P92" s="86"/>
       <c r="Q92" s="86"/>
     </row>
-    <row r="93" spans="1:17" ht="33">
+    <row r="93" spans="1:17" ht="33.75">
       <c r="A93" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A93" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E93),
@@ -43032,7 +42997,7 @@
       <c r="P93" s="86"/>
       <c r="Q93" s="86"/>
     </row>
-    <row r="94" spans="1:17" ht="22">
+    <row r="94" spans="1:17" ht="22.5">
       <c r="A94" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A94" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E94),
@@ -43072,7 +43037,7 @@
       <c r="P94" s="86"/>
       <c r="Q94" s="86"/>
     </row>
-    <row r="95" spans="1:17" ht="33">
+    <row r="95" spans="1:17" ht="33.75">
       <c r="A95" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A95" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E95),
@@ -43140,7 +43105,7 @@
       <c r="P96" s="86"/>
       <c r="Q96" s="86"/>
     </row>
-    <row r="97" spans="1:17" ht="33">
+    <row r="97" spans="1:17" ht="33.75">
       <c r="A97" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A97" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E97),
@@ -43174,7 +43139,7 @@
       <c r="P97" s="86"/>
       <c r="Q97" s="86"/>
     </row>
-    <row r="98" spans="1:17" ht="33">
+    <row r="98" spans="1:17" ht="33.75">
       <c r="A98" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A98" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E98),
@@ -43208,7 +43173,7 @@
       <c r="P98" s="86"/>
       <c r="Q98" s="86"/>
     </row>
-    <row r="99" spans="1:17" ht="22">
+    <row r="99" spans="1:17" ht="22.5">
       <c r="A99" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A99" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E99),
@@ -43244,7 +43209,7 @@
       <c r="P99" s="86"/>
       <c r="Q99" s="86"/>
     </row>
-    <row r="100" spans="1:17" ht="33">
+    <row r="100" spans="1:17" ht="33.75">
       <c r="A100" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A100" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E100),
@@ -43312,7 +43277,7 @@
       <c r="P101" s="86"/>
       <c r="Q101" s="86"/>
     </row>
-    <row r="102" spans="1:17" ht="33">
+    <row r="102" spans="1:17" ht="33.75">
       <c r="A102" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A102" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E102),
@@ -43346,7 +43311,7 @@
       <c r="P102" s="86"/>
       <c r="Q102" s="86"/>
     </row>
-    <row r="103" spans="1:17" ht="33">
+    <row r="103" spans="1:17" ht="33.75">
       <c r="A103" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A103" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E103),
@@ -43380,7 +43345,7 @@
       <c r="P103" s="86"/>
       <c r="Q103" s="86"/>
     </row>
-    <row r="104" spans="1:17" ht="33">
+    <row r="104" spans="1:17" ht="33.75">
       <c r="A104" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A104" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E104),
@@ -43416,7 +43381,7 @@
       <c r="P104" s="86"/>
       <c r="Q104" s="86"/>
     </row>
-    <row r="105" spans="1:17" ht="33">
+    <row r="105" spans="1:17" ht="33.75">
       <c r="A105" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A105" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E105),
@@ -43532,7 +43497,7 @@
       <c r="P107" s="86"/>
       <c r="Q107" s="86"/>
     </row>
-    <row r="108" spans="1:17" ht="22">
+    <row r="108" spans="1:17" ht="22.5">
       <c r="A108" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A108" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E108),
@@ -43572,7 +43537,7 @@
       <c r="P108" s="86"/>
       <c r="Q108" s="86"/>
     </row>
-    <row r="109" spans="1:17" ht="22">
+    <row r="109" spans="1:17" ht="22.5">
       <c r="A109" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A109" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E109),
@@ -43646,7 +43611,7 @@
       <c r="P110" s="86"/>
       <c r="Q110" s="86"/>
     </row>
-    <row r="111" spans="1:17" ht="22">
+    <row r="111" spans="1:17" ht="22.5">
       <c r="A111" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A111" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E111),
@@ -43688,7 +43653,7 @@
       <c r="P111" s="86"/>
       <c r="Q111" s="86"/>
     </row>
-    <row r="112" spans="1:17" ht="22">
+    <row r="112" spans="1:17" ht="22.5">
       <c r="A112" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A112" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E112),
@@ -43724,7 +43689,7 @@
       <c r="P112" s="86"/>
       <c r="Q112" s="86"/>
     </row>
-    <row r="113" spans="1:17" ht="22">
+    <row r="113" spans="1:17" ht="22.5">
       <c r="A113" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A113" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E113),
@@ -43758,7 +43723,7 @@
       <c r="P113" s="86"/>
       <c r="Q113" s="86"/>
     </row>
-    <row r="114" spans="1:17" ht="22">
+    <row r="114" spans="1:17" ht="22.5">
       <c r="A114" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A114" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E114),
@@ -43792,7 +43757,7 @@
       <c r="P114" s="86"/>
       <c r="Q114" s="86"/>
     </row>
-    <row r="115" spans="1:17" ht="22">
+    <row r="115" spans="1:17" ht="22.5">
       <c r="A115" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A115" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E115),
@@ -43828,7 +43793,7 @@
       <c r="P115" s="86"/>
       <c r="Q115" s="86"/>
     </row>
-    <row r="116" spans="1:17" ht="22">
+    <row r="116" spans="1:17" ht="22.5">
       <c r="A116" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A116" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E116),
@@ -43862,7 +43827,7 @@
       <c r="P116" s="86"/>
       <c r="Q116" s="86"/>
     </row>
-    <row r="117" spans="1:17" ht="22">
+    <row r="117" spans="1:17" ht="22.5">
       <c r="A117" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A117" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E117),
@@ -43896,7 +43861,7 @@
       <c r="P117" s="86"/>
       <c r="Q117" s="86"/>
     </row>
-    <row r="118" spans="1:17" ht="22">
+    <row r="118" spans="1:17" ht="22.5">
       <c r="A118" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A118" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E118),
@@ -43930,7 +43895,7 @@
       <c r="P118" s="86"/>
       <c r="Q118" s="86"/>
     </row>
-    <row r="119" spans="1:17" ht="33">
+    <row r="119" spans="1:17" ht="33.75">
       <c r="A119" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A119" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E119),
@@ -43964,7 +43929,7 @@
       <c r="P119" s="86"/>
       <c r="Q119" s="86"/>
     </row>
-    <row r="120" spans="1:17" ht="33">
+    <row r="120" spans="1:17" ht="33.75">
       <c r="A120" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A120" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E120),
@@ -44000,7 +43965,7 @@
       <c r="P120" s="86"/>
       <c r="Q120" s="86"/>
     </row>
-    <row r="121" spans="1:17" ht="33">
+    <row r="121" spans="1:17" ht="33.75">
       <c r="A121" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A121" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E121),
@@ -44034,7 +43999,7 @@
       <c r="P121" s="86"/>
       <c r="Q121" s="86"/>
     </row>
-    <row r="122" spans="1:17" ht="44">
+    <row r="122" spans="1:17" ht="45">
       <c r="A122" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A122" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E122),
@@ -44068,7 +44033,7 @@
       <c r="P122" s="86"/>
       <c r="Q122" s="86"/>
     </row>
-    <row r="123" spans="1:17" ht="44">
+    <row r="123" spans="1:17" ht="45">
       <c r="A123" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A123" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E123),
@@ -44102,7 +44067,7 @@
       <c r="P123" s="86"/>
       <c r="Q123" s="86"/>
     </row>
-    <row r="124" spans="1:17" ht="33">
+    <row r="124" spans="1:17" ht="33.75">
       <c r="A124" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A124" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E124),
@@ -44136,7 +44101,7 @@
       <c r="P124" s="86"/>
       <c r="Q124" s="86"/>
     </row>
-    <row r="125" spans="1:17" ht="33">
+    <row r="125" spans="1:17" ht="33.75">
       <c r="A125" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A125" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E125),
@@ -44172,7 +44137,7 @@
       <c r="P125" s="86"/>
       <c r="Q125" s="86"/>
     </row>
-    <row r="126" spans="1:17" ht="33">
+    <row r="126" spans="1:17" ht="33.75">
       <c r="A126" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A126" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E126),
@@ -44210,7 +44175,7 @@
       <c r="P126" s="86"/>
       <c r="Q126" s="86"/>
     </row>
-    <row r="127" spans="1:17" ht="33">
+    <row r="127" spans="1:17" ht="33.75">
       <c r="A127" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A127" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E127),
@@ -44250,7 +44215,7 @@
       <c r="P127" s="86"/>
       <c r="Q127" s="86"/>
     </row>
-    <row r="128" spans="1:17" ht="22">
+    <row r="128" spans="1:17" ht="22.5">
       <c r="A128" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A128" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E128),
@@ -44286,7 +44251,7 @@
       <c r="P128" s="86"/>
       <c r="Q128" s="86"/>
     </row>
-    <row r="129" spans="1:17" ht="22">
+    <row r="129" spans="1:17" ht="22.5">
       <c r="A129" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A129" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E129),
@@ -44320,7 +44285,7 @@
       <c r="P129" s="86"/>
       <c r="Q129" s="86"/>
     </row>
-    <row r="130" spans="1:17" ht="44">
+    <row r="130" spans="1:17" ht="45">
       <c r="A130" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A130" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E130),
@@ -44354,7 +44319,7 @@
       <c r="P130" s="86"/>
       <c r="Q130" s="86"/>
     </row>
-    <row r="131" spans="1:17" ht="22">
+    <row r="131" spans="1:17" ht="22.5">
       <c r="A131" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A131" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E131),
@@ -44396,7 +44361,7 @@
       <c r="P131" s="86"/>
       <c r="Q131" s="86"/>
     </row>
-    <row r="132" spans="1:17" ht="22">
+    <row r="132" spans="1:17" ht="22.5">
       <c r="A132" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A132" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E132),
@@ -44432,7 +44397,7 @@
       <c r="P132" s="86"/>
       <c r="Q132" s="86"/>
     </row>
-    <row r="133" spans="1:17" ht="22">
+    <row r="133" spans="1:17" ht="22.5">
       <c r="A133" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A133" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E133),
@@ -44466,7 +44431,7 @@
       <c r="P133" s="86"/>
       <c r="Q133" s="86"/>
     </row>
-    <row r="134" spans="1:17" ht="22">
+    <row r="134" spans="1:17" ht="22.5">
       <c r="A134" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A134" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E134),
@@ -44500,7 +44465,7 @@
       <c r="P134" s="86"/>
       <c r="Q134" s="86"/>
     </row>
-    <row r="135" spans="1:17" ht="22">
+    <row r="135" spans="1:17" ht="22.5">
       <c r="A135" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A135" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E135),
@@ -44536,7 +44501,7 @@
       <c r="P135" s="86"/>
       <c r="Q135" s="86"/>
     </row>
-    <row r="136" spans="1:17" ht="33">
+    <row r="136" spans="1:17" ht="33.75">
       <c r="A136" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A136" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E136),
@@ -44570,7 +44535,7 @@
       <c r="P136" s="86"/>
       <c r="Q136" s="86"/>
     </row>
-    <row r="137" spans="1:17" ht="33">
+    <row r="137" spans="1:17" ht="33.75">
       <c r="A137" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A137" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E137),
@@ -44608,7 +44573,7 @@
       <c r="P137" s="86"/>
       <c r="Q137" s="86"/>
     </row>
-    <row r="138" spans="1:17" ht="33">
+    <row r="138" spans="1:17" ht="33.75">
       <c r="A138" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A138" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E138),
@@ -44648,7 +44613,7 @@
       <c r="P138" s="86"/>
       <c r="Q138" s="86"/>
     </row>
-    <row r="139" spans="1:17" ht="33">
+    <row r="139" spans="1:17" ht="33.75">
       <c r="A139" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A139" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E139),
@@ -44684,7 +44649,7 @@
       <c r="P139" s="86"/>
       <c r="Q139" s="86"/>
     </row>
-    <row r="140" spans="1:17" ht="33">
+    <row r="140" spans="1:17" ht="33.75">
       <c r="A140" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A140" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E140),
@@ -44720,7 +44685,7 @@
       <c r="P140" s="86"/>
       <c r="Q140" s="86"/>
     </row>
-    <row r="141" spans="1:17" ht="33">
+    <row r="141" spans="1:17" ht="33.75">
       <c r="A141" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A141" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E141),
@@ -44756,7 +44721,7 @@
       <c r="P141" s="86"/>
       <c r="Q141" s="86"/>
     </row>
-    <row r="142" spans="1:17" ht="33">
+    <row r="142" spans="1:17" ht="33.75">
       <c r="A142" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A142" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E142),
@@ -44792,7 +44757,7 @@
       <c r="P142" s="86"/>
       <c r="Q142" s="86"/>
     </row>
-    <row r="143" spans="1:17" ht="22">
+    <row r="143" spans="1:17" ht="22.5">
       <c r="A143" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A143" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E143),
@@ -44828,7 +44793,7 @@
       <c r="P143" s="86"/>
       <c r="Q143" s="86"/>
     </row>
-    <row r="144" spans="1:17" ht="22">
+    <row r="144" spans="1:17" ht="22.5">
       <c r="A144" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A144" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E144),
@@ -44862,7 +44827,7 @@
       <c r="P144" s="86"/>
       <c r="Q144" s="86"/>
     </row>
-    <row r="145" spans="1:17" ht="22">
+    <row r="145" spans="1:17" ht="22.5">
       <c r="A145" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A145" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E145),
@@ -44896,7 +44861,7 @@
       <c r="P145" s="86"/>
       <c r="Q145" s="86"/>
     </row>
-    <row r="146" spans="1:17" ht="22">
+    <row r="146" spans="1:17" ht="22.5">
       <c r="A146" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A146" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E146),
@@ -44930,7 +44895,7 @@
       <c r="P146" s="86"/>
       <c r="Q146" s="86"/>
     </row>
-    <row r="147" spans="1:17" ht="22">
+    <row r="147" spans="1:17" ht="22.5">
       <c r="A147" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A147" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E147),
@@ -44964,7 +44929,7 @@
       <c r="P147" s="86"/>
       <c r="Q147" s="86"/>
     </row>
-    <row r="148" spans="1:17" ht="22">
+    <row r="148" spans="1:17" ht="22.5">
       <c r="A148" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A148" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E148),
@@ -44998,7 +44963,7 @@
       <c r="P148" s="86"/>
       <c r="Q148" s="86"/>
     </row>
-    <row r="149" spans="1:17" ht="22">
+    <row r="149" spans="1:17" ht="22.5">
       <c r="A149" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A149" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E149),
@@ -45036,7 +45001,7 @@
       <c r="P149" s="86"/>
       <c r="Q149" s="86"/>
     </row>
-    <row r="150" spans="1:17" ht="22">
+    <row r="150" spans="1:17" ht="22.5">
       <c r="A150" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A150" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E150),
@@ -45070,7 +45035,7 @@
       <c r="P150" s="86"/>
       <c r="Q150" s="86"/>
     </row>
-    <row r="151" spans="1:17" ht="33">
+    <row r="151" spans="1:17" ht="33.75">
       <c r="A151" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A151" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E151),
@@ -45106,7 +45071,7 @@
       <c r="P151" s="86"/>
       <c r="Q151" s="86"/>
     </row>
-    <row r="152" spans="1:17" ht="33">
+    <row r="152" spans="1:17" ht="33.75">
       <c r="A152" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A152" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E152),
@@ -45140,7 +45105,7 @@
       <c r="P152" s="86"/>
       <c r="Q152" s="86"/>
     </row>
-    <row r="153" spans="1:17" ht="33">
+    <row r="153" spans="1:17" ht="33.75">
       <c r="A153" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A153" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E153),
@@ -45174,7 +45139,7 @@
       <c r="P153" s="86"/>
       <c r="Q153" s="86"/>
     </row>
-    <row r="154" spans="1:17" ht="33">
+    <row r="154" spans="1:17" ht="33.75">
       <c r="A154" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A154" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E154),
@@ -45208,7 +45173,7 @@
       <c r="P154" s="86"/>
       <c r="Q154" s="86"/>
     </row>
-    <row r="155" spans="1:17" ht="33">
+    <row r="155" spans="1:17" ht="33.75">
       <c r="A155" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A155" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E155),
@@ -45242,7 +45207,7 @@
       <c r="P155" s="86"/>
       <c r="Q155" s="86"/>
     </row>
-    <row r="156" spans="1:17" ht="22">
+    <row r="156" spans="1:17" ht="22.5">
       <c r="A156" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A156" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E156),
@@ -45276,7 +45241,7 @@
       <c r="P156" s="86"/>
       <c r="Q156" s="86"/>
     </row>
-    <row r="157" spans="1:17" ht="22">
+    <row r="157" spans="1:17" ht="22.5">
       <c r="A157" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A157" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E157),
@@ -45310,7 +45275,7 @@
       <c r="P157" s="86"/>
       <c r="Q157" s="86"/>
     </row>
-    <row r="158" spans="1:17" ht="33">
+    <row r="158" spans="1:17" ht="33.75">
       <c r="A158" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A158" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E158),
@@ -45344,7 +45309,7 @@
       <c r="P158" s="86"/>
       <c r="Q158" s="86"/>
     </row>
-    <row r="159" spans="1:17" ht="33">
+    <row r="159" spans="1:17" ht="33.75">
       <c r="A159" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A159" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E159),
@@ -45378,7 +45343,7 @@
       <c r="P159" s="86"/>
       <c r="Q159" s="86"/>
     </row>
-    <row r="160" spans="1:17" ht="33">
+    <row r="160" spans="1:17" ht="33.75">
       <c r="A160" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A160" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E160),
@@ -45412,7 +45377,7 @@
       <c r="P160" s="86"/>
       <c r="Q160" s="86"/>
     </row>
-    <row r="161" spans="1:17" ht="33">
+    <row r="161" spans="1:17" ht="33.75">
       <c r="A161" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A161" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E161),
@@ -45516,7 +45481,7 @@
       <c r="P163" s="86"/>
       <c r="Q163" s="86"/>
     </row>
-    <row r="164" spans="1:17" ht="22">
+    <row r="164" spans="1:17" ht="22.5">
       <c r="A164" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A164" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E164),
@@ -45550,7 +45515,7 @@
       <c r="P164" s="86"/>
       <c r="Q164" s="86"/>
     </row>
-    <row r="165" spans="1:17" ht="22">
+    <row r="165" spans="1:17" ht="22.5">
       <c r="A165" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A165" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E165),
@@ -45584,7 +45549,7 @@
       <c r="P165" s="86"/>
       <c r="Q165" s="86"/>
     </row>
-    <row r="166" spans="1:17" ht="22">
+    <row r="166" spans="1:17" ht="22.5">
       <c r="A166" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A166" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E166),
@@ -45618,7 +45583,7 @@
       <c r="P166" s="86"/>
       <c r="Q166" s="86"/>
     </row>
-    <row r="167" spans="1:17" ht="33">
+    <row r="167" spans="1:17" ht="33.75">
       <c r="A167" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A167" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E167),
@@ -45652,7 +45617,7 @@
       <c r="P167" s="86"/>
       <c r="Q167" s="86"/>
     </row>
-    <row r="168" spans="1:17" ht="22">
+    <row r="168" spans="1:17" ht="22.5">
       <c r="A168" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A168" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E168),
@@ -45686,7 +45651,7 @@
       <c r="P168" s="86"/>
       <c r="Q168" s="86"/>
     </row>
-    <row r="169" spans="1:17" ht="22">
+    <row r="169" spans="1:17" ht="22.5">
       <c r="A169" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A169" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E169),
@@ -45722,7 +45687,7 @@
       <c r="P169" s="86"/>
       <c r="Q169" s="86"/>
     </row>
-    <row r="170" spans="1:17" ht="33">
+    <row r="170" spans="1:17" ht="33.75">
       <c r="A170" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A170" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E170),
@@ -45756,7 +45721,7 @@
       <c r="P170" s="86"/>
       <c r="Q170" s="86"/>
     </row>
-    <row r="171" spans="1:17" ht="33">
+    <row r="171" spans="1:17" ht="33.75">
       <c r="A171" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A171" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E171),
@@ -45790,7 +45755,7 @@
       <c r="P171" s="86"/>
       <c r="Q171" s="86"/>
     </row>
-    <row r="172" spans="1:17" ht="44">
+    <row r="172" spans="1:17" ht="45">
       <c r="A172" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A172" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E172),
@@ -45824,7 +45789,7 @@
       <c r="P172" s="86"/>
       <c r="Q172" s="86"/>
     </row>
-    <row r="173" spans="1:17" ht="44">
+    <row r="173" spans="1:17" ht="45">
       <c r="A173" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A173" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E173),
@@ -45858,7 +45823,7 @@
       <c r="P173" s="86"/>
       <c r="Q173" s="86"/>
     </row>
-    <row r="174" spans="1:17" ht="33">
+    <row r="174" spans="1:17" ht="33.75">
       <c r="A174" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A174" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E174),
@@ -45892,7 +45857,7 @@
       <c r="P174" s="86"/>
       <c r="Q174" s="86"/>
     </row>
-    <row r="175" spans="1:17" ht="44">
+    <row r="175" spans="1:17" ht="45">
       <c r="A175" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A175" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E175),
@@ -45926,7 +45891,7 @@
       <c r="P175" s="86"/>
       <c r="Q175" s="86"/>
     </row>
-    <row r="176" spans="1:17" ht="44">
+    <row r="176" spans="1:17" ht="45">
       <c r="A176" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A176" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E176),
@@ -45960,7 +45925,7 @@
       <c r="P176" s="86"/>
       <c r="Q176" s="86"/>
     </row>
-    <row r="177" spans="1:17" ht="22">
+    <row r="177" spans="1:17" ht="22.5">
       <c r="A177" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A177" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E177),
@@ -45994,7 +45959,7 @@
       <c r="P177" s="86"/>
       <c r="Q177" s="86"/>
     </row>
-    <row r="178" spans="1:17" ht="33">
+    <row r="178" spans="1:17" ht="33.75">
       <c r="A178" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A178" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E178),
@@ -46030,7 +45995,7 @@
       <c r="P178" s="86"/>
       <c r="Q178" s="86"/>
     </row>
-    <row r="179" spans="1:17" ht="22">
+    <row r="179" spans="1:17" ht="22.5">
       <c r="A179" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A179" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E179),
@@ -46066,7 +46031,7 @@
       <c r="P179" s="86"/>
       <c r="Q179" s="86"/>
     </row>
-    <row r="180" spans="1:17" ht="22">
+    <row r="180" spans="1:17" ht="22.5">
       <c r="A180" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A180" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E180),
@@ -46108,7 +46073,7 @@
       <c r="P180" s="86"/>
       <c r="Q180" s="86"/>
     </row>
-    <row r="181" spans="1:17" ht="22">
+    <row r="181" spans="1:17" ht="22.5">
       <c r="A181" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A181" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E181),
@@ -46146,7 +46111,7 @@
       <c r="P181" s="86"/>
       <c r="Q181" s="86"/>
     </row>
-    <row r="182" spans="1:17" ht="22">
+    <row r="182" spans="1:17" ht="22.5">
       <c r="A182" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A182" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E182),
@@ -46184,7 +46149,7 @@
       <c r="P182" s="86"/>
       <c r="Q182" s="86"/>
     </row>
-    <row r="183" spans="1:17" ht="22">
+    <row r="183" spans="1:17" ht="22.5">
       <c r="A183" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A183" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E183),
@@ -46226,7 +46191,7 @@
       <c r="P183" s="86"/>
       <c r="Q183" s="86"/>
     </row>
-    <row r="184" spans="1:17" ht="22">
+    <row r="184" spans="1:17" ht="22.5">
       <c r="A184" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A184" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E184),
@@ -46262,7 +46227,7 @@
       <c r="P184" s="86"/>
       <c r="Q184" s="86"/>
     </row>
-    <row r="185" spans="1:17" ht="22">
+    <row r="185" spans="1:17" ht="22.5">
       <c r="A185" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A185" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E185),
@@ -46296,7 +46261,7 @@
       <c r="P185" s="86"/>
       <c r="Q185" s="86"/>
     </row>
-    <row r="186" spans="1:17" ht="22">
+    <row r="186" spans="1:17" ht="22.5">
       <c r="A186" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A186" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E186),
@@ -46332,7 +46297,7 @@
       <c r="P186" s="86"/>
       <c r="Q186" s="86"/>
     </row>
-    <row r="187" spans="1:17" ht="22">
+    <row r="187" spans="1:17" ht="22.5">
       <c r="A187" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A187" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E187),
@@ -46366,7 +46331,7 @@
       <c r="P187" s="86"/>
       <c r="Q187" s="86"/>
     </row>
-    <row r="188" spans="1:17" ht="33">
+    <row r="188" spans="1:17" ht="33.75">
       <c r="A188" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A188" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E188),
@@ -46404,7 +46369,7 @@
       <c r="P188" s="86"/>
       <c r="Q188" s="86"/>
     </row>
-    <row r="189" spans="1:17" ht="22">
+    <row r="189" spans="1:17" ht="22.5">
       <c r="A189" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A189" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E189),
@@ -46444,7 +46409,7 @@
       <c r="P189" s="86"/>
       <c r="Q189" s="86"/>
     </row>
-    <row r="190" spans="1:17" ht="22">
+    <row r="190" spans="1:17" ht="22.5">
       <c r="A190" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A190" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E190),
@@ -46478,7 +46443,7 @@
       <c r="P190" s="86"/>
       <c r="Q190" s="86"/>
     </row>
-    <row r="191" spans="1:17" ht="22">
+    <row r="191" spans="1:17" ht="22.5">
       <c r="A191" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A191" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E191),
@@ -46512,7 +46477,7 @@
       <c r="P191" s="86"/>
       <c r="Q191" s="86"/>
     </row>
-    <row r="192" spans="1:17" ht="22">
+    <row r="192" spans="1:17" ht="22.5">
       <c r="A192" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A192" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E192),
@@ -46546,7 +46511,7 @@
       <c r="P192" s="86"/>
       <c r="Q192" s="86"/>
     </row>
-    <row r="193" spans="1:17" ht="22">
+    <row r="193" spans="1:17" ht="22.5">
       <c r="A193" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A193" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E193),
@@ -46580,7 +46545,7 @@
       <c r="P193" s="86"/>
       <c r="Q193" s="86"/>
     </row>
-    <row r="194" spans="1:17" ht="22">
+    <row r="194" spans="1:17" ht="22.5">
       <c r="A194" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A194" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E194),
@@ -46614,7 +46579,7 @@
       <c r="P194" s="86"/>
       <c r="Q194" s="86"/>
     </row>
-    <row r="195" spans="1:17" ht="22">
+    <row r="195" spans="1:17" ht="22.5">
       <c r="A195" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A195" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E195),
@@ -46648,7 +46613,7 @@
       <c r="P195" s="86"/>
       <c r="Q195" s="86"/>
     </row>
-    <row r="196" spans="1:17" ht="22">
+    <row r="196" spans="1:17" ht="22.5">
       <c r="A196" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A196" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E196),
@@ -46684,7 +46649,7 @@
       <c r="P196" s="86"/>
       <c r="Q196" s="86"/>
     </row>
-    <row r="197" spans="1:17" ht="22">
+    <row r="197" spans="1:17" ht="22.5">
       <c r="A197" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A197" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E197),
@@ -46722,7 +46687,7 @@
       <c r="P197" s="86"/>
       <c r="Q197" s="86"/>
     </row>
-    <row r="198" spans="1:17" ht="22">
+    <row r="198" spans="1:17" ht="22.5">
       <c r="A198" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A198" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E198),
@@ -46790,7 +46755,7 @@
       <c r="P199" s="86"/>
       <c r="Q199" s="86"/>
     </row>
-    <row r="200" spans="1:17" ht="22">
+    <row r="200" spans="1:17" ht="22.5">
       <c r="A200" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A200" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E200),
@@ -46824,7 +46789,7 @@
       <c r="P200" s="86"/>
       <c r="Q200" s="86"/>
     </row>
-    <row r="201" spans="1:17" ht="33">
+    <row r="201" spans="1:17" ht="33.75">
       <c r="A201" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A201" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E201),
@@ -46858,7 +46823,7 @@
       <c r="P201" s="86"/>
       <c r="Q201" s="86"/>
     </row>
-    <row r="202" spans="1:17" ht="33">
+    <row r="202" spans="1:17" ht="33.75">
       <c r="A202" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A202" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E202),
@@ -46892,7 +46857,7 @@
       <c r="P202" s="86"/>
       <c r="Q202" s="86"/>
     </row>
-    <row r="203" spans="1:17" ht="44">
+    <row r="203" spans="1:17" ht="45">
       <c r="A203" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A203" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E203),
@@ -46926,7 +46891,7 @@
       <c r="P203" s="86"/>
       <c r="Q203" s="86"/>
     </row>
-    <row r="204" spans="1:17" ht="33">
+    <row r="204" spans="1:17" ht="33.75">
       <c r="A204" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A204" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E204),
@@ -46960,7 +46925,7 @@
       <c r="P204" s="86"/>
       <c r="Q204" s="86"/>
     </row>
-    <row r="205" spans="1:17" ht="33">
+    <row r="205" spans="1:17" ht="33.75">
       <c r="A205" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A205" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E205),
@@ -46994,7 +46959,7 @@
       <c r="P205" s="86"/>
       <c r="Q205" s="86"/>
     </row>
-    <row r="206" spans="1:17" ht="22">
+    <row r="206" spans="1:17" ht="22.5">
       <c r="A206" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A206" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E206),
@@ -47028,7 +46993,7 @@
       <c r="P206" s="86"/>
       <c r="Q206" s="86"/>
     </row>
-    <row r="207" spans="1:17" ht="22">
+    <row r="207" spans="1:17" ht="22.5">
       <c r="A207" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A207" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E207),
@@ -47062,7 +47027,7 @@
       <c r="P207" s="86"/>
       <c r="Q207" s="86"/>
     </row>
-    <row r="208" spans="1:17" ht="33">
+    <row r="208" spans="1:17" ht="33.75">
       <c r="A208" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A208" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E208),
@@ -47096,7 +47061,7 @@
       <c r="P208" s="86"/>
       <c r="Q208" s="86"/>
     </row>
-    <row r="209" spans="1:17" ht="22">
+    <row r="209" spans="1:17" ht="22.5">
       <c r="A209" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A209" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E209),
@@ -47130,7 +47095,7 @@
       <c r="P209" s="86"/>
       <c r="Q209" s="86"/>
     </row>
-    <row r="210" spans="1:17" ht="22">
+    <row r="210" spans="1:17" ht="22.5">
       <c r="A210" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A210" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E210),
@@ -47168,7 +47133,7 @@
       <c r="P210" s="86"/>
       <c r="Q210" s="86"/>
     </row>
-    <row r="211" spans="1:17" ht="22">
+    <row r="211" spans="1:17" ht="22.5">
       <c r="A211" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A211" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E211),
@@ -47202,7 +47167,7 @@
       <c r="P211" s="86"/>
       <c r="Q211" s="86"/>
     </row>
-    <row r="212" spans="1:17" ht="22">
+    <row r="212" spans="1:17" ht="22.5">
       <c r="A212" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A212" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E212),
@@ -47270,7 +47235,7 @@
       <c r="P213" s="86"/>
       <c r="Q213" s="86"/>
     </row>
-    <row r="214" spans="1:17" ht="22">
+    <row r="214" spans="1:17" ht="22.5">
       <c r="A214" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A214" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E214),
@@ -47304,7 +47269,7 @@
       <c r="P214" s="86"/>
       <c r="Q214" s="86"/>
     </row>
-    <row r="215" spans="1:17" ht="44">
+    <row r="215" spans="1:17" ht="45">
       <c r="A215" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A215" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E215),
@@ -47338,7 +47303,7 @@
       <c r="P215" s="86"/>
       <c r="Q215" s="86"/>
     </row>
-    <row r="216" spans="1:17" ht="33">
+    <row r="216" spans="1:17" ht="33.75">
       <c r="A216" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A216" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E216),
@@ -47372,7 +47337,7 @@
       <c r="P216" s="86"/>
       <c r="Q216" s="86"/>
     </row>
-    <row r="217" spans="1:17" ht="33">
+    <row r="217" spans="1:17" ht="33.75">
       <c r="A217" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A217" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E217),
@@ -47406,7 +47371,7 @@
       <c r="P217" s="86"/>
       <c r="Q217" s="86"/>
     </row>
-    <row r="218" spans="1:17" ht="44">
+    <row r="218" spans="1:17" ht="45">
       <c r="A218" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A218" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E218),
@@ -47440,7 +47405,7 @@
       <c r="P218" s="86"/>
       <c r="Q218" s="86"/>
     </row>
-    <row r="219" spans="1:17" ht="33">
+    <row r="219" spans="1:17" ht="33.75">
       <c r="A219" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A219" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E219),
@@ -47474,7 +47439,7 @@
       <c r="P219" s="86"/>
       <c r="Q219" s="86"/>
     </row>
-    <row r="220" spans="1:17" ht="33">
+    <row r="220" spans="1:17" ht="33.75">
       <c r="A220" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A220" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E220),
@@ -47508,7 +47473,7 @@
       <c r="P220" s="86"/>
       <c r="Q220" s="86"/>
     </row>
-    <row r="221" spans="1:17" ht="22">
+    <row r="221" spans="1:17" ht="22.5">
       <c r="A221" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A221" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E221),
@@ -47542,7 +47507,7 @@
       <c r="P221" s="86"/>
       <c r="Q221" s="86"/>
     </row>
-    <row r="222" spans="1:17" ht="22">
+    <row r="222" spans="1:17" ht="22.5">
       <c r="A222" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A222" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E222),
@@ -47576,7 +47541,7 @@
       <c r="P222" s="86"/>
       <c r="Q222" s="86"/>
     </row>
-    <row r="223" spans="1:17" ht="33">
+    <row r="223" spans="1:17" ht="33.75">
       <c r="A223" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A223" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E223),
@@ -47610,7 +47575,7 @@
       <c r="P223" s="86"/>
       <c r="Q223" s="86"/>
     </row>
-    <row r="224" spans="1:17" ht="22">
+    <row r="224" spans="1:17" ht="22.5">
       <c r="A224" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A224" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E224),
@@ -47644,7 +47609,7 @@
       <c r="P224" s="86"/>
       <c r="Q224" s="86"/>
     </row>
-    <row r="225" spans="1:17" ht="44">
+    <row r="225" spans="1:17" ht="45">
       <c r="A225" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A225" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E225),
@@ -47680,7 +47645,7 @@
       <c r="P225" s="86"/>
       <c r="Q225" s="86"/>
     </row>
-    <row r="226" spans="1:17" ht="44">
+    <row r="226" spans="1:17" ht="45">
       <c r="A226" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A226" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E226),
@@ -47714,7 +47679,7 @@
       <c r="P226" s="86"/>
       <c r="Q226" s="86"/>
     </row>
-    <row r="227" spans="1:17" ht="33">
+    <row r="227" spans="1:17" ht="33.75">
       <c r="A227" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A227" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E227),
@@ -47748,7 +47713,7 @@
       <c r="P227" s="86"/>
       <c r="Q227" s="86"/>
     </row>
-    <row r="228" spans="1:17" ht="33">
+    <row r="228" spans="1:17" ht="33.75">
       <c r="A228" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A228" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E228),
@@ -47784,7 +47749,7 @@
       <c r="P228" s="86"/>
       <c r="Q228" s="86"/>
     </row>
-    <row r="229" spans="1:17" ht="22">
+    <row r="229" spans="1:17" ht="22.5">
       <c r="A229" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A229" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E229),
@@ -47820,7 +47785,7 @@
       <c r="P229" s="86"/>
       <c r="Q229" s="86"/>
     </row>
-    <row r="230" spans="1:17" ht="22">
+    <row r="230" spans="1:17" ht="22.5">
       <c r="A230" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A230" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E230),
@@ -47862,7 +47827,7 @@
       <c r="P230" s="86"/>
       <c r="Q230" s="86"/>
     </row>
-    <row r="231" spans="1:17" ht="22">
+    <row r="231" spans="1:17" ht="22.5">
       <c r="A231" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A231" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E231),
@@ -47898,7 +47863,7 @@
       <c r="P231" s="86"/>
       <c r="Q231" s="86"/>
     </row>
-    <row r="232" spans="1:17" ht="22">
+    <row r="232" spans="1:17" ht="22.5">
       <c r="A232" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A232" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E232),
@@ -47932,7 +47897,7 @@
       <c r="P232" s="86"/>
       <c r="Q232" s="86"/>
     </row>
-    <row r="233" spans="1:17" ht="22">
+    <row r="233" spans="1:17" ht="22.5">
       <c r="A233" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A233" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E233),
@@ -47966,7 +47931,7 @@
       <c r="P233" s="86"/>
       <c r="Q233" s="86"/>
     </row>
-    <row r="234" spans="1:17" ht="22">
+    <row r="234" spans="1:17" ht="22.5">
       <c r="A234" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A234" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E234),
@@ -48000,7 +47965,7 @@
       <c r="P234" s="86"/>
       <c r="Q234" s="86"/>
     </row>
-    <row r="235" spans="1:17" ht="33">
+    <row r="235" spans="1:17" ht="33.75">
       <c r="A235" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A235" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E235),
@@ -48034,7 +47999,7 @@
       <c r="P235" s="86"/>
       <c r="Q235" s="86"/>
     </row>
-    <row r="236" spans="1:17" ht="33">
+    <row r="236" spans="1:17" ht="33.75">
       <c r="A236" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A236" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E236),
@@ -48070,7 +48035,7 @@
       <c r="P236" s="86"/>
       <c r="Q236" s="86"/>
     </row>
-    <row r="237" spans="1:17" ht="33">
+    <row r="237" spans="1:17" ht="33.75">
       <c r="A237" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A237" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E237),
@@ -48104,7 +48069,7 @@
       <c r="P237" s="86"/>
       <c r="Q237" s="86"/>
     </row>
-    <row r="238" spans="1:17" ht="44">
+    <row r="238" spans="1:17" ht="45">
       <c r="A238" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A238" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E238),
@@ -48138,7 +48103,7 @@
       <c r="P238" s="86"/>
       <c r="Q238" s="86"/>
     </row>
-    <row r="239" spans="1:17" ht="44">
+    <row r="239" spans="1:17" ht="45">
       <c r="A239" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A239" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E239),
@@ -48172,7 +48137,7 @@
       <c r="P239" s="86"/>
       <c r="Q239" s="86"/>
     </row>
-    <row r="240" spans="1:17" ht="33">
+    <row r="240" spans="1:17" ht="33.75">
       <c r="A240" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A240" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E240),
@@ -48206,7 +48171,7 @@
       <c r="P240" s="86"/>
       <c r="Q240" s="86"/>
     </row>
-    <row r="241" spans="1:17" ht="33">
+    <row r="241" spans="1:17" ht="33.75">
       <c r="A241" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A241" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E241),
@@ -48242,7 +48207,7 @@
       <c r="P241" s="86"/>
       <c r="Q241" s="86"/>
     </row>
-    <row r="242" spans="1:17" ht="33">
+    <row r="242" spans="1:17" ht="33.75">
       <c r="A242" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A242" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E242),
@@ -48282,7 +48247,7 @@
       <c r="P242" s="86"/>
       <c r="Q242" s="86"/>
     </row>
-    <row r="243" spans="1:17" ht="22">
+    <row r="243" spans="1:17" ht="22.5">
       <c r="A243" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A243" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E243),
@@ -48324,7 +48289,7 @@
       <c r="P243" s="86"/>
       <c r="Q243" s="86"/>
     </row>
-    <row r="244" spans="1:17" ht="22">
+    <row r="244" spans="1:17" ht="22.5">
       <c r="A244" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A244" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E244),
@@ -48358,7 +48323,7 @@
       <c r="P244" s="86"/>
       <c r="Q244" s="86"/>
     </row>
-    <row r="245" spans="1:17" ht="33">
+    <row r="245" spans="1:17" ht="33.75">
       <c r="A245" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A245" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E245),
@@ -48396,7 +48361,7 @@
       <c r="P245" s="86"/>
       <c r="Q245" s="86"/>
     </row>
-    <row r="246" spans="1:17" ht="33">
+    <row r="246" spans="1:17" ht="33.75">
       <c r="A246" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A246" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E246),
@@ -48430,7 +48395,7 @@
       <c r="P246" s="86"/>
       <c r="Q246" s="86"/>
     </row>
-    <row r="247" spans="1:17" ht="33">
+    <row r="247" spans="1:17" ht="33.75">
       <c r="A247" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A247" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E247),
@@ -48470,7 +48435,7 @@
       <c r="P247" s="86"/>
       <c r="Q247" s="86"/>
     </row>
-    <row r="248" spans="1:17" ht="33">
+    <row r="248" spans="1:17" ht="33.75">
       <c r="A248" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A248" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E248),
@@ -48506,7 +48471,7 @@
       <c r="P248" s="86"/>
       <c r="Q248" s="86"/>
     </row>
-    <row r="249" spans="1:17" ht="33">
+    <row r="249" spans="1:17" ht="33.75">
       <c r="A249" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A249" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E249),
@@ -48542,7 +48507,7 @@
       <c r="P249" s="86"/>
       <c r="Q249" s="86"/>
     </row>
-    <row r="250" spans="1:17" ht="33">
+    <row r="250" spans="1:17" ht="33.75">
       <c r="A250" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A250" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E250),
@@ -48578,7 +48543,7 @@
       <c r="P250" s="86"/>
       <c r="Q250" s="86"/>
     </row>
-    <row r="251" spans="1:17" ht="22">
+    <row r="251" spans="1:17" ht="22.5">
       <c r="A251" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A251" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E251),
@@ -48616,7 +48581,7 @@
       <c r="P251" s="86"/>
       <c r="Q251" s="86"/>
     </row>
-    <row r="252" spans="1:17" ht="22">
+    <row r="252" spans="1:17" ht="22.5">
       <c r="A252" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A252" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E252),
@@ -48650,7 +48615,7 @@
       <c r="P252" s="86"/>
       <c r="Q252" s="86"/>
     </row>
-    <row r="253" spans="1:17" ht="33">
+    <row r="253" spans="1:17" ht="33.75">
       <c r="A253" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A253" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E253),
@@ -48686,7 +48651,7 @@
       <c r="P253" s="86"/>
       <c r="Q253" s="86"/>
     </row>
-    <row r="254" spans="1:17" ht="33">
+    <row r="254" spans="1:17" ht="33.75">
       <c r="A254" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A254" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E254),
@@ -48720,7 +48685,7 @@
       <c r="P254" s="86"/>
       <c r="Q254" s="86"/>
     </row>
-    <row r="255" spans="1:17" ht="33">
+    <row r="255" spans="1:17" ht="33.75">
       <c r="A255" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A255" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E255),
@@ -48754,7 +48719,7 @@
       <c r="P255" s="86"/>
       <c r="Q255" s="86"/>
     </row>
-    <row r="256" spans="1:17" ht="33">
+    <row r="256" spans="1:17" ht="33.75">
       <c r="A256" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A256" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E256),
@@ -48788,7 +48753,7 @@
       <c r="P256" s="86"/>
       <c r="Q256" s="86"/>
     </row>
-    <row r="257" spans="1:17" ht="33">
+    <row r="257" spans="1:17" ht="33.75">
       <c r="A257" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A257" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E257),
@@ -48822,7 +48787,7 @@
       <c r="P257" s="86"/>
       <c r="Q257" s="86"/>
     </row>
-    <row r="258" spans="1:17" ht="22">
+    <row r="258" spans="1:17" ht="22.5">
       <c r="A258" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A258" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E258),
@@ -48856,7 +48821,7 @@
       <c r="P258" s="86"/>
       <c r="Q258" s="86"/>
     </row>
-    <row r="259" spans="1:17" ht="22">
+    <row r="259" spans="1:17" ht="22.5">
       <c r="A259" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A259" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E259),
@@ -48890,7 +48855,7 @@
       <c r="P259" s="86"/>
       <c r="Q259" s="86"/>
     </row>
-    <row r="260" spans="1:17" ht="33">
+    <row r="260" spans="1:17" ht="33.75">
       <c r="A260" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A260" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E260),
@@ -48924,7 +48889,7 @@
       <c r="P260" s="86"/>
       <c r="Q260" s="86"/>
     </row>
-    <row r="261" spans="1:17" ht="33">
+    <row r="261" spans="1:17" ht="33.75">
       <c r="A261" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A261" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E261),
@@ -48958,7 +48923,7 @@
       <c r="P261" s="86"/>
       <c r="Q261" s="86"/>
     </row>
-    <row r="262" spans="1:17" ht="33">
+    <row r="262" spans="1:17" ht="33.75">
       <c r="A262" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A262" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E262),
@@ -48992,7 +48957,7 @@
       <c r="P262" s="86"/>
       <c r="Q262" s="86"/>
     </row>
-    <row r="263" spans="1:17" ht="33">
+    <row r="263" spans="1:17" ht="33.75">
       <c r="A263" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A263" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E263),
@@ -49096,7 +49061,7 @@
       <c r="P265" s="86"/>
       <c r="Q265" s="86"/>
     </row>
-    <row r="266" spans="1:17" ht="22">
+    <row r="266" spans="1:17" ht="22.5">
       <c r="A266" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A266" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E266),
@@ -49130,7 +49095,7 @@
       <c r="P266" s="86"/>
       <c r="Q266" s="86"/>
     </row>
-    <row r="267" spans="1:17" ht="22">
+    <row r="267" spans="1:17" ht="22.5">
       <c r="A267" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A267" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E267),
@@ -49164,7 +49129,7 @@
       <c r="P267" s="86"/>
       <c r="Q267" s="86"/>
     </row>
-    <row r="268" spans="1:17" ht="22">
+    <row r="268" spans="1:17" ht="22.5">
       <c r="A268" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A268" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E268),
@@ -49198,7 +49163,7 @@
       <c r="P268" s="86"/>
       <c r="Q268" s="86"/>
     </row>
-    <row r="269" spans="1:17" ht="33">
+    <row r="269" spans="1:17" ht="33.75">
       <c r="A269" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A269" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E269),
@@ -49232,7 +49197,7 @@
       <c r="P269" s="86"/>
       <c r="Q269" s="86"/>
     </row>
-    <row r="270" spans="1:17" ht="22">
+    <row r="270" spans="1:17" ht="22.5">
       <c r="A270" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A270" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E270),
@@ -49268,7 +49233,7 @@
       <c r="P270" s="86"/>
       <c r="Q270" s="86"/>
     </row>
-    <row r="271" spans="1:17" ht="33">
+    <row r="271" spans="1:17" ht="33.75">
       <c r="A271" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A271" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E271),
@@ -49302,7 +49267,7 @@
       <c r="P271" s="86"/>
       <c r="Q271" s="86"/>
     </row>
-    <row r="272" spans="1:17" ht="44">
+    <row r="272" spans="1:17" ht="45">
       <c r="A272" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A272" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E272),
@@ -49336,7 +49301,7 @@
       <c r="P272" s="86"/>
       <c r="Q272" s="86"/>
     </row>
-    <row r="273" spans="1:17" ht="44">
+    <row r="273" spans="1:17" ht="45">
       <c r="A273" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A273" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E273),
@@ -49370,7 +49335,7 @@
       <c r="P273" s="86"/>
       <c r="Q273" s="86"/>
     </row>
-    <row r="274" spans="1:17" ht="22">
+    <row r="274" spans="1:17" ht="22.5">
       <c r="A274" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A274" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E274),
@@ -49404,7 +49369,7 @@
       <c r="P274" s="86"/>
       <c r="Q274" s="86"/>
     </row>
-    <row r="275" spans="1:17" ht="44">
+    <row r="275" spans="1:17" ht="45">
       <c r="A275" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A275" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E275),
@@ -49438,7 +49403,7 @@
       <c r="P275" s="86"/>
       <c r="Q275" s="86"/>
     </row>
-    <row r="276" spans="1:17" ht="44">
+    <row r="276" spans="1:17" ht="45">
       <c r="A276" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A276" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E276),
@@ -49472,7 +49437,7 @@
       <c r="P276" s="86"/>
       <c r="Q276" s="86"/>
     </row>
-    <row r="277" spans="1:17" ht="22">
+    <row r="277" spans="1:17" ht="22.5">
       <c r="A277" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A277" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E277),
@@ -49506,7 +49471,7 @@
       <c r="P277" s="86"/>
       <c r="Q277" s="86"/>
     </row>
-    <row r="278" spans="1:17" ht="22">
+    <row r="278" spans="1:17" ht="22.5">
       <c r="A278" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A278" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E278),
@@ -49542,7 +49507,7 @@
       <c r="P278" s="86"/>
       <c r="Q278" s="86"/>
     </row>
-    <row r="279" spans="1:17" ht="22">
+    <row r="279" spans="1:17" ht="22.5">
       <c r="A279" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A279" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E279),
@@ -49584,7 +49549,7 @@
       <c r="P279" s="86"/>
       <c r="Q279" s="86"/>
     </row>
-    <row r="280" spans="1:17" ht="22">
+    <row r="280" spans="1:17" ht="22.5">
       <c r="A280" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A280" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E280),
@@ -49618,7 +49583,7 @@
       <c r="P280" s="86"/>
       <c r="Q280" s="86"/>
     </row>
-    <row r="281" spans="1:17" ht="22">
+    <row r="281" spans="1:17" ht="22.5">
       <c r="A281" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A281" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E281),
@@ -49652,7 +49617,7 @@
       <c r="P281" s="86"/>
       <c r="Q281" s="86"/>
     </row>
-    <row r="282" spans="1:17" ht="22">
+    <row r="282" spans="1:17" ht="22.5">
       <c r="A282" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A282" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E282),
@@ -49686,7 +49651,7 @@
       <c r="P282" s="86"/>
       <c r="Q282" s="86"/>
     </row>
-    <row r="283" spans="1:17" ht="22">
+    <row r="283" spans="1:17" ht="22.5">
       <c r="A283" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A283" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E283),
@@ -49726,7 +49691,7 @@
       <c r="P283" s="86"/>
       <c r="Q283" s="86"/>
     </row>
-    <row r="284" spans="1:17" ht="22">
+    <row r="284" spans="1:17" ht="22.5">
       <c r="A284" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A284" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E284),
@@ -49762,7 +49727,7 @@
       <c r="P284" s="86"/>
       <c r="Q284" s="86"/>
     </row>
-    <row r="285" spans="1:17" ht="22">
+    <row r="285" spans="1:17" ht="22.5">
       <c r="A285" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A285" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E285),
@@ -49798,7 +49763,7 @@
       <c r="P285" s="86"/>
       <c r="Q285" s="86"/>
     </row>
-    <row r="286" spans="1:17" ht="22">
+    <row r="286" spans="1:17" ht="22.5">
       <c r="A286" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A286" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E286),
@@ -49834,7 +49799,7 @@
       <c r="P286" s="86"/>
       <c r="Q286" s="86"/>
     </row>
-    <row r="287" spans="1:17" ht="22">
+    <row r="287" spans="1:17" ht="22.5">
       <c r="A287" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A287" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E287),
@@ -49872,7 +49837,7 @@
       <c r="P287" s="86"/>
       <c r="Q287" s="86"/>
     </row>
-    <row r="288" spans="1:17" ht="22">
+    <row r="288" spans="1:17" ht="22.5">
       <c r="A288" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A288" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E288),
@@ -49906,7 +49871,7 @@
       <c r="P288" s="86"/>
       <c r="Q288" s="86"/>
     </row>
-    <row r="289" spans="1:17" ht="33">
+    <row r="289" spans="1:17" ht="33.75">
       <c r="A289" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A289" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E289),
@@ -49940,7 +49905,7 @@
       <c r="P289" s="86"/>
       <c r="Q289" s="86"/>
     </row>
-    <row r="290" spans="1:17" ht="33">
+    <row r="290" spans="1:17" ht="33.75">
       <c r="A290" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A290" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E290),
@@ -49974,7 +49939,7 @@
       <c r="P290" s="86"/>
       <c r="Q290" s="86"/>
     </row>
-    <row r="291" spans="1:17" ht="33">
+    <row r="291" spans="1:17" ht="33.75">
       <c r="A291" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A291" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E291),
@@ -50008,7 +49973,7 @@
       <c r="P291" s="86"/>
       <c r="Q291" s="86"/>
     </row>
-    <row r="292" spans="1:17" ht="33">
+    <row r="292" spans="1:17" ht="33.75">
       <c r="A292" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A292" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E292),
@@ -50042,7 +50007,7 @@
       <c r="P292" s="86"/>
       <c r="Q292" s="86"/>
     </row>
-    <row r="293" spans="1:17" ht="33">
+    <row r="293" spans="1:17" ht="33.75">
       <c r="A293" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A293" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E293),
@@ -50076,7 +50041,7 @@
       <c r="P293" s="86"/>
       <c r="Q293" s="86"/>
     </row>
-    <row r="294" spans="1:17" ht="22">
+    <row r="294" spans="1:17" ht="22.5">
       <c r="A294" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A294" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E294),
@@ -50110,7 +50075,7 @@
       <c r="P294" s="86"/>
       <c r="Q294" s="86"/>
     </row>
-    <row r="295" spans="1:17" ht="22">
+    <row r="295" spans="1:17" ht="22.5">
       <c r="A295" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A295" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E295),
@@ -50144,7 +50109,7 @@
       <c r="P295" s="86"/>
       <c r="Q295" s="86"/>
     </row>
-    <row r="296" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="296" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A296" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A296" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E296),
@@ -50458,7 +50423,7 @@
       <c r="P304" s="72"/>
       <c r="Q304" s="72"/>
     </row>
-    <row r="305" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="305" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A305" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A305" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E305),
@@ -50594,7 +50559,7 @@
       <c r="P308" s="72"/>
       <c r="Q308" s="72"/>
     </row>
-    <row r="309" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="309" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A309" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A309" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E309),
@@ -50628,7 +50593,7 @@
       <c r="P309" s="72"/>
       <c r="Q309" s="72"/>
     </row>
-    <row r="310" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="310" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A310" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A310" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E310),
@@ -50662,7 +50627,7 @@
       <c r="P310" s="72"/>
       <c r="Q310" s="72"/>
     </row>
-    <row r="311" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="311" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A311" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A311" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E311),
@@ -50696,7 +50661,7 @@
       <c r="P311" s="72"/>
       <c r="Q311" s="72"/>
     </row>
-    <row r="312" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="312" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A312" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A312" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E312),
@@ -50730,7 +50695,7 @@
       <c r="P312" s="72"/>
       <c r="Q312" s="72"/>
     </row>
-    <row r="313" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="313" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A313" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A313" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E313),
@@ -50764,7 +50729,7 @@
       <c r="P313" s="72"/>
       <c r="Q313" s="72"/>
     </row>
-    <row r="314" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="314" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A314" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A314" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E314),
@@ -50798,7 +50763,7 @@
       <c r="P314" s="72"/>
       <c r="Q314" s="72"/>
     </row>
-    <row r="315" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="315" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A315" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A315" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E315),
@@ -50832,7 +50797,7 @@
       <c r="P315" s="72"/>
       <c r="Q315" s="72"/>
     </row>
-    <row r="316" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="316" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A316" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A316" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E316),
@@ -50866,7 +50831,7 @@
       <c r="P316" s="72"/>
       <c r="Q316" s="72"/>
     </row>
-    <row r="317" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="317" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A317" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A317" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E317),
@@ -50902,7 +50867,7 @@
       <c r="P317" s="72"/>
       <c r="Q317" s="72"/>
     </row>
-    <row r="318" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="318" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A318" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A318" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E318),
@@ -50936,7 +50901,7 @@
       <c r="P318" s="72"/>
       <c r="Q318" s="72"/>
     </row>
-    <row r="319" spans="1:17" ht="22">
+    <row r="319" spans="1:17" ht="22.5">
       <c r="A319" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A319" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E319),
@@ -50972,7 +50937,7 @@
       <c r="P319" s="108"/>
       <c r="Q319" s="108"/>
     </row>
-    <row r="320" spans="1:17" ht="22">
+    <row r="320" spans="1:17" ht="22.5">
       <c r="A320" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A320" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E320),
@@ -51006,7 +50971,7 @@
       <c r="P320" s="108"/>
       <c r="Q320" s="108"/>
     </row>
-    <row r="321" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="321" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A321" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A321" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E321),
@@ -51042,7 +51007,7 @@
       <c r="P321" s="72"/>
       <c r="Q321" s="72"/>
     </row>
-    <row r="322" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="322" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A322" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A322" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E322),
@@ -51078,7 +51043,7 @@
       <c r="P322" s="72"/>
       <c r="Q322" s="72"/>
     </row>
-    <row r="323" spans="1:17" ht="22">
+    <row r="323" spans="1:17" ht="22.5">
       <c r="A323" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A323" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E323),
@@ -51112,7 +51077,7 @@
       <c r="P323" s="86"/>
       <c r="Q323" s="86"/>
     </row>
-    <row r="324" spans="1:17" ht="33">
+    <row r="324" spans="1:17" ht="33.75">
       <c r="A324" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A324" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E324),
@@ -51146,7 +51111,7 @@
       <c r="P324" s="86"/>
       <c r="Q324" s="86"/>
     </row>
-    <row r="325" spans="1:17" ht="44">
+    <row r="325" spans="1:17" ht="45">
       <c r="A325" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A325" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E325),
@@ -51180,7 +51145,7 @@
       <c r="P325" s="86"/>
       <c r="Q325" s="86"/>
     </row>
-    <row r="326" spans="1:17" ht="33">
+    <row r="326" spans="1:17" ht="33.75">
       <c r="A326" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A326" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E326),
@@ -51214,7 +51179,7 @@
       <c r="P326" s="86"/>
       <c r="Q326" s="86"/>
     </row>
-    <row r="327" spans="1:17" ht="44">
+    <row r="327" spans="1:17" ht="45">
       <c r="A327" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A327" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E327),
@@ -51248,7 +51213,7 @@
       <c r="P327" s="86"/>
       <c r="Q327" s="86"/>
     </row>
-    <row r="328" spans="1:17" ht="33">
+    <row r="328" spans="1:17" ht="33.75">
       <c r="A328" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A328" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E328),
@@ -51282,7 +51247,7 @@
       <c r="P328" s="86"/>
       <c r="Q328" s="86"/>
     </row>
-    <row r="329" spans="1:17" ht="44">
+    <row r="329" spans="1:17" ht="45">
       <c r="A329" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A329" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E329),
@@ -51316,7 +51281,7 @@
       <c r="P329" s="86"/>
       <c r="Q329" s="86"/>
     </row>
-    <row r="330" spans="1:17" ht="22">
+    <row r="330" spans="1:17" ht="22.5">
       <c r="A330" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A330" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E330),
@@ -51350,7 +51315,7 @@
       <c r="P330" s="86"/>
       <c r="Q330" s="86"/>
     </row>
-    <row r="331" spans="1:17" ht="22">
+    <row r="331" spans="1:17" ht="22.5">
       <c r="A331" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A331" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E331),
@@ -51386,7 +51351,7 @@
       <c r="P331" s="86"/>
       <c r="Q331" s="86"/>
     </row>
-    <row r="332" spans="1:17" ht="22">
+    <row r="332" spans="1:17" ht="22.5">
       <c r="A332" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A332" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E332),
@@ -51422,7 +51387,7 @@
       <c r="P332" s="86"/>
       <c r="Q332" s="86"/>
     </row>
-    <row r="333" spans="1:17" ht="22">
+    <row r="333" spans="1:17" ht="22.5">
       <c r="A333" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A333" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E333),
@@ -51460,7 +51425,7 @@
       <c r="P333" s="86"/>
       <c r="Q333" s="86"/>
     </row>
-    <row r="334" spans="1:17" ht="22">
+    <row r="334" spans="1:17" ht="22.5">
       <c r="A334" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A334" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E334),
@@ -51496,7 +51461,7 @@
       <c r="P334" s="86"/>
       <c r="Q334" s="86"/>
     </row>
-    <row r="335" spans="1:17" ht="22">
+    <row r="335" spans="1:17" ht="22.5">
       <c r="A335" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A335" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E335),
@@ -51530,7 +51495,7 @@
       <c r="P335" s="86"/>
       <c r="Q335" s="86"/>
     </row>
-    <row r="336" spans="1:17" ht="22">
+    <row r="336" spans="1:17" ht="22.5">
       <c r="A336" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A336" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E336),
@@ -51564,7 +51529,7 @@
       <c r="P336" s="86"/>
       <c r="Q336" s="86"/>
     </row>
-    <row r="337" spans="1:17" ht="22">
+    <row r="337" spans="1:17" ht="22.5">
       <c r="A337" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A337" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E337),
@@ -51636,7 +51601,7 @@
       <c r="P338" s="86"/>
       <c r="Q338" s="86"/>
     </row>
-    <row r="339" spans="1:17" ht="22">
+    <row r="339" spans="1:17" ht="22.5">
       <c r="A339" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A339" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E339),
@@ -51670,7 +51635,7 @@
       <c r="P339" s="86"/>
       <c r="Q339" s="86"/>
     </row>
-    <row r="340" spans="1:17" ht="22">
+    <row r="340" spans="1:17" ht="22.5">
       <c r="A340" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A340" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E340),
@@ -51704,7 +51669,7 @@
       <c r="P340" s="86"/>
       <c r="Q340" s="86"/>
     </row>
-    <row r="341" spans="1:17" ht="22">
+    <row r="341" spans="1:17" ht="22.5">
       <c r="A341" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A341" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E341),
@@ -51742,7 +51707,7 @@
       <c r="P341" s="86"/>
       <c r="Q341" s="86"/>
     </row>
-    <row r="342" spans="1:17" ht="22">
+    <row r="342" spans="1:17" ht="22.5">
       <c r="A342" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A342" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E342),
@@ -51776,7 +51741,7 @@
       <c r="P342" s="86"/>
       <c r="Q342" s="86"/>
     </row>
-    <row r="343" spans="1:17" ht="22">
+    <row r="343" spans="1:17" ht="22.5">
       <c r="A343" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A343" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E343),
@@ -51810,7 +51775,7 @@
       <c r="P343" s="86"/>
       <c r="Q343" s="86"/>
     </row>
-    <row r="344" spans="1:17" ht="22">
+    <row r="344" spans="1:17" ht="22.5">
       <c r="A344" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A344" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E344),
@@ -51844,7 +51809,7 @@
       <c r="P344" s="86"/>
       <c r="Q344" s="86"/>
     </row>
-    <row r="345" spans="1:17" ht="22">
+    <row r="345" spans="1:17" ht="22.5">
       <c r="A345" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A345" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E345),
@@ -51878,7 +51843,7 @@
       <c r="P345" s="86"/>
       <c r="Q345" s="86"/>
     </row>
-    <row r="346" spans="1:17" ht="33">
+    <row r="346" spans="1:17" ht="33.75">
       <c r="A346" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A346" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E346),
@@ -51912,7 +51877,7 @@
       <c r="P346" s="86"/>
       <c r="Q346" s="86"/>
     </row>
-    <row r="347" spans="1:17" ht="22">
+    <row r="347" spans="1:17" ht="22.5">
       <c r="A347" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A347" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E347),
@@ -51946,7 +51911,7 @@
       <c r="P347" s="86"/>
       <c r="Q347" s="86"/>
     </row>
-    <row r="348" spans="1:17" ht="22">
+    <row r="348" spans="1:17" ht="22.5">
       <c r="A348" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A348" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E348),
@@ -51980,7 +51945,7 @@
       <c r="P348" s="86"/>
       <c r="Q348" s="86"/>
     </row>
-    <row r="349" spans="1:17" ht="22">
+    <row r="349" spans="1:17" ht="22.5">
       <c r="A349" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A349" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E349),
@@ -52014,7 +51979,7 @@
       <c r="P349" s="86"/>
       <c r="Q349" s="86"/>
     </row>
-    <row r="350" spans="1:17" ht="22">
+    <row r="350" spans="1:17" ht="22.5">
       <c r="A350" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A350" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E350),
@@ -52048,7 +52013,7 @@
       <c r="P350" s="86"/>
       <c r="Q350" s="86"/>
     </row>
-    <row r="351" spans="1:17" ht="22">
+    <row r="351" spans="1:17" ht="22.5">
       <c r="A351" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A351" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E351),
@@ -52082,7 +52047,7 @@
       <c r="P351" s="86"/>
       <c r="Q351" s="86"/>
     </row>
-    <row r="352" spans="1:17" ht="22">
+    <row r="352" spans="1:17" ht="22.5">
       <c r="A352" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A352" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E352),
@@ -52116,7 +52081,7 @@
       <c r="P352" s="86"/>
       <c r="Q352" s="86"/>
     </row>
-    <row r="353" spans="1:17" ht="22">
+    <row r="353" spans="1:17" ht="22.5">
       <c r="A353" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A353" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E353),
@@ -52150,7 +52115,7 @@
       <c r="P353" s="86"/>
       <c r="Q353" s="86"/>
     </row>
-    <row r="354" spans="1:17" ht="22">
+    <row r="354" spans="1:17" ht="22.5">
       <c r="A354" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A354" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E354),
@@ -52184,7 +52149,7 @@
       <c r="P354" s="86"/>
       <c r="Q354" s="86"/>
     </row>
-    <row r="355" spans="1:17" ht="22">
+    <row r="355" spans="1:17" ht="22.5">
       <c r="A355" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A355" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E355),
@@ -52220,7 +52185,7 @@
       <c r="P355" s="86"/>
       <c r="Q355" s="86"/>
     </row>
-    <row r="356" spans="1:17" ht="33">
+    <row r="356" spans="1:17" ht="33.75">
       <c r="A356" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A356" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E356),
@@ -52254,7 +52219,7 @@
       <c r="P356" s="86"/>
       <c r="Q356" s="86"/>
     </row>
-    <row r="357" spans="1:17" ht="33">
+    <row r="357" spans="1:17" ht="33.75">
       <c r="A357" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A357" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E357),
@@ -52288,7 +52253,7 @@
       <c r="P357" s="86"/>
       <c r="Q357" s="86"/>
     </row>
-    <row r="358" spans="1:17" ht="33">
+    <row r="358" spans="1:17" ht="33.75">
       <c r="A358" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A358" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E358),
@@ -52322,7 +52287,7 @@
       <c r="P358" s="86"/>
       <c r="Q358" s="86"/>
     </row>
-    <row r="359" spans="1:17" ht="22">
+    <row r="359" spans="1:17" ht="22.5">
       <c r="A359" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A359" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E359),
@@ -52356,7 +52321,7 @@
       <c r="P359" s="86"/>
       <c r="Q359" s="86"/>
     </row>
-    <row r="360" spans="1:17" ht="22">
+    <row r="360" spans="1:17" ht="22.5">
       <c r="A360" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A360" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E360),
@@ -52390,7 +52355,7 @@
       <c r="P360" s="86"/>
       <c r="Q360" s="86"/>
     </row>
-    <row r="361" spans="1:17" ht="22">
+    <row r="361" spans="1:17" ht="22.5">
       <c r="A361" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A361" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E361),
@@ -52424,7 +52389,7 @@
       <c r="P361" s="86"/>
       <c r="Q361" s="86"/>
     </row>
-    <row r="362" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="362" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A362" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A362" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E362),
@@ -52466,7 +52431,7 @@
       <c r="P362" s="218"/>
       <c r="Q362" s="218"/>
     </row>
-    <row r="363" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="363" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A363" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A363" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E363),
@@ -52500,7 +52465,7 @@
       <c r="P363" s="198"/>
       <c r="Q363" s="198"/>
     </row>
-    <row r="364" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="364" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A364" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A364" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E364),
@@ -52534,7 +52499,7 @@
       <c r="P364" s="198"/>
       <c r="Q364" s="198"/>
     </row>
-    <row r="365" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="365" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A365" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A365" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E365),
@@ -52568,7 +52533,7 @@
       <c r="P365" s="198"/>
       <c r="Q365" s="198"/>
     </row>
-    <row r="366" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="366" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A366" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A366" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E366),
@@ -52674,7 +52639,7 @@
       <c r="P368" s="198"/>
       <c r="Q368" s="198"/>
     </row>
-    <row r="369" spans="1:17" s="30" customFormat="1" ht="33">
+    <row r="369" spans="1:17" s="30" customFormat="1" ht="33.75">
       <c r="A369" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A369" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E369),
@@ -52708,7 +52673,7 @@
       <c r="P369" s="198"/>
       <c r="Q369" s="198"/>
     </row>
-    <row r="370" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="370" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A370" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A370" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E370),
@@ -52776,7 +52741,7 @@
       <c r="P371" s="198"/>
       <c r="Q371" s="198"/>
     </row>
-    <row r="372" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="372" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A372" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A372" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E372),
@@ -52816,7 +52781,7 @@
       <c r="P372" s="157"/>
       <c r="Q372" s="157"/>
     </row>
-    <row r="373" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="373" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A373" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A373" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E373),
@@ -52918,7 +52883,7 @@
       <c r="P375" s="157"/>
       <c r="Q375" s="157"/>
     </row>
-    <row r="376" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="376" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A376" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A376" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E376),
@@ -52952,7 +52917,7 @@
       <c r="P376" s="157"/>
       <c r="Q376" s="157"/>
     </row>
-    <row r="377" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="377" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A377" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A377" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E377),
@@ -52986,7 +52951,7 @@
       <c r="P377" s="157"/>
       <c r="Q377" s="157"/>
     </row>
-    <row r="378" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="378" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A378" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A378" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E378),
@@ -53024,7 +52989,7 @@
       <c r="P378" s="157"/>
       <c r="Q378" s="157"/>
     </row>
-    <row r="379" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="379" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A379" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A379" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E379),
@@ -53062,7 +53027,7 @@
       <c r="P379" s="157"/>
       <c r="Q379" s="157"/>
     </row>
-    <row r="380" spans="1:17" s="30" customFormat="1" ht="22">
+    <row r="380" spans="1:17" s="30" customFormat="1" ht="22.5">
       <c r="A380" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A380" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E380),
@@ -53100,7 +53065,7 @@
       <c r="P380" s="247"/>
       <c r="Q380" s="247"/>
     </row>
-    <row r="381" spans="1:17" ht="22">
+    <row r="381" spans="1:17" ht="22.5">
       <c r="A381" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A381" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E381),
@@ -53142,7 +53107,7 @@
       <c r="P381" s="86"/>
       <c r="Q381" s="86"/>
     </row>
-    <row r="382" spans="1:17" ht="22">
+    <row r="382" spans="1:17" ht="22.5">
       <c r="A382" s="233" t="str" cm="1">
         <f t="array" aca="1" ref="A382" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E382),
@@ -53190,7 +53155,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="59" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;"ＭＳ 明朝,標準"&amp;9- &amp;P -</oddFooter>
   </headerFooter>
@@ -53211,17 +53176,17 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="8.58203125" style="24" customWidth="1"/>
-    <col min="2" max="3" width="10.58203125" style="24" customWidth="1"/>
-    <col min="4" max="5" width="15.58203125" style="25" customWidth="1"/>
-    <col min="6" max="6" width="60.58203125" style="24" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="15.58203125" style="24" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="20.58203125" style="24" customWidth="1"/>
-    <col min="9" max="10" width="30.58203125" style="24" customWidth="1"/>
-    <col min="11" max="11" width="20.58203125" style="24" customWidth="1"/>
-    <col min="12" max="14" width="8.58203125" style="24" customWidth="1"/>
+    <col min="1" max="1" width="8.625" style="24" customWidth="1"/>
+    <col min="2" max="3" width="10.625" style="24" customWidth="1"/>
+    <col min="4" max="5" width="15.625" style="25" customWidth="1"/>
+    <col min="6" max="6" width="60.625" style="24" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="15.625" style="24" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.625" style="24" customWidth="1"/>
+    <col min="9" max="10" width="30.625" style="24" customWidth="1"/>
+    <col min="11" max="11" width="20.625" style="24" customWidth="1"/>
+    <col min="12" max="14" width="8.625" style="24" customWidth="1"/>
     <col min="15" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
@@ -53264,7 +53229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="11.5" thickBot="1">
+    <row r="8" spans="1:16" ht="12" thickBot="1">
       <c r="A8" s="26"/>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
@@ -53282,7 +53247,7 @@
       <c r="O8" s="26"/>
       <c r="P8" s="26"/>
     </row>
-    <row r="9" spans="1:16" ht="11.5" thickTop="1">
+    <row r="9" spans="1:16" ht="12" thickTop="1">
       <c r="F9" s="25"/>
     </row>
     <row r="10" spans="1:16" s="30" customFormat="1">
@@ -53335,7 +53300,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="30" customFormat="1" ht="77">
+    <row r="11" spans="1:16" s="30" customFormat="1" ht="78.75">
       <c r="A11" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A11" ca="1">_xlfn.LET(
 _xlpm.確認観点2数, COUNTA($D$11:D11),
@@ -53511,7 +53476,7 @@
       <c r="O15" s="75"/>
       <c r="P15" s="75"/>
     </row>
-    <row r="16" spans="1:16" s="30" customFormat="1" ht="22">
+    <row r="16" spans="1:16" s="30" customFormat="1" ht="22.5">
       <c r="A16" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A16" ca="1">_xlfn.LET(
 _xlpm.確認観点2数, COUNTA($D$11:D16),
@@ -53613,7 +53578,7 @@
       <c r="O18" s="75"/>
       <c r="P18" s="75"/>
     </row>
-    <row r="19" spans="1:16" s="30" customFormat="1" ht="22">
+    <row r="19" spans="1:16" s="30" customFormat="1" ht="22.5">
       <c r="A19" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A19" ca="1">_xlfn.LET(
 _xlpm.確認観点2数, COUNTA($D$11:D19),
@@ -53649,7 +53614,7 @@
       <c r="O19" s="75"/>
       <c r="P19" s="75"/>
     </row>
-    <row r="20" spans="1:16" s="30" customFormat="1" ht="66">
+    <row r="20" spans="1:16" s="30" customFormat="1" ht="67.5">
       <c r="A20" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A20" ca="1">_xlfn.LET(
 _xlpm.確認観点2数, COUNTA($D$11:D20),
@@ -53691,7 +53656,7 @@
       <c r="O20" s="252"/>
       <c r="P20" s="252"/>
     </row>
-    <row r="21" spans="1:16" s="30" customFormat="1" ht="13">
+    <row r="21" spans="1:16" s="30" customFormat="1" ht="13.5">
       <c r="A21" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A21" ca="1">_xlfn.LET(
 _xlpm.確認観点2数, COUNTA($D$11:D21),
@@ -53795,7 +53760,7 @@
       <c r="O23" s="75"/>
       <c r="P23" s="75"/>
     </row>
-    <row r="24" spans="1:16" s="30" customFormat="1" ht="22">
+    <row r="24" spans="1:16" s="30" customFormat="1" ht="22.5">
       <c r="A24" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A24" ca="1">_xlfn.LET(
 _xlpm.確認観点2数, COUNTA($D$11:D24),
@@ -53863,7 +53828,7 @@
       <c r="O25" s="75"/>
       <c r="P25" s="75"/>
     </row>
-    <row r="26" spans="1:16" s="30" customFormat="1" ht="22">
+    <row r="26" spans="1:16" s="30" customFormat="1" ht="22.5">
       <c r="A26" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A26" ca="1">_xlfn.LET(
 _xlpm.確認観点2数, COUNTA($D$11:D26),
@@ -53929,7 +53894,7 @@
       <c r="O27" s="75"/>
       <c r="P27" s="75"/>
     </row>
-    <row r="28" spans="1:16" s="30" customFormat="1" ht="22">
+    <row r="28" spans="1:16" s="30" customFormat="1" ht="22.5">
       <c r="A28" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A28" ca="1">_xlfn.LET(
 _xlpm.確認観点2数, COUNTA($D$11:D28),
@@ -53967,7 +53932,7 @@
       <c r="O28" s="75"/>
       <c r="P28" s="75"/>
     </row>
-    <row r="29" spans="1:16" s="30" customFormat="1" ht="23" customHeight="1">
+    <row r="29" spans="1:16" s="30" customFormat="1" ht="23.1" customHeight="1">
       <c r="A29" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="A29" ca="1">_xlfn.LET(
 _xlpm.確認観点2数, COUNTA($D$11:D29),
